--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAD283-2972-4635-8E8A-01D72E020CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Mevsimlik Ürünler Hariç TÜFE</t>
   </si>
@@ -99,12 +93,18 @@
   <si>
     <t>Diğer hizmetler</t>
   </si>
+  <si>
+    <t>TÜFE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -171,21 +170,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -257,7 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -292,10 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,19 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,9 +543,12 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -580,13 +567,13 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91000000000003</v>
+        <v>284.91</v>
       </c>
       <c r="H2">
-        <v>299.58999999999997</v>
+        <v>299.59</v>
       </c>
       <c r="I2">
-        <v>319.35000000000002</v>
+        <v>319.35</v>
       </c>
       <c r="J2">
         <v>292.5</v>
@@ -598,7 +585,7 @@
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.77999999999997</v>
+        <v>299.78</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -622,7 +609,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.57000000000005</v>
+        <v>588.5700000000001</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -634,7 +621,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41000000000003</v>
+        <v>318.41</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -642,22 +629,25 @@
       <c r="AA2">
         <v>306.45</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="AB2">
+        <v>292.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97000000000003</v>
+        <v>262.97</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.27999999999997</v>
+        <v>276.28</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -717,7 +707,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22000000000003</v>
+        <v>325.22</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -725,25 +715,28 @@
       <c r="AA3">
         <v>313.88</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="AB3">
+        <v>299.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.08999999999997</v>
+        <v>265.09</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85000000000002</v>
+        <v>278.85</v>
       </c>
       <c r="F4">
-        <v>293.52999999999997</v>
+        <v>293.53</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -764,7 +757,7 @@
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.10000000000002</v>
+        <v>307.1</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -788,10 +781,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58000000000004</v>
+        <v>612.58</v>
       </c>
       <c r="V4">
-        <v>320.77999999999997</v>
+        <v>320.78</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -808,13 +801,16 @@
       <c r="AA4">
         <v>315.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="AB4">
+        <v>302.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.64999999999998</v>
+        <v>313.65</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -823,16 +819,16 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.14999999999998</v>
+        <v>281.15</v>
       </c>
       <c r="F5">
-        <v>296.70999999999998</v>
+        <v>296.71</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91000000000003</v>
+        <v>311.91</v>
       </c>
       <c r="I5">
         <v>349.18</v>
@@ -853,10 +849,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79000000000002</v>
+        <v>295.79</v>
       </c>
       <c r="P5">
-        <v>256.08999999999997</v>
+        <v>256.09</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -871,7 +867,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.42999999999995</v>
+        <v>612.4299999999999</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -891,19 +887,22 @@
       <c r="AA5">
         <v>318.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="AB5">
+        <v>305.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22000000000003</v>
+        <v>316.22</v>
       </c>
       <c r="C6">
-        <v>272.91000000000003</v>
+        <v>272.91</v>
       </c>
       <c r="D6">
-        <v>264.14999999999998</v>
+        <v>264.15</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -972,18 +971,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.60000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+        <v>320.6</v>
+      </c>
+      <c r="AB6">
+        <v>309.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66000000000003</v>
+        <v>317.66</v>
       </c>
       <c r="C7">
-        <v>276.33999999999997</v>
+        <v>276.34</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -992,7 +994,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.89999999999998</v>
+        <v>302.9</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1022,7 +1024,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85000000000002</v>
+        <v>265.85</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1052,33 +1054,36 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.69999999999999</v>
+        <v>152.7</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="AB7">
+        <v>310.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.45999999999998</v>
+        <v>318.46</v>
       </c>
       <c r="C8">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.33999999999997</v>
+        <v>287.34</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.52999999999997</v>
+        <v>302.53</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1105,7 +1110,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1140,9 +1145,12 @@
       <c r="AA8">
         <v>325.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="AB8">
+        <v>309.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1188,7 +1196,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29000000000002</v>
+        <v>264.29</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1223,9 +1231,12 @@
       <c r="AA9">
         <v>329.14</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="AB9">
+        <v>310.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1262,7 +1273,7 @@
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.95999999999998</v>
+        <v>323.96</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1271,7 +1282,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1306,16 +1317,19 @@
       <c r="AA10">
         <v>332.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="AB10">
+        <v>311.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.39999999999998</v>
+        <v>282.4</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1324,13 +1338,13 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41000000000003</v>
+        <v>315.41</v>
       </c>
       <c r="I11">
         <v>343.79</v>
@@ -1384,14 +1398,17 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="AB11">
+        <v>313.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1404,13 +1421,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29000000000002</v>
+        <v>300.29</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.83999999999997</v>
+        <v>312.84</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1434,7 +1451,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.52999999999997</v>
+        <v>319.53</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1452,7 +1469,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.29999999999995</v>
+        <v>619.3</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1467,21 +1484,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="AB12">
+        <v>320.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.83999999999997</v>
+        <v>291.84</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1520,7 +1540,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.95999999999998</v>
+        <v>281.96</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1555,9 +1575,12 @@
       <c r="AA13">
         <v>334.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="AB13">
+        <v>325.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1567,13 +1590,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.89999999999998</v>
+        <v>283.9</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35000000000002</v>
+        <v>321.35</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1600,7 +1623,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79000000000002</v>
+        <v>324.79</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1638,16 +1661,19 @@
       <c r="AA14">
         <v>335.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="AB14">
+        <v>327.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.33999999999997</v>
+        <v>295.34</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1686,7 +1712,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1698,7 +1724,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54000000000002</v>
+        <v>257.54</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1721,16 +1747,19 @@
       <c r="AA15">
         <v>344.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="AB15">
+        <v>330.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.58999999999997</v>
+        <v>297.59</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1769,7 +1798,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35000000000002</v>
+        <v>283.35</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1781,7 +1810,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72000000000003</v>
+        <v>261.72</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1804,9 +1833,12 @@
       <c r="AA16">
         <v>348.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="AB16">
+        <v>333.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1819,7 +1851,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.14999999999998</v>
+        <v>313.15</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1864,7 +1896,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1887,9 +1919,12 @@
       <c r="AA17">
         <v>350.13</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="AB17">
+        <v>336.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1947,10 +1982,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97000000000003</v>
+        <v>268.97</v>
       </c>
       <c r="U18">
-        <v>638.67999999999995</v>
+        <v>638.6799999999999</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -1970,9 +2005,12 @@
       <c r="AA18">
         <v>353.76</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="AB18">
+        <v>342.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2030,7 +2068,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.02999999999997</v>
+        <v>272.03</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2053,9 +2091,12 @@
       <c r="AA19">
         <v>357.88</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="AB19">
+        <v>348.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2113,10 +2154,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.52999999999997</v>
+        <v>277.53</v>
       </c>
       <c r="U20">
-        <v>652.07000000000005</v>
+        <v>652.0700000000001</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2125,7 +2166,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.91999999999996</v>
+        <v>517.92</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2136,16 +2177,19 @@
       <c r="AA20">
         <v>362.42</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="AB20">
+        <v>357.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04000000000002</v>
+        <v>320.04</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2184,7 +2228,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47000000000003</v>
+        <v>309.47</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2196,7 +2240,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.08999999999997</v>
+        <v>283.09</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2214,14 +2258,17 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.97999999999999</v>
+        <v>160.98</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="AB21">
+        <v>359.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2231,7 +2278,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.08999999999997</v>
+        <v>317.09</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2270,7 +2317,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.27999999999997</v>
+        <v>261.28</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2291,7 +2338,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58000000000004</v>
+        <v>539.58</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2302,9 +2349,12 @@
       <c r="AA22">
         <v>372.58</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="AB22">
+        <v>367.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2353,16 +2403,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.64999999999998</v>
+        <v>288.65</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.20999999999998</v>
+        <v>287.21</v>
       </c>
       <c r="T23">
-        <v>325.52999999999997</v>
+        <v>325.53</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2374,7 +2424,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.29999999999995</v>
+        <v>565.3</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2385,9 +2435,12 @@
       <c r="AA23">
         <v>382.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="AB23">
+        <v>390.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2436,7 +2489,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.14999999999998</v>
+        <v>300.15</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2468,9 +2521,12 @@
       <c r="AA24">
         <v>387.07</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="AB24">
+        <v>401.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2551,9 +2607,12 @@
       <c r="AA25">
         <v>387</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="AB25">
+        <v>395.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2623,7 +2682,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.07000000000005</v>
+        <v>578.0700000000001</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2634,9 +2693,12 @@
       <c r="AA26">
         <v>387.37</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="AB26">
+        <v>393.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2670,7 +2732,7 @@
         <v>560.37</v>
       </c>
       <c r="L27">
-        <v>520.08000000000004</v>
+        <v>520.08</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2685,7 +2747,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97000000000003</v>
+        <v>280.97</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2717,9 +2779,12 @@
       <c r="AA27">
         <v>403.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="AB27">
+        <v>398.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2747,7 +2812,7 @@
         <v>488.24</v>
       </c>
       <c r="J28">
-        <v>644.29999999999995</v>
+        <v>644.3</v>
       </c>
       <c r="K28">
         <v>567.98</v>
@@ -2800,9 +2865,12 @@
       <c r="AA28">
         <v>406.39</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="AB28">
+        <v>398.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2833,7 +2901,7 @@
         <v>702.92</v>
       </c>
       <c r="K29">
-        <v>593.55999999999995</v>
+        <v>593.5599999999999</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2851,7 +2919,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85000000000002</v>
+        <v>277.85</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2872,7 +2940,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.30999999999995</v>
+        <v>593.3099999999999</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2883,9 +2951,12 @@
       <c r="AA29">
         <v>410.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="AB29">
+        <v>402.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -2919,7 +2990,7 @@
         <v>604.12</v>
       </c>
       <c r="L30">
-        <v>563.91999999999996</v>
+        <v>563.92</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -2934,7 +3005,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.20999999999998</v>
+        <v>284.21</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -2966,9 +3037,12 @@
       <c r="AA30">
         <v>413.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="AB30">
+        <v>409.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -2996,13 +3070,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
-        <v>575.67999999999995</v>
+        <v>575.6799999999999</v>
       </c>
       <c r="K31">
         <v>575.66</v>
       </c>
       <c r="L31">
-        <v>579.45000000000005</v>
+        <v>579.45</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3017,13 +3091,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41000000000003</v>
+        <v>288.41</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.10000000000002</v>
+        <v>261.1</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3049,9 +3123,12 @@
       <c r="AA31">
         <v>418.99</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="AB31">
+        <v>413.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3132,9 +3209,12 @@
       <c r="AA32">
         <v>423.69</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="AB32">
+        <v>413.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3168,7 +3248,7 @@
         <v>521.02</v>
       </c>
       <c r="L33">
-        <v>559.55999999999995</v>
+        <v>559.5599999999999</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3183,7 +3263,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16000000000003</v>
+        <v>298.16</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3215,9 +3295,12 @@
       <c r="AA33">
         <v>427.04</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="AB33">
+        <v>419.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3266,7 +3349,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29000000000002</v>
+        <v>295.29</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3298,9 +3381,12 @@
       <c r="AA34">
         <v>434.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="AB34">
+        <v>422.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3361,13 +3447,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.57</v>
+        <v>942.5700000000001</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.79999999999995</v>
+        <v>515.8</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3381,9 +3467,12 @@
       <c r="AA35">
         <v>436.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="AB35">
+        <v>427.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3432,10 +3521,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="R36">
-        <v>261.58999999999997</v>
+        <v>261.59</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3444,7 +3533,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.32</v>
+        <v>943.3200000000001</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3464,9 +3553,12 @@
       <c r="AA36">
         <v>436.85</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="AB36">
+        <v>435.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3500,7 +3592,7 @@
         <v>509.17</v>
       </c>
       <c r="L37">
-        <v>534.05999999999995</v>
+        <v>534.0599999999999</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3518,10 +3610,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72000000000003</v>
+        <v>268.72</v>
       </c>
       <c r="S37">
-        <v>281.39999999999998</v>
+        <v>281.4</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3547,9 +3639,12 @@
       <c r="AA37">
         <v>437.83</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="AB37">
+        <v>437.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3580,7 +3675,7 @@
         <v>502.4</v>
       </c>
       <c r="K38">
-        <v>529.30999999999995</v>
+        <v>529.3099999999999</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3619,7 +3714,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.17999999999995</v>
+        <v>654.1799999999999</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3630,9 +3725,12 @@
       <c r="AA38">
         <v>439.27</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="AB38">
+        <v>440.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3660,13 +3758,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>604.20000000000005</v>
+        <v>604.2</v>
       </c>
       <c r="K39">
-        <v>572.80999999999995</v>
+        <v>572.8099999999999</v>
       </c>
       <c r="L39">
-        <v>559.92999999999995</v>
+        <v>559.9299999999999</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3693,7 +3791,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.44</v>
+        <v>954.4400000000001</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3713,9 +3811,12 @@
       <c r="AA39">
         <v>456.91</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="AB39">
+        <v>446.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3776,7 +3877,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.81</v>
+        <v>952.8099999999999</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3785,7 +3886,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.69</v>
+        <v>668.6900000000001</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3796,9 +3897,12 @@
       <c r="AA40">
         <v>461.87</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="AB40">
+        <v>448.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3823,7 +3927,7 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.41999999999996</v>
+        <v>550.42</v>
       </c>
       <c r="J41">
         <v>656.84</v>
@@ -3832,7 +3936,7 @@
         <v>613.34</v>
       </c>
       <c r="L41">
-        <v>593.92999999999995</v>
+        <v>593.9299999999999</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3865,7 +3969,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.69000000000005</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -3879,9 +3983,12 @@
       <c r="AA41">
         <v>464.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="AB41">
+        <v>450.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -3906,7 +4013,7 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.32000000000005</v>
+        <v>564.3200000000001</v>
       </c>
       <c r="J42">
         <v>662.83</v>
@@ -3915,7 +4022,7 @@
         <v>635.72</v>
       </c>
       <c r="L42">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -3948,10 +4055,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.94000000000005</v>
+        <v>540.9400000000001</v>
       </c>
       <c r="X42">
-        <v>675.32</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -3962,9 +4069,12 @@
       <c r="AA42">
         <v>466.42</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="AB42">
+        <v>454.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -3989,7 +4099,7 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.67999999999995</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="J43">
         <v>641.12</v>
@@ -4004,7 +4114,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.55999999999995</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4019,7 +4129,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.77999999999997</v>
+        <v>294.78</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4034,7 +4144,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.43</v>
+        <v>676.4299999999999</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4045,9 +4155,12 @@
       <c r="AA43">
         <v>471.29</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="AB43">
+        <v>460.62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4075,7 +4188,7 @@
         <v>556.61</v>
       </c>
       <c r="J44">
-        <v>593.05999999999995</v>
+        <v>593.0599999999999</v>
       </c>
       <c r="K44">
         <v>610.1</v>
@@ -4102,7 +4215,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.27999999999997</v>
+        <v>303.28</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4128,9 +4241,12 @@
       <c r="AA44">
         <v>477.43</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="AB44">
+        <v>465.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4161,7 +4277,7 @@
         <v>545.16</v>
       </c>
       <c r="K45">
-        <v>593.20000000000005</v>
+        <v>593.2</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4197,7 +4313,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.94000000000005</v>
+        <v>551.9400000000001</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4211,9 +4327,12 @@
       <c r="AA45">
         <v>485.14</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="AB45">
+        <v>468.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4241,10 +4360,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>539.79999999999995</v>
+        <v>539.8</v>
       </c>
       <c r="K46">
-        <v>587.08000000000004</v>
+        <v>587.08</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4253,7 +4372,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95000000000005</v>
+        <v>552.95</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4274,7 +4393,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.6199999999999</v>
+        <v>1063.62</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4294,9 +4413,12 @@
       <c r="AA46">
         <v>491.75</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="AB46">
+        <v>472.61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4327,10 +4449,10 @@
         <v>550.48</v>
       </c>
       <c r="K47">
-        <v>585.70000000000005</v>
+        <v>585.7</v>
       </c>
       <c r="L47">
-        <v>610.67999999999995</v>
+        <v>610.6799999999999</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4377,9 +4499,12 @@
       <c r="AA47">
         <v>495.59</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="AB47">
+        <v>477.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4410,13 +4535,13 @@
         <v>592</v>
       </c>
       <c r="K48">
-        <v>608.95000000000005</v>
+        <v>608.95</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.20000000000005</v>
+        <v>531.2</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4446,7 +4571,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45000000000005</v>
+        <v>565.45</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4460,13 +4585,16 @@
       <c r="AA48">
         <v>500.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="AB48">
+        <v>487.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83000000000004</v>
+        <v>516.83</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4487,7 +4615,7 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.07000000000005</v>
+        <v>593.0700000000001</v>
       </c>
       <c r="J49">
         <v>642.79</v>
@@ -4496,7 +4624,7 @@
         <v>646.77</v>
       </c>
       <c r="L49">
-        <v>654.55999999999995</v>
+        <v>654.5599999999999</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4543,13 +4671,16 @@
       <c r="AA49">
         <v>502.91</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="AB49">
+        <v>498.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="2">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.05999999999995</v>
+        <v>524.0599999999999</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4570,10 +4701,10 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.05999999999995</v>
+        <v>608.0599999999999</v>
       </c>
       <c r="J50">
-        <v>672.81</v>
+        <v>672.8099999999999</v>
       </c>
       <c r="K50">
         <v>668.72</v>
@@ -4585,7 +4716,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58000000000004</v>
+        <v>607.58</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4626,9 +4757,12 @@
       <c r="AA50">
         <v>505.79</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="AB50">
+        <v>504.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="2">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4647,7 +4781,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.16999999999996</v>
+        <v>519.17</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4665,7 +4799,7 @@
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.17999999999995</v>
+        <v>573.1799999999999</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4695,7 +4829,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.19000000000005</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4709,13 +4843,16 @@
       <c r="AA51">
         <v>520.77</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="AB51">
+        <v>513.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="2">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.92999999999995</v>
+        <v>539.9299999999999</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4727,7 +4864,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.07000000000005</v>
+        <v>512.0700000000001</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4736,7 +4873,7 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.20000000000005</v>
+        <v>639.2</v>
       </c>
       <c r="J52">
         <v>700.64</v>
@@ -4748,13 +4885,13 @@
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.17999999999995</v>
+        <v>586.1799999999999</v>
       </c>
       <c r="N52">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="O52">
-        <v>560.69000000000005</v>
+        <v>560.6900000000001</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4778,7 +4915,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08000000000004</v>
+        <v>585.08</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4790,11 +4927,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.70000000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+        <v>526.7</v>
+      </c>
+      <c r="AB52">
+        <v>517.96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="2">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4810,7 +4950,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83000000000004</v>
+        <v>517.83</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4834,7 +4974,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.30999999999995</v>
+        <v>633.3099999999999</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -4855,13 +4995,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4000000000001</v>
+        <v>1064.4</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.44000000000005</v>
+        <v>588.4400000000001</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -4875,9 +5015,12 @@
       <c r="AA53">
         <v>532.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="AB53">
+        <v>523.53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="2">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -4893,7 +5036,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.67999999999995</v>
+        <v>527.6799999999999</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -4929,7 +5072,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.45999999999998</v>
+        <v>271.46</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -4944,7 +5087,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.92999999999995</v>
+        <v>591.9299999999999</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -4958,9 +5101,12 @@
       <c r="AA54">
         <v>537.27</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="AB54">
+        <v>532.3200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="2">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -4997,13 +5143,13 @@
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.69000000000005</v>
+        <v>602.6900000000001</v>
       </c>
       <c r="N55">
-        <v>644.08000000000004</v>
+        <v>644.08</v>
       </c>
       <c r="O55">
-        <v>576.16999999999996</v>
+        <v>576.17</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5021,13 +5167,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.1199999999999</v>
+        <v>1095.12</v>
       </c>
       <c r="V55">
-        <v>523.95000000000005</v>
+        <v>523.95</v>
       </c>
       <c r="W55">
-        <v>596.16999999999996</v>
+        <v>596.17</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5041,9 +5187,12 @@
       <c r="AA55">
         <v>541.04</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="AB55">
+        <v>537.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="2">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5059,10 +5208,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.94000000000005</v>
+        <v>544.9400000000001</v>
       </c>
       <c r="G56">
-        <v>554.44000000000005</v>
+        <v>554.4400000000001</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5074,7 +5223,7 @@
         <v>651.91</v>
       </c>
       <c r="K56">
-        <v>724.18</v>
+        <v>724.1799999999999</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5083,7 +5232,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.92999999999995</v>
+        <v>653.9299999999999</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5095,7 +5244,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5122,11 +5271,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.17999999999995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+        <v>551.1799999999999</v>
+      </c>
+      <c r="AB56">
+        <v>547.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="2">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5145,10 +5297,10 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.41999999999996</v>
+        <v>565.42</v>
       </c>
       <c r="H57">
-        <v>535.44000000000005</v>
+        <v>535.4400000000001</v>
       </c>
       <c r="I57">
         <v>686.41</v>
@@ -5157,7 +5309,7 @@
         <v>688.35</v>
       </c>
       <c r="K57">
-        <v>745.82</v>
+        <v>745.8200000000001</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5166,7 +5318,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.06</v>
+        <v>673.0599999999999</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5178,7 +5330,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5190,10 +5342,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.20000000000005</v>
+        <v>541.2</v>
       </c>
       <c r="W57">
-        <v>606.67999999999995</v>
+        <v>606.6799999999999</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5207,13 +5359,16 @@
       <c r="AA57">
         <v>558.53</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="AB57">
+        <v>557.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="2">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.91999999999996</v>
+        <v>587.92</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5222,16 +5377,16 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.66999999999996</v>
+        <v>520.67</v>
       </c>
       <c r="F58">
-        <v>559.69000000000005</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.82000000000005</v>
+        <v>538.8200000000001</v>
       </c>
       <c r="I58">
         <v>708.25</v>
@@ -5240,16 +5395,16 @@
         <v>757.76</v>
       </c>
       <c r="K58">
-        <v>777.56</v>
+        <v>777.5599999999999</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.54999999999995</v>
+        <v>644.55</v>
       </c>
       <c r="N58">
-        <v>685.18</v>
+        <v>685.1799999999999</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5290,13 +5445,16 @@
       <c r="AA58">
         <v>563.63</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="AB58">
+        <v>563.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="2">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08000000000004</v>
+        <v>597.08</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5314,7 +5472,7 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.70000000000005</v>
+        <v>550.7</v>
       </c>
       <c r="I59">
         <v>711.76</v>
@@ -5326,16 +5484,16 @@
         <v>773.47</v>
       </c>
       <c r="L59">
-        <v>802.32</v>
+        <v>802.3200000000001</v>
       </c>
       <c r="M59">
-        <v>653.95000000000005</v>
+        <v>653.95</v>
       </c>
       <c r="N59">
-        <v>702.56</v>
+        <v>702.5599999999999</v>
       </c>
       <c r="O59">
-        <v>623.42999999999995</v>
+        <v>623.4299999999999</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5344,7 +5502,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.33999999999997</v>
+        <v>267.34</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5353,7 +5511,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.8699999999999</v>
+        <v>1094.87</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5365,7 +5523,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.91999999999996</v>
+        <v>573.92</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5373,16 +5531,19 @@
       <c r="AA59">
         <v>572.28</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="AB59">
+        <v>570.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="2">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.70000000000005</v>
+        <v>609.7</v>
       </c>
       <c r="C60">
-        <v>512.91999999999996</v>
+        <v>512.92</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5394,7 +5555,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.55999999999995</v>
+        <v>594.5599999999999</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5427,7 +5588,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79000000000002</v>
+        <v>287.79</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5456,16 +5617,19 @@
       <c r="AA60">
         <v>576.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="AB60">
+        <v>584.3200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="2">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.44000000000005</v>
+        <v>529.4400000000001</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5477,10 +5641,10 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.91999999999996</v>
+        <v>618.92</v>
       </c>
       <c r="H61">
-        <v>610.17999999999995</v>
+        <v>610.1799999999999</v>
       </c>
       <c r="I61">
         <v>753.88</v>
@@ -5501,22 +5665,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.56</v>
+        <v>655.5599999999999</v>
       </c>
       <c r="P61">
-        <v>522.82000000000005</v>
+        <v>522.8200000000001</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54000000000002</v>
+        <v>292.54</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58000000000004</v>
+        <v>517.58</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5539,13 +5703,16 @@
       <c r="AA61">
         <v>584.89</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="AB61">
+        <v>604.84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="2">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.44</v>
+        <v>723.4400000000001</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5557,13 +5724,13 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.94</v>
+        <v>695.9400000000001</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.68</v>
+        <v>669.6799999999999</v>
       </c>
       <c r="I62">
         <v>874.42</v>
@@ -5587,7 +5754,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.57000000000005</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5596,22 +5763,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33000000000004</v>
+        <v>549.33</v>
       </c>
       <c r="T62">
-        <v>586.80999999999995</v>
+        <v>586.8099999999999</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.44000000000005</v>
+        <v>603.4400000000001</v>
       </c>
       <c r="W62">
-        <v>643.07000000000005</v>
+        <v>643.0700000000001</v>
       </c>
       <c r="X62">
-        <v>1038.3900000000001</v>
+        <v>1038.39</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5622,16 +5789,19 @@
       <c r="AA62">
         <v>620.14</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="AB62">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="2">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.20000000000005</v>
+        <v>648.2</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5661,7 +5831,7 @@
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.32</v>
+        <v>895.3200000000001</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5670,13 +5840,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.43</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85000000000002</v>
+        <v>312.85</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5688,13 +5858,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08000000000004</v>
+        <v>651.08</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.1099999999999</v>
+        <v>1126.11</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5703,11 +5873,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+        <v>677.1900000000001</v>
+      </c>
+      <c r="AB63">
+        <v>763.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="2">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5717,16 +5890,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.29999999999995</v>
+        <v>623.3</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.57</v>
+        <v>799.5700000000001</v>
       </c>
       <c r="G64">
-        <v>851.06</v>
+        <v>851.0599999999999</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5747,7 +5920,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.1099999999999</v>
+        <v>1055.11</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5788,16 +5961,19 @@
       <c r="AA64">
         <v>701.87</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="AB64">
+        <v>799.9299999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="2">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.06</v>
+        <v>887.0599999999999</v>
       </c>
       <c r="C65">
-        <v>701.82</v>
+        <v>701.8200000000001</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -5812,16 +5988,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.07</v>
+        <v>985.0700000000001</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1275.8499999999999</v>
+        <v>1275.85</v>
       </c>
       <c r="K65">
-        <v>1251.9000000000001</v>
+        <v>1251.9</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -5836,10 +6012,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.43</v>
+        <v>728.4299999999999</v>
       </c>
       <c r="Q65">
-        <v>584.45000000000005</v>
+        <v>584.45</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -5871,9 +6047,12 @@
       <c r="AA65">
         <v>721.98</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="AB65">
+        <v>843.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="2">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -5883,7 +6062,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.19</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -5937,7 +6116,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.31</v>
+        <v>736.3099999999999</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -5952,11 +6131,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+        <v>741.3099999999999</v>
+      </c>
+      <c r="AB66">
+        <v>904.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="2">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -5969,7 +6151,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.06</v>
+        <v>846.0599999999999</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -5999,7 +6181,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.1600000000001</v>
+        <v>1057.16</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6037,9 +6219,12 @@
       <c r="AA67">
         <v>763.34</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="AB67">
+        <v>931.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="2">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6058,7 +6243,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.1099999999999</v>
+        <v>1053.11</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6079,7 +6264,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.8599999999999</v>
+        <v>1288.86</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6118,24 +6303,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+        <v>787.3200000000001</v>
+      </c>
+      <c r="AB68">
+        <v>977.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="2">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.69</v>
+        <v>829.6900000000001</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.44</v>
+        <v>919.4400000000001</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6144,7 +6332,7 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.5999999999999</v>
+        <v>1227.6</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
@@ -6177,7 +6365,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.19</v>
+        <v>733.1900000000001</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6195,7 +6383,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.6400000000001</v>
+        <v>1060.64</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6203,9 +6391,12 @@
       <c r="AA69">
         <v>811.85</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="AB69">
+        <v>1001.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="2">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6278,7 +6469,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.3399999999999</v>
+        <v>1062.34</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6286,16 +6477,19 @@
       <c r="AA70">
         <v>843.99</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="AB70">
+        <v>1015.65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="2">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.6099999999999</v>
+        <v>1120.61</v>
       </c>
       <c r="C71">
-        <v>879.43</v>
+        <v>879.4299999999999</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6316,7 +6510,7 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
-        <v>1165.6099999999999</v>
+        <v>1165.61</v>
       </c>
       <c r="K71">
         <v>1410.76</v>
@@ -6337,7 +6531,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.44</v>
+        <v>703.4400000000001</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6346,7 +6540,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.69</v>
+        <v>893.6900000000001</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6369,16 +6563,19 @@
       <c r="AA71">
         <v>874.72</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="AB71">
+        <v>1046.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="2">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.3900000000001</v>
+        <v>1152.39</v>
       </c>
       <c r="C72">
-        <v>907.94</v>
+        <v>907.9400000000001</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6414,7 +6611,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.1199999999999</v>
+        <v>1298.12</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6432,19 +6629,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.8200000000002</v>
+        <v>2082.82</v>
       </c>
       <c r="V72">
-        <v>901.57</v>
+        <v>901.5700000000001</v>
       </c>
       <c r="W72">
-        <v>887.82</v>
+        <v>887.8200000000001</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.6099999999999</v>
+        <v>1158.61</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6452,9 +6649,12 @@
       <c r="AA72">
         <v>890.61</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="AB72">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="2">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6470,10 +6670,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.6199999999999</v>
+        <v>1103.62</v>
       </c>
       <c r="G73">
-        <v>1194.5999999999999</v>
+        <v>1194.6</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6500,10 +6700,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.06</v>
+        <v>924.0599999999999</v>
       </c>
       <c r="Q73">
-        <v>741.56</v>
+        <v>741.5599999999999</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6535,9 +6735,12 @@
       <c r="AA73">
         <v>903.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="AB73">
+        <v>1115.26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="2">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6550,10 +6753,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.0999999999999</v>
+        <v>1038.1</v>
       </c>
       <c r="F74">
-        <v>1113.6400000000001</v>
+        <v>1113.64</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6583,7 +6786,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.69</v>
+        <v>939.6900000000001</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6601,7 +6804,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.31</v>
+        <v>938.3099999999999</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6618,9 +6821,12 @@
       <c r="AA74">
         <v>918.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="AB74">
+        <v>1128.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="2">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6639,7 +6845,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.1099999999999</v>
+        <v>1260.11</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6701,9 +6907,12 @@
       <c r="AA75">
         <v>1065.95</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="AB75">
+        <v>1203.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="2">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6719,7 +6928,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.1300000000001</v>
+        <v>1232.13</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6761,19 +6970,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.1300000000001</v>
+        <v>1024.13</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.6600000000001</v>
+        <v>1090.66</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.5100000000002</v>
+        <v>2052.51</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -6784,9 +6993,12 @@
       <c r="AA76">
         <v>1104.75</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="AB76">
+        <v>1241.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="2">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -6796,13 +7008,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.81</v>
+        <v>958.8099999999999</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.0899999999999</v>
+        <v>1263.09</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -6847,7 +7059,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.2800000000002</v>
+        <v>2392.28</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -6856,7 +7068,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.5100000000002</v>
+        <v>2131.51</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -6867,19 +7079,22 @@
       <c r="AA77">
         <v>1134.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="AB77">
+        <v>1269.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="2">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.8499999999999</v>
+        <v>1096.85</v>
       </c>
       <c r="D78">
-        <v>989.57</v>
+        <v>989.5700000000001</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -6930,7 +7145,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8000000000002</v>
+        <v>2410.8</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -6950,19 +7165,22 @@
       <c r="AA78">
         <v>1164.71</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="AB78">
+        <v>1300.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="2">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.3900000000001</v>
+        <v>1136.39</v>
       </c>
       <c r="D79">
-        <v>1031.6400000000001</v>
+        <v>1031.64</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -6998,7 +7216,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.1300000000001</v>
+        <v>1057.13</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7010,19 +7228,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.3499999999999</v>
+        <v>1072.35</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.6600000000001</v>
+        <v>1221.66</v>
       </c>
       <c r="W79">
-        <v>1226.5899999999999</v>
+        <v>1226.59</v>
       </c>
       <c r="X79">
-        <v>2379.5500000000002</v>
+        <v>2379.55</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7031,11 +7249,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.8599999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+        <v>1207.86</v>
+      </c>
+      <c r="AB79">
+        <v>1300.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="2">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7057,7 +7278,7 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.8800000000001</v>
+        <v>1057.88</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
@@ -7084,7 +7305,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.56</v>
+        <v>884.5599999999999</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7099,7 +7320,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.3599999999999</v>
+        <v>1266.36</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7114,18 +7335,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.4100000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+        <v>1239.41</v>
+      </c>
+      <c r="AB80">
+        <v>1351.59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="2">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4000000000001</v>
+        <v>1280.4</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7164,7 +7388,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.6500000000001</v>
+        <v>1215.65</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7173,7 +7397,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.0999999999999</v>
+        <v>1138.1</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7199,9 +7423,12 @@
       <c r="AA81">
         <v>1366.65</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="AB81">
+        <v>1479.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="2">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7229,7 +7456,7 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
-        <v>2354.4299999999998</v>
+        <v>2354.43</v>
       </c>
       <c r="K82">
         <v>2702.83</v>
@@ -7250,7 +7477,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.6300000000001</v>
+        <v>1050.63</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7259,7 +7486,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.6500000000001</v>
+        <v>1306.65</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7282,9 +7509,12 @@
       <c r="AA82">
         <v>1464.97</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="AB82">
+        <v>1614.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="2">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7312,7 +7542,7 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
-        <v>2359.9499999999998</v>
+        <v>2359.95</v>
       </c>
       <c r="K83">
         <v>2767.43</v>
@@ -7333,7 +7563,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.8699999999999</v>
+        <v>1077.87</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7365,9 +7595,12 @@
       <c r="AA83">
         <v>1588.85</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="AB83">
+        <v>1691.04</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="2">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7422,7 +7655,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.0999999999999</v>
+        <v>1264.1</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7448,9 +7681,12 @@
       <c r="AA84">
         <v>1634.98</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="AB84">
+        <v>1749.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="2">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7475,7 +7711,7 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.5100000000002</v>
+        <v>2552.51</v>
       </c>
       <c r="J85">
         <v>2305.84</v>
@@ -7531,9 +7767,12 @@
       <c r="AA85">
         <v>1663.28</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="AB85">
+        <v>1806.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="2">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7561,7 +7800,7 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
-        <v>2568.4899999999998</v>
+        <v>2568.49</v>
       </c>
       <c r="K86">
         <v>3097.87</v>
@@ -7588,7 +7827,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.6400000000001</v>
+        <v>1307.64</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7614,9 +7853,12 @@
       <c r="AA86">
         <v>1700.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="AB86">
+        <v>1859.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="2">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7653,7 +7895,7 @@
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.2800000000002</v>
+        <v>2429.28</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7665,7 +7907,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4000000000001</v>
+        <v>1195.4</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7683,13 +7925,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.7600000000002</v>
+        <v>2198.76</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.8200000000002</v>
+        <v>2468.82</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7697,9 +7939,12 @@
       <c r="AA87">
         <v>1955.32</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="AB87">
+        <v>1984.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="2">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -7778,11 +8023,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.1799999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+        <v>2074.18</v>
+      </c>
+      <c r="AB88">
+        <v>2073.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="2">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -7849,13 +8097,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.0100000000002</v>
+        <v>2503.01</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.0700000000002</v>
+        <v>2520.07</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -7863,13 +8111,16 @@
       <c r="AA89">
         <v>2159.38</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="AB89">
+        <v>2139.47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="2">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.4699999999998</v>
+        <v>2380.47</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -7881,7 +8132,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.9699999999998</v>
+        <v>2277.97</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -7917,7 +8168,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.44000000000005</v>
+        <v>578.4400000000001</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -7929,7 +8180,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.7800000000002</v>
+        <v>2300.78</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -7941,14 +8192,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95000000000005</v>
+        <v>520.95</v>
       </c>
       <c r="AA90">
-        <v>2218.4299999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+        <v>2218.43</v>
+      </c>
+      <c r="AB90">
+        <v>2207.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="2">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -7967,7 +8221,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.9699999999998</v>
+        <v>2220.97</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8009,7 +8263,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6000000000004</v>
+        <v>4477.6</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8029,9 +8283,12 @@
       <c r="AA91">
         <v>2298.35</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="AB91">
+        <v>2281.85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="2">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8050,7 +8307,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.2600000000002</v>
+        <v>2241.26</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8065,7 +8322,7 @@
         <v>3985.77</v>
       </c>
       <c r="L92">
-        <v>4468.7700000000004</v>
+        <v>4468.77</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8083,7 +8340,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.16999999999996</v>
+        <v>630.17</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8095,7 +8352,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.7800000000002</v>
+        <v>2472.78</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8110,15 +8367,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.1799999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+        <v>2343.18</v>
+      </c>
+      <c r="AB92">
+        <v>2319.29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="2">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.7600000000002</v>
+        <v>2588.76</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8166,7 +8426,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.92999999999995</v>
+        <v>612.9299999999999</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8190,21 +8450,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.44000000000005</v>
+        <v>585.4400000000001</v>
       </c>
       <c r="AA93">
-        <v>2423.4299999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+        <v>2423.43</v>
+      </c>
+      <c r="AB93">
+        <v>2394.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="2">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.8200000000002</v>
+        <v>2111.82</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8213,13 +8476,13 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.5700000000002</v>
+        <v>2475.57</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.7600000000002</v>
+        <v>2294.76</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
@@ -8258,7 +8521,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.3999999999996</v>
+        <v>4937.4</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8276,11 +8539,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.2399999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+        <v>2538.24</v>
+      </c>
+      <c r="AB94">
+        <v>2453.34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="2">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8293,7 +8559,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.9699999999998</v>
+        <v>2288.97</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8302,7 +8568,7 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.8200000000002</v>
+        <v>2304.82</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
@@ -8341,7 +8607,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.4799999999996</v>
+        <v>5143.48</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8361,19 +8627,22 @@
       <c r="AA95">
         <v>2677.04</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="AB95">
+        <v>2526.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="2">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.5500000000002</v>
+        <v>2238.55</v>
       </c>
       <c r="D96">
-        <v>2062.9499999999998</v>
+        <v>2062.95</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8382,7 +8651,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.2399999999998</v>
+        <v>2464.24</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8394,7 +8663,7 @@
         <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>4234.6400000000003</v>
+        <v>4234.64</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8444,16 +8713,19 @@
       <c r="AA96">
         <v>2717.83</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="AB96">
+        <v>2598.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="2">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.0500000000002</v>
+        <v>2273.05</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8507,7 +8779,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6000000000004</v>
+        <v>5151.6</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8516,7 +8788,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.7700000000004</v>
+        <v>5240.77</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8527,9 +8799,12 @@
       <c r="AA97">
         <v>2744.32</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="AB97">
+        <v>2657.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="2">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8551,7 +8826,7 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.0700000000002</v>
+        <v>2370.07</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
@@ -8563,7 +8838,7 @@
         <v>4655.76</v>
       </c>
       <c r="L98">
-        <v>4788.8900000000003</v>
+        <v>4788.89</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8610,9 +8885,12 @@
       <c r="AA98">
         <v>2763.94</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="AB98">
+        <v>2684.55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="2">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8622,7 +8900,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.9499999999998</v>
+        <v>2234.95</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8634,16 +8912,16 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.6799999999998</v>
+        <v>2514.68</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4483.0600000000004</v>
+        <v>4483.06</v>
       </c>
       <c r="K99">
-        <v>4779.3900000000003</v>
+        <v>4779.39</v>
       </c>
       <c r="L99">
         <v>4889.26</v>
@@ -8679,7 +8957,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.6099999999997</v>
+        <v>4411.61</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8693,171 +8971,180 @@
       <c r="AA99">
         <v>3226.08</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="AB99">
+        <v>2819.65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="2">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3132.43</v>
+        <v>3150.589883967789</v>
       </c>
       <c r="C100">
-        <v>2481.46</v>
+        <v>2523.023227096002</v>
       </c>
       <c r="D100">
-        <v>2275.17</v>
+        <v>2320.102969449691</v>
       </c>
       <c r="E100">
-        <v>2602.16</v>
+        <v>2635.724767957825</v>
       </c>
       <c r="F100">
-        <v>2911.56</v>
+        <v>2942.42412737101</v>
       </c>
       <c r="G100">
-        <v>2664.08</v>
+        <v>2712.135509094575</v>
       </c>
       <c r="H100">
-        <v>2604.67</v>
+        <v>2563.609927185541</v>
       </c>
       <c r="I100">
-        <v>4115.9399999999996</v>
+        <v>4122.540026670221</v>
       </c>
       <c r="J100">
-        <v>4428.6499999999996</v>
+        <v>4480.844840317766</v>
       </c>
       <c r="K100">
-        <v>4846.41</v>
+        <v>4845.036079718735</v>
       </c>
       <c r="L100">
-        <v>5053.34</v>
+        <v>5021.141591166545</v>
       </c>
       <c r="M100">
-        <v>3546.52</v>
+        <v>3547.536869085944</v>
       </c>
       <c r="N100">
-        <v>4020.67</v>
+        <v>4006.396180070411</v>
       </c>
       <c r="O100">
-        <v>3292</v>
+        <v>3298.810125903955</v>
       </c>
       <c r="P100">
-        <v>1887.57</v>
+        <v>1970.164687820392</v>
       </c>
       <c r="Q100">
-        <v>1477.99</v>
+        <v>1541.284969856675</v>
       </c>
       <c r="R100">
-        <v>647.12</v>
+        <v>716.1800607321628</v>
       </c>
       <c r="S100">
-        <v>1663.53</v>
+        <v>1672.577951564766</v>
       </c>
       <c r="T100">
-        <v>2016.04</v>
+        <v>2152.470962730608</v>
       </c>
       <c r="U100">
-        <v>5245.61</v>
+        <v>5640.570304463177</v>
       </c>
       <c r="V100">
-        <v>3387.06</v>
+        <v>3384.902205148728</v>
       </c>
       <c r="W100">
-        <v>4642.57</v>
+        <v>4591.684204604544</v>
       </c>
       <c r="X100">
-        <v>5833.16</v>
+        <v>5863.344699610984</v>
       </c>
       <c r="Y100">
-        <v>3781.79</v>
+        <v>3866.077114479712</v>
       </c>
       <c r="Z100">
-        <v>660.77</v>
+        <v>626.587344058833</v>
       </c>
       <c r="AA100">
-        <v>3291.2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+        <v>3422.936728052662</v>
+      </c>
+      <c r="AB100">
+        <v>2918.329182860456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="2">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3236.3868898806732</v>
+        <v>3255.149451340979</v>
       </c>
       <c r="C101">
-        <v>2582.085767790828</v>
+        <v>2625.33442670455</v>
       </c>
       <c r="D101">
-        <v>2378.681699454175</v>
+        <v>2425.658950442942</v>
       </c>
       <c r="E101">
-        <v>2695.5473483592659</v>
+        <v>2730.316701998939</v>
       </c>
       <c r="F101">
-        <v>3035.0837524640401</v>
+        <v>3067.257299125532</v>
       </c>
       <c r="G101">
-        <v>2754.926407933594</v>
+        <v>2804.620632976137</v>
       </c>
       <c r="H101">
-        <v>2606.3987376109471</v>
+        <v>2565.311412940328</v>
       </c>
       <c r="I101">
-        <v>4309.2348444303443</v>
+        <v>4316.144824872597</v>
       </c>
       <c r="J101">
-        <v>4960.3632496799119</v>
+        <v>5018.82471485218</v>
       </c>
       <c r="K101">
-        <v>5229.7821645762051</v>
+        <v>5228.299561209485</v>
       </c>
       <c r="L101">
-        <v>5265.6706282685263</v>
+        <v>5232.119310591247</v>
       </c>
       <c r="M101">
-        <v>3634.930304161604</v>
+        <v>3635.972522520971</v>
       </c>
       <c r="N101">
-        <v>4090.1286831370799</v>
+        <v>4075.608277256481</v>
       </c>
       <c r="O101">
-        <v>3379.6449011660338</v>
+        <v>3386.636337158622</v>
       </c>
       <c r="P101">
-        <v>1954.1469407187451</v>
+        <v>2039.654845868668</v>
       </c>
       <c r="Q101">
-        <v>1528.2600185663439</v>
+        <v>1593.707803604347</v>
       </c>
       <c r="R101">
-        <v>691.10666099310788</v>
+        <v>764.8609383768795</v>
       </c>
       <c r="S101">
-        <v>1683.2647427661141</v>
+        <v>1692.420031737895</v>
       </c>
       <c r="T101">
-        <v>2102.3762478330418</v>
+        <v>2244.649821528914</v>
       </c>
       <c r="U101">
-        <v>5510.9077092578164</v>
+        <v>5925.843205170959</v>
       </c>
       <c r="V101">
-        <v>3591.1511296624772</v>
+        <v>3588.863314442869</v>
       </c>
       <c r="W101">
-        <v>4812.5390539955361</v>
+        <v>4759.790279580879</v>
       </c>
       <c r="X101">
-        <v>5895.7831215993183</v>
+        <v>5926.291875430345</v>
       </c>
       <c r="Y101">
-        <v>4038.5245266078109</v>
+        <v>4128.53364374634</v>
       </c>
       <c r="Z101">
-        <v>641.9372378735643</v>
+        <v>608.7288298979371</v>
       </c>
       <c r="AA101">
-        <v>4250.6809428025681</v>
+        <v>4420.822775386616</v>
+      </c>
+      <c r="AB101">
+        <v>3038.504018027121</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -8980,7 +8980,7 @@
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3150.589883967789</v>
+        <v>3158.760662014313</v>
       </c>
       <c r="C100">
         <v>2523.023227096002</v>
@@ -8989,16 +8989,16 @@
         <v>2320.102969449691</v>
       </c>
       <c r="E100">
-        <v>2635.724767957825</v>
+        <v>2642.36163728054</v>
       </c>
       <c r="F100">
         <v>2942.42412737101</v>
       </c>
       <c r="G100">
-        <v>2712.135509094575</v>
+        <v>2720.196360994858</v>
       </c>
       <c r="H100">
-        <v>2563.609927185541</v>
+        <v>2608.270164343655</v>
       </c>
       <c r="I100">
         <v>4122.540026670221</v>
@@ -9058,7 +9058,7 @@
         <v>3422.936728052662</v>
       </c>
       <c r="AB100">
-        <v>2918.329182860456</v>
+        <v>2924.777987728988</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9066,7 +9066,7 @@
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3255.149451340979</v>
+        <v>3263.339054033742</v>
       </c>
       <c r="C101">
         <v>2625.33442670455</v>
@@ -9075,16 +9075,16 @@
         <v>2425.658950442942</v>
       </c>
       <c r="E101">
-        <v>2730.316701998939</v>
+        <v>2736.968861997332</v>
       </c>
       <c r="F101">
         <v>3067.257299125532</v>
       </c>
       <c r="G101">
-        <v>2804.620632976137</v>
+        <v>2812.700056263936</v>
       </c>
       <c r="H101">
-        <v>2565.311412940328</v>
+        <v>2610.07454276799</v>
       </c>
       <c r="I101">
         <v>4316.144824872597</v>
@@ -9144,7 +9144,7 @@
         <v>4420.822775386616</v>
       </c>
       <c r="AB101">
-        <v>3038.504018027121</v>
+        <v>3044.967680289849</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -8980,85 +8980,85 @@
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3158.760662014313</v>
+        <v>3132.43</v>
       </c>
       <c r="C100">
-        <v>2523.023227096002</v>
+        <v>2481.46</v>
       </c>
       <c r="D100">
-        <v>2320.102969449691</v>
+        <v>2275.17</v>
       </c>
       <c r="E100">
-        <v>2642.36163728054</v>
+        <v>2602.16</v>
       </c>
       <c r="F100">
-        <v>2942.42412737101</v>
+        <v>2911.56</v>
       </c>
       <c r="G100">
-        <v>2720.196360994858</v>
+        <v>2664.08</v>
       </c>
       <c r="H100">
-        <v>2608.270164343655</v>
+        <v>2604.67</v>
       </c>
       <c r="I100">
-        <v>4122.540026670221</v>
+        <v>4115.94</v>
       </c>
       <c r="J100">
-        <v>4480.844840317766</v>
+        <v>4428.65</v>
       </c>
       <c r="K100">
-        <v>4845.036079718735</v>
+        <v>4846.41</v>
       </c>
       <c r="L100">
-        <v>5021.141591166545</v>
+        <v>5053.34</v>
       </c>
       <c r="M100">
-        <v>3547.536869085944</v>
+        <v>3546.52</v>
       </c>
       <c r="N100">
-        <v>4006.396180070411</v>
+        <v>4020.67</v>
       </c>
       <c r="O100">
-        <v>3298.810125903955</v>
+        <v>3292</v>
       </c>
       <c r="P100">
-        <v>1970.164687820392</v>
+        <v>1887.57</v>
       </c>
       <c r="Q100">
-        <v>1541.284969856675</v>
+        <v>1477.99</v>
       </c>
       <c r="R100">
-        <v>716.1800607321628</v>
+        <v>647.12</v>
       </c>
       <c r="S100">
-        <v>1672.577951564766</v>
+        <v>1663.53</v>
       </c>
       <c r="T100">
-        <v>2152.470962730608</v>
+        <v>2016.04</v>
       </c>
       <c r="U100">
-        <v>5640.570304463177</v>
+        <v>5245.61</v>
       </c>
       <c r="V100">
-        <v>3384.902205148728</v>
+        <v>3387.06</v>
       </c>
       <c r="W100">
-        <v>4591.684204604544</v>
+        <v>4642.57</v>
       </c>
       <c r="X100">
-        <v>5863.344699610984</v>
+        <v>5833.16</v>
       </c>
       <c r="Y100">
-        <v>3866.077114479712</v>
+        <v>3781.79</v>
       </c>
       <c r="Z100">
-        <v>626.587344058833</v>
+        <v>660.77</v>
       </c>
       <c r="AA100">
-        <v>3422.936728052662</v>
+        <v>3291.2</v>
       </c>
       <c r="AB100">
-        <v>2924.777987728988</v>
+        <v>2883.75</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9066,85 +9066,85 @@
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3263.339054033742</v>
+        <v>3197.21</v>
       </c>
       <c r="C101">
-        <v>2625.33442670455</v>
+        <v>2513.76</v>
       </c>
       <c r="D101">
-        <v>2425.658950442942</v>
+        <v>2308.5</v>
       </c>
       <c r="E101">
-        <v>2736.968861997332</v>
+        <v>2631.97</v>
       </c>
       <c r="F101">
-        <v>3067.257299125532</v>
+        <v>2981.16</v>
       </c>
       <c r="G101">
-        <v>2812.700056263936</v>
+        <v>2736.19</v>
       </c>
       <c r="H101">
-        <v>2610.07454276799</v>
+        <v>2605.38</v>
       </c>
       <c r="I101">
-        <v>4316.144824872597</v>
+        <v>4319.13</v>
       </c>
       <c r="J101">
-        <v>5018.82471485218</v>
+        <v>5138.69</v>
       </c>
       <c r="K101">
-        <v>5228.299561209485</v>
+        <v>5339.05</v>
       </c>
       <c r="L101">
-        <v>5232.119310591247</v>
+        <v>5355.39</v>
       </c>
       <c r="M101">
-        <v>3635.972522520971</v>
+        <v>3566.66</v>
       </c>
       <c r="N101">
-        <v>4075.608277256481</v>
+        <v>4027.72</v>
       </c>
       <c r="O101">
-        <v>3386.636337158622</v>
+        <v>3317.44</v>
       </c>
       <c r="P101">
-        <v>2039.654845868668</v>
+        <v>1922.29</v>
       </c>
       <c r="Q101">
-        <v>1593.707803604347</v>
+        <v>1491.09</v>
       </c>
       <c r="R101">
-        <v>764.8609383768795</v>
+        <v>630.36</v>
       </c>
       <c r="S101">
-        <v>1692.420031737895</v>
+        <v>1690.63</v>
       </c>
       <c r="T101">
-        <v>2244.649821528914</v>
+        <v>2058.24</v>
       </c>
       <c r="U101">
-        <v>5925.843205170959</v>
+        <v>5712.62</v>
       </c>
       <c r="V101">
-        <v>3588.863314442869</v>
+        <v>3453.34</v>
       </c>
       <c r="W101">
-        <v>4759.790279580879</v>
+        <v>4800.06</v>
       </c>
       <c r="X101">
-        <v>5926.291875430345</v>
+        <v>5958.51</v>
       </c>
       <c r="Y101">
-        <v>4128.53364374634</v>
+        <v>3771.01</v>
       </c>
       <c r="Z101">
-        <v>608.7288298979371</v>
+        <v>664.42</v>
       </c>
       <c r="AA101">
-        <v>4420.822775386616</v>
+        <v>3351.27</v>
       </c>
       <c r="AB101">
-        <v>3044.967680289849</v>
+        <v>2954.69</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06831EB9-4D25-4B6C-823C-DD32091BCEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Mevsimlik Ürünler Hariç TÜFE</t>
   </si>
@@ -96,15 +102,15 @@
   <si>
     <t>TÜFE</t>
   </si>
+  <si>
+    <t>constant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,16 +158,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -170,13 +191,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +243,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +488,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,9 +582,12 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="2">
+      <c r="AC1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -567,13 +606,13 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="H2">
-        <v>299.59</v>
+        <v>299.58999999999997</v>
       </c>
       <c r="I2">
-        <v>319.35</v>
+        <v>319.35000000000002</v>
       </c>
       <c r="J2">
         <v>292.5</v>
@@ -585,7 +624,7 @@
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.78</v>
+        <v>299.77999999999997</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -609,7 +648,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.5700000000001</v>
+        <v>588.57000000000005</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -621,7 +660,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -630,24 +669,27 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="2">
+        <v>292.54000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97</v>
+        <v>262.97000000000003</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.28</v>
+        <v>276.27999999999997</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -707,7 +749,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22</v>
+        <v>325.22000000000003</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -718,25 +760,28 @@
       <c r="AB3">
         <v>299.74</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="2">
+      <c r="AC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.09</v>
+        <v>265.08999999999997</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F4">
-        <v>293.53</v>
+        <v>293.52999999999997</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -757,7 +802,7 @@
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.1</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -781,10 +826,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58</v>
+        <v>612.58000000000004</v>
       </c>
       <c r="V4">
-        <v>320.78</v>
+        <v>320.77999999999997</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -804,13 +849,16 @@
       <c r="AB4">
         <v>302.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="2">
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.65</v>
+        <v>313.64999999999998</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -819,16 +867,16 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.15</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="F5">
-        <v>296.71</v>
+        <v>296.70999999999998</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91</v>
+        <v>311.91000000000003</v>
       </c>
       <c r="I5">
         <v>349.18</v>
@@ -849,10 +897,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79</v>
+        <v>295.79000000000002</v>
       </c>
       <c r="P5">
-        <v>256.09</v>
+        <v>256.08999999999997</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -867,7 +915,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -890,19 +938,22 @@
       <c r="AB5">
         <v>305.24</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="2">
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22</v>
+        <v>316.22000000000003</v>
       </c>
       <c r="C6">
-        <v>272.91</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="D6">
-        <v>264.15</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -971,21 +1022,24 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="2">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66</v>
+        <v>317.66000000000003</v>
       </c>
       <c r="C7">
-        <v>276.34</v>
+        <v>276.33999999999997</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -994,7 +1048,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.9</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1024,7 +1078,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85</v>
+        <v>265.85000000000002</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1054,7 +1108,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1062,28 +1116,31 @@
       <c r="AB7">
         <v>310.61</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="2">
+      <c r="AC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.46</v>
+        <v>318.45999999999998</v>
       </c>
       <c r="C8">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.34</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.53</v>
+        <v>302.52999999999997</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1110,7 +1167,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1146,11 +1203,14 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="2">
+        <v>309.77999999999997</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1196,7 +1256,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1234,9 +1294,12 @@
       <c r="AB9">
         <v>310.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="2">
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1273,7 +1336,7 @@
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.96</v>
+        <v>323.95999999999998</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1282,7 +1345,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1318,18 +1381,21 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="2">
+        <v>311.85000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1338,13 +1404,13 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41</v>
+        <v>315.41000000000003</v>
       </c>
       <c r="I11">
         <v>343.79</v>
@@ -1398,7 +1464,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1406,9 +1472,12 @@
       <c r="AB11">
         <v>313.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="2">
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1421,13 +1490,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.84</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1451,7 +1520,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.53</v>
+        <v>319.52999999999997</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1469,7 +1538,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.3</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1484,24 +1553,27 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="2">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.84</v>
+        <v>291.83999999999997</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1540,7 +1612,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.96</v>
+        <v>281.95999999999998</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1578,9 +1650,12 @@
       <c r="AB13">
         <v>325.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="2">
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1590,13 +1665,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1623,7 +1698,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79</v>
+        <v>324.79000000000002</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1662,18 +1737,21 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="2">
+        <v>327.41000000000003</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.34</v>
+        <v>295.33999999999997</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1712,7 +1790,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1724,7 +1802,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54</v>
+        <v>257.54000000000002</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1750,16 +1828,19 @@
       <c r="AB15">
         <v>330.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="2">
+      <c r="AC15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.59</v>
+        <v>297.58999999999997</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1798,7 +1879,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35</v>
+        <v>283.35000000000002</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1810,7 +1891,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72</v>
+        <v>261.72000000000003</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1836,9 +1917,12 @@
       <c r="AB16">
         <v>333.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="2">
+      <c r="AC16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1851,7 +1935,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.15</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1896,7 +1980,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1922,9 +2006,12 @@
       <c r="AB17">
         <v>336.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="2">
+      <c r="AC17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1982,10 +2069,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97</v>
+        <v>268.97000000000003</v>
       </c>
       <c r="U18">
-        <v>638.6799999999999</v>
+        <v>638.67999999999995</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2008,9 +2095,12 @@
       <c r="AB18">
         <v>342.78</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="2">
+      <c r="AC18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2068,7 +2158,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.03</v>
+        <v>272.02999999999997</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2094,9 +2184,12 @@
       <c r="AB19">
         <v>348.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="2">
+      <c r="AC19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2154,10 +2247,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.53</v>
+        <v>277.52999999999997</v>
       </c>
       <c r="U20">
-        <v>652.0700000000001</v>
+        <v>652.07000000000005</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2166,7 +2259,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.92</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2180,16 +2273,19 @@
       <c r="AB20">
         <v>357.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="2">
+      <c r="AC20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2228,7 +2324,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47</v>
+        <v>309.47000000000003</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2240,7 +2336,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.09</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2258,7 +2354,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.98</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2266,9 +2362,12 @@
       <c r="AB21">
         <v>359.41</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="2">
+      <c r="AC21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2278,7 +2377,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.09</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2317,7 +2416,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.28</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2338,7 +2437,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58</v>
+        <v>539.58000000000004</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2352,9 +2451,12 @@
       <c r="AB22">
         <v>367.66</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="2">
+      <c r="AC22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2403,16 +2505,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.65</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.21</v>
+        <v>287.20999999999998</v>
       </c>
       <c r="T23">
-        <v>325.53</v>
+        <v>325.52999999999997</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2424,7 +2526,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.3</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2438,9 +2540,12 @@
       <c r="AB23">
         <v>390.84</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="2">
+      <c r="AC23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2489,7 +2594,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.15</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2524,9 +2629,12 @@
       <c r="AB24">
         <v>401.27</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="2">
+      <c r="AC24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2610,9 +2718,12 @@
       <c r="AB25">
         <v>395.48</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="2">
+      <c r="AC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2682,7 +2793,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.0700000000001</v>
+        <v>578.07000000000005</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2696,9 +2807,12 @@
       <c r="AB26">
         <v>393.88</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="2">
+      <c r="AC26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2732,7 +2846,7 @@
         <v>560.37</v>
       </c>
       <c r="L27">
-        <v>520.08</v>
+        <v>520.08000000000004</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2747,7 +2861,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97</v>
+        <v>280.97000000000003</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2782,9 +2896,12 @@
       <c r="AB27">
         <v>398.07</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="2">
+      <c r="AC27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2812,7 +2929,7 @@
         <v>488.24</v>
       </c>
       <c r="J28">
-        <v>644.3</v>
+        <v>644.29999999999995</v>
       </c>
       <c r="K28">
         <v>567.98</v>
@@ -2868,9 +2985,12 @@
       <c r="AB28">
         <v>398.71</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="2">
+      <c r="AC28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2901,7 +3021,7 @@
         <v>702.92</v>
       </c>
       <c r="K29">
-        <v>593.5599999999999</v>
+        <v>593.55999999999995</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2919,7 +3039,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85</v>
+        <v>277.85000000000002</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2940,7 +3060,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.3099999999999</v>
+        <v>593.30999999999995</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2954,9 +3074,12 @@
       <c r="AB29">
         <v>402.81</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="2">
+      <c r="AC29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -2990,7 +3113,7 @@
         <v>604.12</v>
       </c>
       <c r="L30">
-        <v>563.92</v>
+        <v>563.91999999999996</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3005,7 +3128,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.21</v>
+        <v>284.20999999999998</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3040,9 +3163,12 @@
       <c r="AB30">
         <v>409.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="2">
+      <c r="AC30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3070,13 +3196,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
-        <v>575.6799999999999</v>
+        <v>575.67999999999995</v>
       </c>
       <c r="K31">
         <v>575.66</v>
       </c>
       <c r="L31">
-        <v>579.45</v>
+        <v>579.45000000000005</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3091,13 +3217,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41</v>
+        <v>288.41000000000003</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.1</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3126,9 +3252,12 @@
       <c r="AB31">
         <v>413.52</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="2">
+      <c r="AC31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3212,9 +3341,12 @@
       <c r="AB32">
         <v>413.63</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="2">
+      <c r="AC32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3248,7 +3380,7 @@
         <v>521.02</v>
       </c>
       <c r="L33">
-        <v>559.5599999999999</v>
+        <v>559.55999999999995</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3263,7 +3395,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3298,9 +3430,12 @@
       <c r="AB33">
         <v>419.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="2">
+      <c r="AC33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3349,7 +3484,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3384,9 +3519,12 @@
       <c r="AB34">
         <v>422.84</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="2">
+      <c r="AC34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3447,13 +3585,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.5700000000001</v>
+        <v>942.57</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.8</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3470,9 +3608,12 @@
       <c r="AB35">
         <v>427.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="2">
+      <c r="AC35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3521,10 +3662,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="R36">
-        <v>261.59</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3533,7 +3674,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.3200000000001</v>
+        <v>943.32</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3556,9 +3697,12 @@
       <c r="AB36">
         <v>435.59</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="2">
+      <c r="AC36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3592,7 +3736,7 @@
         <v>509.17</v>
       </c>
       <c r="L37">
-        <v>534.0599999999999</v>
+        <v>534.05999999999995</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3610,10 +3754,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="S37">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3642,9 +3786,12 @@
       <c r="AB37">
         <v>437.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="2">
+      <c r="AC37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3675,7 +3822,7 @@
         <v>502.4</v>
       </c>
       <c r="K38">
-        <v>529.3099999999999</v>
+        <v>529.30999999999995</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3714,7 +3861,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.1799999999999</v>
+        <v>654.17999999999995</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3728,9 +3875,12 @@
       <c r="AB38">
         <v>440.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="2">
+      <c r="AC38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3758,13 +3908,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>604.2</v>
+        <v>604.20000000000005</v>
       </c>
       <c r="K39">
-        <v>572.8099999999999</v>
+        <v>572.80999999999995</v>
       </c>
       <c r="L39">
-        <v>559.9299999999999</v>
+        <v>559.92999999999995</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3791,7 +3941,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.4400000000001</v>
+        <v>954.44</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3814,9 +3964,12 @@
       <c r="AB39">
         <v>446.45</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="2">
+      <c r="AC39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3877,7 +4030,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.8099999999999</v>
+        <v>952.81</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3886,7 +4039,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.6900000000001</v>
+        <v>668.69</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3900,9 +4053,12 @@
       <c r="AB40">
         <v>448.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="2">
+      <c r="AC40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3927,7 +4083,7 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.42</v>
+        <v>550.41999999999996</v>
       </c>
       <c r="J41">
         <v>656.84</v>
@@ -3936,7 +4092,7 @@
         <v>613.34</v>
       </c>
       <c r="L41">
-        <v>593.9299999999999</v>
+        <v>593.92999999999995</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3969,7 +4125,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.6900000000001</v>
+        <v>538.69000000000005</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -3986,9 +4142,12 @@
       <c r="AB41">
         <v>450.58</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="2">
+      <c r="AC41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4013,7 +4172,7 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.3200000000001</v>
+        <v>564.32000000000005</v>
       </c>
       <c r="J42">
         <v>662.83</v>
@@ -4022,7 +4181,7 @@
         <v>635.72</v>
       </c>
       <c r="L42">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4055,10 +4214,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.9400000000001</v>
+        <v>540.94000000000005</v>
       </c>
       <c r="X42">
-        <v>675.3200000000001</v>
+        <v>675.32</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4072,9 +4231,12 @@
       <c r="AB42">
         <v>454.43</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="2">
+      <c r="AC42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4099,7 +4261,7 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.6799999999999</v>
+        <v>565.67999999999995</v>
       </c>
       <c r="J43">
         <v>641.12</v>
@@ -4114,7 +4276,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.5599999999999</v>
+        <v>538.55999999999995</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4129,7 +4291,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.78</v>
+        <v>294.77999999999997</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4144,7 +4306,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.4299999999999</v>
+        <v>676.43</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4158,9 +4320,12 @@
       <c r="AB43">
         <v>460.62</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="2">
+      <c r="AC43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4188,7 +4353,7 @@
         <v>556.61</v>
       </c>
       <c r="J44">
-        <v>593.0599999999999</v>
+        <v>593.05999999999995</v>
       </c>
       <c r="K44">
         <v>610.1</v>
@@ -4215,7 +4380,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.28</v>
+        <v>303.27999999999997</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4244,9 +4409,12 @@
       <c r="AB44">
         <v>465.84</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="2">
+      <c r="AC44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4277,7 +4445,7 @@
         <v>545.16</v>
       </c>
       <c r="K45">
-        <v>593.2</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4313,7 +4481,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.9400000000001</v>
+        <v>551.94000000000005</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4330,9 +4498,12 @@
       <c r="AB45">
         <v>468.56</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="2">
+      <c r="AC45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4360,10 +4531,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>539.8</v>
+        <v>539.79999999999995</v>
       </c>
       <c r="K46">
-        <v>587.08</v>
+        <v>587.08000000000004</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4372,7 +4543,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95</v>
+        <v>552.95000000000005</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4393,7 +4564,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.62</v>
+        <v>1063.6199999999999</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4416,9 +4587,12 @@
       <c r="AB46">
         <v>472.61</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="2">
+      <c r="AC46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4449,10 +4623,10 @@
         <v>550.48</v>
       </c>
       <c r="K47">
-        <v>585.7</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="L47">
-        <v>610.6799999999999</v>
+        <v>610.67999999999995</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4502,9 +4676,12 @@
       <c r="AB47">
         <v>477.21</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="2">
+      <c r="AC47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4535,13 +4712,13 @@
         <v>592</v>
       </c>
       <c r="K48">
-        <v>608.95</v>
+        <v>608.95000000000005</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.2</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4571,7 +4748,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4588,13 +4765,16 @@
       <c r="AB48">
         <v>487.38</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="2">
+      <c r="AC48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4615,7 +4795,7 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.0700000000001</v>
+        <v>593.07000000000005</v>
       </c>
       <c r="J49">
         <v>642.79</v>
@@ -4624,7 +4804,7 @@
         <v>646.77</v>
       </c>
       <c r="L49">
-        <v>654.5599999999999</v>
+        <v>654.55999999999995</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4674,13 +4854,16 @@
       <c r="AB49">
         <v>498.58</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="2">
+      <c r="AC49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.0599999999999</v>
+        <v>524.05999999999995</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4701,10 +4884,10 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.0599999999999</v>
+        <v>608.05999999999995</v>
       </c>
       <c r="J50">
-        <v>672.8099999999999</v>
+        <v>672.81</v>
       </c>
       <c r="K50">
         <v>668.72</v>
@@ -4716,7 +4899,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58</v>
+        <v>607.58000000000004</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4760,9 +4943,12 @@
       <c r="AB50">
         <v>504.81</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="2">
+      <c r="AC50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4781,7 +4967,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.17</v>
+        <v>519.16999999999996</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4799,7 +4985,7 @@
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.1799999999999</v>
+        <v>573.17999999999995</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4829,7 +5015,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.1900000000001</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4844,15 +5030,18 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="2">
+        <v>513.29999999999995</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.9299999999999</v>
+        <v>539.92999999999995</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4864,7 +5053,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.0700000000001</v>
+        <v>512.07000000000005</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4873,7 +5062,7 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.2</v>
+        <v>639.20000000000005</v>
       </c>
       <c r="J52">
         <v>700.64</v>
@@ -4885,13 +5074,13 @@
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.1799999999999</v>
+        <v>586.17999999999995</v>
       </c>
       <c r="N52">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="O52">
-        <v>560.6900000000001</v>
+        <v>560.69000000000005</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4915,7 +5104,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4927,14 +5116,17 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.7</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="2">
+      <c r="AC52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4950,7 +5142,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83</v>
+        <v>517.83000000000004</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4974,7 +5166,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.3099999999999</v>
+        <v>633.30999999999995</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -4995,13 +5187,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4</v>
+        <v>1064.4000000000001</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.4400000000001</v>
+        <v>588.44000000000005</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5018,9 +5210,12 @@
       <c r="AB53">
         <v>523.53</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="2">
+      <c r="AC53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5036,7 +5231,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.6799999999999</v>
+        <v>527.67999999999995</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5072,7 +5267,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.46</v>
+        <v>271.45999999999998</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5087,7 +5282,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.9299999999999</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5102,11 +5297,14 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.3200000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="2">
+        <v>532.32000000000005</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5143,13 +5341,13 @@
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.6900000000001</v>
+        <v>602.69000000000005</v>
       </c>
       <c r="N55">
-        <v>644.08</v>
+        <v>644.08000000000004</v>
       </c>
       <c r="O55">
-        <v>576.17</v>
+        <v>576.16999999999996</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5167,13 +5365,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.12</v>
+        <v>1095.1199999999999</v>
       </c>
       <c r="V55">
-        <v>523.95</v>
+        <v>523.95000000000005</v>
       </c>
       <c r="W55">
-        <v>596.17</v>
+        <v>596.16999999999996</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5188,11 +5386,14 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="2">
+        <v>537.04999999999995</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5208,10 +5409,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.9400000000001</v>
+        <v>544.94000000000005</v>
       </c>
       <c r="G56">
-        <v>554.4400000000001</v>
+        <v>554.44000000000005</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5223,7 +5424,7 @@
         <v>651.91</v>
       </c>
       <c r="K56">
-        <v>724.1799999999999</v>
+        <v>724.18</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5232,7 +5433,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.9299999999999</v>
+        <v>653.92999999999995</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5244,7 +5445,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5271,14 +5472,17 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.1799999999999</v>
+        <v>551.17999999999995</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="2">
+      <c r="AC56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5297,10 +5501,10 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.42</v>
+        <v>565.41999999999996</v>
       </c>
       <c r="H57">
-        <v>535.4400000000001</v>
+        <v>535.44000000000005</v>
       </c>
       <c r="I57">
         <v>686.41</v>
@@ -5309,7 +5513,7 @@
         <v>688.35</v>
       </c>
       <c r="K57">
-        <v>745.8200000000001</v>
+        <v>745.82</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5318,7 +5522,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.0599999999999</v>
+        <v>673.06</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5330,7 +5534,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5342,10 +5546,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.2</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="W57">
-        <v>606.6799999999999</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5362,13 +5566,16 @@
       <c r="AB57">
         <v>557.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="2">
+      <c r="AC57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.92</v>
+        <v>587.91999999999996</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5377,16 +5584,16 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.67</v>
+        <v>520.66999999999996</v>
       </c>
       <c r="F58">
-        <v>559.6900000000001</v>
+        <v>559.69000000000005</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.8200000000001</v>
+        <v>538.82000000000005</v>
       </c>
       <c r="I58">
         <v>708.25</v>
@@ -5395,16 +5602,16 @@
         <v>757.76</v>
       </c>
       <c r="K58">
-        <v>777.5599999999999</v>
+        <v>777.56</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.55</v>
+        <v>644.54999999999995</v>
       </c>
       <c r="N58">
-        <v>685.1799999999999</v>
+        <v>685.18</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5448,13 +5655,16 @@
       <c r="AB58">
         <v>563.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="2">
+      <c r="AC58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5472,7 +5682,7 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.7</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="I59">
         <v>711.76</v>
@@ -5484,16 +5694,16 @@
         <v>773.47</v>
       </c>
       <c r="L59">
-        <v>802.3200000000001</v>
+        <v>802.32</v>
       </c>
       <c r="M59">
-        <v>653.95</v>
+        <v>653.95000000000005</v>
       </c>
       <c r="N59">
-        <v>702.5599999999999</v>
+        <v>702.56</v>
       </c>
       <c r="O59">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5502,7 +5712,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.34</v>
+        <v>267.33999999999997</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5511,7 +5721,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.87</v>
+        <v>1094.8699999999999</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5523,7 +5733,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.92</v>
+        <v>573.91999999999996</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5534,16 +5744,19 @@
       <c r="AB59">
         <v>570.66</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="2">
+      <c r="AC59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.7</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="C60">
-        <v>512.92</v>
+        <v>512.91999999999996</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5555,7 +5768,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.5599999999999</v>
+        <v>594.55999999999995</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5588,7 +5801,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79</v>
+        <v>287.79000000000002</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5618,18 +5831,21 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.3200000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="2">
+        <v>584.32000000000005</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.4400000000001</v>
+        <v>529.44000000000005</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5641,10 +5857,10 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.92</v>
+        <v>618.91999999999996</v>
       </c>
       <c r="H61">
-        <v>610.1799999999999</v>
+        <v>610.17999999999995</v>
       </c>
       <c r="I61">
         <v>753.88</v>
@@ -5665,22 +5881,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.5599999999999</v>
+        <v>655.56</v>
       </c>
       <c r="P61">
-        <v>522.8200000000001</v>
+        <v>522.82000000000005</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58</v>
+        <v>517.58000000000004</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5706,13 +5922,16 @@
       <c r="AB61">
         <v>604.84</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="2">
+      <c r="AC61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.4400000000001</v>
+        <v>723.44</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5724,13 +5943,13 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.9400000000001</v>
+        <v>695.94</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.6799999999999</v>
+        <v>669.68</v>
       </c>
       <c r="I62">
         <v>874.42</v>
@@ -5754,7 +5973,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.5700000000001</v>
+        <v>624.57000000000005</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5763,22 +5982,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33</v>
+        <v>549.33000000000004</v>
       </c>
       <c r="T62">
-        <v>586.8099999999999</v>
+        <v>586.80999999999995</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.4400000000001</v>
+        <v>603.44000000000005</v>
       </c>
       <c r="W62">
-        <v>643.0700000000001</v>
+        <v>643.07000000000005</v>
       </c>
       <c r="X62">
-        <v>1038.39</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5792,16 +6011,19 @@
       <c r="AB62">
         <v>686.95</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="2">
+      <c r="AC62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.2</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5831,7 +6053,7 @@
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.3200000000001</v>
+        <v>895.32</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5840,13 +6062,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.4299999999999</v>
+        <v>673.43</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85</v>
+        <v>312.85000000000002</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5858,13 +6080,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08</v>
+        <v>651.08000000000004</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.11</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5873,14 +6095,17 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.1900000000001</v>
+        <v>677.19</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
-      <c r="A64" s="2">
+      <c r="AC63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5890,16 +6115,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.3</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.5700000000001</v>
+        <v>799.57</v>
       </c>
       <c r="G64">
-        <v>851.0599999999999</v>
+        <v>851.06</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5920,7 +6145,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.11</v>
+        <v>1055.1099999999999</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5962,18 +6187,21 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.9299999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65" s="2">
+        <v>799.93</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.0599999999999</v>
+        <v>887.06</v>
       </c>
       <c r="C65">
-        <v>701.8200000000001</v>
+        <v>701.82</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -5988,16 +6216,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.0700000000001</v>
+        <v>985.07</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1275.85</v>
+        <v>1275.8499999999999</v>
       </c>
       <c r="K65">
-        <v>1251.9</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6012,10 +6240,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.4299999999999</v>
+        <v>728.43</v>
       </c>
       <c r="Q65">
-        <v>584.45</v>
+        <v>584.45000000000005</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6050,9 +6278,12 @@
       <c r="AB65">
         <v>843.64</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
-      <c r="A66" s="2">
+      <c r="AC65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6062,7 +6293,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.1900000000001</v>
+        <v>680.19</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6116,7 +6347,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.3099999999999</v>
+        <v>736.31</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6131,14 +6362,17 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.3099999999999</v>
+        <v>741.31</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
-      <c r="A67" s="2">
+      <c r="AC66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6151,7 +6385,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.0599999999999</v>
+        <v>846.06</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6181,7 +6415,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.16</v>
+        <v>1057.1600000000001</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6222,9 +6456,12 @@
       <c r="AB67">
         <v>931.76</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="2">
+      <c r="AC67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6243,7 +6480,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.11</v>
+        <v>1053.1099999999999</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6264,7 +6501,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.86</v>
+        <v>1288.8599999999999</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6303,27 +6540,30 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.3200000000001</v>
+        <v>787.32</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
-      <c r="A69" s="2">
+      <c r="AC68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.6900000000001</v>
+        <v>829.69</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.4400000000001</v>
+        <v>919.44</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6332,7 +6572,7 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.6</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
@@ -6365,7 +6605,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.1900000000001</v>
+        <v>733.19</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6383,7 +6623,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.64</v>
+        <v>1060.6400000000001</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6394,9 +6634,12 @@
       <c r="AB69">
         <v>1001.03</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
-      <c r="A70" s="2">
+      <c r="AC69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6469,7 +6712,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.34</v>
+        <v>1062.3399999999999</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6480,16 +6723,19 @@
       <c r="AB70">
         <v>1015.65</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
-      <c r="A71" s="2">
+      <c r="AC70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.61</v>
+        <v>1120.6099999999999</v>
       </c>
       <c r="C71">
-        <v>879.4299999999999</v>
+        <v>879.43</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6510,7 +6756,7 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
-        <v>1165.61</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="K71">
         <v>1410.76</v>
@@ -6531,7 +6777,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.4400000000001</v>
+        <v>703.44</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6540,7 +6786,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.6900000000001</v>
+        <v>893.69</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6564,18 +6810,21 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
-      <c r="A72" s="2">
+        <v>1046.8900000000001</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.39</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="C72">
-        <v>907.9400000000001</v>
+        <v>907.94</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6611,7 +6860,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.12</v>
+        <v>1298.1199999999999</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6629,19 +6878,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.82</v>
+        <v>2082.8200000000002</v>
       </c>
       <c r="V72">
-        <v>901.5700000000001</v>
+        <v>901.57</v>
       </c>
       <c r="W72">
-        <v>887.8200000000001</v>
+        <v>887.82</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.61</v>
+        <v>1158.6099999999999</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6652,9 +6901,12 @@
       <c r="AB72">
         <v>1084</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="2">
+      <c r="AC72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6670,10 +6922,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.62</v>
+        <v>1103.6199999999999</v>
       </c>
       <c r="G73">
-        <v>1194.6</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6700,10 +6952,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.0599999999999</v>
+        <v>924.06</v>
       </c>
       <c r="Q73">
-        <v>741.5599999999999</v>
+        <v>741.56</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6738,9 +6990,12 @@
       <c r="AB73">
         <v>1115.26</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="2">
+      <c r="AC73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6753,10 +7008,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.1</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="F74">
-        <v>1113.64</v>
+        <v>1113.6400000000001</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6786,7 +7041,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.6900000000001</v>
+        <v>939.69</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6804,7 +7059,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.3099999999999</v>
+        <v>938.31</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6824,9 +7079,12 @@
       <c r="AB74">
         <v>1128.45</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="2">
+      <c r="AC74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6845,7 +7103,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.11</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6910,9 +7168,12 @@
       <c r="AB75">
         <v>1203.48</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
-      <c r="A76" s="2">
+      <c r="AC75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6928,7 +7189,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.13</v>
+        <v>1232.1300000000001</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6970,19 +7231,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.13</v>
+        <v>1024.1300000000001</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.66</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.51</v>
+        <v>2052.5100000000002</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -6996,9 +7257,12 @@
       <c r="AB76">
         <v>1241.33</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="2">
+      <c r="AC76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7008,13 +7272,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.8099999999999</v>
+        <v>958.81</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.09</v>
+        <v>1263.0899999999999</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7059,7 +7323,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.28</v>
+        <v>2392.2800000000002</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7068,7 +7332,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.51</v>
+        <v>2131.5100000000002</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7082,19 +7346,22 @@
       <c r="AB77">
         <v>1269.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
-      <c r="A78" s="2">
+      <c r="AC77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.85</v>
+        <v>1096.8499999999999</v>
       </c>
       <c r="D78">
-        <v>989.5700000000001</v>
+        <v>989.57</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7145,7 +7412,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8</v>
+        <v>2410.8000000000002</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7168,19 +7435,22 @@
       <c r="AB78">
         <v>1300.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
-      <c r="A79" s="2">
+      <c r="AC78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.39</v>
+        <v>1136.3900000000001</v>
       </c>
       <c r="D79">
-        <v>1031.64</v>
+        <v>1031.6400000000001</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7216,7 +7486,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.13</v>
+        <v>1057.1300000000001</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7228,19 +7498,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.35</v>
+        <v>1072.3499999999999</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.66</v>
+        <v>1221.6600000000001</v>
       </c>
       <c r="W79">
-        <v>1226.59</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="X79">
-        <v>2379.55</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7249,14 +7519,17 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.86</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="AB79">
-        <v>1300.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
-      <c r="A80" s="2">
+        <v>1300.5999999999999</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7278,7 +7551,7 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.88</v>
+        <v>1057.8800000000001</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
@@ -7305,7 +7578,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.5599999999999</v>
+        <v>884.56</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7320,7 +7593,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.36</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7335,21 +7608,24 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.41</v>
+        <v>1239.4100000000001</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
-      <c r="A81" s="2">
+      <c r="AC80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4</v>
+        <v>1280.4000000000001</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7388,7 +7664,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.65</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7397,7 +7673,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.1</v>
+        <v>1138.0999999999999</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7426,9 +7702,12 @@
       <c r="AB81">
         <v>1479.84</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
-      <c r="A82" s="2">
+      <c r="AC81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7456,7 +7735,7 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
-        <v>2354.43</v>
+        <v>2354.4299999999998</v>
       </c>
       <c r="K82">
         <v>2702.83</v>
@@ -7477,7 +7756,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.63</v>
+        <v>1050.6300000000001</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7486,7 +7765,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.65</v>
+        <v>1306.6500000000001</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7512,9 +7791,12 @@
       <c r="AB82">
         <v>1614.31</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
-      <c r="A83" s="2">
+      <c r="AC82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7542,7 +7824,7 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
-        <v>2359.95</v>
+        <v>2359.9499999999998</v>
       </c>
       <c r="K83">
         <v>2767.43</v>
@@ -7563,7 +7845,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.87</v>
+        <v>1077.8699999999999</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7598,9 +7880,12 @@
       <c r="AB83">
         <v>1691.04</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
-      <c r="A84" s="2">
+      <c r="AC83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7655,7 +7940,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.1</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7684,9 +7969,12 @@
       <c r="AB84">
         <v>1749.11</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
-      <c r="A85" s="2">
+      <c r="AC84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7711,7 +7999,7 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.51</v>
+        <v>2552.5100000000002</v>
       </c>
       <c r="J85">
         <v>2305.84</v>
@@ -7770,9 +8058,12 @@
       <c r="AB85">
         <v>1806.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
-      <c r="A86" s="2">
+      <c r="AC85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7800,7 +8091,7 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
-        <v>2568.49</v>
+        <v>2568.4899999999998</v>
       </c>
       <c r="K86">
         <v>3097.87</v>
@@ -7827,7 +8118,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.64</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7856,9 +8147,12 @@
       <c r="AB86">
         <v>1859.38</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
-      <c r="A87" s="2">
+      <c r="AC86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7895,7 +8189,7 @@
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.28</v>
+        <v>2429.2800000000002</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7907,7 +8201,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7925,13 +8219,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.76</v>
+        <v>2198.7600000000002</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.82</v>
+        <v>2468.8200000000002</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7942,9 +8236,12 @@
       <c r="AB87">
         <v>1984.02</v>
       </c>
-    </row>
-    <row r="88" spans="1:28">
-      <c r="A88" s="2">
+      <c r="AC87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -8023,14 +8320,17 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.18</v>
+        <v>2074.1799999999998</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
-      <c r="A89" s="2">
+      <c r="AC88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8097,13 +8397,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.01</v>
+        <v>2503.0100000000002</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.07</v>
+        <v>2520.0700000000002</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8112,15 +8412,18 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
-      <c r="A90" s="2">
+        <v>2139.4699999999998</v>
+      </c>
+      <c r="AC89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.47</v>
+        <v>2380.4699999999998</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8132,7 +8435,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.97</v>
+        <v>2277.9699999999998</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8168,7 +8471,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.4400000000001</v>
+        <v>578.44000000000005</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8180,7 +8483,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.78</v>
+        <v>2300.7800000000002</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8192,17 +8495,20 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95</v>
+        <v>520.95000000000005</v>
       </c>
       <c r="AA90">
-        <v>2218.43</v>
+        <v>2218.4299999999998</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:28">
-      <c r="A91" s="2">
+      <c r="AC90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8221,7 +8527,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.97</v>
+        <v>2220.9699999999998</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8263,7 +8569,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6</v>
+        <v>4477.6000000000004</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8286,9 +8592,12 @@
       <c r="AB91">
         <v>2281.85</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
-      <c r="A92" s="2">
+      <c r="AC91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8307,7 +8616,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.26</v>
+        <v>2241.2600000000002</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8322,7 +8631,7 @@
         <v>3985.77</v>
       </c>
       <c r="L92">
-        <v>4468.77</v>
+        <v>4468.7700000000004</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8340,7 +8649,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.17</v>
+        <v>630.16999999999996</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8352,7 +8661,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.78</v>
+        <v>2472.7800000000002</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8367,18 +8676,21 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.18</v>
+        <v>2343.1799999999998</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
-      <c r="A93" s="2">
+      <c r="AC92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.76</v>
+        <v>2588.7600000000002</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8426,7 +8738,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.9299999999999</v>
+        <v>612.92999999999995</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8450,24 +8762,27 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.4400000000001</v>
+        <v>585.44000000000005</v>
       </c>
       <c r="AA93">
-        <v>2423.43</v>
+        <v>2423.4299999999998</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
-      <c r="A94" s="2">
+      <c r="AC93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.82</v>
+        <v>2111.8200000000002</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8476,13 +8791,13 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.57</v>
+        <v>2475.5700000000002</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.76</v>
+        <v>2294.7600000000002</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
@@ -8521,7 +8836,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.4</v>
+        <v>4937.3999999999996</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8539,14 +8854,17 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.24</v>
+        <v>2538.2399999999998</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
-    </row>
-    <row r="95" spans="1:28">
-      <c r="A95" s="2">
+      <c r="AC94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8559,7 +8877,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.97</v>
+        <v>2288.9699999999998</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8568,7 +8886,7 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.82</v>
+        <v>2304.8200000000002</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
@@ -8607,7 +8925,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.48</v>
+        <v>5143.4799999999996</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8630,19 +8948,22 @@
       <c r="AB95">
         <v>2526.16</v>
       </c>
-    </row>
-    <row r="96" spans="1:28">
-      <c r="A96" s="2">
+      <c r="AC95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.55</v>
+        <v>2238.5500000000002</v>
       </c>
       <c r="D96">
-        <v>2062.95</v>
+        <v>2062.9499999999998</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8651,7 +8972,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.24</v>
+        <v>2464.2399999999998</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8663,7 +8984,7 @@
         <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>4234.64</v>
+        <v>4234.6400000000003</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8716,16 +9037,19 @@
       <c r="AB96">
         <v>2598.91</v>
       </c>
-    </row>
-    <row r="97" spans="1:28">
-      <c r="A97" s="2">
+      <c r="AC96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.05</v>
+        <v>2273.0500000000002</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8779,7 +9103,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6</v>
+        <v>5151.6000000000004</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8788,7 +9112,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.77</v>
+        <v>5240.7700000000004</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8802,9 +9126,12 @@
       <c r="AB97">
         <v>2657.23</v>
       </c>
-    </row>
-    <row r="98" spans="1:28">
-      <c r="A98" s="2">
+      <c r="AC97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8826,7 +9153,7 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.07</v>
+        <v>2370.0700000000002</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
@@ -8838,7 +9165,7 @@
         <v>4655.76</v>
       </c>
       <c r="L98">
-        <v>4788.89</v>
+        <v>4788.8900000000003</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8888,9 +9215,12 @@
       <c r="AB98">
         <v>2684.55</v>
       </c>
-    </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="2">
+      <c r="AC98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8900,7 +9230,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.95</v>
+        <v>2234.9499999999998</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8912,16 +9242,16 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.68</v>
+        <v>2514.6799999999998</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4483.06</v>
+        <v>4483.0600000000004</v>
       </c>
       <c r="K99">
-        <v>4779.39</v>
+        <v>4779.3900000000003</v>
       </c>
       <c r="L99">
         <v>4889.26</v>
@@ -8957,7 +9287,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.61</v>
+        <v>4411.6099999999997</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8974,9 +9304,12 @@
       <c r="AB99">
         <v>2819.65</v>
       </c>
-    </row>
-    <row r="100" spans="1:28">
-      <c r="A100" s="2">
+      <c r="AC99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>45716</v>
       </c>
       <c r="B100">
@@ -9001,10 +9334,10 @@
         <v>2604.67</v>
       </c>
       <c r="I100">
-        <v>4115.94</v>
+        <v>4115.9399999999996</v>
       </c>
       <c r="J100">
-        <v>4428.65</v>
+        <v>4428.6499999999996</v>
       </c>
       <c r="K100">
         <v>4846.41</v>
@@ -9060,16 +9393,19 @@
       <c r="AB100">
         <v>2883.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:28">
-      <c r="A101" s="2">
+      <c r="AC100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>45747</v>
       </c>
       <c r="B101">
         <v>3197.21</v>
       </c>
       <c r="C101">
-        <v>2513.76</v>
+        <v>2513.7600000000002</v>
       </c>
       <c r="D101">
         <v>2308.5</v>
@@ -9090,7 +9426,7 @@
         <v>4319.13</v>
       </c>
       <c r="J101">
-        <v>5138.69</v>
+        <v>5138.6899999999996</v>
       </c>
       <c r="K101">
         <v>5339.05</v>
@@ -9120,7 +9456,7 @@
         <v>1690.63</v>
       </c>
       <c r="T101">
-        <v>2058.24</v>
+        <v>2058.2399999999998</v>
       </c>
       <c r="U101">
         <v>5712.62</v>
@@ -9129,7 +9465,7 @@
         <v>3453.34</v>
       </c>
       <c r="W101">
-        <v>4800.06</v>
+        <v>4800.0600000000004</v>
       </c>
       <c r="X101">
         <v>5958.51</v>
@@ -9145,6 +9481,9 @@
       </c>
       <c r="AB101">
         <v>2954.69</v>
+      </c>
+      <c r="AC101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06831EB9-4D25-4B6C-823C-DD32091BCEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA15514E-D40F-4D2A-9FC2-3930E4F8CBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Mevsimlik Ürünler Hariç TÜFE</t>
   </si>
@@ -102,9 +102,6 @@
   <si>
     <t>TÜFE</t>
   </si>
-  <si>
-    <t>constant</t>
-  </si>
 </sst>
 </file>
 
@@ -135,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,31 +155,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -489,18 +472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,11 +565,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42735</v>
       </c>
@@ -671,11 +651,8 @@
       <c r="AB2">
         <v>292.54000000000002</v>
       </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42766</v>
       </c>
@@ -760,11 +737,8 @@
       <c r="AB3">
         <v>299.74</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42794</v>
       </c>
@@ -849,11 +823,8 @@
       <c r="AB4">
         <v>302.17</v>
       </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>42825</v>
       </c>
@@ -938,11 +909,8 @@
       <c r="AB5">
         <v>305.24</v>
       </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42855</v>
       </c>
@@ -1027,11 +995,8 @@
       <c r="AB6">
         <v>309.23</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42886</v>
       </c>
@@ -1116,11 +1081,8 @@
       <c r="AB7">
         <v>310.61</v>
       </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42916</v>
       </c>
@@ -1205,11 +1167,8 @@
       <c r="AB8">
         <v>309.77999999999997</v>
       </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42947</v>
       </c>
@@ -1294,11 +1253,8 @@
       <c r="AB9">
         <v>310.24</v>
       </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>42978</v>
       </c>
@@ -1383,11 +1339,8 @@
       <c r="AB10">
         <v>311.85000000000002</v>
       </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43008</v>
       </c>
@@ -1472,11 +1425,8 @@
       <c r="AB11">
         <v>313.88</v>
       </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43039</v>
       </c>
@@ -1561,11 +1511,8 @@
       <c r="AB12">
         <v>320.39999999999998</v>
       </c>
-      <c r="AC12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43069</v>
       </c>
@@ -1650,11 +1597,8 @@
       <c r="AB13">
         <v>325.18</v>
       </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43100</v>
       </c>
@@ -1739,11 +1683,8 @@
       <c r="AB14">
         <v>327.41000000000003</v>
       </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43131</v>
       </c>
@@ -1828,11 +1769,8 @@
       <c r="AB15">
         <v>330.75</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43159</v>
       </c>
@@ -1917,11 +1855,8 @@
       <c r="AB16">
         <v>333.17</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43190</v>
       </c>
@@ -2006,11 +1941,8 @@
       <c r="AB17">
         <v>336.48</v>
       </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43220</v>
       </c>
@@ -2095,11 +2027,8 @@
       <c r="AB18">
         <v>342.78</v>
       </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43251</v>
       </c>
@@ -2184,11 +2113,8 @@
       <c r="AB19">
         <v>348.34</v>
       </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43281</v>
       </c>
@@ -2273,11 +2199,8 @@
       <c r="AB20">
         <v>357.44</v>
       </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43312</v>
       </c>
@@ -2362,11 +2285,8 @@
       <c r="AB21">
         <v>359.41</v>
       </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43343</v>
       </c>
@@ -2451,11 +2371,8 @@
       <c r="AB22">
         <v>367.66</v>
       </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43373</v>
       </c>
@@ -2540,11 +2457,8 @@
       <c r="AB23">
         <v>390.84</v>
       </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43404</v>
       </c>
@@ -2629,11 +2543,8 @@
       <c r="AB24">
         <v>401.27</v>
       </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43434</v>
       </c>
@@ -2718,11 +2629,8 @@
       <c r="AB25">
         <v>395.48</v>
       </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43465</v>
       </c>
@@ -2807,11 +2715,8 @@
       <c r="AB26">
         <v>393.88</v>
       </c>
-      <c r="AC26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43496</v>
       </c>
@@ -2896,11 +2801,8 @@
       <c r="AB27">
         <v>398.07</v>
       </c>
-      <c r="AC27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43524</v>
       </c>
@@ -2985,11 +2887,8 @@
       <c r="AB28">
         <v>398.71</v>
       </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43555</v>
       </c>
@@ -3074,11 +2973,8 @@
       <c r="AB29">
         <v>402.81</v>
       </c>
-      <c r="AC29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43585</v>
       </c>
@@ -3163,11 +3059,8 @@
       <c r="AB30">
         <v>409.63</v>
       </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43616</v>
       </c>
@@ -3252,11 +3145,8 @@
       <c r="AB31">
         <v>413.52</v>
       </c>
-      <c r="AC31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43646</v>
       </c>
@@ -3341,11 +3231,8 @@
       <c r="AB32">
         <v>413.63</v>
       </c>
-      <c r="AC32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43677</v>
       </c>
@@ -3430,11 +3317,8 @@
       <c r="AB33">
         <v>419.24</v>
       </c>
-      <c r="AC33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43708</v>
       </c>
@@ -3519,11 +3403,8 @@
       <c r="AB34">
         <v>422.84</v>
       </c>
-      <c r="AC34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43738</v>
       </c>
@@ -3608,11 +3489,8 @@
       <c r="AB35">
         <v>427.04</v>
       </c>
-      <c r="AC35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43769</v>
       </c>
@@ -3697,11 +3575,8 @@
       <c r="AB36">
         <v>435.59</v>
       </c>
-      <c r="AC36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43799</v>
       </c>
@@ -3786,11 +3661,8 @@
       <c r="AB37">
         <v>437.25</v>
       </c>
-      <c r="AC37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43830</v>
       </c>
@@ -3875,11 +3747,8 @@
       <c r="AB38">
         <v>440.5</v>
       </c>
-      <c r="AC38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43861</v>
       </c>
@@ -3964,11 +3833,8 @@
       <c r="AB39">
         <v>446.45</v>
       </c>
-      <c r="AC39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43890</v>
       </c>
@@ -4053,11 +3919,8 @@
       <c r="AB40">
         <v>448.02</v>
       </c>
-      <c r="AC40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43921</v>
       </c>
@@ -4142,11 +4005,8 @@
       <c r="AB41">
         <v>450.58</v>
       </c>
-      <c r="AC41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43951</v>
       </c>
@@ -4231,11 +4091,8 @@
       <c r="AB42">
         <v>454.43</v>
       </c>
-      <c r="AC42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43982</v>
       </c>
@@ -4320,11 +4177,8 @@
       <c r="AB43">
         <v>460.62</v>
       </c>
-      <c r="AC43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44012</v>
       </c>
@@ -4409,11 +4263,8 @@
       <c r="AB44">
         <v>465.84</v>
       </c>
-      <c r="AC44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44043</v>
       </c>
@@ -4498,11 +4349,8 @@
       <c r="AB45">
         <v>468.56</v>
       </c>
-      <c r="AC45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44074</v>
       </c>
@@ -4587,11 +4435,8 @@
       <c r="AB46">
         <v>472.61</v>
       </c>
-      <c r="AC46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44104</v>
       </c>
@@ -4676,11 +4521,8 @@
       <c r="AB47">
         <v>477.21</v>
       </c>
-      <c r="AC47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44135</v>
       </c>
@@ -4765,11 +4607,8 @@
       <c r="AB48">
         <v>487.38</v>
       </c>
-      <c r="AC48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44165</v>
       </c>
@@ -4854,11 +4693,8 @@
       <c r="AB49">
         <v>498.58</v>
       </c>
-      <c r="AC49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44196</v>
       </c>
@@ -4943,11 +4779,8 @@
       <c r="AB50">
         <v>504.81</v>
       </c>
-      <c r="AC50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44227</v>
       </c>
@@ -5032,11 +4865,8 @@
       <c r="AB51">
         <v>513.29999999999995</v>
       </c>
-      <c r="AC51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44255</v>
       </c>
@@ -5121,11 +4951,8 @@
       <c r="AB52">
         <v>517.96</v>
       </c>
-      <c r="AC52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44286</v>
       </c>
@@ -5210,11 +5037,8 @@
       <c r="AB53">
         <v>523.53</v>
       </c>
-      <c r="AC53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44316</v>
       </c>
@@ -5299,11 +5123,8 @@
       <c r="AB54">
         <v>532.32000000000005</v>
       </c>
-      <c r="AC54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44347</v>
       </c>
@@ -5388,11 +5209,8 @@
       <c r="AB55">
         <v>537.04999999999995</v>
       </c>
-      <c r="AC55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44377</v>
       </c>
@@ -5477,11 +5295,8 @@
       <c r="AB56">
         <v>547.48</v>
       </c>
-      <c r="AC56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44408</v>
       </c>
@@ -5566,11 +5381,8 @@
       <c r="AB57">
         <v>557.36</v>
       </c>
-      <c r="AC57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44439</v>
       </c>
@@ -5655,11 +5467,8 @@
       <c r="AB58">
         <v>563.6</v>
       </c>
-      <c r="AC58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44469</v>
       </c>
@@ -5744,11 +5553,8 @@
       <c r="AB59">
         <v>570.66</v>
       </c>
-      <c r="AC59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44500</v>
       </c>
@@ -5833,11 +5639,8 @@
       <c r="AB60">
         <v>584.32000000000005</v>
       </c>
-      <c r="AC60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44530</v>
       </c>
@@ -5922,11 +5725,8 @@
       <c r="AB61">
         <v>604.84</v>
       </c>
-      <c r="AC61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44561</v>
       </c>
@@ -6011,11 +5811,8 @@
       <c r="AB62">
         <v>686.95</v>
       </c>
-      <c r="AC62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44592</v>
       </c>
@@ -6100,11 +5897,8 @@
       <c r="AB63">
         <v>763.23</v>
       </c>
-      <c r="AC63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44620</v>
       </c>
@@ -6189,11 +5983,8 @@
       <c r="AB64">
         <v>799.93</v>
       </c>
-      <c r="AC64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44651</v>
       </c>
@@ -6278,11 +6069,8 @@
       <c r="AB65">
         <v>843.64</v>
       </c>
-      <c r="AC65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44681</v>
       </c>
@@ -6367,11 +6155,8 @@
       <c r="AB66">
         <v>904.79</v>
       </c>
-      <c r="AC66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44712</v>
       </c>
@@ -6456,11 +6241,8 @@
       <c r="AB67">
         <v>931.76</v>
       </c>
-      <c r="AC67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44742</v>
       </c>
@@ -6545,11 +6327,8 @@
       <c r="AB68">
         <v>977.9</v>
       </c>
-      <c r="AC68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44773</v>
       </c>
@@ -6634,11 +6413,8 @@
       <c r="AB69">
         <v>1001.03</v>
       </c>
-      <c r="AC69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44804</v>
       </c>
@@ -6723,11 +6499,8 @@
       <c r="AB70">
         <v>1015.65</v>
       </c>
-      <c r="AC70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44834</v>
       </c>
@@ -6812,11 +6585,8 @@
       <c r="AB71">
         <v>1046.8900000000001</v>
       </c>
-      <c r="AC71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44865</v>
       </c>
@@ -6901,11 +6671,8 @@
       <c r="AB72">
         <v>1084</v>
       </c>
-      <c r="AC72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44895</v>
       </c>
@@ -6990,11 +6757,8 @@
       <c r="AB73">
         <v>1115.26</v>
       </c>
-      <c r="AC73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44926</v>
       </c>
@@ -7079,11 +6843,8 @@
       <c r="AB74">
         <v>1128.45</v>
       </c>
-      <c r="AC74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44957</v>
       </c>
@@ -7168,11 +6929,8 @@
       <c r="AB75">
         <v>1203.48</v>
       </c>
-      <c r="AC75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44985</v>
       </c>
@@ -7257,11 +7015,8 @@
       <c r="AB76">
         <v>1241.33</v>
       </c>
-      <c r="AC76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>45016</v>
       </c>
@@ -7346,11 +7101,8 @@
       <c r="AB77">
         <v>1269.75</v>
       </c>
-      <c r="AC77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>45046</v>
       </c>
@@ -7435,11 +7187,8 @@
       <c r="AB78">
         <v>1300.04</v>
       </c>
-      <c r="AC78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>45077</v>
       </c>
@@ -7524,11 +7273,8 @@
       <c r="AB79">
         <v>1300.5999999999999</v>
       </c>
-      <c r="AC79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>45107</v>
       </c>
@@ -7613,11 +7359,8 @@
       <c r="AB80">
         <v>1351.59</v>
       </c>
-      <c r="AC80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>45138</v>
       </c>
@@ -7702,11 +7445,8 @@
       <c r="AB81">
         <v>1479.84</v>
       </c>
-      <c r="AC81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>45169</v>
       </c>
@@ -7791,11 +7531,8 @@
       <c r="AB82">
         <v>1614.31</v>
       </c>
-      <c r="AC82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>45199</v>
       </c>
@@ -7880,11 +7617,8 @@
       <c r="AB83">
         <v>1691.04</v>
       </c>
-      <c r="AC83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>45230</v>
       </c>
@@ -7969,11 +7703,8 @@
       <c r="AB84">
         <v>1749.11</v>
       </c>
-      <c r="AC84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>45260</v>
       </c>
@@ -8058,11 +7789,8 @@
       <c r="AB85">
         <v>1806.5</v>
       </c>
-      <c r="AC85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>45291</v>
       </c>
@@ -8147,11 +7875,8 @@
       <c r="AB86">
         <v>1859.38</v>
       </c>
-      <c r="AC86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>45322</v>
       </c>
@@ -8236,11 +7961,8 @@
       <c r="AB87">
         <v>1984.02</v>
       </c>
-      <c r="AC87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>45351</v>
       </c>
@@ -8325,11 +8047,8 @@
       <c r="AB88">
         <v>2073.88</v>
       </c>
-      <c r="AC88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>45382</v>
       </c>
@@ -8414,11 +8133,8 @@
       <c r="AB89">
         <v>2139.4699999999998</v>
       </c>
-      <c r="AC89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>45412</v>
       </c>
@@ -8503,11 +8219,8 @@
       <c r="AB90">
         <v>2207.5</v>
       </c>
-      <c r="AC90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>45443</v>
       </c>
@@ -8592,11 +8305,8 @@
       <c r="AB91">
         <v>2281.85</v>
       </c>
-      <c r="AC91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>45473</v>
       </c>
@@ -8681,11 +8391,8 @@
       <c r="AB92">
         <v>2319.29</v>
       </c>
-      <c r="AC92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>45504</v>
       </c>
@@ -8770,11 +8477,8 @@
       <c r="AB93">
         <v>2394.1</v>
       </c>
-      <c r="AC93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>45535</v>
       </c>
@@ -8859,11 +8563,8 @@
       <c r="AB94">
         <v>2453.34</v>
       </c>
-      <c r="AC94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>45565</v>
       </c>
@@ -8948,11 +8649,8 @@
       <c r="AB95">
         <v>2526.16</v>
       </c>
-      <c r="AC95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>45596</v>
       </c>
@@ -9037,11 +8735,8 @@
       <c r="AB96">
         <v>2598.91</v>
       </c>
-      <c r="AC96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45626</v>
       </c>
@@ -9126,11 +8821,8 @@
       <c r="AB97">
         <v>2657.23</v>
       </c>
-      <c r="AC97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>45657</v>
       </c>
@@ -9215,11 +8907,8 @@
       <c r="AB98">
         <v>2684.55</v>
       </c>
-      <c r="AC98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>45688</v>
       </c>
@@ -9304,186 +8993,182 @@
       <c r="AB99">
         <v>2819.65</v>
       </c>
-      <c r="AC99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3132.43</v>
+        <v>3161.7558369578951</v>
       </c>
       <c r="C100">
-        <v>2481.46</v>
+        <v>2521.6565730008392</v>
       </c>
       <c r="D100">
-        <v>2275.17</v>
+        <v>2318.500771376664</v>
       </c>
       <c r="E100">
-        <v>2602.16</v>
+        <v>2644.5458872181498</v>
       </c>
       <c r="F100">
-        <v>2911.56</v>
+        <v>2941.0220293548991</v>
       </c>
       <c r="G100">
-        <v>2664.08</v>
+        <v>2723.7621710480648</v>
       </c>
       <c r="H100">
-        <v>2604.67</v>
+        <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4115.9399999999996</v>
+        <v>4122.5400266702209</v>
       </c>
       <c r="J100">
-        <v>4428.6499999999996</v>
+        <v>4480.8448403177663</v>
       </c>
       <c r="K100">
-        <v>4846.41</v>
+        <v>4845.0360797187341</v>
       </c>
       <c r="L100">
-        <v>5053.34</v>
+        <v>5021.1415911665454</v>
       </c>
       <c r="M100">
-        <v>3546.52</v>
+        <v>3547.5368690859432</v>
       </c>
       <c r="N100">
-        <v>4020.67</v>
+        <v>4006.396180070411</v>
       </c>
       <c r="O100">
-        <v>3292</v>
+        <v>3298.8101259039549</v>
       </c>
       <c r="P100">
-        <v>1887.57</v>
+        <v>1968.818648657101</v>
       </c>
       <c r="Q100">
-        <v>1477.99</v>
+        <v>1540.275144256487</v>
       </c>
       <c r="R100">
-        <v>647.12</v>
+        <v>715.54926611778671</v>
       </c>
       <c r="S100">
-        <v>1663.53</v>
+        <v>1672.205337320532</v>
       </c>
       <c r="T100">
-        <v>2016.04</v>
+        <v>2149.614870859285</v>
       </c>
       <c r="U100">
-        <v>5245.61</v>
+        <v>5636.8573633898823</v>
       </c>
       <c r="V100">
-        <v>3387.06</v>
+        <v>3382.5964043540639</v>
       </c>
       <c r="W100">
-        <v>4642.57</v>
+        <v>4597.8144691720954</v>
       </c>
       <c r="X100">
-        <v>5833.16</v>
+        <v>5858.3339374863444</v>
       </c>
       <c r="Y100">
-        <v>3781.79</v>
+        <v>3866.8827256514842</v>
       </c>
       <c r="Z100">
-        <v>660.77</v>
+        <v>628.72663070400517</v>
       </c>
       <c r="AA100">
-        <v>3291.2</v>
+        <v>3418.0802479461249</v>
       </c>
       <c r="AB100">
-        <v>2883.75</v>
-      </c>
-      <c r="AC100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+        <v>2926.9459150414118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3197.21</v>
+        <v>3265.7668274541161</v>
       </c>
       <c r="C101">
-        <v>2513.7600000000002</v>
+        <v>2623.4042651478721</v>
       </c>
       <c r="D101">
-        <v>2308.5</v>
+        <v>2423.263971937376</v>
       </c>
       <c r="E101">
-        <v>2631.97</v>
+        <v>2738.6460778200089</v>
       </c>
       <c r="F101">
-        <v>2981.16</v>
+        <v>3065.0418286045492</v>
       </c>
       <c r="G101">
-        <v>2736.19</v>
+        <v>2816.3871261685572</v>
       </c>
       <c r="H101">
-        <v>2605.38</v>
+        <v>2634.3766926018538</v>
       </c>
       <c r="I101">
-        <v>4319.13</v>
+        <v>4316.1448248725983</v>
       </c>
       <c r="J101">
-        <v>5138.6899999999996</v>
+        <v>5018.8247148521796</v>
       </c>
       <c r="K101">
-        <v>5339.05</v>
+        <v>5228.2995612094846</v>
       </c>
       <c r="L101">
-        <v>5355.39</v>
+        <v>5232.119310591248</v>
       </c>
       <c r="M101">
-        <v>3566.66</v>
+        <v>3635.9725225209709</v>
       </c>
       <c r="N101">
-        <v>4027.72</v>
+        <v>4075.608277256481</v>
       </c>
       <c r="O101">
-        <v>3317.44</v>
+        <v>3386.6363371586208</v>
       </c>
       <c r="P101">
-        <v>1922.29</v>
+        <v>2038.261330230554</v>
       </c>
       <c r="Q101">
-        <v>1491.09</v>
+        <v>1592.6636313903989</v>
       </c>
       <c r="R101">
-        <v>630.36</v>
+        <v>764.18726678627206</v>
       </c>
       <c r="S101">
-        <v>1690.63</v>
+        <v>1692.042997106736</v>
       </c>
       <c r="T101">
-        <v>2058.2399999999998</v>
+        <v>2241.671418465532</v>
       </c>
       <c r="U101">
-        <v>5712.62</v>
+        <v>5921.942481406737</v>
       </c>
       <c r="V101">
-        <v>3453.34</v>
+        <v>3583.0026989539911</v>
       </c>
       <c r="W101">
-        <v>4800.0600000000004</v>
+        <v>4766.1449791637961</v>
       </c>
       <c r="X101">
-        <v>5958.51</v>
+        <v>5921.2273192102539</v>
       </c>
       <c r="Y101">
-        <v>3771.01</v>
+        <v>4129.3939454754436</v>
       </c>
       <c r="Z101">
-        <v>664.42</v>
+        <v>614.36786011369941</v>
       </c>
       <c r="AA101">
-        <v>3351.27</v>
+        <v>4414.5504894611313</v>
       </c>
       <c r="AB101">
-        <v>2954.69</v>
-      </c>
-      <c r="AC101">
-        <v>1</v>
+        <v>3046.5721699819651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>45777</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA15514E-D40F-4D2A-9FC2-3930E4F8CBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D8265C-1EA6-4F8C-B170-2DB6A9EAA74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,10 +46,10 @@
     <t>Gıda ve alkolsüz içecekler</t>
   </si>
   <si>
-    <t>Taze meyve ve sebze</t>
+    <t>İşlenmemiş gıda</t>
   </si>
   <si>
-    <t>İşlenmemiş gıda</t>
+    <t>Taze meyve ve sebze</t>
   </si>
   <si>
     <t>Diğer işlenmemiş gıda</t>
@@ -475,7 +475,7 @@
   <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +595,10 @@
         <v>319.35000000000002</v>
       </c>
       <c r="J2">
+        <v>339.7</v>
+      </c>
+      <c r="K2">
         <v>292.5</v>
-      </c>
-      <c r="K2">
-        <v>339.7</v>
       </c>
       <c r="L2">
         <v>372.65</v>
@@ -681,10 +681,10 @@
         <v>339.7</v>
       </c>
       <c r="J3">
+        <v>381.36</v>
+      </c>
+      <c r="K3">
         <v>392.13</v>
-      </c>
-      <c r="K3">
-        <v>381.36</v>
       </c>
       <c r="L3">
         <v>376.16</v>
@@ -767,10 +767,10 @@
         <v>342.57</v>
       </c>
       <c r="J4">
+        <v>382.72</v>
+      </c>
+      <c r="K4">
         <v>389.79</v>
-      </c>
-      <c r="K4">
-        <v>382.72</v>
       </c>
       <c r="L4">
         <v>379.96</v>
@@ -853,10 +853,10 @@
         <v>349.18</v>
       </c>
       <c r="J5">
+        <v>394</v>
+      </c>
+      <c r="K5">
         <v>410.22</v>
-      </c>
-      <c r="K5">
-        <v>394</v>
       </c>
       <c r="L5">
         <v>385.24</v>
@@ -939,10 +939,10 @@
         <v>353.47</v>
       </c>
       <c r="J6">
+        <v>399.89</v>
+      </c>
+      <c r="K6">
         <v>411.03</v>
-      </c>
-      <c r="K6">
-        <v>399.89</v>
       </c>
       <c r="L6">
         <v>394.53</v>
@@ -1025,10 +1025,10 @@
         <v>351.53</v>
       </c>
       <c r="J7">
+        <v>392.08</v>
+      </c>
+      <c r="K7">
         <v>379.08</v>
-      </c>
-      <c r="K7">
-        <v>392.08</v>
       </c>
       <c r="L7">
         <v>402.65</v>
@@ -1111,10 +1111,10 @@
         <v>347.81</v>
       </c>
       <c r="J8">
+        <v>382.39</v>
+      </c>
+      <c r="K8">
         <v>343.59</v>
-      </c>
-      <c r="K8">
-        <v>382.39</v>
       </c>
       <c r="L8">
         <v>410.01</v>
@@ -1197,10 +1197,10 @@
         <v>345.34</v>
       </c>
       <c r="J9">
+        <v>372.7</v>
+      </c>
+      <c r="K9">
         <v>320.86</v>
-      </c>
-      <c r="K9">
-        <v>372.7</v>
       </c>
       <c r="L9">
         <v>408.89</v>
@@ -1283,10 +1283,10 @@
         <v>344.57</v>
       </c>
       <c r="J10">
+        <v>365.88</v>
+      </c>
+      <c r="K10">
         <v>302.24</v>
-      </c>
-      <c r="K10">
-        <v>365.88</v>
       </c>
       <c r="L10">
         <v>409.85</v>
@@ -1369,10 +1369,10 @@
         <v>343.79</v>
       </c>
       <c r="J11">
+        <v>360.98</v>
+      </c>
+      <c r="K11">
         <v>299.73</v>
-      </c>
-      <c r="K11">
-        <v>360.98</v>
       </c>
       <c r="L11">
         <v>403.34</v>
@@ -1455,10 +1455,10 @@
         <v>350.57</v>
       </c>
       <c r="J12">
+        <v>369.97</v>
+      </c>
+      <c r="K12">
         <v>328.72</v>
-      </c>
-      <c r="K12">
-        <v>369.97</v>
       </c>
       <c r="L12">
         <v>399.13</v>
@@ -1541,10 +1541,10 @@
         <v>357.95</v>
       </c>
       <c r="J13">
+        <v>381.68</v>
+      </c>
+      <c r="K13">
         <v>352.51</v>
-      </c>
-      <c r="K13">
-        <v>381.68</v>
       </c>
       <c r="L13">
         <v>402.9</v>
@@ -1627,10 +1627,10 @@
         <v>363.38</v>
       </c>
       <c r="J14">
+        <v>392.54</v>
+      </c>
+      <c r="K14">
         <v>373.21</v>
-      </c>
-      <c r="K14">
-        <v>392.54</v>
       </c>
       <c r="L14">
         <v>407.31</v>
@@ -1713,10 +1713,10 @@
         <v>369.45</v>
       </c>
       <c r="J15">
+        <v>398.74</v>
+      </c>
+      <c r="K15">
         <v>385.73</v>
-      </c>
-      <c r="K15">
-        <v>398.74</v>
       </c>
       <c r="L15">
         <v>409.44</v>
@@ -1799,10 +1799,10 @@
         <v>377.74</v>
       </c>
       <c r="J16">
+        <v>408.41</v>
+      </c>
+      <c r="K16">
         <v>403.33</v>
-      </c>
-      <c r="K16">
-        <v>408.41</v>
       </c>
       <c r="L16">
         <v>414.02</v>
@@ -1885,10 +1885,10 @@
         <v>385.4</v>
       </c>
       <c r="J17">
+        <v>418.87</v>
+      </c>
+      <c r="K17">
         <v>411.82</v>
-      </c>
-      <c r="K17">
-        <v>418.87</v>
       </c>
       <c r="L17">
         <v>425.81</v>
@@ -1971,10 +1971,10 @@
         <v>384.6</v>
       </c>
       <c r="J18">
+        <v>414.65</v>
+      </c>
+      <c r="K18">
         <v>389.9</v>
-      </c>
-      <c r="K18">
-        <v>414.65</v>
       </c>
       <c r="L18">
         <v>433.07</v>
@@ -2057,10 +2057,10 @@
         <v>390.19</v>
       </c>
       <c r="J19">
+        <v>425.36</v>
+      </c>
+      <c r="K19">
         <v>389.97</v>
-      </c>
-      <c r="K19">
-        <v>425.36</v>
       </c>
       <c r="L19">
         <v>450.74</v>
@@ -2143,10 +2143,10 @@
         <v>413.51</v>
       </c>
       <c r="J20">
+        <v>471.21</v>
+      </c>
+      <c r="K20">
         <v>458.25</v>
-      </c>
-      <c r="K20">
-        <v>471.21</v>
       </c>
       <c r="L20">
         <v>482.29</v>
@@ -2229,10 +2229,10 @@
         <v>412.35</v>
       </c>
       <c r="J21">
+        <v>463.66</v>
+      </c>
+      <c r="K21">
         <v>443.96</v>
-      </c>
-      <c r="K21">
-        <v>463.66</v>
       </c>
       <c r="L21">
         <v>479.07</v>
@@ -2315,10 +2315,10 @@
         <v>412.61</v>
       </c>
       <c r="J22">
+        <v>454.83</v>
+      </c>
+      <c r="K22">
         <v>416.81</v>
-      </c>
-      <c r="K22">
-        <v>454.83</v>
       </c>
       <c r="L22">
         <v>482.09</v>
@@ -2401,10 +2401,10 @@
         <v>439.01</v>
       </c>
       <c r="J23">
+        <v>483.86</v>
+      </c>
+      <c r="K23">
         <v>472.43</v>
-      </c>
-      <c r="K23">
-        <v>483.86</v>
       </c>
       <c r="L23">
         <v>494.01</v>
@@ -2487,10 +2487,10 @@
         <v>453.16</v>
       </c>
       <c r="J24">
+        <v>497.92</v>
+      </c>
+      <c r="K24">
         <v>492.48</v>
-      </c>
-      <c r="K24">
-        <v>497.92</v>
       </c>
       <c r="L24">
         <v>504.26</v>
@@ -2573,10 +2573,10 @@
         <v>449.8</v>
       </c>
       <c r="J25">
+        <v>488.22</v>
+      </c>
+      <c r="K25">
         <v>467.24</v>
-      </c>
-      <c r="K25">
-        <v>488.22</v>
       </c>
       <c r="L25">
         <v>504.61</v>
@@ -2659,10 +2659,10 @@
         <v>454.64</v>
       </c>
       <c r="J26">
+        <v>498.86</v>
+      </c>
+      <c r="K26">
         <v>488.04</v>
-      </c>
-      <c r="K26">
-        <v>498.86</v>
       </c>
       <c r="L26">
         <v>508.71</v>
@@ -2745,10 +2745,10 @@
         <v>483.87</v>
       </c>
       <c r="J27">
+        <v>560.37</v>
+      </c>
+      <c r="K27">
         <v>633.04</v>
-      </c>
-      <c r="K27">
-        <v>560.37</v>
       </c>
       <c r="L27">
         <v>520.08000000000004</v>
@@ -2831,10 +2831,10 @@
         <v>488.24</v>
       </c>
       <c r="J28">
+        <v>567.98</v>
+      </c>
+      <c r="K28">
         <v>644.29999999999995</v>
-      </c>
-      <c r="K28">
-        <v>567.98</v>
       </c>
       <c r="L28">
         <v>525.53</v>
@@ -2917,10 +2917,10 @@
         <v>500.14</v>
       </c>
       <c r="J29">
+        <v>593.55999999999995</v>
+      </c>
+      <c r="K29">
         <v>702.92</v>
-      </c>
-      <c r="K29">
-        <v>593.55999999999995</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -3003,10 +3003,10 @@
         <v>507.12</v>
       </c>
       <c r="J30">
+        <v>604.12</v>
+      </c>
+      <c r="K30">
         <v>677.11</v>
-      </c>
-      <c r="K30">
-        <v>604.12</v>
       </c>
       <c r="L30">
         <v>563.91999999999996</v>
@@ -3089,10 +3089,10 @@
         <v>501.16</v>
       </c>
       <c r="J31">
+        <v>575.66</v>
+      </c>
+      <c r="K31">
         <v>575.67999999999995</v>
-      </c>
-      <c r="K31">
-        <v>575.66</v>
       </c>
       <c r="L31">
         <v>579.45000000000005</v>
@@ -3175,10 +3175,10 @@
         <v>492.9</v>
       </c>
       <c r="J32">
+        <v>543.34</v>
+      </c>
+      <c r="K32">
         <v>510.87</v>
-      </c>
-      <c r="K32">
-        <v>543.34</v>
       </c>
       <c r="L32">
         <v>566.6</v>
@@ -3261,10 +3261,10 @@
         <v>487.44</v>
       </c>
       <c r="J33">
+        <v>521.02</v>
+      </c>
+      <c r="K33">
         <v>463.06</v>
-      </c>
-      <c r="K33">
-        <v>521.02</v>
       </c>
       <c r="L33">
         <v>559.55999999999995</v>
@@ -3347,10 +3347,10 @@
         <v>483.68</v>
       </c>
       <c r="J34">
+        <v>508.93</v>
+      </c>
+      <c r="K34">
         <v>455.47</v>
-      </c>
-      <c r="K34">
-        <v>508.93</v>
       </c>
       <c r="L34">
         <v>544.66</v>
@@ -3433,10 +3433,10 @@
         <v>480.79</v>
       </c>
       <c r="J35">
+        <v>498.59</v>
+      </c>
+      <c r="K35">
         <v>447.46</v>
-      </c>
-      <c r="K35">
-        <v>498.59</v>
       </c>
       <c r="L35">
         <v>532.84</v>
@@ -3519,10 +3519,10 @@
         <v>488.73</v>
       </c>
       <c r="J36">
+        <v>512.65</v>
+      </c>
+      <c r="K36">
         <v>490.23</v>
-      </c>
-      <c r="K36">
-        <v>512.65</v>
       </c>
       <c r="L36">
         <v>529.61</v>
@@ -3605,10 +3605,10 @@
         <v>489.8</v>
       </c>
       <c r="J37">
+        <v>509.17</v>
+      </c>
+      <c r="K37">
         <v>473.63</v>
-      </c>
-      <c r="K37">
-        <v>509.17</v>
       </c>
       <c r="L37">
         <v>534.05999999999995</v>
@@ -3691,10 +3691,10 @@
         <v>504.14</v>
       </c>
       <c r="J38">
+        <v>529.30999999999995</v>
+      </c>
+      <c r="K38">
         <v>502.4</v>
-      </c>
-      <c r="K38">
-        <v>529.30999999999995</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3777,10 +3777,10 @@
         <v>527.59</v>
       </c>
       <c r="J39">
+        <v>572.80999999999995</v>
+      </c>
+      <c r="K39">
         <v>604.20000000000005</v>
-      </c>
-      <c r="K39">
-        <v>572.80999999999995</v>
       </c>
       <c r="L39">
         <v>559.92999999999995</v>
@@ -3863,10 +3863,10 @@
         <v>539.88</v>
       </c>
       <c r="J40">
+        <v>594.85</v>
+      </c>
+      <c r="K40">
         <v>645.48</v>
-      </c>
-      <c r="K40">
-        <v>594.85</v>
       </c>
       <c r="L40">
         <v>571.25</v>
@@ -3949,10 +3949,10 @@
         <v>550.41999999999996</v>
       </c>
       <c r="J41">
+        <v>613.34</v>
+      </c>
+      <c r="K41">
         <v>656.84</v>
-      </c>
-      <c r="K41">
-        <v>613.34</v>
       </c>
       <c r="L41">
         <v>593.92999999999995</v>
@@ -4035,10 +4035,10 @@
         <v>564.32000000000005</v>
       </c>
       <c r="J42">
+        <v>635.72</v>
+      </c>
+      <c r="K42">
         <v>662.83</v>
-      </c>
-      <c r="K42">
-        <v>635.72</v>
       </c>
       <c r="L42">
         <v>625.79999999999995</v>
@@ -4121,10 +4121,10 @@
         <v>565.67999999999995</v>
       </c>
       <c r="J43">
+        <v>634.01</v>
+      </c>
+      <c r="K43">
         <v>641.12</v>
-      </c>
-      <c r="K43">
-        <v>634.01</v>
       </c>
       <c r="L43">
         <v>635.41</v>
@@ -4207,10 +4207,10 @@
         <v>556.61</v>
       </c>
       <c r="J44">
+        <v>610.1</v>
+      </c>
+      <c r="K44">
         <v>593.05999999999995</v>
-      </c>
-      <c r="K44">
-        <v>610.1</v>
       </c>
       <c r="L44">
         <v>624.98</v>
@@ -4293,10 +4293,10 @@
         <v>549.48</v>
       </c>
       <c r="J45">
+        <v>593.20000000000005</v>
+      </c>
+      <c r="K45">
         <v>545.16</v>
-      </c>
-      <c r="K45">
-        <v>593.20000000000005</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4379,10 +4379,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
+        <v>587.08000000000004</v>
+      </c>
+      <c r="K46">
         <v>539.79999999999995</v>
-      </c>
-      <c r="K46">
-        <v>587.08000000000004</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4465,10 +4465,10 @@
         <v>552.66</v>
       </c>
       <c r="J47">
+        <v>585.70000000000005</v>
+      </c>
+      <c r="K47">
         <v>550.48</v>
-      </c>
-      <c r="K47">
-        <v>585.70000000000005</v>
       </c>
       <c r="L47">
         <v>610.67999999999995</v>
@@ -4551,10 +4551,10 @@
         <v>569.4</v>
       </c>
       <c r="J48">
+        <v>608.95000000000005</v>
+      </c>
+      <c r="K48">
         <v>592</v>
-      </c>
-      <c r="K48">
-        <v>608.95000000000005</v>
       </c>
       <c r="L48">
         <v>623.76</v>
@@ -4637,10 +4637,10 @@
         <v>593.07000000000005</v>
       </c>
       <c r="J49">
+        <v>646.77</v>
+      </c>
+      <c r="K49">
         <v>642.79</v>
-      </c>
-      <c r="K49">
-        <v>646.77</v>
       </c>
       <c r="L49">
         <v>654.55999999999995</v>
@@ -4723,10 +4723,10 @@
         <v>608.05999999999995</v>
       </c>
       <c r="J50">
+        <v>668.72</v>
+      </c>
+      <c r="K50">
         <v>672.81</v>
-      </c>
-      <c r="K50">
-        <v>668.72</v>
       </c>
       <c r="L50">
         <v>672.12</v>
@@ -4809,10 +4809,10 @@
         <v>623.16</v>
       </c>
       <c r="J51">
+        <v>676.38</v>
+      </c>
+      <c r="K51">
         <v>665.95</v>
-      </c>
-      <c r="K51">
-        <v>676.38</v>
       </c>
       <c r="L51">
         <v>688.11</v>
@@ -4895,10 +4895,10 @@
         <v>639.20000000000005</v>
       </c>
       <c r="J52">
+        <v>696.03</v>
+      </c>
+      <c r="K52">
         <v>700.64</v>
-      </c>
-      <c r="K52">
-        <v>696.03</v>
       </c>
       <c r="L52">
         <v>699.37</v>
@@ -4981,10 +4981,10 @@
         <v>646.41</v>
       </c>
       <c r="J53">
+        <v>705.21</v>
+      </c>
+      <c r="K53">
         <v>703.05</v>
-      </c>
-      <c r="K53">
-        <v>705.21</v>
       </c>
       <c r="L53">
         <v>712.48</v>
@@ -5067,10 +5067,10 @@
         <v>660.16</v>
       </c>
       <c r="J54">
+        <v>728.96</v>
+      </c>
+      <c r="K54">
         <v>752.99</v>
-      </c>
-      <c r="K54">
-        <v>728.96</v>
       </c>
       <c r="L54">
         <v>721.53</v>
@@ -5153,10 +5153,10 @@
         <v>662.08</v>
       </c>
       <c r="J55">
+        <v>726.66</v>
+      </c>
+      <c r="K55">
         <v>704.99</v>
-      </c>
-      <c r="K55">
-        <v>726.66</v>
       </c>
       <c r="L55">
         <v>745.21</v>
@@ -5239,10 +5239,10 @@
         <v>667.88</v>
       </c>
       <c r="J56">
+        <v>724.18</v>
+      </c>
+      <c r="K56">
         <v>651.91</v>
-      </c>
-      <c r="K56">
-        <v>724.18</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5325,10 +5325,10 @@
         <v>686.41</v>
       </c>
       <c r="J57">
+        <v>745.82</v>
+      </c>
+      <c r="K57">
         <v>688.35</v>
-      </c>
-      <c r="K57">
-        <v>745.82</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5411,10 +5411,10 @@
         <v>708.25</v>
       </c>
       <c r="J58">
+        <v>777.56</v>
+      </c>
+      <c r="K58">
         <v>757.76</v>
-      </c>
-      <c r="K58">
-        <v>777.56</v>
       </c>
       <c r="L58">
         <v>795.48</v>
@@ -5497,10 +5497,10 @@
         <v>711.76</v>
       </c>
       <c r="J59">
+        <v>773.47</v>
+      </c>
+      <c r="K59">
         <v>734.39</v>
-      </c>
-      <c r="K59">
-        <v>773.47</v>
       </c>
       <c r="L59">
         <v>802.32</v>
@@ -5583,10 +5583,10 @@
         <v>725.45</v>
       </c>
       <c r="J60">
+        <v>786.77</v>
+      </c>
+      <c r="K60">
         <v>749.76</v>
-      </c>
-      <c r="K60">
-        <v>786.77</v>
       </c>
       <c r="L60">
         <v>814.55</v>
@@ -5669,10 +5669,10 @@
         <v>753.88</v>
       </c>
       <c r="J61">
+        <v>809.86</v>
+      </c>
+      <c r="K61">
         <v>735.45</v>
-      </c>
-      <c r="K61">
-        <v>809.86</v>
       </c>
       <c r="L61">
         <v>859.11</v>
@@ -5755,10 +5755,10 @@
         <v>874.42</v>
       </c>
       <c r="J62">
+        <v>935.05</v>
+      </c>
+      <c r="K62">
         <v>793.51</v>
-      </c>
-      <c r="K62">
-        <v>935.05</v>
       </c>
       <c r="L62">
         <v>1023.57</v>
@@ -5841,10 +5841,10 @@
         <v>969.71</v>
       </c>
       <c r="J63">
+        <v>1048.25</v>
+      </c>
+      <c r="K63">
         <v>958.73</v>
-      </c>
-      <c r="K63">
-        <v>1048.25</v>
       </c>
       <c r="L63">
         <v>1104.82</v>
@@ -5927,10 +5927,10 @@
         <v>1051.29</v>
       </c>
       <c r="J64">
+        <v>1182.77</v>
+      </c>
+      <c r="K64">
         <v>1267.05</v>
-      </c>
-      <c r="K64">
-        <v>1182.77</v>
       </c>
       <c r="L64">
         <v>1132.28</v>
@@ -6013,10 +6013,10 @@
         <v>1101</v>
       </c>
       <c r="J65">
+        <v>1251.9000000000001</v>
+      </c>
+      <c r="K65">
         <v>1275.8499999999999</v>
-      </c>
-      <c r="K65">
-        <v>1251.9000000000001</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6099,10 +6099,10 @@
         <v>1248.33</v>
       </c>
       <c r="J66">
+        <v>1462.78</v>
+      </c>
+      <c r="K66">
         <v>1541.91</v>
-      </c>
-      <c r="K66">
-        <v>1462.78</v>
       </c>
       <c r="L66">
         <v>1415.84</v>
@@ -6185,10 +6185,10 @@
         <v>1268.74</v>
       </c>
       <c r="J67">
+        <v>1435.97</v>
+      </c>
+      <c r="K67">
         <v>1370.81</v>
-      </c>
-      <c r="K67">
-        <v>1435.97</v>
       </c>
       <c r="L67">
         <v>1478.01</v>
@@ -6271,10 +6271,10 @@
         <v>1295.25</v>
       </c>
       <c r="J68">
+        <v>1387.88</v>
+      </c>
+      <c r="K68">
         <v>1162.49</v>
-      </c>
-      <c r="K68">
-        <v>1387.88</v>
       </c>
       <c r="L68">
         <v>1528.72</v>
@@ -6357,10 +6357,10 @@
         <v>1336.07</v>
       </c>
       <c r="J69">
+        <v>1424.55</v>
+      </c>
+      <c r="K69">
         <v>1220.08</v>
-      </c>
-      <c r="K69">
-        <v>1424.55</v>
       </c>
       <c r="L69">
         <v>1552.52</v>
@@ -6443,10 +6443,10 @@
         <v>1347.48</v>
       </c>
       <c r="J70">
+        <v>1395.81</v>
+      </c>
+      <c r="K70">
         <v>1143.05</v>
-      </c>
-      <c r="K70">
-        <v>1395.81</v>
       </c>
       <c r="L70">
         <v>1553.54</v>
@@ -6529,10 +6529,10 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
+        <v>1410.76</v>
+      </c>
+      <c r="K71">
         <v>1165.6099999999999</v>
-      </c>
-      <c r="K71">
-        <v>1410.76</v>
       </c>
       <c r="L71">
         <v>1563.8</v>
@@ -6615,10 +6615,10 @@
         <v>1443.99</v>
       </c>
       <c r="J72">
+        <v>1512.45</v>
+      </c>
+      <c r="K72">
         <v>1332.71</v>
-      </c>
-      <c r="K72">
-        <v>1512.45</v>
       </c>
       <c r="L72">
         <v>1625.28</v>
@@ -6701,10 +6701,10 @@
         <v>1526.98</v>
       </c>
       <c r="J73">
+        <v>1597.34</v>
+      </c>
+      <c r="K73">
         <v>1465.19</v>
-      </c>
-      <c r="K73">
-        <v>1597.34</v>
       </c>
       <c r="L73">
         <v>1680.91</v>
@@ -6787,10 +6787,10 @@
         <v>1555.31</v>
       </c>
       <c r="J74">
+        <v>1620.01</v>
+      </c>
+      <c r="K74">
         <v>1416.77</v>
-      </c>
-      <c r="K74">
-        <v>1620.01</v>
       </c>
       <c r="L74">
         <v>1747.47</v>
@@ -6873,10 +6873,10 @@
         <v>1658.23</v>
       </c>
       <c r="J75">
+        <v>1769.45</v>
+      </c>
+      <c r="K75">
         <v>1507.36</v>
-      </c>
-      <c r="K75">
-        <v>1769.45</v>
       </c>
       <c r="L75">
         <v>1939.75</v>
@@ -6959,10 +6959,10 @@
         <v>1780.2</v>
       </c>
       <c r="J76">
+        <v>1964.94</v>
+      </c>
+      <c r="K76">
         <v>1779.36</v>
-      </c>
-      <c r="K76">
-        <v>1964.94</v>
       </c>
       <c r="L76">
         <v>2072.31</v>
@@ -7045,10 +7045,10 @@
         <v>1848.51</v>
       </c>
       <c r="J77">
+        <v>2077.39</v>
+      </c>
+      <c r="K77">
         <v>1731.53</v>
-      </c>
-      <c r="K77">
-        <v>2077.39</v>
       </c>
       <c r="L77">
         <v>2306.89</v>
@@ -7131,10 +7131,10 @@
         <v>1921.46</v>
       </c>
       <c r="J78">
+        <v>2233.64</v>
+      </c>
+      <c r="K78">
         <v>1789</v>
-      </c>
-      <c r="K78">
-        <v>2233.64</v>
       </c>
       <c r="L78">
         <v>2536.79</v>
@@ -7217,10 +7217,10 @@
         <v>1935.1</v>
       </c>
       <c r="J79">
+        <v>2240.19</v>
+      </c>
+      <c r="K79">
         <v>1700.23</v>
-      </c>
-      <c r="K79">
-        <v>2240.19</v>
       </c>
       <c r="L79">
         <v>2617.08</v>
@@ -7303,10 +7303,10 @@
         <v>1993.6</v>
       </c>
       <c r="J80">
+        <v>2337.69</v>
+      </c>
+      <c r="K80">
         <v>1830.77</v>
-      </c>
-      <c r="K80">
-        <v>2337.69</v>
       </c>
       <c r="L80">
         <v>2687.19</v>
@@ -7389,10 +7389,10 @@
         <v>2147.27</v>
       </c>
       <c r="J81">
+        <v>2560.1</v>
+      </c>
+      <c r="K81">
         <v>2153.86</v>
-      </c>
-      <c r="K81">
-        <v>2560.1</v>
       </c>
       <c r="L81">
         <v>2827.44</v>
@@ -7475,10 +7475,10 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
+        <v>2702.83</v>
+      </c>
+      <c r="K82">
         <v>2354.4299999999998</v>
-      </c>
-      <c r="K82">
-        <v>2702.83</v>
       </c>
       <c r="L82">
         <v>2922.69</v>
@@ -7561,10 +7561,10 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
+        <v>2767.43</v>
+      </c>
+      <c r="K83">
         <v>2359.9499999999998</v>
-      </c>
-      <c r="K83">
-        <v>2767.43</v>
       </c>
       <c r="L83">
         <v>3031.89</v>
@@ -7647,10 +7647,10 @@
         <v>2483.58</v>
       </c>
       <c r="J84">
+        <v>2879.72</v>
+      </c>
+      <c r="K84">
         <v>2368.84</v>
-      </c>
-      <c r="K84">
-        <v>2879.72</v>
       </c>
       <c r="L84">
         <v>3222.23</v>
@@ -7733,10 +7733,10 @@
         <v>2552.5100000000002</v>
       </c>
       <c r="J85">
+        <v>2888.72</v>
+      </c>
+      <c r="K85">
         <v>2305.84</v>
-      </c>
-      <c r="K85">
-        <v>2888.72</v>
       </c>
       <c r="L85">
         <v>3286.86</v>
@@ -7819,10 +7819,10 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
+        <v>3097.87</v>
+      </c>
+      <c r="K86">
         <v>2568.4899999999998</v>
-      </c>
-      <c r="K86">
-        <v>3097.87</v>
       </c>
       <c r="L86">
         <v>3450.67</v>
@@ -7905,10 +7905,10 @@
         <v>2814.14</v>
       </c>
       <c r="J87">
+        <v>3315.05</v>
+      </c>
+      <c r="K87">
         <v>2764.97</v>
-      </c>
-      <c r="K87">
-        <v>3315.05</v>
       </c>
       <c r="L87">
         <v>3678.86</v>
@@ -7991,10 +7991,10 @@
         <v>3046.31</v>
       </c>
       <c r="J88">
+        <v>3623.5</v>
+      </c>
+      <c r="K88">
         <v>3144.93</v>
-      </c>
-      <c r="K88">
-        <v>3623.5</v>
       </c>
       <c r="L88">
         <v>3918.56</v>
@@ -8077,10 +8077,10 @@
         <v>3149.99</v>
       </c>
       <c r="J89">
+        <v>3825.3</v>
+      </c>
+      <c r="K89">
         <v>3162.98</v>
-      </c>
-      <c r="K89">
-        <v>3825.3</v>
       </c>
       <c r="L89">
         <v>4268.16</v>
@@ -8163,10 +8163,10 @@
         <v>3237.61</v>
       </c>
       <c r="J90">
+        <v>3972.51</v>
+      </c>
+      <c r="K90">
         <v>3183.76</v>
-      </c>
-      <c r="K90">
-        <v>3972.51</v>
       </c>
       <c r="L90">
         <v>4516.83</v>
@@ -8249,10 +8249,10 @@
         <v>3292.35</v>
       </c>
       <c r="J91">
+        <v>3954.71</v>
+      </c>
+      <c r="K91">
         <v>3082.91</v>
-      </c>
-      <c r="K91">
-        <v>3954.71</v>
       </c>
       <c r="L91">
         <v>4568.99</v>
@@ -8335,10 +8335,10 @@
         <v>3350.79</v>
       </c>
       <c r="J92">
+        <v>3985.77</v>
+      </c>
+      <c r="K92">
         <v>3269.89</v>
-      </c>
-      <c r="K92">
-        <v>3985.77</v>
       </c>
       <c r="L92">
         <v>4468.7700000000004</v>
@@ -8421,10 +8421,10 @@
         <v>3412.26</v>
       </c>
       <c r="J93">
+        <v>4028.33</v>
+      </c>
+      <c r="K93">
         <v>3372.65</v>
-      </c>
-      <c r="K93">
-        <v>4028.33</v>
       </c>
       <c r="L93">
         <v>4459.75</v>
@@ -8507,10 +8507,10 @@
         <v>3374.74</v>
       </c>
       <c r="J94">
+        <v>3831.22</v>
+      </c>
+      <c r="K94">
         <v>3035.54</v>
-      </c>
-      <c r="K94">
-        <v>3831.22</v>
       </c>
       <c r="L94">
         <v>4385.42</v>
@@ -8593,10 +8593,10 @@
         <v>3458.59</v>
       </c>
       <c r="J95">
+        <v>3966.8</v>
+      </c>
+      <c r="K95">
         <v>3131.66</v>
-      </c>
-      <c r="K95">
-        <v>3966.8</v>
       </c>
       <c r="L95">
         <v>4550.08</v>
@@ -8679,10 +8679,10 @@
         <v>3608.18</v>
       </c>
       <c r="J96">
+        <v>4234.6400000000003</v>
+      </c>
+      <c r="K96">
         <v>3732.87</v>
-      </c>
-      <c r="K96">
-        <v>4234.6400000000003</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8765,10 +8765,10 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
+        <v>4615.91</v>
+      </c>
+      <c r="K97">
         <v>4407.88</v>
-      </c>
-      <c r="K97">
-        <v>4615.91</v>
       </c>
       <c r="L97">
         <v>4655.97</v>
@@ -8851,10 +8851,10 @@
         <v>3841.32</v>
       </c>
       <c r="J98">
+        <v>4655.76</v>
+      </c>
+      <c r="K98">
         <v>4335.05</v>
-      </c>
-      <c r="K98">
-        <v>4655.76</v>
       </c>
       <c r="L98">
         <v>4788.8900000000003</v>
@@ -8937,10 +8937,10 @@
         <v>3989.45</v>
       </c>
       <c r="J99">
+        <v>4779.3900000000003</v>
+      </c>
+      <c r="K99">
         <v>4483.0600000000004</v>
-      </c>
-      <c r="K99">
-        <v>4779.3900000000003</v>
       </c>
       <c r="L99">
         <v>4889.26</v>
@@ -8999,19 +8999,19 @@
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3161.7558369578951</v>
+        <v>3162.7359541569249</v>
       </c>
       <c r="C100">
-        <v>2521.6565730008392</v>
+        <v>2522.4772349021259</v>
       </c>
       <c r="D100">
-        <v>2318.500771376664</v>
+        <v>2319.491472885556</v>
       </c>
       <c r="E100">
-        <v>2644.5458872181498</v>
+        <v>2645.3423875698918</v>
       </c>
       <c r="F100">
-        <v>2941.0220293548991</v>
+        <v>2941.887542379508</v>
       </c>
       <c r="G100">
         <v>2723.7621710480648</v>
@@ -9023,10 +9023,10 @@
         <v>4122.5400266702209</v>
       </c>
       <c r="J100">
+        <v>4845.0360797187341</v>
+      </c>
+      <c r="K100">
         <v>4480.8448403177663</v>
-      </c>
-      <c r="K100">
-        <v>4845.0360797187341</v>
       </c>
       <c r="L100">
         <v>5021.1415911665454</v>
@@ -9059,7 +9059,7 @@
         <v>5636.8573633898823</v>
       </c>
       <c r="V100">
-        <v>3382.5964043540639</v>
+        <v>3385.8588170757589</v>
       </c>
       <c r="W100">
         <v>4597.8144691720954</v>
@@ -9074,10 +9074,10 @@
         <v>628.72663070400517</v>
       </c>
       <c r="AA100">
-        <v>3418.0802479461249</v>
+        <v>3439.1666200142449</v>
       </c>
       <c r="AB100">
-        <v>2926.9459150414118</v>
+        <v>2927.7197635733528</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
@@ -9085,19 +9085,19 @@
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3265.7668274541161</v>
+        <v>3234.993671119335</v>
       </c>
       <c r="C101">
-        <v>2623.4042651478721</v>
+        <v>2596.0063997482662</v>
       </c>
       <c r="D101">
-        <v>2423.263971937376</v>
+        <v>2390.1689661075688</v>
       </c>
       <c r="E101">
-        <v>2738.6460778200089</v>
+        <v>2713.6493385872668</v>
       </c>
       <c r="F101">
-        <v>3065.0418286045492</v>
+        <v>3037.838103257729</v>
       </c>
       <c r="G101">
         <v>2816.3871261685572</v>
@@ -9109,10 +9109,10 @@
         <v>4316.1448248725983</v>
       </c>
       <c r="J101">
+        <v>5228.2995612094846</v>
+      </c>
+      <c r="K101">
         <v>5018.8247148521796</v>
-      </c>
-      <c r="K101">
-        <v>5228.2995612094846</v>
       </c>
       <c r="L101">
         <v>5232.119310591248</v>
@@ -9145,7 +9145,7 @@
         <v>5921.942481406737</v>
       </c>
       <c r="V101">
-        <v>3583.0026989539911</v>
+        <v>3473.9514681211381</v>
       </c>
       <c r="W101">
         <v>4766.1449791637961</v>
@@ -9160,15 +9160,96 @@
         <v>614.36786011369941</v>
       </c>
       <c r="AA101">
-        <v>4414.5504894611313</v>
+        <v>3715.9768689989342</v>
       </c>
       <c r="AB101">
-        <v>3046.5721699819651</v>
+        <v>3022.268128506455</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>45777</v>
+      </c>
+      <c r="B102">
+        <v>3309.766954716119</v>
+      </c>
+      <c r="C102">
+        <v>2640.7471808545738</v>
+      </c>
+      <c r="D102">
+        <v>2434.013109419504</v>
+      </c>
+      <c r="E102">
+        <v>2770.1675144526612</v>
+      </c>
+      <c r="F102">
+        <v>3096.4948726547532</v>
+      </c>
+      <c r="G102">
+        <v>2877.0920119167608</v>
+      </c>
+      <c r="H102">
+        <v>2732.3745214587111</v>
+      </c>
+      <c r="I102">
+        <v>4401.5607727144161</v>
+      </c>
+      <c r="J102">
+        <v>5376.0331257524522</v>
+      </c>
+      <c r="K102">
+        <v>5100.6613577760836</v>
+      </c>
+      <c r="L102">
+        <v>5440.8181328593273</v>
+      </c>
+      <c r="M102">
+        <v>3685.709199276223</v>
+      </c>
+      <c r="N102">
+        <v>4128.7958720958222</v>
+      </c>
+      <c r="O102">
+        <v>3433.4296490100978</v>
+      </c>
+      <c r="P102">
+        <v>2073.0589475029719</v>
+      </c>
+      <c r="Q102">
+        <v>1619.406431228065</v>
+      </c>
+      <c r="R102">
+        <v>772.81672709490908</v>
+      </c>
+      <c r="S102">
+        <v>1728.692339638982</v>
+      </c>
+      <c r="T102">
+        <v>2271.3541448883411</v>
+      </c>
+      <c r="U102">
+        <v>6435.1637792363053</v>
+      </c>
+      <c r="V102">
+        <v>3544.510191375146</v>
+      </c>
+      <c r="W102">
+        <v>4932.360413443891</v>
+      </c>
+      <c r="X102">
+        <v>6139.5006020285728</v>
+      </c>
+      <c r="Y102">
+        <v>4238.7429097555596</v>
+      </c>
+      <c r="Z102">
+        <v>592.59268109513164</v>
+      </c>
+      <c r="AA102">
+        <v>3731.7570165538118</v>
+      </c>
+      <c r="AB102">
+        <v>3088.0652026584098</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D8265C-1EA6-4F8C-B170-2DB6A9EAA74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,10 +40,10 @@
     <t>Gıda ve alkolsüz içecekler</t>
   </si>
   <si>
-    <t>İşlenmemiş gıda</t>
+    <t>Taze meyve ve sebze</t>
   </si>
   <si>
-    <t>Taze meyve ve sebze</t>
+    <t>İşlenmemiş gıda</t>
   </si>
   <si>
     <t>Diğer işlenmemiş gıda</t>
@@ -106,8 +100,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -174,21 +170,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,7 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,10 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,19 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +547,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:28">
+      <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -586,25 +567,25 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91000000000003</v>
+        <v>284.91</v>
       </c>
       <c r="H2">
-        <v>299.58999999999997</v>
+        <v>299.59</v>
       </c>
       <c r="I2">
-        <v>319.35000000000002</v>
+        <v>319.35</v>
       </c>
       <c r="J2">
+        <v>292.5</v>
+      </c>
+      <c r="K2">
         <v>339.7</v>
-      </c>
-      <c r="K2">
-        <v>292.5</v>
       </c>
       <c r="L2">
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.77999999999997</v>
+        <v>299.78</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -628,7 +609,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.57000000000005</v>
+        <v>588.5700000000001</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -640,7 +621,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41000000000003</v>
+        <v>318.41</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -649,24 +630,24 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+        <v>292.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97000000000003</v>
+        <v>262.97</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.27999999999997</v>
+        <v>276.28</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -681,10 +662,10 @@
         <v>339.7</v>
       </c>
       <c r="J3">
+        <v>392.13</v>
+      </c>
+      <c r="K3">
         <v>381.36</v>
-      </c>
-      <c r="K3">
-        <v>392.13</v>
       </c>
       <c r="L3">
         <v>376.16</v>
@@ -726,7 +707,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22000000000003</v>
+        <v>325.22</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -738,24 +719,24 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:28">
+      <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.08999999999997</v>
+        <v>265.09</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85000000000002</v>
+        <v>278.85</v>
       </c>
       <c r="F4">
-        <v>293.52999999999997</v>
+        <v>293.53</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -767,16 +748,16 @@
         <v>342.57</v>
       </c>
       <c r="J4">
+        <v>389.79</v>
+      </c>
+      <c r="K4">
         <v>382.72</v>
-      </c>
-      <c r="K4">
-        <v>389.79</v>
       </c>
       <c r="L4">
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.10000000000002</v>
+        <v>307.1</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -800,10 +781,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58000000000004</v>
+        <v>612.58</v>
       </c>
       <c r="V4">
-        <v>320.77999999999997</v>
+        <v>320.78</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -824,12 +805,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:28">
+      <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.64999999999998</v>
+        <v>313.65</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -838,25 +819,25 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.14999999999998</v>
+        <v>281.15</v>
       </c>
       <c r="F5">
-        <v>296.70999999999998</v>
+        <v>296.71</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91000000000003</v>
+        <v>311.91</v>
       </c>
       <c r="I5">
         <v>349.18</v>
       </c>
       <c r="J5">
+        <v>410.22</v>
+      </c>
+      <c r="K5">
         <v>394</v>
-      </c>
-      <c r="K5">
-        <v>410.22</v>
       </c>
       <c r="L5">
         <v>385.24</v>
@@ -868,10 +849,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79000000000002</v>
+        <v>295.79</v>
       </c>
       <c r="P5">
-        <v>256.08999999999997</v>
+        <v>256.09</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -886,7 +867,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.42999999999995</v>
+        <v>612.4299999999999</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -910,18 +891,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:28">
+      <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22000000000003</v>
+        <v>316.22</v>
       </c>
       <c r="C6">
-        <v>272.91000000000003</v>
+        <v>272.91</v>
       </c>
       <c r="D6">
-        <v>264.14999999999998</v>
+        <v>264.15</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -939,10 +920,10 @@
         <v>353.47</v>
       </c>
       <c r="J6">
+        <v>411.03</v>
+      </c>
+      <c r="K6">
         <v>399.89</v>
-      </c>
-      <c r="K6">
-        <v>411.03</v>
       </c>
       <c r="L6">
         <v>394.53</v>
@@ -990,21 +971,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.60000000000002</v>
+        <v>320.6</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:28">
+      <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66000000000003</v>
+        <v>317.66</v>
       </c>
       <c r="C7">
-        <v>276.33999999999997</v>
+        <v>276.34</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -1013,7 +994,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.89999999999998</v>
+        <v>302.9</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1025,10 +1006,10 @@
         <v>351.53</v>
       </c>
       <c r="J7">
+        <v>379.08</v>
+      </c>
+      <c r="K7">
         <v>392.08</v>
-      </c>
-      <c r="K7">
-        <v>379.08</v>
       </c>
       <c r="L7">
         <v>402.65</v>
@@ -1043,7 +1024,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85000000000002</v>
+        <v>265.85</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1073,7 +1054,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.69999999999999</v>
+        <v>152.7</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1082,27 +1063,27 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:28">
+      <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.45999999999998</v>
+        <v>318.46</v>
       </c>
       <c r="C8">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.33999999999997</v>
+        <v>287.34</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.52999999999997</v>
+        <v>302.53</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1111,10 +1092,10 @@
         <v>347.81</v>
       </c>
       <c r="J8">
+        <v>343.59</v>
+      </c>
+      <c r="K8">
         <v>382.39</v>
-      </c>
-      <c r="K8">
-        <v>343.59</v>
       </c>
       <c r="L8">
         <v>410.01</v>
@@ -1129,7 +1110,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1165,11 +1146,11 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.77999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+        <v>309.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1197,10 +1178,10 @@
         <v>345.34</v>
       </c>
       <c r="J9">
+        <v>320.86</v>
+      </c>
+      <c r="K9">
         <v>372.7</v>
-      </c>
-      <c r="K9">
-        <v>320.86</v>
       </c>
       <c r="L9">
         <v>408.89</v>
@@ -1215,7 +1196,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29000000000002</v>
+        <v>264.29</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1254,8 +1235,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:28">
+      <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1283,16 +1264,16 @@
         <v>344.57</v>
       </c>
       <c r="J10">
+        <v>302.24</v>
+      </c>
+      <c r="K10">
         <v>365.88</v>
-      </c>
-      <c r="K10">
-        <v>302.24</v>
       </c>
       <c r="L10">
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.95999999999998</v>
+        <v>323.96</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1301,7 +1282,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1337,18 +1318,18 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+        <v>311.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.39999999999998</v>
+        <v>282.4</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1357,22 +1338,22 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41000000000003</v>
+        <v>315.41</v>
       </c>
       <c r="I11">
         <v>343.79</v>
       </c>
       <c r="J11">
+        <v>299.73</v>
+      </c>
+      <c r="K11">
         <v>360.98</v>
-      </c>
-      <c r="K11">
-        <v>299.73</v>
       </c>
       <c r="L11">
         <v>403.34</v>
@@ -1417,7 +1398,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1426,8 +1407,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:28">
+      <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1440,13 +1421,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29000000000002</v>
+        <v>300.29</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.83999999999997</v>
+        <v>312.84</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1455,10 +1436,10 @@
         <v>350.57</v>
       </c>
       <c r="J12">
+        <v>328.72</v>
+      </c>
+      <c r="K12">
         <v>369.97</v>
-      </c>
-      <c r="K12">
-        <v>328.72</v>
       </c>
       <c r="L12">
         <v>399.13</v>
@@ -1470,7 +1451,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.52999999999997</v>
+        <v>319.53</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1488,7 +1469,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.29999999999995</v>
+        <v>619.3</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1503,24 +1484,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.39999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+        <v>320.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.83999999999997</v>
+        <v>291.84</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1541,10 +1522,10 @@
         <v>357.95</v>
       </c>
       <c r="J13">
+        <v>352.51</v>
+      </c>
+      <c r="K13">
         <v>381.68</v>
-      </c>
-      <c r="K13">
-        <v>352.51</v>
       </c>
       <c r="L13">
         <v>402.9</v>
@@ -1559,7 +1540,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.95999999999998</v>
+        <v>281.96</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1598,8 +1579,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:28">
+      <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1609,13 +1590,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.89999999999998</v>
+        <v>283.9</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35000000000002</v>
+        <v>321.35</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1627,10 +1608,10 @@
         <v>363.38</v>
       </c>
       <c r="J14">
+        <v>373.21</v>
+      </c>
+      <c r="K14">
         <v>392.54</v>
-      </c>
-      <c r="K14">
-        <v>373.21</v>
       </c>
       <c r="L14">
         <v>407.31</v>
@@ -1642,7 +1623,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79000000000002</v>
+        <v>324.79</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1681,18 +1662,18 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+        <v>327.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.33999999999997</v>
+        <v>295.34</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1713,10 +1694,10 @@
         <v>369.45</v>
       </c>
       <c r="J15">
+        <v>385.73</v>
+      </c>
+      <c r="K15">
         <v>398.74</v>
-      </c>
-      <c r="K15">
-        <v>385.73</v>
       </c>
       <c r="L15">
         <v>409.44</v>
@@ -1731,7 +1712,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1743,7 +1724,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54000000000002</v>
+        <v>257.54</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1770,15 +1751,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:28">
+      <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.58999999999997</v>
+        <v>297.59</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1799,10 +1780,10 @@
         <v>377.74</v>
       </c>
       <c r="J16">
+        <v>403.33</v>
+      </c>
+      <c r="K16">
         <v>408.41</v>
-      </c>
-      <c r="K16">
-        <v>403.33</v>
       </c>
       <c r="L16">
         <v>414.02</v>
@@ -1817,7 +1798,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35000000000002</v>
+        <v>283.35</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1829,7 +1810,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72000000000003</v>
+        <v>261.72</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1856,8 +1837,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:28">
+      <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1870,7 +1851,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.14999999999998</v>
+        <v>313.15</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1885,10 +1866,10 @@
         <v>385.4</v>
       </c>
       <c r="J17">
+        <v>411.82</v>
+      </c>
+      <c r="K17">
         <v>418.87</v>
-      </c>
-      <c r="K17">
-        <v>411.82</v>
       </c>
       <c r="L17">
         <v>425.81</v>
@@ -1915,7 +1896,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1942,8 +1923,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:28">
+      <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1971,10 +1952,10 @@
         <v>384.6</v>
       </c>
       <c r="J18">
+        <v>389.9</v>
+      </c>
+      <c r="K18">
         <v>414.65</v>
-      </c>
-      <c r="K18">
-        <v>389.9</v>
       </c>
       <c r="L18">
         <v>433.07</v>
@@ -2001,10 +1982,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97000000000003</v>
+        <v>268.97</v>
       </c>
       <c r="U18">
-        <v>638.67999999999995</v>
+        <v>638.6799999999999</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2028,8 +2009,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:28">
+      <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2057,10 +2038,10 @@
         <v>390.19</v>
       </c>
       <c r="J19">
+        <v>389.97</v>
+      </c>
+      <c r="K19">
         <v>425.36</v>
-      </c>
-      <c r="K19">
-        <v>389.97</v>
       </c>
       <c r="L19">
         <v>450.74</v>
@@ -2087,7 +2068,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.02999999999997</v>
+        <v>272.03</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2114,8 +2095,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:28">
+      <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2143,10 +2124,10 @@
         <v>413.51</v>
       </c>
       <c r="J20">
+        <v>458.25</v>
+      </c>
+      <c r="K20">
         <v>471.21</v>
-      </c>
-      <c r="K20">
-        <v>458.25</v>
       </c>
       <c r="L20">
         <v>482.29</v>
@@ -2173,10 +2154,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.52999999999997</v>
+        <v>277.53</v>
       </c>
       <c r="U20">
-        <v>652.07000000000005</v>
+        <v>652.0700000000001</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2185,7 +2166,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.91999999999996</v>
+        <v>517.92</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2200,15 +2181,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:28">
+      <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04000000000002</v>
+        <v>320.04</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2229,10 +2210,10 @@
         <v>412.35</v>
       </c>
       <c r="J21">
+        <v>443.96</v>
+      </c>
+      <c r="K21">
         <v>463.66</v>
-      </c>
-      <c r="K21">
-        <v>443.96</v>
       </c>
       <c r="L21">
         <v>479.07</v>
@@ -2247,7 +2228,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47000000000003</v>
+        <v>309.47</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2259,7 +2240,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.08999999999997</v>
+        <v>283.09</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2277,7 +2258,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.97999999999999</v>
+        <v>160.98</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2286,8 +2267,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:28">
+      <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2297,7 +2278,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.08999999999997</v>
+        <v>317.09</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2315,10 +2296,10 @@
         <v>412.61</v>
       </c>
       <c r="J22">
+        <v>416.81</v>
+      </c>
+      <c r="K22">
         <v>454.83</v>
-      </c>
-      <c r="K22">
-        <v>416.81</v>
       </c>
       <c r="L22">
         <v>482.09</v>
@@ -2336,7 +2317,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.27999999999997</v>
+        <v>261.28</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2357,7 +2338,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58000000000004</v>
+        <v>539.58</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2372,8 +2353,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:28">
+      <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2401,10 +2382,10 @@
         <v>439.01</v>
       </c>
       <c r="J23">
+        <v>472.43</v>
+      </c>
+      <c r="K23">
         <v>483.86</v>
-      </c>
-      <c r="K23">
-        <v>472.43</v>
       </c>
       <c r="L23">
         <v>494.01</v>
@@ -2422,16 +2403,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.64999999999998</v>
+        <v>288.65</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.20999999999998</v>
+        <v>287.21</v>
       </c>
       <c r="T23">
-        <v>325.52999999999997</v>
+        <v>325.53</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2443,7 +2424,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.29999999999995</v>
+        <v>565.3</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2458,8 +2439,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:28">
+      <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2487,10 +2468,10 @@
         <v>453.16</v>
       </c>
       <c r="J24">
+        <v>492.48</v>
+      </c>
+      <c r="K24">
         <v>497.92</v>
-      </c>
-      <c r="K24">
-        <v>492.48</v>
       </c>
       <c r="L24">
         <v>504.26</v>
@@ -2508,7 +2489,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.14999999999998</v>
+        <v>300.15</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2544,8 +2525,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:28">
+      <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2573,10 +2554,10 @@
         <v>449.8</v>
       </c>
       <c r="J25">
+        <v>467.24</v>
+      </c>
+      <c r="K25">
         <v>488.22</v>
-      </c>
-      <c r="K25">
-        <v>467.24</v>
       </c>
       <c r="L25">
         <v>504.61</v>
@@ -2630,8 +2611,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:28">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2659,10 +2640,10 @@
         <v>454.64</v>
       </c>
       <c r="J26">
+        <v>488.04</v>
+      </c>
+      <c r="K26">
         <v>498.86</v>
-      </c>
-      <c r="K26">
-        <v>488.04</v>
       </c>
       <c r="L26">
         <v>508.71</v>
@@ -2701,7 +2682,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.07000000000005</v>
+        <v>578.0700000000001</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2716,8 +2697,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:28">
+      <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2745,13 +2726,13 @@
         <v>483.87</v>
       </c>
       <c r="J27">
+        <v>633.04</v>
+      </c>
+      <c r="K27">
         <v>560.37</v>
       </c>
-      <c r="K27">
-        <v>633.04</v>
-      </c>
       <c r="L27">
-        <v>520.08000000000004</v>
+        <v>520.08</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2766,7 +2747,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97000000000003</v>
+        <v>280.97</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2802,8 +2783,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:28">
+      <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2831,10 +2812,10 @@
         <v>488.24</v>
       </c>
       <c r="J28">
+        <v>644.3</v>
+      </c>
+      <c r="K28">
         <v>567.98</v>
-      </c>
-      <c r="K28">
-        <v>644.29999999999995</v>
       </c>
       <c r="L28">
         <v>525.53</v>
@@ -2888,8 +2869,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:28">
+      <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2917,10 +2898,10 @@
         <v>500.14</v>
       </c>
       <c r="J29">
-        <v>593.55999999999995</v>
+        <v>702.92</v>
       </c>
       <c r="K29">
-        <v>702.92</v>
+        <v>593.5599999999999</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2938,7 +2919,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85000000000002</v>
+        <v>277.85</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2959,7 +2940,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.30999999999995</v>
+        <v>593.3099999999999</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2974,8 +2955,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:28">
+      <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -3003,13 +2984,13 @@
         <v>507.12</v>
       </c>
       <c r="J30">
+        <v>677.11</v>
+      </c>
+      <c r="K30">
         <v>604.12</v>
       </c>
-      <c r="K30">
-        <v>677.11</v>
-      </c>
       <c r="L30">
-        <v>563.91999999999996</v>
+        <v>563.92</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3024,7 +3005,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.20999999999998</v>
+        <v>284.21</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3060,8 +3041,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:28">
+      <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3089,13 +3070,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
+        <v>575.6799999999999</v>
+      </c>
+      <c r="K31">
         <v>575.66</v>
       </c>
-      <c r="K31">
-        <v>575.67999999999995</v>
-      </c>
       <c r="L31">
-        <v>579.45000000000005</v>
+        <v>579.45</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3110,13 +3091,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41000000000003</v>
+        <v>288.41</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.10000000000002</v>
+        <v>261.1</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3146,8 +3127,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:28">
+      <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3175,10 +3156,10 @@
         <v>492.9</v>
       </c>
       <c r="J32">
+        <v>510.87</v>
+      </c>
+      <c r="K32">
         <v>543.34</v>
-      </c>
-      <c r="K32">
-        <v>510.87</v>
       </c>
       <c r="L32">
         <v>566.6</v>
@@ -3232,8 +3213,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:28">
+      <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3261,13 +3242,13 @@
         <v>487.44</v>
       </c>
       <c r="J33">
+        <v>463.06</v>
+      </c>
+      <c r="K33">
         <v>521.02</v>
       </c>
-      <c r="K33">
-        <v>463.06</v>
-      </c>
       <c r="L33">
-        <v>559.55999999999995</v>
+        <v>559.5599999999999</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3282,7 +3263,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16000000000003</v>
+        <v>298.16</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3318,8 +3299,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:28">
+      <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3347,10 +3328,10 @@
         <v>483.68</v>
       </c>
       <c r="J34">
+        <v>455.47</v>
+      </c>
+      <c r="K34">
         <v>508.93</v>
-      </c>
-      <c r="K34">
-        <v>455.47</v>
       </c>
       <c r="L34">
         <v>544.66</v>
@@ -3368,7 +3349,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29000000000002</v>
+        <v>295.29</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3404,8 +3385,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:28">
+      <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3433,10 +3414,10 @@
         <v>480.79</v>
       </c>
       <c r="J35">
+        <v>447.46</v>
+      </c>
+      <c r="K35">
         <v>498.59</v>
-      </c>
-      <c r="K35">
-        <v>447.46</v>
       </c>
       <c r="L35">
         <v>532.84</v>
@@ -3466,13 +3447,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.57</v>
+        <v>942.5700000000001</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.79999999999995</v>
+        <v>515.8</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3490,8 +3471,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:28">
+      <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3519,10 +3500,10 @@
         <v>488.73</v>
       </c>
       <c r="J36">
+        <v>490.23</v>
+      </c>
+      <c r="K36">
         <v>512.65</v>
-      </c>
-      <c r="K36">
-        <v>490.23</v>
       </c>
       <c r="L36">
         <v>529.61</v>
@@ -3540,10 +3521,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="R36">
-        <v>261.58999999999997</v>
+        <v>261.59</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3552,7 +3533,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.32</v>
+        <v>943.3200000000001</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3576,8 +3557,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:28">
+      <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3605,13 +3586,13 @@
         <v>489.8</v>
       </c>
       <c r="J37">
+        <v>473.63</v>
+      </c>
+      <c r="K37">
         <v>509.17</v>
       </c>
-      <c r="K37">
-        <v>473.63</v>
-      </c>
       <c r="L37">
-        <v>534.05999999999995</v>
+        <v>534.0599999999999</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3629,10 +3610,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72000000000003</v>
+        <v>268.72</v>
       </c>
       <c r="S37">
-        <v>281.39999999999998</v>
+        <v>281.4</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3662,8 +3643,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:28">
+      <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3691,10 +3672,10 @@
         <v>504.14</v>
       </c>
       <c r="J38">
-        <v>529.30999999999995</v>
+        <v>502.4</v>
       </c>
       <c r="K38">
-        <v>502.4</v>
+        <v>529.3099999999999</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3733,7 +3714,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.17999999999995</v>
+        <v>654.1799999999999</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3748,8 +3729,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:28">
+      <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3777,13 +3758,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>572.80999999999995</v>
+        <v>604.2</v>
       </c>
       <c r="K39">
-        <v>604.20000000000005</v>
+        <v>572.8099999999999</v>
       </c>
       <c r="L39">
-        <v>559.92999999999995</v>
+        <v>559.9299999999999</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3810,7 +3791,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.44</v>
+        <v>954.4400000000001</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3834,8 +3815,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:28">
+      <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3863,10 +3844,10 @@
         <v>539.88</v>
       </c>
       <c r="J40">
+        <v>645.48</v>
+      </c>
+      <c r="K40">
         <v>594.85</v>
-      </c>
-      <c r="K40">
-        <v>645.48</v>
       </c>
       <c r="L40">
         <v>571.25</v>
@@ -3896,7 +3877,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.81</v>
+        <v>952.8099999999999</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3905,7 +3886,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.69</v>
+        <v>668.6900000000001</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3920,8 +3901,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:28">
+      <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3946,16 +3927,16 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.41999999999996</v>
+        <v>550.42</v>
       </c>
       <c r="J41">
+        <v>656.84</v>
+      </c>
+      <c r="K41">
         <v>613.34</v>
       </c>
-      <c r="K41">
-        <v>656.84</v>
-      </c>
       <c r="L41">
-        <v>593.92999999999995</v>
+        <v>593.9299999999999</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3988,7 +3969,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.69000000000005</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -4006,8 +3987,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:28">
+      <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4032,16 +4013,16 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.32000000000005</v>
+        <v>564.3200000000001</v>
       </c>
       <c r="J42">
+        <v>662.83</v>
+      </c>
+      <c r="K42">
         <v>635.72</v>
       </c>
-      <c r="K42">
-        <v>662.83</v>
-      </c>
       <c r="L42">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4074,10 +4055,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.94000000000005</v>
+        <v>540.9400000000001</v>
       </c>
       <c r="X42">
-        <v>675.32</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4092,8 +4073,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:28">
+      <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4118,13 +4099,13 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.67999999999995</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="J43">
+        <v>641.12</v>
+      </c>
+      <c r="K43">
         <v>634.01</v>
-      </c>
-      <c r="K43">
-        <v>641.12</v>
       </c>
       <c r="L43">
         <v>635.41</v>
@@ -4133,7 +4114,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.55999999999995</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4148,7 +4129,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.77999999999997</v>
+        <v>294.78</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4163,7 +4144,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.43</v>
+        <v>676.4299999999999</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4178,8 +4159,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:28">
+      <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4207,10 +4188,10 @@
         <v>556.61</v>
       </c>
       <c r="J44">
+        <v>593.0599999999999</v>
+      </c>
+      <c r="K44">
         <v>610.1</v>
-      </c>
-      <c r="K44">
-        <v>593.05999999999995</v>
       </c>
       <c r="L44">
         <v>624.98</v>
@@ -4234,7 +4215,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.27999999999997</v>
+        <v>303.28</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4264,8 +4245,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:28">
+      <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4293,10 +4274,10 @@
         <v>549.48</v>
       </c>
       <c r="J45">
-        <v>593.20000000000005</v>
+        <v>545.16</v>
       </c>
       <c r="K45">
-        <v>545.16</v>
+        <v>593.2</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4332,7 +4313,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.94000000000005</v>
+        <v>551.9400000000001</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4350,8 +4331,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:28">
+      <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4379,10 +4360,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>587.08000000000004</v>
+        <v>539.8</v>
       </c>
       <c r="K46">
-        <v>539.79999999999995</v>
+        <v>587.08</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4391,7 +4372,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95000000000005</v>
+        <v>552.95</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4412,7 +4393,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.6199999999999</v>
+        <v>1063.62</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4436,8 +4417,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:28">
+      <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4465,13 +4446,13 @@
         <v>552.66</v>
       </c>
       <c r="J47">
-        <v>585.70000000000005</v>
+        <v>550.48</v>
       </c>
       <c r="K47">
-        <v>550.48</v>
+        <v>585.7</v>
       </c>
       <c r="L47">
-        <v>610.67999999999995</v>
+        <v>610.6799999999999</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4522,8 +4503,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:28">
+      <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4551,16 +4532,16 @@
         <v>569.4</v>
       </c>
       <c r="J48">
-        <v>608.95000000000005</v>
+        <v>592</v>
       </c>
       <c r="K48">
-        <v>592</v>
+        <v>608.95</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.20000000000005</v>
+        <v>531.2</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4590,7 +4571,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45000000000005</v>
+        <v>565.45</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4608,12 +4589,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:28">
+      <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83000000000004</v>
+        <v>516.83</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4634,16 +4615,16 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.07000000000005</v>
+        <v>593.0700000000001</v>
       </c>
       <c r="J49">
+        <v>642.79</v>
+      </c>
+      <c r="K49">
         <v>646.77</v>
       </c>
-      <c r="K49">
-        <v>642.79</v>
-      </c>
       <c r="L49">
-        <v>654.55999999999995</v>
+        <v>654.5599999999999</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4694,12 +4675,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:28">
+      <c r="A50" s="2">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.05999999999995</v>
+        <v>524.0599999999999</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4720,13 +4701,13 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.05999999999995</v>
+        <v>608.0599999999999</v>
       </c>
       <c r="J50">
+        <v>672.8099999999999</v>
+      </c>
+      <c r="K50">
         <v>668.72</v>
-      </c>
-      <c r="K50">
-        <v>672.81</v>
       </c>
       <c r="L50">
         <v>672.12</v>
@@ -4735,7 +4716,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58000000000004</v>
+        <v>607.58</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4780,8 +4761,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:28">
+      <c r="A51" s="2">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4800,7 +4781,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.16999999999996</v>
+        <v>519.17</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4809,16 +4790,16 @@
         <v>623.16</v>
       </c>
       <c r="J51">
+        <v>665.95</v>
+      </c>
+      <c r="K51">
         <v>676.38</v>
-      </c>
-      <c r="K51">
-        <v>665.95</v>
       </c>
       <c r="L51">
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.17999999999995</v>
+        <v>573.1799999999999</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4848,7 +4829,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.19000000000005</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4863,15 +4844,15 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.29999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+        <v>513.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="2">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.92999999999995</v>
+        <v>539.9299999999999</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4883,7 +4864,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.07000000000005</v>
+        <v>512.0700000000001</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4892,25 +4873,25 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.20000000000005</v>
+        <v>639.2</v>
       </c>
       <c r="J52">
+        <v>700.64</v>
+      </c>
+      <c r="K52">
         <v>696.03</v>
-      </c>
-      <c r="K52">
-        <v>700.64</v>
       </c>
       <c r="L52">
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.17999999999995</v>
+        <v>586.1799999999999</v>
       </c>
       <c r="N52">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="O52">
-        <v>560.69000000000005</v>
+        <v>560.6900000000001</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4934,7 +4915,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08000000000004</v>
+        <v>585.08</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4946,14 +4927,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.70000000000005</v>
+        <v>526.7</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:28">
+      <c r="A53" s="2">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4969,7 +4950,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83000000000004</v>
+        <v>517.83</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4981,10 +4962,10 @@
         <v>646.41</v>
       </c>
       <c r="J53">
+        <v>703.05</v>
+      </c>
+      <c r="K53">
         <v>705.21</v>
-      </c>
-      <c r="K53">
-        <v>703.05</v>
       </c>
       <c r="L53">
         <v>712.48</v>
@@ -4993,7 +4974,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.30999999999995</v>
+        <v>633.3099999999999</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -5014,13 +4995,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4000000000001</v>
+        <v>1064.4</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.44000000000005</v>
+        <v>588.4400000000001</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5038,8 +5019,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:28">
+      <c r="A54" s="2">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5055,7 +5036,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.67999999999995</v>
+        <v>527.6799999999999</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5067,10 +5048,10 @@
         <v>660.16</v>
       </c>
       <c r="J54">
+        <v>752.99</v>
+      </c>
+      <c r="K54">
         <v>728.96</v>
-      </c>
-      <c r="K54">
-        <v>752.99</v>
       </c>
       <c r="L54">
         <v>721.53</v>
@@ -5091,7 +5072,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.45999999999998</v>
+        <v>271.46</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5106,7 +5087,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.92999999999995</v>
+        <v>591.9299999999999</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5121,11 +5102,11 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.32000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+        <v>532.3200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="2">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5153,22 +5134,22 @@
         <v>662.08</v>
       </c>
       <c r="J55">
+        <v>704.99</v>
+      </c>
+      <c r="K55">
         <v>726.66</v>
-      </c>
-      <c r="K55">
-        <v>704.99</v>
       </c>
       <c r="L55">
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.69000000000005</v>
+        <v>602.6900000000001</v>
       </c>
       <c r="N55">
-        <v>644.08000000000004</v>
+        <v>644.08</v>
       </c>
       <c r="O55">
-        <v>576.16999999999996</v>
+        <v>576.17</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5186,13 +5167,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.1199999999999</v>
+        <v>1095.12</v>
       </c>
       <c r="V55">
-        <v>523.95000000000005</v>
+        <v>523.95</v>
       </c>
       <c r="W55">
-        <v>596.16999999999996</v>
+        <v>596.17</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5207,11 +5188,11 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.04999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+        <v>537.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="2">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5227,10 +5208,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.94000000000005</v>
+        <v>544.9400000000001</v>
       </c>
       <c r="G56">
-        <v>554.44000000000005</v>
+        <v>554.4400000000001</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5239,10 +5220,10 @@
         <v>667.88</v>
       </c>
       <c r="J56">
-        <v>724.18</v>
+        <v>651.91</v>
       </c>
       <c r="K56">
-        <v>651.91</v>
+        <v>724.1799999999999</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5251,7 +5232,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.92999999999995</v>
+        <v>653.9299999999999</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5263,7 +5244,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5290,14 +5271,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.17999999999995</v>
+        <v>551.1799999999999</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:28">
+      <c r="A57" s="2">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5316,19 +5297,19 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.41999999999996</v>
+        <v>565.42</v>
       </c>
       <c r="H57">
-        <v>535.44000000000005</v>
+        <v>535.4400000000001</v>
       </c>
       <c r="I57">
         <v>686.41</v>
       </c>
       <c r="J57">
-        <v>745.82</v>
+        <v>688.35</v>
       </c>
       <c r="K57">
-        <v>688.35</v>
+        <v>745.8200000000001</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5337,7 +5318,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.06</v>
+        <v>673.0599999999999</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5349,7 +5330,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5361,10 +5342,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.20000000000005</v>
+        <v>541.2</v>
       </c>
       <c r="W57">
-        <v>606.67999999999995</v>
+        <v>606.6799999999999</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5382,12 +5363,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:28">
+      <c r="A58" s="2">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.91999999999996</v>
+        <v>587.92</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5396,34 +5377,34 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.66999999999996</v>
+        <v>520.67</v>
       </c>
       <c r="F58">
-        <v>559.69000000000005</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.82000000000005</v>
+        <v>538.8200000000001</v>
       </c>
       <c r="I58">
         <v>708.25</v>
       </c>
       <c r="J58">
-        <v>777.56</v>
+        <v>757.76</v>
       </c>
       <c r="K58">
-        <v>757.76</v>
+        <v>777.5599999999999</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.54999999999995</v>
+        <v>644.55</v>
       </c>
       <c r="N58">
-        <v>685.18</v>
+        <v>685.1799999999999</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5468,12 +5449,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:28">
+      <c r="A59" s="2">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08000000000004</v>
+        <v>597.08</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5491,28 +5472,28 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.70000000000005</v>
+        <v>550.7</v>
       </c>
       <c r="I59">
         <v>711.76</v>
       </c>
       <c r="J59">
+        <v>734.39</v>
+      </c>
+      <c r="K59">
         <v>773.47</v>
       </c>
-      <c r="K59">
-        <v>734.39</v>
-      </c>
       <c r="L59">
-        <v>802.32</v>
+        <v>802.3200000000001</v>
       </c>
       <c r="M59">
-        <v>653.95000000000005</v>
+        <v>653.95</v>
       </c>
       <c r="N59">
-        <v>702.56</v>
+        <v>702.5599999999999</v>
       </c>
       <c r="O59">
-        <v>623.42999999999995</v>
+        <v>623.4299999999999</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5521,7 +5502,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.33999999999997</v>
+        <v>267.34</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5530,7 +5511,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.8699999999999</v>
+        <v>1094.87</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5542,7 +5523,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.91999999999996</v>
+        <v>573.92</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5554,15 +5535,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:28">
+      <c r="A60" s="2">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.70000000000005</v>
+        <v>609.7</v>
       </c>
       <c r="C60">
-        <v>512.91999999999996</v>
+        <v>512.92</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5574,7 +5555,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.55999999999995</v>
+        <v>594.5599999999999</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5583,10 +5564,10 @@
         <v>725.45</v>
       </c>
       <c r="J60">
+        <v>749.76</v>
+      </c>
+      <c r="K60">
         <v>786.77</v>
-      </c>
-      <c r="K60">
-        <v>749.76</v>
       </c>
       <c r="L60">
         <v>814.55</v>
@@ -5607,7 +5588,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79000000000002</v>
+        <v>287.79</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5637,18 +5618,18 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.32000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+        <v>584.3200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="2">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.44000000000005</v>
+        <v>529.4400000000001</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5660,19 +5641,19 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.91999999999996</v>
+        <v>618.92</v>
       </c>
       <c r="H61">
-        <v>610.17999999999995</v>
+        <v>610.1799999999999</v>
       </c>
       <c r="I61">
         <v>753.88</v>
       </c>
       <c r="J61">
+        <v>735.45</v>
+      </c>
+      <c r="K61">
         <v>809.86</v>
-      </c>
-      <c r="K61">
-        <v>735.45</v>
       </c>
       <c r="L61">
         <v>859.11</v>
@@ -5684,22 +5665,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.56</v>
+        <v>655.5599999999999</v>
       </c>
       <c r="P61">
-        <v>522.82000000000005</v>
+        <v>522.8200000000001</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54000000000002</v>
+        <v>292.54</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58000000000004</v>
+        <v>517.58</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5726,12 +5707,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:28">
+      <c r="A62" s="2">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.44</v>
+        <v>723.4400000000001</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5743,22 +5724,22 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.94</v>
+        <v>695.9400000000001</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.68</v>
+        <v>669.6799999999999</v>
       </c>
       <c r="I62">
         <v>874.42</v>
       </c>
       <c r="J62">
+        <v>793.51</v>
+      </c>
+      <c r="K62">
         <v>935.05</v>
-      </c>
-      <c r="K62">
-        <v>793.51</v>
       </c>
       <c r="L62">
         <v>1023.57</v>
@@ -5773,7 +5754,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.57000000000005</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5782,22 +5763,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33000000000004</v>
+        <v>549.33</v>
       </c>
       <c r="T62">
-        <v>586.80999999999995</v>
+        <v>586.8099999999999</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.44000000000005</v>
+        <v>603.4400000000001</v>
       </c>
       <c r="W62">
-        <v>643.07000000000005</v>
+        <v>643.0700000000001</v>
       </c>
       <c r="X62">
-        <v>1038.3900000000001</v>
+        <v>1038.39</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5812,15 +5793,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:28">
+      <c r="A63" s="2">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.20000000000005</v>
+        <v>648.2</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5841,16 +5822,16 @@
         <v>969.71</v>
       </c>
       <c r="J63">
+        <v>958.73</v>
+      </c>
+      <c r="K63">
         <v>1048.25</v>
-      </c>
-      <c r="K63">
-        <v>958.73</v>
       </c>
       <c r="L63">
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.32</v>
+        <v>895.3200000000001</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5859,13 +5840,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.43</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85000000000002</v>
+        <v>312.85</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5877,13 +5858,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08000000000004</v>
+        <v>651.08</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.1099999999999</v>
+        <v>1126.11</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5892,14 +5873,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.19</v>
+        <v>677.1900000000001</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:28">
+      <c r="A64" s="2">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5909,16 +5890,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.29999999999995</v>
+        <v>623.3</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.57</v>
+        <v>799.5700000000001</v>
       </c>
       <c r="G64">
-        <v>851.06</v>
+        <v>851.0599999999999</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5927,10 +5908,10 @@
         <v>1051.29</v>
       </c>
       <c r="J64">
+        <v>1267.05</v>
+      </c>
+      <c r="K64">
         <v>1182.77</v>
-      </c>
-      <c r="K64">
-        <v>1267.05</v>
       </c>
       <c r="L64">
         <v>1132.28</v>
@@ -5939,7 +5920,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.1099999999999</v>
+        <v>1055.11</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5981,18 +5962,18 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+        <v>799.9299999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="2">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.06</v>
+        <v>887.0599999999999</v>
       </c>
       <c r="C65">
-        <v>701.82</v>
+        <v>701.8200000000001</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -6007,16 +5988,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.07</v>
+        <v>985.0700000000001</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1251.9000000000001</v>
+        <v>1275.85</v>
       </c>
       <c r="K65">
-        <v>1275.8499999999999</v>
+        <v>1251.9</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6031,10 +6012,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.43</v>
+        <v>728.4299999999999</v>
       </c>
       <c r="Q65">
-        <v>584.45000000000005</v>
+        <v>584.45</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6070,8 +6051,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:28">
+      <c r="A66" s="2">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6081,7 +6062,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.19</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6099,10 +6080,10 @@
         <v>1248.33</v>
       </c>
       <c r="J66">
+        <v>1541.91</v>
+      </c>
+      <c r="K66">
         <v>1462.78</v>
-      </c>
-      <c r="K66">
-        <v>1541.91</v>
       </c>
       <c r="L66">
         <v>1415.84</v>
@@ -6135,7 +6116,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.31</v>
+        <v>736.3099999999999</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6150,14 +6131,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.31</v>
+        <v>741.3099999999999</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:28">
+      <c r="A67" s="2">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6170,7 +6151,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.06</v>
+        <v>846.0599999999999</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6185,10 +6166,10 @@
         <v>1268.74</v>
       </c>
       <c r="J67">
+        <v>1370.81</v>
+      </c>
+      <c r="K67">
         <v>1435.97</v>
-      </c>
-      <c r="K67">
-        <v>1370.81</v>
       </c>
       <c r="L67">
         <v>1478.01</v>
@@ -6200,7 +6181,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.1600000000001</v>
+        <v>1057.16</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6242,8 +6223,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:28">
+      <c r="A68" s="2">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6262,7 +6243,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.1099999999999</v>
+        <v>1053.11</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6271,10 +6252,10 @@
         <v>1295.25</v>
       </c>
       <c r="J68">
+        <v>1162.49</v>
+      </c>
+      <c r="K68">
         <v>1387.88</v>
-      </c>
-      <c r="K68">
-        <v>1162.49</v>
       </c>
       <c r="L68">
         <v>1528.72</v>
@@ -6283,7 +6264,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.8599999999999</v>
+        <v>1288.86</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6322,27 +6303,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.32</v>
+        <v>787.3200000000001</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:28">
+      <c r="A69" s="2">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.69</v>
+        <v>829.6900000000001</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.44</v>
+        <v>919.4400000000001</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6351,16 +6332,16 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.5999999999999</v>
+        <v>1227.6</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
       </c>
       <c r="J69">
+        <v>1220.08</v>
+      </c>
+      <c r="K69">
         <v>1424.55</v>
-      </c>
-      <c r="K69">
-        <v>1220.08</v>
       </c>
       <c r="L69">
         <v>1552.52</v>
@@ -6384,7 +6365,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.19</v>
+        <v>733.1900000000001</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6402,7 +6383,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.6400000000001</v>
+        <v>1060.64</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6414,8 +6395,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:28">
+      <c r="A70" s="2">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6443,10 +6424,10 @@
         <v>1347.48</v>
       </c>
       <c r="J70">
+        <v>1143.05</v>
+      </c>
+      <c r="K70">
         <v>1395.81</v>
-      </c>
-      <c r="K70">
-        <v>1143.05</v>
       </c>
       <c r="L70">
         <v>1553.54</v>
@@ -6488,7 +6469,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.3399999999999</v>
+        <v>1062.34</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6500,15 +6481,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:28">
+      <c r="A71" s="2">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.6099999999999</v>
+        <v>1120.61</v>
       </c>
       <c r="C71">
-        <v>879.43</v>
+        <v>879.4299999999999</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6529,10 +6510,10 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
+        <v>1165.61</v>
+      </c>
+      <c r="K71">
         <v>1410.76</v>
-      </c>
-      <c r="K71">
-        <v>1165.6099999999999</v>
       </c>
       <c r="L71">
         <v>1563.8</v>
@@ -6550,7 +6531,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.44</v>
+        <v>703.4400000000001</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6559,7 +6540,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.69</v>
+        <v>893.6900000000001</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6583,18 +6564,18 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.8900000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+        <v>1046.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="2">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.3900000000001</v>
+        <v>1152.39</v>
       </c>
       <c r="C72">
-        <v>907.94</v>
+        <v>907.9400000000001</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6615,10 +6596,10 @@
         <v>1443.99</v>
       </c>
       <c r="J72">
+        <v>1332.71</v>
+      </c>
+      <c r="K72">
         <v>1512.45</v>
-      </c>
-      <c r="K72">
-        <v>1332.71</v>
       </c>
       <c r="L72">
         <v>1625.28</v>
@@ -6630,7 +6611,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.1199999999999</v>
+        <v>1298.12</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6648,19 +6629,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.8200000000002</v>
+        <v>2082.82</v>
       </c>
       <c r="V72">
-        <v>901.57</v>
+        <v>901.5700000000001</v>
       </c>
       <c r="W72">
-        <v>887.82</v>
+        <v>887.8200000000001</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.6099999999999</v>
+        <v>1158.61</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6672,8 +6653,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:28">
+      <c r="A73" s="2">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6689,10 +6670,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.6199999999999</v>
+        <v>1103.62</v>
       </c>
       <c r="G73">
-        <v>1194.5999999999999</v>
+        <v>1194.6</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6701,10 +6682,10 @@
         <v>1526.98</v>
       </c>
       <c r="J73">
+        <v>1465.19</v>
+      </c>
+      <c r="K73">
         <v>1597.34</v>
-      </c>
-      <c r="K73">
-        <v>1465.19</v>
       </c>
       <c r="L73">
         <v>1680.91</v>
@@ -6719,10 +6700,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.06</v>
+        <v>924.0599999999999</v>
       </c>
       <c r="Q73">
-        <v>741.56</v>
+        <v>741.5599999999999</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6758,8 +6739,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:28">
+      <c r="A74" s="2">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6772,10 +6753,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.0999999999999</v>
+        <v>1038.1</v>
       </c>
       <c r="F74">
-        <v>1113.6400000000001</v>
+        <v>1113.64</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6787,10 +6768,10 @@
         <v>1555.31</v>
       </c>
       <c r="J74">
+        <v>1416.77</v>
+      </c>
+      <c r="K74">
         <v>1620.01</v>
-      </c>
-      <c r="K74">
-        <v>1416.77</v>
       </c>
       <c r="L74">
         <v>1747.47</v>
@@ -6805,7 +6786,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.69</v>
+        <v>939.6900000000001</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6823,7 +6804,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.31</v>
+        <v>938.3099999999999</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6844,8 +6825,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:28">
+      <c r="A75" s="2">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6864,7 +6845,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.1099999999999</v>
+        <v>1260.11</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6873,10 +6854,10 @@
         <v>1658.23</v>
       </c>
       <c r="J75">
+        <v>1507.36</v>
+      </c>
+      <c r="K75">
         <v>1769.45</v>
-      </c>
-      <c r="K75">
-        <v>1507.36</v>
       </c>
       <c r="L75">
         <v>1939.75</v>
@@ -6930,8 +6911,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:28">
+      <c r="A76" s="2">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6947,7 +6928,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.1300000000001</v>
+        <v>1232.13</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6959,10 +6940,10 @@
         <v>1780.2</v>
       </c>
       <c r="J76">
+        <v>1779.36</v>
+      </c>
+      <c r="K76">
         <v>1964.94</v>
-      </c>
-      <c r="K76">
-        <v>1779.36</v>
       </c>
       <c r="L76">
         <v>2072.31</v>
@@ -6989,19 +6970,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.1300000000001</v>
+        <v>1024.13</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.6600000000001</v>
+        <v>1090.66</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.5100000000002</v>
+        <v>2052.51</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -7016,8 +6997,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:28">
+      <c r="A77" s="2">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7027,13 +7008,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.81</v>
+        <v>958.8099999999999</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.0899999999999</v>
+        <v>1263.09</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7045,10 +7026,10 @@
         <v>1848.51</v>
       </c>
       <c r="J77">
+        <v>1731.53</v>
+      </c>
+      <c r="K77">
         <v>2077.39</v>
-      </c>
-      <c r="K77">
-        <v>1731.53</v>
       </c>
       <c r="L77">
         <v>2306.89</v>
@@ -7078,7 +7059,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.2800000000002</v>
+        <v>2392.28</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7087,7 +7068,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.5100000000002</v>
+        <v>2131.51</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7102,18 +7083,18 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:28">
+      <c r="A78" s="2">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.8499999999999</v>
+        <v>1096.85</v>
       </c>
       <c r="D78">
-        <v>989.57</v>
+        <v>989.5700000000001</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7131,10 +7112,10 @@
         <v>1921.46</v>
       </c>
       <c r="J78">
+        <v>1789</v>
+      </c>
+      <c r="K78">
         <v>2233.64</v>
-      </c>
-      <c r="K78">
-        <v>1789</v>
       </c>
       <c r="L78">
         <v>2536.79</v>
@@ -7164,7 +7145,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8000000000002</v>
+        <v>2410.8</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7188,18 +7169,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:28">
+      <c r="A79" s="2">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.3900000000001</v>
+        <v>1136.39</v>
       </c>
       <c r="D79">
-        <v>1031.6400000000001</v>
+        <v>1031.64</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7217,10 +7198,10 @@
         <v>1935.1</v>
       </c>
       <c r="J79">
+        <v>1700.23</v>
+      </c>
+      <c r="K79">
         <v>2240.19</v>
-      </c>
-      <c r="K79">
-        <v>1700.23</v>
       </c>
       <c r="L79">
         <v>2617.08</v>
@@ -7235,7 +7216,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.1300000000001</v>
+        <v>1057.13</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7247,19 +7228,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.3499999999999</v>
+        <v>1072.35</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.6600000000001</v>
+        <v>1221.66</v>
       </c>
       <c r="W79">
-        <v>1226.5899999999999</v>
+        <v>1226.59</v>
       </c>
       <c r="X79">
-        <v>2379.5500000000002</v>
+        <v>2379.55</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7268,14 +7249,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.8599999999999</v>
+        <v>1207.86</v>
       </c>
       <c r="AB79">
-        <v>1300.5999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+        <v>1300.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="2">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7297,16 +7278,16 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.8800000000001</v>
+        <v>1057.88</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
       </c>
       <c r="J80">
+        <v>1830.77</v>
+      </c>
+      <c r="K80">
         <v>2337.69</v>
-      </c>
-      <c r="K80">
-        <v>1830.77</v>
       </c>
       <c r="L80">
         <v>2687.19</v>
@@ -7324,7 +7305,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.56</v>
+        <v>884.5599999999999</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7339,7 +7320,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.3599999999999</v>
+        <v>1266.36</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7354,21 +7335,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.4100000000001</v>
+        <v>1239.41</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:28">
+      <c r="A81" s="2">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4000000000001</v>
+        <v>1280.4</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7389,10 +7370,10 @@
         <v>2147.27</v>
       </c>
       <c r="J81">
+        <v>2153.86</v>
+      </c>
+      <c r="K81">
         <v>2560.1</v>
-      </c>
-      <c r="K81">
-        <v>2153.86</v>
       </c>
       <c r="L81">
         <v>2827.44</v>
@@ -7407,7 +7388,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.6500000000001</v>
+        <v>1215.65</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7416,7 +7397,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.0999999999999</v>
+        <v>1138.1</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7446,8 +7427,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:28">
+      <c r="A82" s="2">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7475,10 +7456,10 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
+        <v>2354.43</v>
+      </c>
+      <c r="K82">
         <v>2702.83</v>
-      </c>
-      <c r="K82">
-        <v>2354.4299999999998</v>
       </c>
       <c r="L82">
         <v>2922.69</v>
@@ -7496,7 +7477,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.6300000000001</v>
+        <v>1050.63</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7505,7 +7486,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.6500000000001</v>
+        <v>1306.65</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7532,8 +7513,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:28">
+      <c r="A83" s="2">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7561,10 +7542,10 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
+        <v>2359.95</v>
+      </c>
+      <c r="K83">
         <v>2767.43</v>
-      </c>
-      <c r="K83">
-        <v>2359.9499999999998</v>
       </c>
       <c r="L83">
         <v>3031.89</v>
@@ -7582,7 +7563,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.8699999999999</v>
+        <v>1077.87</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7618,8 +7599,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:28">
+      <c r="A84" s="2">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7647,10 +7628,10 @@
         <v>2483.58</v>
       </c>
       <c r="J84">
+        <v>2368.84</v>
+      </c>
+      <c r="K84">
         <v>2879.72</v>
-      </c>
-      <c r="K84">
-        <v>2368.84</v>
       </c>
       <c r="L84">
         <v>3222.23</v>
@@ -7674,7 +7655,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.0999999999999</v>
+        <v>1264.1</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7704,8 +7685,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:28">
+      <c r="A85" s="2">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7730,13 +7711,13 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.5100000000002</v>
+        <v>2552.51</v>
       </c>
       <c r="J85">
+        <v>2305.84</v>
+      </c>
+      <c r="K85">
         <v>2888.72</v>
-      </c>
-      <c r="K85">
-        <v>2305.84</v>
       </c>
       <c r="L85">
         <v>3286.86</v>
@@ -7790,8 +7771,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:28">
+      <c r="A86" s="2">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7819,10 +7800,10 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
+        <v>2568.49</v>
+      </c>
+      <c r="K86">
         <v>3097.87</v>
-      </c>
-      <c r="K86">
-        <v>2568.4899999999998</v>
       </c>
       <c r="L86">
         <v>3450.67</v>
@@ -7846,7 +7827,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.6400000000001</v>
+        <v>1307.64</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7876,8 +7857,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:28">
+      <c r="A87" s="2">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7905,16 +7886,16 @@
         <v>2814.14</v>
       </c>
       <c r="J87">
+        <v>2764.97</v>
+      </c>
+      <c r="K87">
         <v>3315.05</v>
-      </c>
-      <c r="K87">
-        <v>2764.97</v>
       </c>
       <c r="L87">
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.2800000000002</v>
+        <v>2429.28</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7926,7 +7907,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4000000000001</v>
+        <v>1195.4</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7944,13 +7925,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.7600000000002</v>
+        <v>2198.76</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.8200000000002</v>
+        <v>2468.82</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7962,8 +7943,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:28">
+      <c r="A88" s="2">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -7991,10 +7972,10 @@
         <v>3046.31</v>
       </c>
       <c r="J88">
+        <v>3144.93</v>
+      </c>
+      <c r="K88">
         <v>3623.5</v>
-      </c>
-      <c r="K88">
-        <v>3144.93</v>
       </c>
       <c r="L88">
         <v>3918.56</v>
@@ -8042,14 +8023,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.1799999999998</v>
+        <v>2074.18</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:28">
+      <c r="A89" s="2">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8077,10 +8058,10 @@
         <v>3149.99</v>
       </c>
       <c r="J89">
+        <v>3162.98</v>
+      </c>
+      <c r="K89">
         <v>3825.3</v>
-      </c>
-      <c r="K89">
-        <v>3162.98</v>
       </c>
       <c r="L89">
         <v>4268.16</v>
@@ -8116,13 +8097,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.0100000000002</v>
+        <v>2503.01</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.0700000000002</v>
+        <v>2520.07</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8131,15 +8112,15 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.4699999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+        <v>2139.47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="2">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.4699999999998</v>
+        <v>2380.47</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8151,7 +8132,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.9699999999998</v>
+        <v>2277.97</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8163,10 +8144,10 @@
         <v>3237.61</v>
       </c>
       <c r="J90">
+        <v>3183.76</v>
+      </c>
+      <c r="K90">
         <v>3972.51</v>
-      </c>
-      <c r="K90">
-        <v>3183.76</v>
       </c>
       <c r="L90">
         <v>4516.83</v>
@@ -8187,7 +8168,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.44000000000005</v>
+        <v>578.4400000000001</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8199,7 +8180,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.7800000000002</v>
+        <v>2300.78</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8211,17 +8192,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95000000000005</v>
+        <v>520.95</v>
       </c>
       <c r="AA90">
-        <v>2218.4299999999998</v>
+        <v>2218.43</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:28">
+      <c r="A91" s="2">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8240,7 +8221,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.9699999999998</v>
+        <v>2220.97</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8249,10 +8230,10 @@
         <v>3292.35</v>
       </c>
       <c r="J91">
+        <v>3082.91</v>
+      </c>
+      <c r="K91">
         <v>3954.71</v>
-      </c>
-      <c r="K91">
-        <v>3082.91</v>
       </c>
       <c r="L91">
         <v>4568.99</v>
@@ -8282,7 +8263,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6000000000004</v>
+        <v>4477.6</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8306,8 +8287,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:28">
+      <c r="A92" s="2">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8326,7 +8307,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.2600000000002</v>
+        <v>2241.26</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8335,13 +8316,13 @@
         <v>3350.79</v>
       </c>
       <c r="J92">
+        <v>3269.89</v>
+      </c>
+      <c r="K92">
         <v>3985.77</v>
       </c>
-      <c r="K92">
-        <v>3269.89</v>
-      </c>
       <c r="L92">
-        <v>4468.7700000000004</v>
+        <v>4468.77</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8359,7 +8340,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.16999999999996</v>
+        <v>630.17</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8371,7 +8352,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.7800000000002</v>
+        <v>2472.78</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8386,18 +8367,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.1799999999998</v>
+        <v>2343.18</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:28">
+      <c r="A93" s="2">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.7600000000002</v>
+        <v>2588.76</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8421,10 +8402,10 @@
         <v>3412.26</v>
       </c>
       <c r="J93">
+        <v>3372.65</v>
+      </c>
+      <c r="K93">
         <v>4028.33</v>
-      </c>
-      <c r="K93">
-        <v>3372.65</v>
       </c>
       <c r="L93">
         <v>4459.75</v>
@@ -8445,7 +8426,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.92999999999995</v>
+        <v>612.9299999999999</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8469,24 +8450,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.44000000000005</v>
+        <v>585.4400000000001</v>
       </c>
       <c r="AA93">
-        <v>2423.4299999999998</v>
+        <v>2423.43</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:28">
+      <c r="A94" s="2">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.8200000000002</v>
+        <v>2111.82</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8495,22 +8476,22 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.5700000000002</v>
+        <v>2475.57</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.7600000000002</v>
+        <v>2294.76</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
       </c>
       <c r="J94">
+        <v>3035.54</v>
+      </c>
+      <c r="K94">
         <v>3831.22</v>
-      </c>
-      <c r="K94">
-        <v>3035.54</v>
       </c>
       <c r="L94">
         <v>4385.42</v>
@@ -8540,7 +8521,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.3999999999996</v>
+        <v>4937.4</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8558,14 +8539,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.2399999999998</v>
+        <v>2538.24</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:28">
+      <c r="A95" s="2">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8578,7 +8559,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.9699999999998</v>
+        <v>2288.97</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8587,16 +8568,16 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.8200000000002</v>
+        <v>2304.82</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
       </c>
       <c r="J95">
+        <v>3131.66</v>
+      </c>
+      <c r="K95">
         <v>3966.8</v>
-      </c>
-      <c r="K95">
-        <v>3131.66</v>
       </c>
       <c r="L95">
         <v>4550.08</v>
@@ -8626,7 +8607,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.4799999999996</v>
+        <v>5143.48</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8650,18 +8631,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:28">
+      <c r="A96" s="2">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.5500000000002</v>
+        <v>2238.55</v>
       </c>
       <c r="D96">
-        <v>2062.9499999999998</v>
+        <v>2062.95</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8670,7 +8651,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.2399999999998</v>
+        <v>2464.24</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8679,10 +8660,10 @@
         <v>3608.18</v>
       </c>
       <c r="J96">
-        <v>4234.6400000000003</v>
+        <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>3732.87</v>
+        <v>4234.64</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8736,15 +8717,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:28">
+      <c r="A97" s="2">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.0500000000002</v>
+        <v>2273.05</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8765,10 +8746,10 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
+        <v>4407.88</v>
+      </c>
+      <c r="K97">
         <v>4615.91</v>
-      </c>
-      <c r="K97">
-        <v>4407.88</v>
       </c>
       <c r="L97">
         <v>4655.97</v>
@@ -8798,7 +8779,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6000000000004</v>
+        <v>5151.6</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8807,7 +8788,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.7700000000004</v>
+        <v>5240.77</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8822,8 +8803,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:28">
+      <c r="A98" s="2">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8845,19 +8826,19 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.0700000000002</v>
+        <v>2370.07</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
       </c>
       <c r="J98">
+        <v>4335.05</v>
+      </c>
+      <c r="K98">
         <v>4655.76</v>
       </c>
-      <c r="K98">
-        <v>4335.05</v>
-      </c>
       <c r="L98">
-        <v>4788.8900000000003</v>
+        <v>4788.89</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8908,8 +8889,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:28">
+      <c r="A99" s="2">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8919,7 +8900,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.9499999999998</v>
+        <v>2234.95</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8931,16 +8912,16 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.6799999999998</v>
+        <v>2514.68</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4779.3900000000003</v>
+        <v>4483.06</v>
       </c>
       <c r="K99">
-        <v>4483.0600000000004</v>
+        <v>4779.39</v>
       </c>
       <c r="L99">
         <v>4889.26</v>
@@ -8976,7 +8957,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.6099999999997</v>
+        <v>4411.61</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8994,262 +8975,262 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:28">
+      <c r="A100" s="2">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3162.7359541569249</v>
+        <v>3162.735954156925</v>
       </c>
       <c r="C100">
-        <v>2522.4772349021259</v>
+        <v>2521.864334490103</v>
       </c>
       <c r="D100">
-        <v>2319.491472885556</v>
+        <v>2318.7025520978</v>
       </c>
       <c r="E100">
-        <v>2645.3423875698918</v>
+        <v>2645.342387569892</v>
       </c>
       <c r="F100">
         <v>2941.887542379508</v>
       </c>
       <c r="G100">
-        <v>2723.7621710480648</v>
+        <v>2723.762171048065</v>
       </c>
       <c r="H100">
         <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4122.5400266702209</v>
+        <v>4122.540026670221</v>
       </c>
       <c r="J100">
-        <v>4845.0360797187341</v>
+        <v>4480.844840317766</v>
       </c>
       <c r="K100">
-        <v>4480.8448403177663</v>
+        <v>4845.367502031648</v>
       </c>
       <c r="L100">
-        <v>5021.1415911665454</v>
+        <v>5019.70699513208</v>
       </c>
       <c r="M100">
-        <v>3547.5368690859432</v>
+        <v>3547.536869085943</v>
       </c>
       <c r="N100">
         <v>4006.396180070411</v>
       </c>
       <c r="O100">
-        <v>3298.8101259039549</v>
+        <v>3298.810125903955</v>
       </c>
       <c r="P100">
         <v>1968.818648657101</v>
       </c>
       <c r="Q100">
-        <v>1540.275144256487</v>
+        <v>1539.369808902504</v>
       </c>
       <c r="R100">
-        <v>715.54926611778671</v>
+        <v>715.5492661177867</v>
       </c>
       <c r="S100">
         <v>1672.205337320532</v>
       </c>
       <c r="T100">
-        <v>2149.614870859285</v>
+        <v>2150.243523587708</v>
       </c>
       <c r="U100">
-        <v>5636.8573633898823</v>
+        <v>5610.598236550803</v>
       </c>
       <c r="V100">
-        <v>3385.8588170757589</v>
+        <v>3385.858817075759</v>
       </c>
       <c r="W100">
-        <v>4597.8144691720954</v>
+        <v>4597.814469172095</v>
       </c>
       <c r="X100">
-        <v>5858.3339374863444</v>
+        <v>5858.333937486344</v>
       </c>
       <c r="Y100">
-        <v>3866.8827256514842</v>
+        <v>3866.882725651484</v>
       </c>
       <c r="Z100">
-        <v>628.72663070400517</v>
+        <v>628.7266307040052</v>
       </c>
       <c r="AA100">
-        <v>3439.1666200142449</v>
+        <v>3439.166620014245</v>
       </c>
       <c r="AB100">
-        <v>2927.7197635733528</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+        <v>2927.719763573353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="2">
         <v>45747</v>
       </c>
       <c r="B101">
         <v>3234.993671119335</v>
       </c>
       <c r="C101">
-        <v>2596.0063997482662</v>
+        <v>2594.917195275712</v>
       </c>
       <c r="D101">
-        <v>2390.1689661075688</v>
+        <v>2388.830801461158</v>
       </c>
       <c r="E101">
-        <v>2713.6493385872668</v>
+        <v>2713.649338587267</v>
       </c>
       <c r="F101">
         <v>3037.838103257729</v>
       </c>
       <c r="G101">
-        <v>2816.3871261685572</v>
+        <v>2816.387126168557</v>
       </c>
       <c r="H101">
-        <v>2634.3766926018538</v>
+        <v>2634.376692601854</v>
       </c>
       <c r="I101">
-        <v>4316.1448248725983</v>
+        <v>4316.144824872598</v>
       </c>
       <c r="J101">
-        <v>5228.2995612094846</v>
+        <v>5018.82471485218</v>
       </c>
       <c r="K101">
-        <v>5018.8247148521796</v>
+        <v>5234.236135673622</v>
       </c>
       <c r="L101">
-        <v>5232.119310591248</v>
+        <v>5247.398693479425</v>
       </c>
       <c r="M101">
-        <v>3635.9725225209709</v>
+        <v>3635.972522520971</v>
       </c>
       <c r="N101">
         <v>4075.608277256481</v>
       </c>
       <c r="O101">
-        <v>3386.6363371586208</v>
+        <v>3386.636337158621</v>
       </c>
       <c r="P101">
         <v>2038.261330230554</v>
       </c>
       <c r="Q101">
-        <v>1592.6636313903989</v>
+        <v>1591.19260493205</v>
       </c>
       <c r="R101">
-        <v>764.18726678627206</v>
+        <v>764.1872667862721</v>
       </c>
       <c r="S101">
         <v>1692.042997106736</v>
       </c>
       <c r="T101">
-        <v>2241.671418465532</v>
+        <v>2240.568899291163</v>
       </c>
       <c r="U101">
-        <v>5921.942481406737</v>
+        <v>5912.211174213689</v>
       </c>
       <c r="V101">
-        <v>3473.9514681211381</v>
+        <v>3473.951468121138</v>
       </c>
       <c r="W101">
-        <v>4766.1449791637961</v>
+        <v>4766.144979163796</v>
       </c>
       <c r="X101">
-        <v>5921.2273192102539</v>
+        <v>5921.227319210254</v>
       </c>
       <c r="Y101">
-        <v>4129.3939454754436</v>
+        <v>4129.393945475444</v>
       </c>
       <c r="Z101">
-        <v>614.36786011369941</v>
+        <v>614.3678601136994</v>
       </c>
       <c r="AA101">
-        <v>3715.9768689989342</v>
+        <v>3715.976868998934</v>
       </c>
       <c r="AB101">
         <v>3022.268128506455</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:28">
+      <c r="A102" s="2">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3309.766954716119</v>
+        <v>3313.036748345462</v>
       </c>
       <c r="C102">
-        <v>2640.7471808545738</v>
+        <v>2640.974208978613</v>
       </c>
       <c r="D102">
-        <v>2434.013109419504</v>
+        <v>2433.684227155989</v>
       </c>
       <c r="E102">
-        <v>2770.1675144526612</v>
+        <v>2773.041798961716</v>
       </c>
       <c r="F102">
-        <v>3096.4948726547532</v>
+        <v>3098.621443067781</v>
       </c>
       <c r="G102">
-        <v>2877.0920119167608</v>
+        <v>2879.801275373768</v>
       </c>
       <c r="H102">
-        <v>2732.3745214587111</v>
+        <v>2735.635484780463</v>
       </c>
       <c r="I102">
-        <v>4401.5607727144161</v>
+        <v>4403.689191922399</v>
       </c>
       <c r="J102">
-        <v>5376.0331257524522</v>
+        <v>5095.037969805109</v>
       </c>
       <c r="K102">
-        <v>5100.6613577760836</v>
+        <v>5389.882603864876</v>
       </c>
       <c r="L102">
-        <v>5440.8181328593273</v>
+        <v>5475.155076931766</v>
       </c>
       <c r="M102">
-        <v>3685.709199276223</v>
+        <v>3688.648654755527</v>
       </c>
       <c r="N102">
-        <v>4128.7958720958222</v>
+        <v>4130.843941968278</v>
       </c>
       <c r="O102">
-        <v>3433.4296490100978</v>
+        <v>3436.394875304214</v>
       </c>
       <c r="P102">
-        <v>2073.0589475029719</v>
+        <v>2075.719142443911</v>
       </c>
       <c r="Q102">
-        <v>1619.406431228065</v>
+        <v>1618.094504604033</v>
       </c>
       <c r="R102">
-        <v>772.81672709490908</v>
+        <v>774.0341580927752</v>
       </c>
       <c r="S102">
-        <v>1728.692339638982</v>
+        <v>1730.473639317959</v>
       </c>
       <c r="T102">
-        <v>2271.3541448883411</v>
+        <v>2261.759438538849</v>
       </c>
       <c r="U102">
-        <v>6435.1637792363053</v>
+        <v>6407.092898745914</v>
       </c>
       <c r="V102">
-        <v>3544.510191375146</v>
+        <v>3547.265376663314</v>
       </c>
       <c r="W102">
-        <v>4932.360413443891</v>
+        <v>4938.471736849137</v>
       </c>
       <c r="X102">
-        <v>6139.5006020285728</v>
+        <v>6145.334856629853</v>
       </c>
       <c r="Y102">
-        <v>4238.7429097555596</v>
+        <v>4237.631488486945</v>
       </c>
       <c r="Z102">
-        <v>592.59268109513164</v>
+        <v>592.5985354013479</v>
       </c>
       <c r="AA102">
-        <v>3731.7570165538118</v>
+        <v>3732.655088051562</v>
       </c>
       <c r="AB102">
-        <v>3088.0652026584098</v>
+        <v>3090.88146739222</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835FBC0-9D81-4E36-8685-B3A39A07A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="20970" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,11 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -170,13 +174,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +566,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -567,13 +586,13 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="H2">
-        <v>299.59</v>
+        <v>299.58999999999997</v>
       </c>
       <c r="I2">
-        <v>319.35</v>
+        <v>319.35000000000002</v>
       </c>
       <c r="J2">
         <v>292.5</v>
@@ -585,7 +604,7 @@
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.78</v>
+        <v>299.77999999999997</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -609,7 +628,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.5700000000001</v>
+        <v>588.57000000000005</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -621,7 +640,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -630,24 +649,24 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="2">
+        <v>292.54000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97</v>
+        <v>262.97000000000003</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.28</v>
+        <v>276.27999999999997</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -707,7 +726,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22</v>
+        <v>325.22000000000003</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -719,24 +738,24 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.09</v>
+        <v>265.08999999999997</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F4">
-        <v>293.53</v>
+        <v>293.52999999999997</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -757,7 +776,7 @@
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.1</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -781,10 +800,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58</v>
+        <v>612.58000000000004</v>
       </c>
       <c r="V4">
-        <v>320.78</v>
+        <v>320.77999999999997</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -805,12 +824,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.65</v>
+        <v>313.64999999999998</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -819,16 +838,16 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.15</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="F5">
-        <v>296.71</v>
+        <v>296.70999999999998</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91</v>
+        <v>311.91000000000003</v>
       </c>
       <c r="I5">
         <v>349.18</v>
@@ -849,10 +868,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79</v>
+        <v>295.79000000000002</v>
       </c>
       <c r="P5">
-        <v>256.09</v>
+        <v>256.08999999999997</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -867,7 +886,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -891,18 +910,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22</v>
+        <v>316.22000000000003</v>
       </c>
       <c r="C6">
-        <v>272.91</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="D6">
-        <v>264.15</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -971,21 +990,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66</v>
+        <v>317.66000000000003</v>
       </c>
       <c r="C7">
-        <v>276.34</v>
+        <v>276.33999999999997</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -994,7 +1013,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.9</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1024,7 +1043,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85</v>
+        <v>265.85000000000002</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1054,7 +1073,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1063,27 +1082,27 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.46</v>
+        <v>318.45999999999998</v>
       </c>
       <c r="C8">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.34</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.53</v>
+        <v>302.52999999999997</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1110,7 +1129,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1146,11 +1165,11 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="2">
+        <v>309.77999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1196,7 +1215,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1235,8 +1254,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1273,7 +1292,7 @@
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.96</v>
+        <v>323.95999999999998</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1282,7 +1301,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1318,18 +1337,18 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="2">
+        <v>311.85000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1338,13 +1357,13 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41</v>
+        <v>315.41000000000003</v>
       </c>
       <c r="I11">
         <v>343.79</v>
@@ -1398,7 +1417,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1407,8 +1426,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1421,13 +1440,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.84</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1451,7 +1470,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.53</v>
+        <v>319.52999999999997</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1469,7 +1488,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.3</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1484,24 +1503,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="2">
+        <v>320.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.84</v>
+        <v>291.83999999999997</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1540,7 +1559,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.96</v>
+        <v>281.95999999999998</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1579,8 +1598,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1590,13 +1609,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1623,7 +1642,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79</v>
+        <v>324.79000000000002</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1662,18 +1681,18 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="2">
+        <v>327.41000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.34</v>
+        <v>295.33999999999997</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1712,7 +1731,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1724,7 +1743,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54</v>
+        <v>257.54000000000002</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1751,15 +1770,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.59</v>
+        <v>297.58999999999997</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1798,7 +1817,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35</v>
+        <v>283.35000000000002</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1810,7 +1829,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72</v>
+        <v>261.72000000000003</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1837,8 +1856,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1851,7 +1870,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.15</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1896,7 +1915,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1923,8 +1942,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1982,10 +2001,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97</v>
+        <v>268.97000000000003</v>
       </c>
       <c r="U18">
-        <v>638.6799999999999</v>
+        <v>638.67999999999995</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2009,8 +2028,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2068,7 +2087,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.03</v>
+        <v>272.02999999999997</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2095,8 +2114,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2154,10 +2173,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.53</v>
+        <v>277.52999999999997</v>
       </c>
       <c r="U20">
-        <v>652.0700000000001</v>
+        <v>652.07000000000005</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2166,7 +2185,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.92</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2181,15 +2200,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2228,7 +2247,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47</v>
+        <v>309.47000000000003</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2240,7 +2259,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.09</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2258,7 +2277,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.98</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2267,8 +2286,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2278,7 +2297,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.09</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2317,7 +2336,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.28</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2338,7 +2357,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58</v>
+        <v>539.58000000000004</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2353,8 +2372,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2403,16 +2422,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.65</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.21</v>
+        <v>287.20999999999998</v>
       </c>
       <c r="T23">
-        <v>325.53</v>
+        <v>325.52999999999997</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2424,7 +2443,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.3</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2439,8 +2458,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2489,7 +2508,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.15</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2525,8 +2544,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2611,8 +2630,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2682,7 +2701,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.0700000000001</v>
+        <v>578.07000000000005</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2697,8 +2716,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2732,7 +2751,7 @@
         <v>560.37</v>
       </c>
       <c r="L27">
-        <v>520.08</v>
+        <v>520.08000000000004</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2747,7 +2766,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97</v>
+        <v>280.97000000000003</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2783,8 +2802,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2812,7 +2831,7 @@
         <v>488.24</v>
       </c>
       <c r="J28">
-        <v>644.3</v>
+        <v>644.29999999999995</v>
       </c>
       <c r="K28">
         <v>567.98</v>
@@ -2869,8 +2888,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2901,7 +2920,7 @@
         <v>702.92</v>
       </c>
       <c r="K29">
-        <v>593.5599999999999</v>
+        <v>593.55999999999995</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2919,7 +2938,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85</v>
+        <v>277.85000000000002</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2940,7 +2959,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.3099999999999</v>
+        <v>593.30999999999995</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2955,8 +2974,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -2990,7 +3009,7 @@
         <v>604.12</v>
       </c>
       <c r="L30">
-        <v>563.92</v>
+        <v>563.91999999999996</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3005,7 +3024,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.21</v>
+        <v>284.20999999999998</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3041,8 +3060,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3070,13 +3089,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
-        <v>575.6799999999999</v>
+        <v>575.67999999999995</v>
       </c>
       <c r="K31">
         <v>575.66</v>
       </c>
       <c r="L31">
-        <v>579.45</v>
+        <v>579.45000000000005</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3091,13 +3110,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41</v>
+        <v>288.41000000000003</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.1</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3127,8 +3146,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3213,8 +3232,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3248,7 +3267,7 @@
         <v>521.02</v>
       </c>
       <c r="L33">
-        <v>559.5599999999999</v>
+        <v>559.55999999999995</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3263,7 +3282,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3299,8 +3318,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3349,7 +3368,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3385,8 +3404,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3447,13 +3466,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.5700000000001</v>
+        <v>942.57</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.8</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3471,8 +3490,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3521,10 +3540,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="R36">
-        <v>261.59</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3533,7 +3552,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.3200000000001</v>
+        <v>943.32</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3557,8 +3576,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3592,7 +3611,7 @@
         <v>509.17</v>
       </c>
       <c r="L37">
-        <v>534.0599999999999</v>
+        <v>534.05999999999995</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3610,10 +3629,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="S37">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3643,8 +3662,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3675,7 +3694,7 @@
         <v>502.4</v>
       </c>
       <c r="K38">
-        <v>529.3099999999999</v>
+        <v>529.30999999999995</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3714,7 +3733,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.1799999999999</v>
+        <v>654.17999999999995</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3729,8 +3748,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3758,13 +3777,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>604.2</v>
+        <v>604.20000000000005</v>
       </c>
       <c r="K39">
-        <v>572.8099999999999</v>
+        <v>572.80999999999995</v>
       </c>
       <c r="L39">
-        <v>559.9299999999999</v>
+        <v>559.92999999999995</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3791,7 +3810,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.4400000000001</v>
+        <v>954.44</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3815,8 +3834,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3877,7 +3896,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.8099999999999</v>
+        <v>952.81</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3886,7 +3905,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.6900000000001</v>
+        <v>668.69</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3901,8 +3920,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3927,7 +3946,7 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.42</v>
+        <v>550.41999999999996</v>
       </c>
       <c r="J41">
         <v>656.84</v>
@@ -3936,7 +3955,7 @@
         <v>613.34</v>
       </c>
       <c r="L41">
-        <v>593.9299999999999</v>
+        <v>593.92999999999995</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3969,7 +3988,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.6900000000001</v>
+        <v>538.69000000000005</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -3987,8 +4006,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4013,7 +4032,7 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.3200000000001</v>
+        <v>564.32000000000005</v>
       </c>
       <c r="J42">
         <v>662.83</v>
@@ -4022,7 +4041,7 @@
         <v>635.72</v>
       </c>
       <c r="L42">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4055,10 +4074,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.9400000000001</v>
+        <v>540.94000000000005</v>
       </c>
       <c r="X42">
-        <v>675.3200000000001</v>
+        <v>675.32</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4073,8 +4092,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4099,7 +4118,7 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.6799999999999</v>
+        <v>565.67999999999995</v>
       </c>
       <c r="J43">
         <v>641.12</v>
@@ -4114,7 +4133,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.5599999999999</v>
+        <v>538.55999999999995</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4129,7 +4148,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.78</v>
+        <v>294.77999999999997</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4144,7 +4163,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.4299999999999</v>
+        <v>676.43</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4159,8 +4178,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4188,7 +4207,7 @@
         <v>556.61</v>
       </c>
       <c r="J44">
-        <v>593.0599999999999</v>
+        <v>593.05999999999995</v>
       </c>
       <c r="K44">
         <v>610.1</v>
@@ -4215,7 +4234,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.28</v>
+        <v>303.27999999999997</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4245,8 +4264,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4277,7 +4296,7 @@
         <v>545.16</v>
       </c>
       <c r="K45">
-        <v>593.2</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4313,7 +4332,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.9400000000001</v>
+        <v>551.94000000000005</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4331,8 +4350,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4360,10 +4379,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>539.8</v>
+        <v>539.79999999999995</v>
       </c>
       <c r="K46">
-        <v>587.08</v>
+        <v>587.08000000000004</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4372,7 +4391,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95</v>
+        <v>552.95000000000005</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4393,7 +4412,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.62</v>
+        <v>1063.6199999999999</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4417,8 +4436,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4449,10 +4468,10 @@
         <v>550.48</v>
       </c>
       <c r="K47">
-        <v>585.7</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="L47">
-        <v>610.6799999999999</v>
+        <v>610.67999999999995</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4503,8 +4522,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4535,13 +4554,13 @@
         <v>592</v>
       </c>
       <c r="K48">
-        <v>608.95</v>
+        <v>608.95000000000005</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.2</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4571,7 +4590,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4589,12 +4608,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4615,7 +4634,7 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.0700000000001</v>
+        <v>593.07000000000005</v>
       </c>
       <c r="J49">
         <v>642.79</v>
@@ -4624,7 +4643,7 @@
         <v>646.77</v>
       </c>
       <c r="L49">
-        <v>654.5599999999999</v>
+        <v>654.55999999999995</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4675,12 +4694,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.0599999999999</v>
+        <v>524.05999999999995</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4701,10 +4720,10 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.0599999999999</v>
+        <v>608.05999999999995</v>
       </c>
       <c r="J50">
-        <v>672.8099999999999</v>
+        <v>672.81</v>
       </c>
       <c r="K50">
         <v>668.72</v>
@@ -4716,7 +4735,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58</v>
+        <v>607.58000000000004</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4761,8 +4780,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4781,7 +4800,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.17</v>
+        <v>519.16999999999996</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4799,7 +4818,7 @@
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.1799999999999</v>
+        <v>573.17999999999995</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4829,7 +4848,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.1900000000001</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4844,15 +4863,15 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="2">
+        <v>513.29999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.9299999999999</v>
+        <v>539.92999999999995</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4864,7 +4883,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.0700000000001</v>
+        <v>512.07000000000005</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4873,7 +4892,7 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.2</v>
+        <v>639.20000000000005</v>
       </c>
       <c r="J52">
         <v>700.64</v>
@@ -4885,13 +4904,13 @@
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.1799999999999</v>
+        <v>586.17999999999995</v>
       </c>
       <c r="N52">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="O52">
-        <v>560.6900000000001</v>
+        <v>560.69000000000005</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4915,7 +4934,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4927,14 +4946,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.7</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4950,7 +4969,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83</v>
+        <v>517.83000000000004</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4974,7 +4993,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.3099999999999</v>
+        <v>633.30999999999995</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -4995,13 +5014,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4</v>
+        <v>1064.4000000000001</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.4400000000001</v>
+        <v>588.44000000000005</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5019,8 +5038,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5036,7 +5055,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.6799999999999</v>
+        <v>527.67999999999995</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5072,7 +5091,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.46</v>
+        <v>271.45999999999998</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5087,7 +5106,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.9299999999999</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5102,11 +5121,11 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.3200000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="2">
+        <v>532.32000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5143,13 +5162,13 @@
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.6900000000001</v>
+        <v>602.69000000000005</v>
       </c>
       <c r="N55">
-        <v>644.08</v>
+        <v>644.08000000000004</v>
       </c>
       <c r="O55">
-        <v>576.17</v>
+        <v>576.16999999999996</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5167,13 +5186,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.12</v>
+        <v>1095.1199999999999</v>
       </c>
       <c r="V55">
-        <v>523.95</v>
+        <v>523.95000000000005</v>
       </c>
       <c r="W55">
-        <v>596.17</v>
+        <v>596.16999999999996</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5188,11 +5207,11 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="2">
+        <v>537.04999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5208,10 +5227,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.9400000000001</v>
+        <v>544.94000000000005</v>
       </c>
       <c r="G56">
-        <v>554.4400000000001</v>
+        <v>554.44000000000005</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5223,7 +5242,7 @@
         <v>651.91</v>
       </c>
       <c r="K56">
-        <v>724.1799999999999</v>
+        <v>724.18</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5232,7 +5251,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.9299999999999</v>
+        <v>653.92999999999995</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5244,7 +5263,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5271,14 +5290,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.1799999999999</v>
+        <v>551.17999999999995</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5297,10 +5316,10 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.42</v>
+        <v>565.41999999999996</v>
       </c>
       <c r="H57">
-        <v>535.4400000000001</v>
+        <v>535.44000000000005</v>
       </c>
       <c r="I57">
         <v>686.41</v>
@@ -5309,7 +5328,7 @@
         <v>688.35</v>
       </c>
       <c r="K57">
-        <v>745.8200000000001</v>
+        <v>745.82</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5318,7 +5337,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.0599999999999</v>
+        <v>673.06</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5330,7 +5349,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5342,10 +5361,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.2</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="W57">
-        <v>606.6799999999999</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5363,12 +5382,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.92</v>
+        <v>587.91999999999996</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5377,16 +5396,16 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.67</v>
+        <v>520.66999999999996</v>
       </c>
       <c r="F58">
-        <v>559.6900000000001</v>
+        <v>559.69000000000005</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.8200000000001</v>
+        <v>538.82000000000005</v>
       </c>
       <c r="I58">
         <v>708.25</v>
@@ -5395,16 +5414,16 @@
         <v>757.76</v>
       </c>
       <c r="K58">
-        <v>777.5599999999999</v>
+        <v>777.56</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.55</v>
+        <v>644.54999999999995</v>
       </c>
       <c r="N58">
-        <v>685.1799999999999</v>
+        <v>685.18</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5449,12 +5468,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5472,7 +5491,7 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.7</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="I59">
         <v>711.76</v>
@@ -5484,16 +5503,16 @@
         <v>773.47</v>
       </c>
       <c r="L59">
-        <v>802.3200000000001</v>
+        <v>802.32</v>
       </c>
       <c r="M59">
-        <v>653.95</v>
+        <v>653.95000000000005</v>
       </c>
       <c r="N59">
-        <v>702.5599999999999</v>
+        <v>702.56</v>
       </c>
       <c r="O59">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5502,7 +5521,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.34</v>
+        <v>267.33999999999997</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5511,7 +5530,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.87</v>
+        <v>1094.8699999999999</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5523,7 +5542,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.92</v>
+        <v>573.91999999999996</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5535,15 +5554,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.7</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="C60">
-        <v>512.92</v>
+        <v>512.91999999999996</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5555,7 +5574,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.5599999999999</v>
+        <v>594.55999999999995</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5588,7 +5607,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79</v>
+        <v>287.79000000000002</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5618,18 +5637,18 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.3200000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="2">
+        <v>584.32000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.4400000000001</v>
+        <v>529.44000000000005</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5641,10 +5660,10 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.92</v>
+        <v>618.91999999999996</v>
       </c>
       <c r="H61">
-        <v>610.1799999999999</v>
+        <v>610.17999999999995</v>
       </c>
       <c r="I61">
         <v>753.88</v>
@@ -5665,22 +5684,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.5599999999999</v>
+        <v>655.56</v>
       </c>
       <c r="P61">
-        <v>522.8200000000001</v>
+        <v>522.82000000000005</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58</v>
+        <v>517.58000000000004</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5707,12 +5726,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.4400000000001</v>
+        <v>723.44</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5724,13 +5743,13 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.9400000000001</v>
+        <v>695.94</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.6799999999999</v>
+        <v>669.68</v>
       </c>
       <c r="I62">
         <v>874.42</v>
@@ -5754,7 +5773,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.5700000000001</v>
+        <v>624.57000000000005</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5763,22 +5782,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33</v>
+        <v>549.33000000000004</v>
       </c>
       <c r="T62">
-        <v>586.8099999999999</v>
+        <v>586.80999999999995</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.4400000000001</v>
+        <v>603.44000000000005</v>
       </c>
       <c r="W62">
-        <v>643.0700000000001</v>
+        <v>643.07000000000005</v>
       </c>
       <c r="X62">
-        <v>1038.39</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5793,15 +5812,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.2</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5831,7 +5850,7 @@
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.3200000000001</v>
+        <v>895.32</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5840,13 +5859,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.4299999999999</v>
+        <v>673.43</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85</v>
+        <v>312.85000000000002</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5858,13 +5877,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08</v>
+        <v>651.08000000000004</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.11</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5873,14 +5892,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.1900000000001</v>
+        <v>677.19</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
-      <c r="A64" s="2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5890,16 +5909,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.3</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.5700000000001</v>
+        <v>799.57</v>
       </c>
       <c r="G64">
-        <v>851.0599999999999</v>
+        <v>851.06</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5920,7 +5939,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.11</v>
+        <v>1055.1099999999999</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5962,18 +5981,18 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.9299999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65" s="2">
+        <v>799.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.0599999999999</v>
+        <v>887.06</v>
       </c>
       <c r="C65">
-        <v>701.8200000000001</v>
+        <v>701.82</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -5988,16 +6007,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.0700000000001</v>
+        <v>985.07</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1275.85</v>
+        <v>1275.8499999999999</v>
       </c>
       <c r="K65">
-        <v>1251.9</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6012,10 +6031,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.4299999999999</v>
+        <v>728.43</v>
       </c>
       <c r="Q65">
-        <v>584.45</v>
+        <v>584.45000000000005</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6051,8 +6070,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
-      <c r="A66" s="2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6062,7 +6081,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.1900000000001</v>
+        <v>680.19</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6116,7 +6135,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.3099999999999</v>
+        <v>736.31</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6131,14 +6150,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.3099999999999</v>
+        <v>741.31</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
-      <c r="A67" s="2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6151,7 +6170,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.0599999999999</v>
+        <v>846.06</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6181,7 +6200,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.16</v>
+        <v>1057.1600000000001</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6223,8 +6242,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6243,7 +6262,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.11</v>
+        <v>1053.1099999999999</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6264,7 +6283,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.86</v>
+        <v>1288.8599999999999</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6303,27 +6322,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.3200000000001</v>
+        <v>787.32</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
-      <c r="A69" s="2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.6900000000001</v>
+        <v>829.69</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.4400000000001</v>
+        <v>919.44</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6332,7 +6351,7 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.6</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
@@ -6365,7 +6384,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.1900000000001</v>
+        <v>733.19</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6383,7 +6402,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.64</v>
+        <v>1060.6400000000001</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6395,8 +6414,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
-      <c r="A70" s="2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6469,7 +6488,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.34</v>
+        <v>1062.3399999999999</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6481,15 +6500,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
-      <c r="A71" s="2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.61</v>
+        <v>1120.6099999999999</v>
       </c>
       <c r="C71">
-        <v>879.4299999999999</v>
+        <v>879.43</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6510,7 +6529,7 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
-        <v>1165.61</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="K71">
         <v>1410.76</v>
@@ -6531,7 +6550,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.4400000000001</v>
+        <v>703.44</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6540,7 +6559,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.6900000000001</v>
+        <v>893.69</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6564,18 +6583,18 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
-      <c r="A72" s="2">
+        <v>1046.8900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.39</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="C72">
-        <v>907.9400000000001</v>
+        <v>907.94</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6611,7 +6630,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.12</v>
+        <v>1298.1199999999999</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6629,19 +6648,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.82</v>
+        <v>2082.8200000000002</v>
       </c>
       <c r="V72">
-        <v>901.5700000000001</v>
+        <v>901.57</v>
       </c>
       <c r="W72">
-        <v>887.8200000000001</v>
+        <v>887.82</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.61</v>
+        <v>1158.6099999999999</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6653,8 +6672,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6670,10 +6689,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.62</v>
+        <v>1103.6199999999999</v>
       </c>
       <c r="G73">
-        <v>1194.6</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6700,10 +6719,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.0599999999999</v>
+        <v>924.06</v>
       </c>
       <c r="Q73">
-        <v>741.5599999999999</v>
+        <v>741.56</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6739,8 +6758,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6753,10 +6772,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.1</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="F74">
-        <v>1113.64</v>
+        <v>1113.6400000000001</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6786,7 +6805,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.6900000000001</v>
+        <v>939.69</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6804,7 +6823,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.3099999999999</v>
+        <v>938.31</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6825,8 +6844,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6845,7 +6864,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.11</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6911,8 +6930,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
-      <c r="A76" s="2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6928,7 +6947,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.13</v>
+        <v>1232.1300000000001</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6970,19 +6989,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.13</v>
+        <v>1024.1300000000001</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.66</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.51</v>
+        <v>2052.5100000000002</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -6997,8 +7016,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7008,13 +7027,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.8099999999999</v>
+        <v>958.81</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.09</v>
+        <v>1263.0899999999999</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7059,7 +7078,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.28</v>
+        <v>2392.2800000000002</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7068,7 +7087,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.51</v>
+        <v>2131.5100000000002</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7083,18 +7102,18 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
-      <c r="A78" s="2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.85</v>
+        <v>1096.8499999999999</v>
       </c>
       <c r="D78">
-        <v>989.5700000000001</v>
+        <v>989.57</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7145,7 +7164,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8</v>
+        <v>2410.8000000000002</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7169,18 +7188,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
-      <c r="A79" s="2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.39</v>
+        <v>1136.3900000000001</v>
       </c>
       <c r="D79">
-        <v>1031.64</v>
+        <v>1031.6400000000001</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7216,7 +7235,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.13</v>
+        <v>1057.1300000000001</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7228,19 +7247,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.35</v>
+        <v>1072.3499999999999</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.66</v>
+        <v>1221.6600000000001</v>
       </c>
       <c r="W79">
-        <v>1226.59</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="X79">
-        <v>2379.55</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7249,14 +7268,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.86</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="AB79">
-        <v>1300.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
-      <c r="A80" s="2">
+        <v>1300.5999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7278,7 +7297,7 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.88</v>
+        <v>1057.8800000000001</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
@@ -7305,7 +7324,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.5599999999999</v>
+        <v>884.56</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7320,7 +7339,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.36</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7335,21 +7354,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.41</v>
+        <v>1239.4100000000001</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
-      <c r="A81" s="2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4</v>
+        <v>1280.4000000000001</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7388,7 +7407,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.65</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7397,7 +7416,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.1</v>
+        <v>1138.0999999999999</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7427,8 +7446,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
-      <c r="A82" s="2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7456,7 +7475,7 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
-        <v>2354.43</v>
+        <v>2354.4299999999998</v>
       </c>
       <c r="K82">
         <v>2702.83</v>
@@ -7477,7 +7496,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.63</v>
+        <v>1050.6300000000001</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7486,7 +7505,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.65</v>
+        <v>1306.6500000000001</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7513,8 +7532,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
-      <c r="A83" s="2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7542,7 +7561,7 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
-        <v>2359.95</v>
+        <v>2359.9499999999998</v>
       </c>
       <c r="K83">
         <v>2767.43</v>
@@ -7563,7 +7582,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.87</v>
+        <v>1077.8699999999999</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7599,8 +7618,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
-      <c r="A84" s="2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7655,7 +7674,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.1</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7685,8 +7704,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
-      <c r="A85" s="2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7711,7 +7730,7 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.51</v>
+        <v>2552.5100000000002</v>
       </c>
       <c r="J85">
         <v>2305.84</v>
@@ -7771,8 +7790,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
-      <c r="A86" s="2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7800,7 +7819,7 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
-        <v>2568.49</v>
+        <v>2568.4899999999998</v>
       </c>
       <c r="K86">
         <v>3097.87</v>
@@ -7827,7 +7846,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.64</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7857,8 +7876,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
-      <c r="A87" s="2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7895,7 +7914,7 @@
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.28</v>
+        <v>2429.2800000000002</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7907,7 +7926,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7925,13 +7944,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.76</v>
+        <v>2198.7600000000002</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.82</v>
+        <v>2468.8200000000002</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7943,8 +7962,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
-      <c r="A88" s="2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -8023,14 +8042,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.18</v>
+        <v>2074.1799999999998</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
-      <c r="A89" s="2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8097,13 +8116,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.01</v>
+        <v>2503.0100000000002</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.07</v>
+        <v>2520.0700000000002</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8112,15 +8131,15 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
-      <c r="A90" s="2">
+        <v>2139.4699999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.47</v>
+        <v>2380.4699999999998</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8132,7 +8151,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.97</v>
+        <v>2277.9699999999998</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8168,7 +8187,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.4400000000001</v>
+        <v>578.44000000000005</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8180,7 +8199,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.78</v>
+        <v>2300.7800000000002</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8192,17 +8211,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95</v>
+        <v>520.95000000000005</v>
       </c>
       <c r="AA90">
-        <v>2218.43</v>
+        <v>2218.4299999999998</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
-      <c r="A91" s="2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8221,7 +8240,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.97</v>
+        <v>2220.9699999999998</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8263,7 +8282,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6</v>
+        <v>4477.6000000000004</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8287,8 +8306,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
-      <c r="A92" s="2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8307,7 +8326,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.26</v>
+        <v>2241.2600000000002</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8322,7 +8341,7 @@
         <v>3985.77</v>
       </c>
       <c r="L92">
-        <v>4468.77</v>
+        <v>4468.7700000000004</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8340,7 +8359,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.17</v>
+        <v>630.16999999999996</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8352,7 +8371,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.78</v>
+        <v>2472.7800000000002</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8367,18 +8386,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.18</v>
+        <v>2343.1799999999998</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
-      <c r="A93" s="2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.76</v>
+        <v>2588.7600000000002</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8426,7 +8445,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.9299999999999</v>
+        <v>612.92999999999995</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8450,24 +8469,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.4400000000001</v>
+        <v>585.44000000000005</v>
       </c>
       <c r="AA93">
-        <v>2423.43</v>
+        <v>2423.4299999999998</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
-      <c r="A94" s="2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.82</v>
+        <v>2111.8200000000002</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8476,13 +8495,13 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.57</v>
+        <v>2475.5700000000002</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.76</v>
+        <v>2294.7600000000002</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
@@ -8521,7 +8540,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.4</v>
+        <v>4937.3999999999996</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8539,14 +8558,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.24</v>
+        <v>2538.2399999999998</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
-      <c r="A95" s="2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8559,7 +8578,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.97</v>
+        <v>2288.9699999999998</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8568,7 +8587,7 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.82</v>
+        <v>2304.8200000000002</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
@@ -8607,7 +8626,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.48</v>
+        <v>5143.4799999999996</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8631,18 +8650,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
-      <c r="A96" s="2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.55</v>
+        <v>2238.5500000000002</v>
       </c>
       <c r="D96">
-        <v>2062.95</v>
+        <v>2062.9499999999998</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8651,7 +8670,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.24</v>
+        <v>2464.2399999999998</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8663,7 +8682,7 @@
         <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>4234.64</v>
+        <v>4234.6400000000003</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8717,15 +8736,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
-      <c r="A97" s="2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.05</v>
+        <v>2273.0500000000002</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8746,13 +8765,13 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
-        <v>4407.88</v>
+        <v>4071.8145960000002</v>
       </c>
       <c r="K97">
         <v>4615.91</v>
       </c>
       <c r="L97">
-        <v>4655.97</v>
+        <v>4737.1046520000009</v>
       </c>
       <c r="M97">
         <v>3174.54</v>
@@ -8779,7 +8798,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6</v>
+        <v>5151.6000000000004</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8788,7 +8807,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.77</v>
+        <v>5240.7700000000004</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8803,8 +8822,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
-      <c r="A98" s="2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8826,19 +8845,19 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.07</v>
+        <v>2370.0700000000002</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
       </c>
       <c r="J98">
-        <v>4335.05</v>
+        <v>4369.0570615079996</v>
       </c>
       <c r="K98">
         <v>4655.76</v>
       </c>
       <c r="L98">
-        <v>4788.89</v>
+        <v>4875.4281078384001</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8889,8 +8908,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8900,7 +8919,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.95</v>
+        <v>2234.9499999999998</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8912,19 +8931,19 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.68</v>
+        <v>2514.6799999999998</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4483.06</v>
+        <v>4637.3171650845907</v>
       </c>
       <c r="K99">
-        <v>4779.39</v>
+        <v>4779.3900000000003</v>
       </c>
       <c r="L99">
-        <v>4889.26</v>
+        <v>5033.3919785323642</v>
       </c>
       <c r="M99">
         <v>3387.45</v>
@@ -8957,7 +8976,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.61</v>
+        <v>4411.6099999999997</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8975,262 +8994,262 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
-      <c r="A100" s="2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3162.735954156925</v>
+        <v>3162.7359541569249</v>
       </c>
       <c r="C100">
-        <v>2521.864334490103</v>
+        <v>2521.8643344901029</v>
       </c>
       <c r="D100">
-        <v>2318.7025520978</v>
+        <v>2321.3894998406031</v>
       </c>
       <c r="E100">
-        <v>2645.342387569892</v>
+        <v>2645.3423875698918</v>
       </c>
       <c r="F100">
         <v>2941.887542379508</v>
       </c>
       <c r="G100">
-        <v>2723.762171048065</v>
+        <v>2723.7621710480648</v>
       </c>
       <c r="H100">
         <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4122.540026670221</v>
+        <v>4122.5400266702209</v>
       </c>
       <c r="J100">
-        <v>4480.844840317766</v>
+        <v>4480.8448403177663</v>
       </c>
       <c r="K100">
-        <v>4845.367502031648</v>
+        <v>4845.3675020316477</v>
       </c>
       <c r="L100">
         <v>5019.70699513208</v>
       </c>
       <c r="M100">
-        <v>3547.536869085943</v>
+        <v>3547.5368690859432</v>
       </c>
       <c r="N100">
         <v>4006.396180070411</v>
       </c>
       <c r="O100">
-        <v>3298.810125903955</v>
+        <v>3298.8101259039549</v>
       </c>
       <c r="P100">
         <v>1968.818648657101</v>
       </c>
       <c r="Q100">
-        <v>1539.369808902504</v>
+        <v>1539.525087707445</v>
       </c>
       <c r="R100">
-        <v>715.5492661177867</v>
+        <v>715.54926611778671</v>
       </c>
       <c r="S100">
         <v>1672.205337320532</v>
       </c>
       <c r="T100">
-        <v>2150.243523587708</v>
+        <v>2150.2435235877078</v>
       </c>
       <c r="U100">
-        <v>5610.598236550803</v>
+        <v>5610.5982365508034</v>
       </c>
       <c r="V100">
-        <v>3385.858817075759</v>
+        <v>3394.2101001363858</v>
       </c>
       <c r="W100">
-        <v>4597.814469172095</v>
+        <v>4597.8144691720954</v>
       </c>
       <c r="X100">
-        <v>5858.333937486344</v>
+        <v>5858.3339374863444</v>
       </c>
       <c r="Y100">
-        <v>3866.882725651484</v>
+        <v>3866.8827256514842</v>
       </c>
       <c r="Z100">
-        <v>628.7266307040052</v>
+        <v>628.72663070400517</v>
       </c>
       <c r="AA100">
-        <v>3439.166620014245</v>
+        <v>3439.1666200142449</v>
       </c>
       <c r="AB100">
-        <v>2927.719763573353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28">
-      <c r="A101" s="2">
+        <v>2927.7197635733528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>45747</v>
       </c>
       <c r="B101">
         <v>3234.993671119335</v>
       </c>
       <c r="C101">
-        <v>2594.917195275712</v>
+        <v>2594.9171952757119</v>
       </c>
       <c r="D101">
-        <v>2388.830801461158</v>
+        <v>2394.362101323527</v>
       </c>
       <c r="E101">
-        <v>2713.649338587267</v>
+        <v>2713.6493385872668</v>
       </c>
       <c r="F101">
         <v>3037.838103257729</v>
       </c>
       <c r="G101">
-        <v>2816.387126168557</v>
+        <v>2816.3871261685572</v>
       </c>
       <c r="H101">
-        <v>2634.376692601854</v>
+        <v>2634.3766926018538</v>
       </c>
       <c r="I101">
-        <v>4316.144824872598</v>
+        <v>4316.1448248725983</v>
       </c>
       <c r="J101">
-        <v>5018.82471485218</v>
+        <v>5018.8247148521796</v>
       </c>
       <c r="K101">
-        <v>5234.236135673622</v>
+        <v>5234.2361356736219</v>
       </c>
       <c r="L101">
-        <v>5247.398693479425</v>
+        <v>5247.3986934794248</v>
       </c>
       <c r="M101">
-        <v>3635.972522520971</v>
+        <v>3635.9725225209709</v>
       </c>
       <c r="N101">
         <v>4075.608277256481</v>
       </c>
       <c r="O101">
-        <v>3386.636337158621</v>
+        <v>3386.6363371586208</v>
       </c>
       <c r="P101">
         <v>2038.261330230554</v>
       </c>
       <c r="Q101">
-        <v>1591.19260493205</v>
+        <v>1591.4598876925311</v>
       </c>
       <c r="R101">
-        <v>764.1872667862721</v>
+        <v>764.18726678627206</v>
       </c>
       <c r="S101">
         <v>1692.042997106736</v>
       </c>
       <c r="T101">
-        <v>2240.568899291163</v>
+        <v>2240.5688992911628</v>
       </c>
       <c r="U101">
-        <v>5912.211174213689</v>
+        <v>5912.2111742136894</v>
       </c>
       <c r="V101">
-        <v>3473.951468121138</v>
+        <v>3491.292420509124</v>
       </c>
       <c r="W101">
-        <v>4766.144979163796</v>
+        <v>4766.1449791637961</v>
       </c>
       <c r="X101">
-        <v>5921.227319210254</v>
+        <v>5921.2273192102539</v>
       </c>
       <c r="Y101">
-        <v>4129.393945475444</v>
+        <v>4129.3939454754436</v>
       </c>
       <c r="Z101">
-        <v>614.3678601136994</v>
+        <v>614.36786011369941</v>
       </c>
       <c r="AA101">
-        <v>3715.976868998934</v>
+        <v>3715.9768689989342</v>
       </c>
       <c r="AB101">
         <v>3022.268128506455</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
-      <c r="A102" s="2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3313.036748345462</v>
+        <v>3318.8987473385632</v>
       </c>
       <c r="C102">
-        <v>2640.974208978613</v>
+        <v>2644.5081401237439</v>
       </c>
       <c r="D102">
-        <v>2433.684227155989</v>
+        <v>2445.5464261113029</v>
       </c>
       <c r="E102">
-        <v>2773.041798961716</v>
+        <v>2777.3165070754349</v>
       </c>
       <c r="F102">
-        <v>3098.621443067781</v>
+        <v>3103.2131782726478</v>
       </c>
       <c r="G102">
-        <v>2879.801275373768</v>
+        <v>2884.740758440546</v>
       </c>
       <c r="H102">
-        <v>2735.635484780463</v>
+        <v>2741.2809574585649</v>
       </c>
       <c r="I102">
-        <v>4403.689191922399</v>
+        <v>4413.9204605095501</v>
       </c>
       <c r="J102">
-        <v>5095.037969805109</v>
+        <v>5121.0100258056618</v>
       </c>
       <c r="K102">
-        <v>5389.882603864876</v>
+        <v>5411.5457000183742</v>
       </c>
       <c r="L102">
-        <v>5475.155076931766</v>
+        <v>5491.7653895446329</v>
       </c>
       <c r="M102">
-        <v>3688.648654755527</v>
+        <v>3694.1484120766559</v>
       </c>
       <c r="N102">
-        <v>4130.843941968278</v>
+        <v>4133.0124532211721</v>
       </c>
       <c r="O102">
-        <v>3436.394875304214</v>
+        <v>3442.2461658432112</v>
       </c>
       <c r="P102">
-        <v>2075.719142443911</v>
+        <v>2077.7681376152291</v>
       </c>
       <c r="Q102">
-        <v>1618.094504604033</v>
+        <v>1619.7453794359919</v>
       </c>
       <c r="R102">
-        <v>774.0341580927752</v>
+        <v>773.56174970399547</v>
       </c>
       <c r="S102">
-        <v>1730.473639317959</v>
+        <v>1733.0150669835209</v>
       </c>
       <c r="T102">
-        <v>2261.759438538849</v>
+        <v>2263.7110350696762</v>
       </c>
       <c r="U102">
-        <v>6407.092898745914</v>
+        <v>6481.6637048964621</v>
       </c>
       <c r="V102">
-        <v>3547.265376663314</v>
+        <v>3581.5019279831508</v>
       </c>
       <c r="W102">
-        <v>4938.471736849137</v>
+        <v>4955.5372062753922</v>
       </c>
       <c r="X102">
-        <v>6145.334856629853</v>
+        <v>6159.4856938174325</v>
       </c>
       <c r="Y102">
-        <v>4237.631488486945</v>
+        <v>4237.496898851231</v>
       </c>
       <c r="Z102">
-        <v>592.5985354013479</v>
+        <v>592.60777904274198</v>
       </c>
       <c r="AA102">
-        <v>3732.655088051562</v>
+        <v>3732.5212326753181</v>
       </c>
       <c r="AB102">
-        <v>3090.88146739222</v>
+        <v>3096.4036778210002</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835FBC0-9D81-4E36-8685-B3A39A07A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA33A2D4-24B6-4918-80B8-3A34A782D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="20970" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9171,85 +9171,85 @@
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3318.8987473385632</v>
+        <v>3322.8648364102892</v>
       </c>
       <c r="C102">
-        <v>2644.5081401237439</v>
+        <v>2646.4206610249898</v>
       </c>
       <c r="D102">
-        <v>2445.5464261113029</v>
+        <v>2447.3784014366711</v>
       </c>
       <c r="E102">
-        <v>2777.3165070754349</v>
+        <v>2779.891086461851</v>
       </c>
       <c r="F102">
-        <v>3103.2131782726478</v>
+        <v>3106.229179728783</v>
       </c>
       <c r="G102">
-        <v>2884.740758440546</v>
+        <v>2887.4685370277771</v>
       </c>
       <c r="H102">
-        <v>2741.2809574585649</v>
+        <v>2745.68207085938</v>
       </c>
       <c r="I102">
-        <v>4413.9204605095501</v>
+        <v>4420.2888775638348</v>
       </c>
       <c r="J102">
-        <v>5121.0100258056618</v>
+        <v>5140.2406619425337</v>
       </c>
       <c r="K102">
-        <v>5411.5457000183742</v>
+        <v>5426.3063050936726</v>
       </c>
       <c r="L102">
-        <v>5491.7653895446329</v>
+        <v>5501.5766444846358</v>
       </c>
       <c r="M102">
-        <v>3694.1484120766559</v>
+        <v>3697.0270080193741</v>
       </c>
       <c r="N102">
-        <v>4133.0124532211721</v>
+        <v>4130.2130527502231</v>
       </c>
       <c r="O102">
-        <v>3442.2461658432112</v>
+        <v>3446.026159894293</v>
       </c>
       <c r="P102">
-        <v>2077.7681376152291</v>
+        <v>2078.180006879858</v>
       </c>
       <c r="Q102">
-        <v>1619.7453794359919</v>
+        <v>1619.73652414042</v>
       </c>
       <c r="R102">
-        <v>773.56174970399547</v>
+        <v>772.18686059872425</v>
       </c>
       <c r="S102">
-        <v>1733.0150669835209</v>
+        <v>1734.852131977141</v>
       </c>
       <c r="T102">
-        <v>2263.7110350696762</v>
+        <v>2263.1906695246462</v>
       </c>
       <c r="U102">
-        <v>6481.6637048964621</v>
+        <v>6541.4647958845499</v>
       </c>
       <c r="V102">
-        <v>3581.5019279831508</v>
+        <v>3587.50425760189</v>
       </c>
       <c r="W102">
-        <v>4955.5372062753922</v>
+        <v>4971.2965049701552</v>
       </c>
       <c r="X102">
-        <v>6159.4856938174325</v>
+        <v>6169.9870705114099</v>
       </c>
       <c r="Y102">
-        <v>4237.496898851231</v>
+        <v>4239.2244062155023</v>
       </c>
       <c r="Z102">
-        <v>592.60777904274198</v>
+        <v>592.61490361985818</v>
       </c>
       <c r="AA102">
-        <v>3732.5212326753181</v>
+        <v>3731.051436950976</v>
       </c>
       <c r="AB102">
-        <v>3096.4036778210002</v>
+        <v>3099.8368084354561</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA33A2D4-24B6-4918-80B8-3A34A782D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,10 +40,10 @@
     <t>Gıda ve alkolsüz içecekler</t>
   </si>
   <si>
-    <t>Taze meyve ve sebze</t>
+    <t>İşlenmemiş gıda</t>
   </si>
   <si>
-    <t>İşlenmemiş gıda</t>
+    <t>Taze meyve ve sebze</t>
   </si>
   <si>
     <t>Diğer işlenmemiş gıda</t>
@@ -106,8 +100,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -174,21 +170,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,7 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,10 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,19 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +547,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:28">
+      <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -586,25 +567,25 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91000000000003</v>
+        <v>284.91</v>
       </c>
       <c r="H2">
-        <v>299.58999999999997</v>
+        <v>299.59</v>
       </c>
       <c r="I2">
-        <v>319.35000000000002</v>
+        <v>319.35</v>
       </c>
       <c r="J2">
+        <v>339.7</v>
+      </c>
+      <c r="K2">
         <v>292.5</v>
-      </c>
-      <c r="K2">
-        <v>339.7</v>
       </c>
       <c r="L2">
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.77999999999997</v>
+        <v>299.78</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -628,7 +609,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.57000000000005</v>
+        <v>588.5700000000001</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -640,7 +621,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41000000000003</v>
+        <v>318.41</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -649,24 +630,24 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+        <v>292.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97000000000003</v>
+        <v>262.97</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.27999999999997</v>
+        <v>276.28</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -681,10 +662,10 @@
         <v>339.7</v>
       </c>
       <c r="J3">
+        <v>381.36</v>
+      </c>
+      <c r="K3">
         <v>392.13</v>
-      </c>
-      <c r="K3">
-        <v>381.36</v>
       </c>
       <c r="L3">
         <v>376.16</v>
@@ -726,7 +707,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22000000000003</v>
+        <v>325.22</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -738,24 +719,24 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:28">
+      <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.08999999999997</v>
+        <v>265.09</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85000000000002</v>
+        <v>278.85</v>
       </c>
       <c r="F4">
-        <v>293.52999999999997</v>
+        <v>293.53</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -767,16 +748,16 @@
         <v>342.57</v>
       </c>
       <c r="J4">
+        <v>382.72</v>
+      </c>
+      <c r="K4">
         <v>389.79</v>
-      </c>
-      <c r="K4">
-        <v>382.72</v>
       </c>
       <c r="L4">
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.10000000000002</v>
+        <v>307.1</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -800,10 +781,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58000000000004</v>
+        <v>612.58</v>
       </c>
       <c r="V4">
-        <v>320.77999999999997</v>
+        <v>320.78</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -824,12 +805,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:28">
+      <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.64999999999998</v>
+        <v>313.65</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -838,25 +819,25 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.14999999999998</v>
+        <v>281.15</v>
       </c>
       <c r="F5">
-        <v>296.70999999999998</v>
+        <v>296.71</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91000000000003</v>
+        <v>311.91</v>
       </c>
       <c r="I5">
         <v>349.18</v>
       </c>
       <c r="J5">
+        <v>394</v>
+      </c>
+      <c r="K5">
         <v>410.22</v>
-      </c>
-      <c r="K5">
-        <v>394</v>
       </c>
       <c r="L5">
         <v>385.24</v>
@@ -868,10 +849,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79000000000002</v>
+        <v>295.79</v>
       </c>
       <c r="P5">
-        <v>256.08999999999997</v>
+        <v>256.09</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -886,7 +867,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.42999999999995</v>
+        <v>612.4299999999999</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -910,18 +891,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:28">
+      <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22000000000003</v>
+        <v>316.22</v>
       </c>
       <c r="C6">
-        <v>272.91000000000003</v>
+        <v>272.91</v>
       </c>
       <c r="D6">
-        <v>264.14999999999998</v>
+        <v>264.15</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -939,10 +920,10 @@
         <v>353.47</v>
       </c>
       <c r="J6">
+        <v>399.89</v>
+      </c>
+      <c r="K6">
         <v>411.03</v>
-      </c>
-      <c r="K6">
-        <v>399.89</v>
       </c>
       <c r="L6">
         <v>394.53</v>
@@ -990,21 +971,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.60000000000002</v>
+        <v>320.6</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:28">
+      <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66000000000003</v>
+        <v>317.66</v>
       </c>
       <c r="C7">
-        <v>276.33999999999997</v>
+        <v>276.34</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -1013,7 +994,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.89999999999998</v>
+        <v>302.9</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1025,10 +1006,10 @@
         <v>351.53</v>
       </c>
       <c r="J7">
+        <v>392.08</v>
+      </c>
+      <c r="K7">
         <v>379.08</v>
-      </c>
-      <c r="K7">
-        <v>392.08</v>
       </c>
       <c r="L7">
         <v>402.65</v>
@@ -1043,7 +1024,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85000000000002</v>
+        <v>265.85</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1073,7 +1054,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.69999999999999</v>
+        <v>152.7</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1082,27 +1063,27 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:28">
+      <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.45999999999998</v>
+        <v>318.46</v>
       </c>
       <c r="C8">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.33999999999997</v>
+        <v>287.34</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.52999999999997</v>
+        <v>302.53</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1111,10 +1092,10 @@
         <v>347.81</v>
       </c>
       <c r="J8">
+        <v>382.39</v>
+      </c>
+      <c r="K8">
         <v>343.59</v>
-      </c>
-      <c r="K8">
-        <v>382.39</v>
       </c>
       <c r="L8">
         <v>410.01</v>
@@ -1129,7 +1110,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1165,11 +1146,11 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.77999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+        <v>309.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1197,10 +1178,10 @@
         <v>345.34</v>
       </c>
       <c r="J9">
+        <v>372.7</v>
+      </c>
+      <c r="K9">
         <v>320.86</v>
-      </c>
-      <c r="K9">
-        <v>372.7</v>
       </c>
       <c r="L9">
         <v>408.89</v>
@@ -1215,7 +1196,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29000000000002</v>
+        <v>264.29</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1254,8 +1235,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:28">
+      <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1283,16 +1264,16 @@
         <v>344.57</v>
       </c>
       <c r="J10">
+        <v>365.88</v>
+      </c>
+      <c r="K10">
         <v>302.24</v>
-      </c>
-      <c r="K10">
-        <v>365.88</v>
       </c>
       <c r="L10">
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.95999999999998</v>
+        <v>323.96</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1301,7 +1282,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1337,18 +1318,18 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+        <v>311.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.39999999999998</v>
+        <v>282.4</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1357,22 +1338,22 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41000000000003</v>
+        <v>315.41</v>
       </c>
       <c r="I11">
         <v>343.79</v>
       </c>
       <c r="J11">
+        <v>360.98</v>
+      </c>
+      <c r="K11">
         <v>299.73</v>
-      </c>
-      <c r="K11">
-        <v>360.98</v>
       </c>
       <c r="L11">
         <v>403.34</v>
@@ -1417,7 +1398,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1426,8 +1407,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:28">
+      <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1440,13 +1421,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29000000000002</v>
+        <v>300.29</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.83999999999997</v>
+        <v>312.84</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1455,10 +1436,10 @@
         <v>350.57</v>
       </c>
       <c r="J12">
+        <v>369.97</v>
+      </c>
+      <c r="K12">
         <v>328.72</v>
-      </c>
-      <c r="K12">
-        <v>369.97</v>
       </c>
       <c r="L12">
         <v>399.13</v>
@@ -1470,7 +1451,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.52999999999997</v>
+        <v>319.53</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1488,7 +1469,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.29999999999995</v>
+        <v>619.3</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1503,24 +1484,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.39999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+        <v>320.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.83999999999997</v>
+        <v>291.84</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1541,10 +1522,10 @@
         <v>357.95</v>
       </c>
       <c r="J13">
+        <v>381.68</v>
+      </c>
+      <c r="K13">
         <v>352.51</v>
-      </c>
-      <c r="K13">
-        <v>381.68</v>
       </c>
       <c r="L13">
         <v>402.9</v>
@@ -1559,7 +1540,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.95999999999998</v>
+        <v>281.96</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1598,8 +1579,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:28">
+      <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1609,13 +1590,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.89999999999998</v>
+        <v>283.9</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35000000000002</v>
+        <v>321.35</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1627,10 +1608,10 @@
         <v>363.38</v>
       </c>
       <c r="J14">
+        <v>392.54</v>
+      </c>
+      <c r="K14">
         <v>373.21</v>
-      </c>
-      <c r="K14">
-        <v>392.54</v>
       </c>
       <c r="L14">
         <v>407.31</v>
@@ -1642,7 +1623,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79000000000002</v>
+        <v>324.79</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1681,18 +1662,18 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+        <v>327.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.33999999999997</v>
+        <v>295.34</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1713,10 +1694,10 @@
         <v>369.45</v>
       </c>
       <c r="J15">
+        <v>398.74</v>
+      </c>
+      <c r="K15">
         <v>385.73</v>
-      </c>
-      <c r="K15">
-        <v>398.74</v>
       </c>
       <c r="L15">
         <v>409.44</v>
@@ -1731,7 +1712,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1743,7 +1724,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54000000000002</v>
+        <v>257.54</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1770,15 +1751,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:28">
+      <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.58999999999997</v>
+        <v>297.59</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1799,10 +1780,10 @@
         <v>377.74</v>
       </c>
       <c r="J16">
+        <v>408.41</v>
+      </c>
+      <c r="K16">
         <v>403.33</v>
-      </c>
-      <c r="K16">
-        <v>408.41</v>
       </c>
       <c r="L16">
         <v>414.02</v>
@@ -1817,7 +1798,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35000000000002</v>
+        <v>283.35</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1829,7 +1810,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72000000000003</v>
+        <v>261.72</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1856,8 +1837,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:28">
+      <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1870,7 +1851,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.14999999999998</v>
+        <v>313.15</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1885,10 +1866,10 @@
         <v>385.4</v>
       </c>
       <c r="J17">
+        <v>418.87</v>
+      </c>
+      <c r="K17">
         <v>411.82</v>
-      </c>
-      <c r="K17">
-        <v>418.87</v>
       </c>
       <c r="L17">
         <v>425.81</v>
@@ -1915,7 +1896,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1942,8 +1923,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:28">
+      <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1971,10 +1952,10 @@
         <v>384.6</v>
       </c>
       <c r="J18">
+        <v>414.65</v>
+      </c>
+      <c r="K18">
         <v>389.9</v>
-      </c>
-      <c r="K18">
-        <v>414.65</v>
       </c>
       <c r="L18">
         <v>433.07</v>
@@ -2001,10 +1982,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97000000000003</v>
+        <v>268.97</v>
       </c>
       <c r="U18">
-        <v>638.67999999999995</v>
+        <v>638.6799999999999</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2028,8 +2009,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:28">
+      <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2057,10 +2038,10 @@
         <v>390.19</v>
       </c>
       <c r="J19">
+        <v>425.36</v>
+      </c>
+      <c r="K19">
         <v>389.97</v>
-      </c>
-      <c r="K19">
-        <v>425.36</v>
       </c>
       <c r="L19">
         <v>450.74</v>
@@ -2087,7 +2068,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.02999999999997</v>
+        <v>272.03</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2114,8 +2095,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:28">
+      <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2143,10 +2124,10 @@
         <v>413.51</v>
       </c>
       <c r="J20">
+        <v>471.21</v>
+      </c>
+      <c r="K20">
         <v>458.25</v>
-      </c>
-      <c r="K20">
-        <v>471.21</v>
       </c>
       <c r="L20">
         <v>482.29</v>
@@ -2173,10 +2154,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.52999999999997</v>
+        <v>277.53</v>
       </c>
       <c r="U20">
-        <v>652.07000000000005</v>
+        <v>652.0700000000001</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2185,7 +2166,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.91999999999996</v>
+        <v>517.92</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2200,15 +2181,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:28">
+      <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04000000000002</v>
+        <v>320.04</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2229,10 +2210,10 @@
         <v>412.35</v>
       </c>
       <c r="J21">
+        <v>463.66</v>
+      </c>
+      <c r="K21">
         <v>443.96</v>
-      </c>
-      <c r="K21">
-        <v>463.66</v>
       </c>
       <c r="L21">
         <v>479.07</v>
@@ -2247,7 +2228,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47000000000003</v>
+        <v>309.47</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2259,7 +2240,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.08999999999997</v>
+        <v>283.09</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2277,7 +2258,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.97999999999999</v>
+        <v>160.98</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2286,8 +2267,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:28">
+      <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2297,7 +2278,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.08999999999997</v>
+        <v>317.09</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2315,10 +2296,10 @@
         <v>412.61</v>
       </c>
       <c r="J22">
+        <v>454.83</v>
+      </c>
+      <c r="K22">
         <v>416.81</v>
-      </c>
-      <c r="K22">
-        <v>454.83</v>
       </c>
       <c r="L22">
         <v>482.09</v>
@@ -2336,7 +2317,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.27999999999997</v>
+        <v>261.28</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2357,7 +2338,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58000000000004</v>
+        <v>539.58</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2372,8 +2353,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:28">
+      <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2401,10 +2382,10 @@
         <v>439.01</v>
       </c>
       <c r="J23">
+        <v>483.86</v>
+      </c>
+      <c r="K23">
         <v>472.43</v>
-      </c>
-      <c r="K23">
-        <v>483.86</v>
       </c>
       <c r="L23">
         <v>494.01</v>
@@ -2422,16 +2403,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.64999999999998</v>
+        <v>288.65</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.20999999999998</v>
+        <v>287.21</v>
       </c>
       <c r="T23">
-        <v>325.52999999999997</v>
+        <v>325.53</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2443,7 +2424,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.29999999999995</v>
+        <v>565.3</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2458,8 +2439,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:28">
+      <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2487,10 +2468,10 @@
         <v>453.16</v>
       </c>
       <c r="J24">
+        <v>497.92</v>
+      </c>
+      <c r="K24">
         <v>492.48</v>
-      </c>
-      <c r="K24">
-        <v>497.92</v>
       </c>
       <c r="L24">
         <v>504.26</v>
@@ -2508,7 +2489,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.14999999999998</v>
+        <v>300.15</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2544,8 +2525,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:28">
+      <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2573,10 +2554,10 @@
         <v>449.8</v>
       </c>
       <c r="J25">
+        <v>488.22</v>
+      </c>
+      <c r="K25">
         <v>467.24</v>
-      </c>
-      <c r="K25">
-        <v>488.22</v>
       </c>
       <c r="L25">
         <v>504.61</v>
@@ -2630,8 +2611,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:28">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2659,10 +2640,10 @@
         <v>454.64</v>
       </c>
       <c r="J26">
+        <v>498.86</v>
+      </c>
+      <c r="K26">
         <v>488.04</v>
-      </c>
-      <c r="K26">
-        <v>498.86</v>
       </c>
       <c r="L26">
         <v>508.71</v>
@@ -2701,7 +2682,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.07000000000005</v>
+        <v>578.0700000000001</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2716,8 +2697,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:28">
+      <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2745,13 +2726,13 @@
         <v>483.87</v>
       </c>
       <c r="J27">
+        <v>560.37</v>
+      </c>
+      <c r="K27">
         <v>633.04</v>
       </c>
-      <c r="K27">
-        <v>560.37</v>
-      </c>
       <c r="L27">
-        <v>520.08000000000004</v>
+        <v>520.08</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2766,7 +2747,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97000000000003</v>
+        <v>280.97</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2802,8 +2783,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:28">
+      <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2831,10 +2812,10 @@
         <v>488.24</v>
       </c>
       <c r="J28">
-        <v>644.29999999999995</v>
+        <v>567.98</v>
       </c>
       <c r="K28">
-        <v>567.98</v>
+        <v>644.3</v>
       </c>
       <c r="L28">
         <v>525.53</v>
@@ -2888,8 +2869,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:28">
+      <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2917,10 +2898,10 @@
         <v>500.14</v>
       </c>
       <c r="J29">
+        <v>593.5599999999999</v>
+      </c>
+      <c r="K29">
         <v>702.92</v>
-      </c>
-      <c r="K29">
-        <v>593.55999999999995</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2938,7 +2919,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85000000000002</v>
+        <v>277.85</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2959,7 +2940,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.30999999999995</v>
+        <v>593.3099999999999</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2974,8 +2955,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:28">
+      <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -3003,13 +2984,13 @@
         <v>507.12</v>
       </c>
       <c r="J30">
+        <v>604.12</v>
+      </c>
+      <c r="K30">
         <v>677.11</v>
       </c>
-      <c r="K30">
-        <v>604.12</v>
-      </c>
       <c r="L30">
-        <v>563.91999999999996</v>
+        <v>563.92</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3024,7 +3005,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.20999999999998</v>
+        <v>284.21</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3060,8 +3041,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:28">
+      <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3089,13 +3070,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
-        <v>575.67999999999995</v>
+        <v>575.66</v>
       </c>
       <c r="K31">
-        <v>575.66</v>
+        <v>575.6799999999999</v>
       </c>
       <c r="L31">
-        <v>579.45000000000005</v>
+        <v>579.45</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3110,13 +3091,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41000000000003</v>
+        <v>288.41</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.10000000000002</v>
+        <v>261.1</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3146,8 +3127,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:28">
+      <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3175,10 +3156,10 @@
         <v>492.9</v>
       </c>
       <c r="J32">
+        <v>543.34</v>
+      </c>
+      <c r="K32">
         <v>510.87</v>
-      </c>
-      <c r="K32">
-        <v>543.34</v>
       </c>
       <c r="L32">
         <v>566.6</v>
@@ -3232,8 +3213,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:28">
+      <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3261,13 +3242,13 @@
         <v>487.44</v>
       </c>
       <c r="J33">
+        <v>521.02</v>
+      </c>
+      <c r="K33">
         <v>463.06</v>
       </c>
-      <c r="K33">
-        <v>521.02</v>
-      </c>
       <c r="L33">
-        <v>559.55999999999995</v>
+        <v>559.5599999999999</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3282,7 +3263,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16000000000003</v>
+        <v>298.16</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3318,8 +3299,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:28">
+      <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3347,10 +3328,10 @@
         <v>483.68</v>
       </c>
       <c r="J34">
+        <v>508.93</v>
+      </c>
+      <c r="K34">
         <v>455.47</v>
-      </c>
-      <c r="K34">
-        <v>508.93</v>
       </c>
       <c r="L34">
         <v>544.66</v>
@@ -3368,7 +3349,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29000000000002</v>
+        <v>295.29</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3404,8 +3385,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:28">
+      <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3433,10 +3414,10 @@
         <v>480.79</v>
       </c>
       <c r="J35">
+        <v>498.59</v>
+      </c>
+      <c r="K35">
         <v>447.46</v>
-      </c>
-      <c r="K35">
-        <v>498.59</v>
       </c>
       <c r="L35">
         <v>532.84</v>
@@ -3466,13 +3447,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.57</v>
+        <v>942.5700000000001</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.79999999999995</v>
+        <v>515.8</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3490,8 +3471,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:28">
+      <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3519,10 +3500,10 @@
         <v>488.73</v>
       </c>
       <c r="J36">
+        <v>512.65</v>
+      </c>
+      <c r="K36">
         <v>490.23</v>
-      </c>
-      <c r="K36">
-        <v>512.65</v>
       </c>
       <c r="L36">
         <v>529.61</v>
@@ -3540,10 +3521,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="R36">
-        <v>261.58999999999997</v>
+        <v>261.59</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3552,7 +3533,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.32</v>
+        <v>943.3200000000001</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3576,8 +3557,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:28">
+      <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3605,13 +3586,13 @@
         <v>489.8</v>
       </c>
       <c r="J37">
+        <v>509.17</v>
+      </c>
+      <c r="K37">
         <v>473.63</v>
       </c>
-      <c r="K37">
-        <v>509.17</v>
-      </c>
       <c r="L37">
-        <v>534.05999999999995</v>
+        <v>534.0599999999999</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3629,10 +3610,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72000000000003</v>
+        <v>268.72</v>
       </c>
       <c r="S37">
-        <v>281.39999999999998</v>
+        <v>281.4</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3662,8 +3643,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:28">
+      <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3691,10 +3672,10 @@
         <v>504.14</v>
       </c>
       <c r="J38">
+        <v>529.3099999999999</v>
+      </c>
+      <c r="K38">
         <v>502.4</v>
-      </c>
-      <c r="K38">
-        <v>529.30999999999995</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3733,7 +3714,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.17999999999995</v>
+        <v>654.1799999999999</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3748,8 +3729,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:28">
+      <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3777,13 +3758,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>604.20000000000005</v>
+        <v>572.8099999999999</v>
       </c>
       <c r="K39">
-        <v>572.80999999999995</v>
+        <v>604.2</v>
       </c>
       <c r="L39">
-        <v>559.92999999999995</v>
+        <v>559.9299999999999</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3810,7 +3791,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.44</v>
+        <v>954.4400000000001</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3834,8 +3815,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:28">
+      <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3863,10 +3844,10 @@
         <v>539.88</v>
       </c>
       <c r="J40">
+        <v>594.85</v>
+      </c>
+      <c r="K40">
         <v>645.48</v>
-      </c>
-      <c r="K40">
-        <v>594.85</v>
       </c>
       <c r="L40">
         <v>571.25</v>
@@ -3896,7 +3877,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.81</v>
+        <v>952.8099999999999</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3905,7 +3886,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.69</v>
+        <v>668.6900000000001</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3920,8 +3901,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:28">
+      <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3946,16 +3927,16 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.41999999999996</v>
+        <v>550.42</v>
       </c>
       <c r="J41">
+        <v>613.34</v>
+      </c>
+      <c r="K41">
         <v>656.84</v>
       </c>
-      <c r="K41">
-        <v>613.34</v>
-      </c>
       <c r="L41">
-        <v>593.92999999999995</v>
+        <v>593.9299999999999</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3988,7 +3969,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.69000000000005</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -4006,8 +3987,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:28">
+      <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4032,16 +4013,16 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.32000000000005</v>
+        <v>564.3200000000001</v>
       </c>
       <c r="J42">
+        <v>635.72</v>
+      </c>
+      <c r="K42">
         <v>662.83</v>
       </c>
-      <c r="K42">
-        <v>635.72</v>
-      </c>
       <c r="L42">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4074,10 +4055,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.94000000000005</v>
+        <v>540.9400000000001</v>
       </c>
       <c r="X42">
-        <v>675.32</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4092,8 +4073,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:28">
+      <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4118,13 +4099,13 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.67999999999995</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="J43">
+        <v>634.01</v>
+      </c>
+      <c r="K43">
         <v>641.12</v>
-      </c>
-      <c r="K43">
-        <v>634.01</v>
       </c>
       <c r="L43">
         <v>635.41</v>
@@ -4133,7 +4114,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.55999999999995</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4148,7 +4129,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.77999999999997</v>
+        <v>294.78</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4163,7 +4144,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.43</v>
+        <v>676.4299999999999</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4178,8 +4159,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:28">
+      <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4207,10 +4188,10 @@
         <v>556.61</v>
       </c>
       <c r="J44">
-        <v>593.05999999999995</v>
+        <v>610.1</v>
       </c>
       <c r="K44">
-        <v>610.1</v>
+        <v>593.0599999999999</v>
       </c>
       <c r="L44">
         <v>624.98</v>
@@ -4234,7 +4215,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.27999999999997</v>
+        <v>303.28</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4264,8 +4245,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:28">
+      <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4293,10 +4274,10 @@
         <v>549.48</v>
       </c>
       <c r="J45">
+        <v>593.2</v>
+      </c>
+      <c r="K45">
         <v>545.16</v>
-      </c>
-      <c r="K45">
-        <v>593.20000000000005</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4332,7 +4313,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.94000000000005</v>
+        <v>551.9400000000001</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4350,8 +4331,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:28">
+      <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4379,10 +4360,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>539.79999999999995</v>
+        <v>587.08</v>
       </c>
       <c r="K46">
-        <v>587.08000000000004</v>
+        <v>539.8</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4391,7 +4372,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95000000000005</v>
+        <v>552.95</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4412,7 +4393,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.6199999999999</v>
+        <v>1063.62</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4436,8 +4417,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:28">
+      <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4465,13 +4446,13 @@
         <v>552.66</v>
       </c>
       <c r="J47">
+        <v>585.7</v>
+      </c>
+      <c r="K47">
         <v>550.48</v>
       </c>
-      <c r="K47">
-        <v>585.70000000000005</v>
-      </c>
       <c r="L47">
-        <v>610.67999999999995</v>
+        <v>610.6799999999999</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4522,8 +4503,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:28">
+      <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4551,16 +4532,16 @@
         <v>569.4</v>
       </c>
       <c r="J48">
+        <v>608.95</v>
+      </c>
+      <c r="K48">
         <v>592</v>
-      </c>
-      <c r="K48">
-        <v>608.95000000000005</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.20000000000005</v>
+        <v>531.2</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4590,7 +4571,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45000000000005</v>
+        <v>565.45</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4608,12 +4589,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:28">
+      <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83000000000004</v>
+        <v>516.83</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4634,16 +4615,16 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.07000000000005</v>
+        <v>593.0700000000001</v>
       </c>
       <c r="J49">
+        <v>646.77</v>
+      </c>
+      <c r="K49">
         <v>642.79</v>
       </c>
-      <c r="K49">
-        <v>646.77</v>
-      </c>
       <c r="L49">
-        <v>654.55999999999995</v>
+        <v>654.5599999999999</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4694,12 +4675,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:28">
+      <c r="A50" s="2">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.05999999999995</v>
+        <v>524.0599999999999</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4720,13 +4701,13 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.05999999999995</v>
+        <v>608.0599999999999</v>
       </c>
       <c r="J50">
-        <v>672.81</v>
+        <v>668.72</v>
       </c>
       <c r="K50">
-        <v>668.72</v>
+        <v>672.8099999999999</v>
       </c>
       <c r="L50">
         <v>672.12</v>
@@ -4735,7 +4716,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58000000000004</v>
+        <v>607.58</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4780,8 +4761,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:28">
+      <c r="A51" s="2">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4800,7 +4781,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.16999999999996</v>
+        <v>519.17</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4809,16 +4790,16 @@
         <v>623.16</v>
       </c>
       <c r="J51">
+        <v>676.38</v>
+      </c>
+      <c r="K51">
         <v>665.95</v>
-      </c>
-      <c r="K51">
-        <v>676.38</v>
       </c>
       <c r="L51">
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.17999999999995</v>
+        <v>573.1799999999999</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4848,7 +4829,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.19000000000005</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4863,15 +4844,15 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.29999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+        <v>513.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="2">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.92999999999995</v>
+        <v>539.9299999999999</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4883,7 +4864,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.07000000000005</v>
+        <v>512.0700000000001</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4892,25 +4873,25 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.20000000000005</v>
+        <v>639.2</v>
       </c>
       <c r="J52">
+        <v>696.03</v>
+      </c>
+      <c r="K52">
         <v>700.64</v>
-      </c>
-      <c r="K52">
-        <v>696.03</v>
       </c>
       <c r="L52">
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.17999999999995</v>
+        <v>586.1799999999999</v>
       </c>
       <c r="N52">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="O52">
-        <v>560.69000000000005</v>
+        <v>560.6900000000001</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4934,7 +4915,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08000000000004</v>
+        <v>585.08</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4946,14 +4927,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.70000000000005</v>
+        <v>526.7</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:28">
+      <c r="A53" s="2">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4969,7 +4950,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83000000000004</v>
+        <v>517.83</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4981,10 +4962,10 @@
         <v>646.41</v>
       </c>
       <c r="J53">
+        <v>705.21</v>
+      </c>
+      <c r="K53">
         <v>703.05</v>
-      </c>
-      <c r="K53">
-        <v>705.21</v>
       </c>
       <c r="L53">
         <v>712.48</v>
@@ -4993,7 +4974,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.30999999999995</v>
+        <v>633.3099999999999</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -5014,13 +4995,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4000000000001</v>
+        <v>1064.4</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.44000000000005</v>
+        <v>588.4400000000001</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5038,8 +5019,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:28">
+      <c r="A54" s="2">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5055,7 +5036,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.67999999999995</v>
+        <v>527.6799999999999</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5067,10 +5048,10 @@
         <v>660.16</v>
       </c>
       <c r="J54">
+        <v>728.96</v>
+      </c>
+      <c r="K54">
         <v>752.99</v>
-      </c>
-      <c r="K54">
-        <v>728.96</v>
       </c>
       <c r="L54">
         <v>721.53</v>
@@ -5091,7 +5072,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.45999999999998</v>
+        <v>271.46</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5106,7 +5087,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.92999999999995</v>
+        <v>591.9299999999999</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5121,11 +5102,11 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.32000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+        <v>532.3200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="2">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5153,22 +5134,22 @@
         <v>662.08</v>
       </c>
       <c r="J55">
+        <v>726.66</v>
+      </c>
+      <c r="K55">
         <v>704.99</v>
-      </c>
-      <c r="K55">
-        <v>726.66</v>
       </c>
       <c r="L55">
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.69000000000005</v>
+        <v>602.6900000000001</v>
       </c>
       <c r="N55">
-        <v>644.08000000000004</v>
+        <v>644.08</v>
       </c>
       <c r="O55">
-        <v>576.16999999999996</v>
+        <v>576.17</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5186,13 +5167,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.1199999999999</v>
+        <v>1095.12</v>
       </c>
       <c r="V55">
-        <v>523.95000000000005</v>
+        <v>523.95</v>
       </c>
       <c r="W55">
-        <v>596.16999999999996</v>
+        <v>596.17</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5207,11 +5188,11 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.04999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+        <v>537.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="2">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5227,10 +5208,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.94000000000005</v>
+        <v>544.9400000000001</v>
       </c>
       <c r="G56">
-        <v>554.44000000000005</v>
+        <v>554.4400000000001</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5239,10 +5220,10 @@
         <v>667.88</v>
       </c>
       <c r="J56">
+        <v>724.1799999999999</v>
+      </c>
+      <c r="K56">
         <v>651.91</v>
-      </c>
-      <c r="K56">
-        <v>724.18</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5251,7 +5232,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.92999999999995</v>
+        <v>653.9299999999999</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5263,7 +5244,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5290,14 +5271,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.17999999999995</v>
+        <v>551.1799999999999</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:28">
+      <c r="A57" s="2">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5316,19 +5297,19 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.41999999999996</v>
+        <v>565.42</v>
       </c>
       <c r="H57">
-        <v>535.44000000000005</v>
+        <v>535.4400000000001</v>
       </c>
       <c r="I57">
         <v>686.41</v>
       </c>
       <c r="J57">
+        <v>745.8200000000001</v>
+      </c>
+      <c r="K57">
         <v>688.35</v>
-      </c>
-      <c r="K57">
-        <v>745.82</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5337,7 +5318,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.06</v>
+        <v>673.0599999999999</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5349,7 +5330,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5361,10 +5342,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.20000000000005</v>
+        <v>541.2</v>
       </c>
       <c r="W57">
-        <v>606.67999999999995</v>
+        <v>606.6799999999999</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5382,12 +5363,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:28">
+      <c r="A58" s="2">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.91999999999996</v>
+        <v>587.92</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5396,34 +5377,34 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.66999999999996</v>
+        <v>520.67</v>
       </c>
       <c r="F58">
-        <v>559.69000000000005</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.82000000000005</v>
+        <v>538.8200000000001</v>
       </c>
       <c r="I58">
         <v>708.25</v>
       </c>
       <c r="J58">
+        <v>777.5599999999999</v>
+      </c>
+      <c r="K58">
         <v>757.76</v>
-      </c>
-      <c r="K58">
-        <v>777.56</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.54999999999995</v>
+        <v>644.55</v>
       </c>
       <c r="N58">
-        <v>685.18</v>
+        <v>685.1799999999999</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5468,12 +5449,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:28">
+      <c r="A59" s="2">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08000000000004</v>
+        <v>597.08</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5491,28 +5472,28 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.70000000000005</v>
+        <v>550.7</v>
       </c>
       <c r="I59">
         <v>711.76</v>
       </c>
       <c r="J59">
+        <v>773.47</v>
+      </c>
+      <c r="K59">
         <v>734.39</v>
       </c>
-      <c r="K59">
-        <v>773.47</v>
-      </c>
       <c r="L59">
-        <v>802.32</v>
+        <v>802.3200000000001</v>
       </c>
       <c r="M59">
-        <v>653.95000000000005</v>
+        <v>653.95</v>
       </c>
       <c r="N59">
-        <v>702.56</v>
+        <v>702.5599999999999</v>
       </c>
       <c r="O59">
-        <v>623.42999999999995</v>
+        <v>623.4299999999999</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5521,7 +5502,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.33999999999997</v>
+        <v>267.34</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5530,7 +5511,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.8699999999999</v>
+        <v>1094.87</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5542,7 +5523,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.91999999999996</v>
+        <v>573.92</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5554,15 +5535,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:28">
+      <c r="A60" s="2">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.70000000000005</v>
+        <v>609.7</v>
       </c>
       <c r="C60">
-        <v>512.91999999999996</v>
+        <v>512.92</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5574,7 +5555,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.55999999999995</v>
+        <v>594.5599999999999</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5583,10 +5564,10 @@
         <v>725.45</v>
       </c>
       <c r="J60">
+        <v>786.77</v>
+      </c>
+      <c r="K60">
         <v>749.76</v>
-      </c>
-      <c r="K60">
-        <v>786.77</v>
       </c>
       <c r="L60">
         <v>814.55</v>
@@ -5607,7 +5588,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79000000000002</v>
+        <v>287.79</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5637,18 +5618,18 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.32000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+        <v>584.3200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="2">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.44000000000005</v>
+        <v>529.4400000000001</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5660,19 +5641,19 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.91999999999996</v>
+        <v>618.92</v>
       </c>
       <c r="H61">
-        <v>610.17999999999995</v>
+        <v>610.1799999999999</v>
       </c>
       <c r="I61">
         <v>753.88</v>
       </c>
       <c r="J61">
+        <v>809.86</v>
+      </c>
+      <c r="K61">
         <v>735.45</v>
-      </c>
-      <c r="K61">
-        <v>809.86</v>
       </c>
       <c r="L61">
         <v>859.11</v>
@@ -5684,22 +5665,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.56</v>
+        <v>655.5599999999999</v>
       </c>
       <c r="P61">
-        <v>522.82000000000005</v>
+        <v>522.8200000000001</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54000000000002</v>
+        <v>292.54</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58000000000004</v>
+        <v>517.58</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5726,12 +5707,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:28">
+      <c r="A62" s="2">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.44</v>
+        <v>723.4400000000001</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5743,22 +5724,22 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.94</v>
+        <v>695.9400000000001</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.68</v>
+        <v>669.6799999999999</v>
       </c>
       <c r="I62">
         <v>874.42</v>
       </c>
       <c r="J62">
+        <v>935.05</v>
+      </c>
+      <c r="K62">
         <v>793.51</v>
-      </c>
-      <c r="K62">
-        <v>935.05</v>
       </c>
       <c r="L62">
         <v>1023.57</v>
@@ -5773,7 +5754,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.57000000000005</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5782,22 +5763,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33000000000004</v>
+        <v>549.33</v>
       </c>
       <c r="T62">
-        <v>586.80999999999995</v>
+        <v>586.8099999999999</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.44000000000005</v>
+        <v>603.4400000000001</v>
       </c>
       <c r="W62">
-        <v>643.07000000000005</v>
+        <v>643.0700000000001</v>
       </c>
       <c r="X62">
-        <v>1038.3900000000001</v>
+        <v>1038.39</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5812,15 +5793,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:28">
+      <c r="A63" s="2">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.20000000000005</v>
+        <v>648.2</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5841,16 +5822,16 @@
         <v>969.71</v>
       </c>
       <c r="J63">
+        <v>1048.25</v>
+      </c>
+      <c r="K63">
         <v>958.73</v>
-      </c>
-      <c r="K63">
-        <v>1048.25</v>
       </c>
       <c r="L63">
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.32</v>
+        <v>895.3200000000001</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5859,13 +5840,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.43</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85000000000002</v>
+        <v>312.85</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5877,13 +5858,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08000000000004</v>
+        <v>651.08</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.1099999999999</v>
+        <v>1126.11</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5892,14 +5873,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.19</v>
+        <v>677.1900000000001</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:28">
+      <c r="A64" s="2">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5909,16 +5890,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.29999999999995</v>
+        <v>623.3</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.57</v>
+        <v>799.5700000000001</v>
       </c>
       <c r="G64">
-        <v>851.06</v>
+        <v>851.0599999999999</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5927,10 +5908,10 @@
         <v>1051.29</v>
       </c>
       <c r="J64">
+        <v>1182.77</v>
+      </c>
+      <c r="K64">
         <v>1267.05</v>
-      </c>
-      <c r="K64">
-        <v>1182.77</v>
       </c>
       <c r="L64">
         <v>1132.28</v>
@@ -5939,7 +5920,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.1099999999999</v>
+        <v>1055.11</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5981,18 +5962,18 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+        <v>799.9299999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="2">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.06</v>
+        <v>887.0599999999999</v>
       </c>
       <c r="C65">
-        <v>701.82</v>
+        <v>701.8200000000001</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -6007,16 +5988,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.07</v>
+        <v>985.0700000000001</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1275.8499999999999</v>
+        <v>1251.9</v>
       </c>
       <c r="K65">
-        <v>1251.9000000000001</v>
+        <v>1275.85</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6031,10 +6012,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.43</v>
+        <v>728.4299999999999</v>
       </c>
       <c r="Q65">
-        <v>584.45000000000005</v>
+        <v>584.45</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6070,8 +6051,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:28">
+      <c r="A66" s="2">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6081,7 +6062,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.19</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6099,10 +6080,10 @@
         <v>1248.33</v>
       </c>
       <c r="J66">
+        <v>1462.78</v>
+      </c>
+      <c r="K66">
         <v>1541.91</v>
-      </c>
-      <c r="K66">
-        <v>1462.78</v>
       </c>
       <c r="L66">
         <v>1415.84</v>
@@ -6135,7 +6116,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.31</v>
+        <v>736.3099999999999</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6150,14 +6131,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.31</v>
+        <v>741.3099999999999</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:28">
+      <c r="A67" s="2">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6170,7 +6151,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.06</v>
+        <v>846.0599999999999</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6185,10 +6166,10 @@
         <v>1268.74</v>
       </c>
       <c r="J67">
+        <v>1435.97</v>
+      </c>
+      <c r="K67">
         <v>1370.81</v>
-      </c>
-      <c r="K67">
-        <v>1435.97</v>
       </c>
       <c r="L67">
         <v>1478.01</v>
@@ -6200,7 +6181,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.1600000000001</v>
+        <v>1057.16</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6242,8 +6223,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:28">
+      <c r="A68" s="2">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6262,7 +6243,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.1099999999999</v>
+        <v>1053.11</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6271,10 +6252,10 @@
         <v>1295.25</v>
       </c>
       <c r="J68">
+        <v>1387.88</v>
+      </c>
+      <c r="K68">
         <v>1162.49</v>
-      </c>
-      <c r="K68">
-        <v>1387.88</v>
       </c>
       <c r="L68">
         <v>1528.72</v>
@@ -6283,7 +6264,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.8599999999999</v>
+        <v>1288.86</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6322,27 +6303,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.32</v>
+        <v>787.3200000000001</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:28">
+      <c r="A69" s="2">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.69</v>
+        <v>829.6900000000001</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.44</v>
+        <v>919.4400000000001</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6351,16 +6332,16 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.5999999999999</v>
+        <v>1227.6</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
       </c>
       <c r="J69">
+        <v>1424.55</v>
+      </c>
+      <c r="K69">
         <v>1220.08</v>
-      </c>
-      <c r="K69">
-        <v>1424.55</v>
       </c>
       <c r="L69">
         <v>1552.52</v>
@@ -6384,7 +6365,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.19</v>
+        <v>733.1900000000001</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6402,7 +6383,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.6400000000001</v>
+        <v>1060.64</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6414,8 +6395,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:28">
+      <c r="A70" s="2">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6443,10 +6424,10 @@
         <v>1347.48</v>
       </c>
       <c r="J70">
+        <v>1395.81</v>
+      </c>
+      <c r="K70">
         <v>1143.05</v>
-      </c>
-      <c r="K70">
-        <v>1395.81</v>
       </c>
       <c r="L70">
         <v>1553.54</v>
@@ -6488,7 +6469,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.3399999999999</v>
+        <v>1062.34</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6500,15 +6481,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:28">
+      <c r="A71" s="2">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.6099999999999</v>
+        <v>1120.61</v>
       </c>
       <c r="C71">
-        <v>879.43</v>
+        <v>879.4299999999999</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6529,10 +6510,10 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
-        <v>1165.6099999999999</v>
+        <v>1410.76</v>
       </c>
       <c r="K71">
-        <v>1410.76</v>
+        <v>1165.61</v>
       </c>
       <c r="L71">
         <v>1563.8</v>
@@ -6550,7 +6531,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.44</v>
+        <v>703.4400000000001</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6559,7 +6540,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.69</v>
+        <v>893.6900000000001</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6583,18 +6564,18 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.8900000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+        <v>1046.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="2">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.3900000000001</v>
+        <v>1152.39</v>
       </c>
       <c r="C72">
-        <v>907.94</v>
+        <v>907.9400000000001</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6615,10 +6596,10 @@
         <v>1443.99</v>
       </c>
       <c r="J72">
+        <v>1512.45</v>
+      </c>
+      <c r="K72">
         <v>1332.71</v>
-      </c>
-      <c r="K72">
-        <v>1512.45</v>
       </c>
       <c r="L72">
         <v>1625.28</v>
@@ -6630,7 +6611,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.1199999999999</v>
+        <v>1298.12</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6648,19 +6629,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.8200000000002</v>
+        <v>2082.82</v>
       </c>
       <c r="V72">
-        <v>901.57</v>
+        <v>901.5700000000001</v>
       </c>
       <c r="W72">
-        <v>887.82</v>
+        <v>887.8200000000001</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.6099999999999</v>
+        <v>1158.61</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6672,8 +6653,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:28">
+      <c r="A73" s="2">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6689,10 +6670,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.6199999999999</v>
+        <v>1103.62</v>
       </c>
       <c r="G73">
-        <v>1194.5999999999999</v>
+        <v>1194.6</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6701,10 +6682,10 @@
         <v>1526.98</v>
       </c>
       <c r="J73">
+        <v>1597.34</v>
+      </c>
+      <c r="K73">
         <v>1465.19</v>
-      </c>
-      <c r="K73">
-        <v>1597.34</v>
       </c>
       <c r="L73">
         <v>1680.91</v>
@@ -6719,10 +6700,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.06</v>
+        <v>924.0599999999999</v>
       </c>
       <c r="Q73">
-        <v>741.56</v>
+        <v>741.5599999999999</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6758,8 +6739,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:28">
+      <c r="A74" s="2">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6772,10 +6753,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.0999999999999</v>
+        <v>1038.1</v>
       </c>
       <c r="F74">
-        <v>1113.6400000000001</v>
+        <v>1113.64</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6787,10 +6768,10 @@
         <v>1555.31</v>
       </c>
       <c r="J74">
+        <v>1620.01</v>
+      </c>
+      <c r="K74">
         <v>1416.77</v>
-      </c>
-      <c r="K74">
-        <v>1620.01</v>
       </c>
       <c r="L74">
         <v>1747.47</v>
@@ -6805,7 +6786,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.69</v>
+        <v>939.6900000000001</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6823,7 +6804,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.31</v>
+        <v>938.3099999999999</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6844,8 +6825,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:28">
+      <c r="A75" s="2">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6864,7 +6845,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.1099999999999</v>
+        <v>1260.11</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6873,10 +6854,10 @@
         <v>1658.23</v>
       </c>
       <c r="J75">
+        <v>1769.45</v>
+      </c>
+      <c r="K75">
         <v>1507.36</v>
-      </c>
-      <c r="K75">
-        <v>1769.45</v>
       </c>
       <c r="L75">
         <v>1939.75</v>
@@ -6930,8 +6911,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:28">
+      <c r="A76" s="2">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6947,7 +6928,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.1300000000001</v>
+        <v>1232.13</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6959,10 +6940,10 @@
         <v>1780.2</v>
       </c>
       <c r="J76">
+        <v>1964.94</v>
+      </c>
+      <c r="K76">
         <v>1779.36</v>
-      </c>
-      <c r="K76">
-        <v>1964.94</v>
       </c>
       <c r="L76">
         <v>2072.31</v>
@@ -6989,19 +6970,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.1300000000001</v>
+        <v>1024.13</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.6600000000001</v>
+        <v>1090.66</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.5100000000002</v>
+        <v>2052.51</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -7016,8 +6997,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:28">
+      <c r="A77" s="2">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7027,13 +7008,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.81</v>
+        <v>958.8099999999999</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.0899999999999</v>
+        <v>1263.09</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7045,10 +7026,10 @@
         <v>1848.51</v>
       </c>
       <c r="J77">
+        <v>2077.39</v>
+      </c>
+      <c r="K77">
         <v>1731.53</v>
-      </c>
-      <c r="K77">
-        <v>2077.39</v>
       </c>
       <c r="L77">
         <v>2306.89</v>
@@ -7078,7 +7059,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.2800000000002</v>
+        <v>2392.28</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7087,7 +7068,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.5100000000002</v>
+        <v>2131.51</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7102,18 +7083,18 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:28">
+      <c r="A78" s="2">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.8499999999999</v>
+        <v>1096.85</v>
       </c>
       <c r="D78">
-        <v>989.57</v>
+        <v>989.5700000000001</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7131,10 +7112,10 @@
         <v>1921.46</v>
       </c>
       <c r="J78">
+        <v>2233.64</v>
+      </c>
+      <c r="K78">
         <v>1789</v>
-      </c>
-      <c r="K78">
-        <v>2233.64</v>
       </c>
       <c r="L78">
         <v>2536.79</v>
@@ -7164,7 +7145,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8000000000002</v>
+        <v>2410.8</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7188,18 +7169,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:28">
+      <c r="A79" s="2">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.3900000000001</v>
+        <v>1136.39</v>
       </c>
       <c r="D79">
-        <v>1031.6400000000001</v>
+        <v>1031.64</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7217,10 +7198,10 @@
         <v>1935.1</v>
       </c>
       <c r="J79">
+        <v>2240.19</v>
+      </c>
+      <c r="K79">
         <v>1700.23</v>
-      </c>
-      <c r="K79">
-        <v>2240.19</v>
       </c>
       <c r="L79">
         <v>2617.08</v>
@@ -7235,7 +7216,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.1300000000001</v>
+        <v>1057.13</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7247,19 +7228,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.3499999999999</v>
+        <v>1072.35</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.6600000000001</v>
+        <v>1221.66</v>
       </c>
       <c r="W79">
-        <v>1226.5899999999999</v>
+        <v>1226.59</v>
       </c>
       <c r="X79">
-        <v>2379.5500000000002</v>
+        <v>2379.55</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7268,14 +7249,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.8599999999999</v>
+        <v>1207.86</v>
       </c>
       <c r="AB79">
-        <v>1300.5999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+        <v>1300.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="2">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7297,16 +7278,16 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.8800000000001</v>
+        <v>1057.88</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
       </c>
       <c r="J80">
+        <v>2337.69</v>
+      </c>
+      <c r="K80">
         <v>1830.77</v>
-      </c>
-      <c r="K80">
-        <v>2337.69</v>
       </c>
       <c r="L80">
         <v>2687.19</v>
@@ -7324,7 +7305,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.56</v>
+        <v>884.5599999999999</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7339,7 +7320,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.3599999999999</v>
+        <v>1266.36</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7354,21 +7335,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.4100000000001</v>
+        <v>1239.41</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:28">
+      <c r="A81" s="2">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4000000000001</v>
+        <v>1280.4</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7389,10 +7370,10 @@
         <v>2147.27</v>
       </c>
       <c r="J81">
+        <v>2560.1</v>
+      </c>
+      <c r="K81">
         <v>2153.86</v>
-      </c>
-      <c r="K81">
-        <v>2560.1</v>
       </c>
       <c r="L81">
         <v>2827.44</v>
@@ -7407,7 +7388,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.6500000000001</v>
+        <v>1215.65</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7416,7 +7397,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.0999999999999</v>
+        <v>1138.1</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7446,8 +7427,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:28">
+      <c r="A82" s="2">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7475,10 +7456,10 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
-        <v>2354.4299999999998</v>
+        <v>2702.83</v>
       </c>
       <c r="K82">
-        <v>2702.83</v>
+        <v>2354.43</v>
       </c>
       <c r="L82">
         <v>2922.69</v>
@@ -7496,7 +7477,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.6300000000001</v>
+        <v>1050.63</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7505,7 +7486,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.6500000000001</v>
+        <v>1306.65</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7532,8 +7513,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:28">
+      <c r="A83" s="2">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7561,10 +7542,10 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
-        <v>2359.9499999999998</v>
+        <v>2767.43</v>
       </c>
       <c r="K83">
-        <v>2767.43</v>
+        <v>2359.95</v>
       </c>
       <c r="L83">
         <v>3031.89</v>
@@ -7582,7 +7563,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.8699999999999</v>
+        <v>1077.87</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7618,8 +7599,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:28">
+      <c r="A84" s="2">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7647,10 +7628,10 @@
         <v>2483.58</v>
       </c>
       <c r="J84">
+        <v>2879.72</v>
+      </c>
+      <c r="K84">
         <v>2368.84</v>
-      </c>
-      <c r="K84">
-        <v>2879.72</v>
       </c>
       <c r="L84">
         <v>3222.23</v>
@@ -7674,7 +7655,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.0999999999999</v>
+        <v>1264.1</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7704,8 +7685,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:28">
+      <c r="A85" s="2">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7730,13 +7711,13 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.5100000000002</v>
+        <v>2552.51</v>
       </c>
       <c r="J85">
+        <v>2888.72</v>
+      </c>
+      <c r="K85">
         <v>2305.84</v>
-      </c>
-      <c r="K85">
-        <v>2888.72</v>
       </c>
       <c r="L85">
         <v>3286.86</v>
@@ -7790,8 +7771,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:28">
+      <c r="A86" s="2">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7819,10 +7800,10 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
-        <v>2568.4899999999998</v>
+        <v>3097.87</v>
       </c>
       <c r="K86">
-        <v>3097.87</v>
+        <v>2568.49</v>
       </c>
       <c r="L86">
         <v>3450.67</v>
@@ -7846,7 +7827,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.6400000000001</v>
+        <v>1307.64</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7876,8 +7857,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:28">
+      <c r="A87" s="2">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7905,16 +7886,16 @@
         <v>2814.14</v>
       </c>
       <c r="J87">
+        <v>3315.05</v>
+      </c>
+      <c r="K87">
         <v>2764.97</v>
-      </c>
-      <c r="K87">
-        <v>3315.05</v>
       </c>
       <c r="L87">
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.2800000000002</v>
+        <v>2429.28</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7926,7 +7907,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4000000000001</v>
+        <v>1195.4</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7944,13 +7925,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.7600000000002</v>
+        <v>2198.76</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.8200000000002</v>
+        <v>2468.82</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7962,8 +7943,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:28">
+      <c r="A88" s="2">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -7991,10 +7972,10 @@
         <v>3046.31</v>
       </c>
       <c r="J88">
+        <v>3623.5</v>
+      </c>
+      <c r="K88">
         <v>3144.93</v>
-      </c>
-      <c r="K88">
-        <v>3623.5</v>
       </c>
       <c r="L88">
         <v>3918.56</v>
@@ -8042,14 +8023,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.1799999999998</v>
+        <v>2074.18</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:28">
+      <c r="A89" s="2">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8077,10 +8058,10 @@
         <v>3149.99</v>
       </c>
       <c r="J89">
+        <v>3825.3</v>
+      </c>
+      <c r="K89">
         <v>3162.98</v>
-      </c>
-      <c r="K89">
-        <v>3825.3</v>
       </c>
       <c r="L89">
         <v>4268.16</v>
@@ -8116,13 +8097,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.0100000000002</v>
+        <v>2503.01</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.0700000000002</v>
+        <v>2520.07</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8131,15 +8112,15 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.4699999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+        <v>2139.47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="2">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.4699999999998</v>
+        <v>2380.47</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8151,7 +8132,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.9699999999998</v>
+        <v>2277.97</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8163,10 +8144,10 @@
         <v>3237.61</v>
       </c>
       <c r="J90">
+        <v>3972.51</v>
+      </c>
+      <c r="K90">
         <v>3183.76</v>
-      </c>
-      <c r="K90">
-        <v>3972.51</v>
       </c>
       <c r="L90">
         <v>4516.83</v>
@@ -8187,7 +8168,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.44000000000005</v>
+        <v>578.4400000000001</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8199,7 +8180,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.7800000000002</v>
+        <v>2300.78</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8211,17 +8192,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95000000000005</v>
+        <v>520.95</v>
       </c>
       <c r="AA90">
-        <v>2218.4299999999998</v>
+        <v>2218.43</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:28">
+      <c r="A91" s="2">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8240,7 +8221,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.9699999999998</v>
+        <v>2220.97</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8249,10 +8230,10 @@
         <v>3292.35</v>
       </c>
       <c r="J91">
+        <v>3954.71</v>
+      </c>
+      <c r="K91">
         <v>3082.91</v>
-      </c>
-      <c r="K91">
-        <v>3954.71</v>
       </c>
       <c r="L91">
         <v>4568.99</v>
@@ -8282,7 +8263,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6000000000004</v>
+        <v>4477.6</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8306,8 +8287,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:28">
+      <c r="A92" s="2">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8326,7 +8307,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.2600000000002</v>
+        <v>2241.26</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8335,13 +8316,13 @@
         <v>3350.79</v>
       </c>
       <c r="J92">
+        <v>3985.77</v>
+      </c>
+      <c r="K92">
         <v>3269.89</v>
       </c>
-      <c r="K92">
-        <v>3985.77</v>
-      </c>
       <c r="L92">
-        <v>4468.7700000000004</v>
+        <v>4468.77</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8359,7 +8340,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.16999999999996</v>
+        <v>630.17</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8371,7 +8352,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.7800000000002</v>
+        <v>2472.78</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8386,18 +8367,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.1799999999998</v>
+        <v>2343.18</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:28">
+      <c r="A93" s="2">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.7600000000002</v>
+        <v>2588.76</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8421,10 +8402,10 @@
         <v>3412.26</v>
       </c>
       <c r="J93">
+        <v>4028.33</v>
+      </c>
+      <c r="K93">
         <v>3372.65</v>
-      </c>
-      <c r="K93">
-        <v>4028.33</v>
       </c>
       <c r="L93">
         <v>4459.75</v>
@@ -8445,7 +8426,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.92999999999995</v>
+        <v>612.9299999999999</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8469,24 +8450,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.44000000000005</v>
+        <v>585.4400000000001</v>
       </c>
       <c r="AA93">
-        <v>2423.4299999999998</v>
+        <v>2423.43</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:28">
+      <c r="A94" s="2">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.8200000000002</v>
+        <v>2111.82</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8495,22 +8476,22 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.5700000000002</v>
+        <v>2475.57</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.7600000000002</v>
+        <v>2294.76</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
       </c>
       <c r="J94">
+        <v>3831.22</v>
+      </c>
+      <c r="K94">
         <v>3035.54</v>
-      </c>
-      <c r="K94">
-        <v>3831.22</v>
       </c>
       <c r="L94">
         <v>4385.42</v>
@@ -8540,7 +8521,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.3999999999996</v>
+        <v>4937.4</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8558,14 +8539,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.2399999999998</v>
+        <v>2538.24</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:28">
+      <c r="A95" s="2">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8578,7 +8559,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.9699999999998</v>
+        <v>2288.97</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8587,16 +8568,16 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.8200000000002</v>
+        <v>2304.82</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
       </c>
       <c r="J95">
+        <v>3966.8</v>
+      </c>
+      <c r="K95">
         <v>3131.66</v>
-      </c>
-      <c r="K95">
-        <v>3966.8</v>
       </c>
       <c r="L95">
         <v>4550.08</v>
@@ -8626,7 +8607,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.4799999999996</v>
+        <v>5143.48</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8650,18 +8631,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:28">
+      <c r="A96" s="2">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.5500000000002</v>
+        <v>2238.55</v>
       </c>
       <c r="D96">
-        <v>2062.9499999999998</v>
+        <v>2062.95</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8670,7 +8651,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.2399999999998</v>
+        <v>2464.24</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8679,10 +8660,10 @@
         <v>3608.18</v>
       </c>
       <c r="J96">
+        <v>4234.64</v>
+      </c>
+      <c r="K96">
         <v>3732.87</v>
-      </c>
-      <c r="K96">
-        <v>4234.6400000000003</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8736,15 +8717,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:28">
+      <c r="A97" s="2">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.0500000000002</v>
+        <v>2273.05</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8765,13 +8746,13 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
-        <v>4071.8145960000002</v>
+        <v>4615.91</v>
       </c>
       <c r="K97">
-        <v>4615.91</v>
+        <v>4071.814596</v>
       </c>
       <c r="L97">
-        <v>4737.1046520000009</v>
+        <v>4737.104652000001</v>
       </c>
       <c r="M97">
         <v>3174.54</v>
@@ -8798,7 +8779,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6000000000004</v>
+        <v>5151.6</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8807,7 +8788,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.7700000000004</v>
+        <v>5240.77</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8822,8 +8803,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:28">
+      <c r="A98" s="2">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8845,19 +8826,19 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.0700000000002</v>
+        <v>2370.07</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
       </c>
       <c r="J98">
-        <v>4369.0570615079996</v>
+        <v>4655.76</v>
       </c>
       <c r="K98">
-        <v>4655.76</v>
+        <v>4369.057061508</v>
       </c>
       <c r="L98">
-        <v>4875.4281078384001</v>
+        <v>4875.4281078384</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8908,8 +8889,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:28">
+      <c r="A99" s="2">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8919,7 +8900,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.9499999999998</v>
+        <v>2234.95</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8931,19 +8912,19 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.6799999999998</v>
+        <v>2514.68</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4637.3171650845907</v>
+        <v>4779.39</v>
       </c>
       <c r="K99">
-        <v>4779.3900000000003</v>
+        <v>4637.317165084591</v>
       </c>
       <c r="L99">
-        <v>5033.3919785323642</v>
+        <v>5033.391978532364</v>
       </c>
       <c r="M99">
         <v>3387.45</v>
@@ -8976,7 +8957,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.6099999999997</v>
+        <v>4411.61</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8994,262 +8975,262 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:28">
+      <c r="A100" s="2">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3162.7359541569249</v>
+        <v>3162.905063917786</v>
       </c>
       <c r="C100">
-        <v>2521.8643344901029</v>
+        <v>2523.586585462722</v>
       </c>
       <c r="D100">
-        <v>2321.3894998406031</v>
+        <v>2321.407112222102</v>
       </c>
       <c r="E100">
-        <v>2645.3423875698918</v>
+        <v>2644.378662909916</v>
       </c>
       <c r="F100">
-        <v>2941.887542379508</v>
+        <v>2953.993629386376</v>
       </c>
       <c r="G100">
-        <v>2723.7621710480648</v>
+        <v>2721.838067374441</v>
       </c>
       <c r="H100">
         <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4122.5400266702209</v>
+        <v>4122.540026670221</v>
       </c>
       <c r="J100">
-        <v>4480.8448403177663</v>
+        <v>4844.434154713425</v>
       </c>
       <c r="K100">
-        <v>4845.3675020316477</v>
+        <v>4483.675316729355</v>
       </c>
       <c r="L100">
-        <v>5019.70699513208</v>
+        <v>5028.225592543442</v>
       </c>
       <c r="M100">
-        <v>3547.5368690859432</v>
+        <v>3544.16597438334</v>
       </c>
       <c r="N100">
-        <v>4006.396180070411</v>
+        <v>4002.657054528997</v>
       </c>
       <c r="O100">
-        <v>3298.8101259039549</v>
+        <v>3295.663613502954</v>
       </c>
       <c r="P100">
-        <v>1968.818648657101</v>
+        <v>1965.443879395435</v>
       </c>
       <c r="Q100">
-        <v>1539.525087707445</v>
+        <v>1539.512042770942</v>
       </c>
       <c r="R100">
-        <v>715.54926611778671</v>
+        <v>715.5492661177867</v>
       </c>
       <c r="S100">
-        <v>1672.205337320532</v>
+        <v>1672.205337320531</v>
       </c>
       <c r="T100">
-        <v>2150.2435235877078</v>
+        <v>2154.312539356603</v>
       </c>
       <c r="U100">
-        <v>5610.5982365508034</v>
+        <v>5610.598236550803</v>
       </c>
       <c r="V100">
-        <v>3394.2101001363858</v>
+        <v>3394.255784519918</v>
       </c>
       <c r="W100">
-        <v>4597.8144691720954</v>
+        <v>4597.814469172095</v>
       </c>
       <c r="X100">
-        <v>5858.3339374863444</v>
+        <v>5858.333937486344</v>
       </c>
       <c r="Y100">
-        <v>3866.8827256514842</v>
+        <v>3929.726102149275</v>
       </c>
       <c r="Z100">
-        <v>628.72663070400517</v>
+        <v>628.7266307040052</v>
       </c>
       <c r="AA100">
-        <v>3439.1666200142449</v>
+        <v>3424.291280798479</v>
       </c>
       <c r="AB100">
-        <v>2927.7197635733528</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+        <v>2927.719763573353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="2">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3234.993671119335</v>
+        <v>3234.199551223964</v>
       </c>
       <c r="C101">
-        <v>2594.9171952757119</v>
+        <v>2598.372408541502</v>
       </c>
       <c r="D101">
-        <v>2394.362101323527</v>
+        <v>2394.510994931371</v>
       </c>
       <c r="E101">
-        <v>2713.6493385872668</v>
+        <v>2711.5892141189</v>
       </c>
       <c r="F101">
-        <v>3037.838103257729</v>
+        <v>3061.27057295317</v>
       </c>
       <c r="G101">
-        <v>2816.3871261685572</v>
+        <v>2813.197415999272</v>
       </c>
       <c r="H101">
-        <v>2634.3766926018538</v>
+        <v>2634.376692601853</v>
       </c>
       <c r="I101">
-        <v>4316.1448248725983</v>
+        <v>4316.144824872598</v>
       </c>
       <c r="J101">
-        <v>5018.8247148521796</v>
+        <v>5248.670022873612</v>
       </c>
       <c r="K101">
-        <v>5234.2361356736219</v>
+        <v>5026.22249225254</v>
       </c>
       <c r="L101">
-        <v>5247.3986934794248</v>
+        <v>5245.837212193305</v>
       </c>
       <c r="M101">
-        <v>3635.9725225209709</v>
+        <v>3628.778833284297</v>
       </c>
       <c r="N101">
-        <v>4075.608277256481</v>
+        <v>4073.618171483043</v>
       </c>
       <c r="O101">
-        <v>3386.6363371586208</v>
+        <v>3378.832322339509</v>
       </c>
       <c r="P101">
-        <v>2038.261330230554</v>
+        <v>2032.675388862467</v>
       </c>
       <c r="Q101">
-        <v>1591.4598876925311</v>
+        <v>1591.639609178182</v>
       </c>
       <c r="R101">
-        <v>764.18726678627206</v>
+        <v>764.1872667862721</v>
       </c>
       <c r="S101">
-        <v>1692.042997106736</v>
+        <v>1692.042997106735</v>
       </c>
       <c r="T101">
-        <v>2240.5688992911628</v>
+        <v>2247.311220651962</v>
       </c>
       <c r="U101">
-        <v>5912.2111742136894</v>
+        <v>5912.211174213689</v>
       </c>
       <c r="V101">
-        <v>3491.292420509124</v>
+        <v>3490.860738228112</v>
       </c>
       <c r="W101">
-        <v>4766.1449791637961</v>
+        <v>4766.144979163796</v>
       </c>
       <c r="X101">
-        <v>5921.2273192102539</v>
+        <v>5921.227319210251</v>
       </c>
       <c r="Y101">
-        <v>4129.3939454754436</v>
+        <v>4286.439304694653</v>
       </c>
       <c r="Z101">
-        <v>614.36786011369941</v>
+        <v>614.3678601136994</v>
       </c>
       <c r="AA101">
-        <v>3715.9768689989342</v>
+        <v>3686.328800601575</v>
       </c>
       <c r="AB101">
         <v>3022.268128506455</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:28">
+      <c r="A102" s="2">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3322.8648364102892</v>
+        <v>3320.794712592249</v>
       </c>
       <c r="C102">
-        <v>2646.4206610249898</v>
+        <v>2652.599659914084</v>
       </c>
       <c r="D102">
-        <v>2447.3784014366711</v>
+        <v>2447.273506642794</v>
       </c>
       <c r="E102">
-        <v>2779.891086461851</v>
+        <v>2776.425591523645</v>
       </c>
       <c r="F102">
-        <v>3106.229179728783</v>
+        <v>3126.067832449013</v>
       </c>
       <c r="G102">
-        <v>2887.4685370277771</v>
+        <v>2883.838068530516</v>
       </c>
       <c r="H102">
         <v>2745.68207085938</v>
       </c>
       <c r="I102">
-        <v>4420.2888775638348</v>
+        <v>4420.288877563835</v>
       </c>
       <c r="J102">
-        <v>5140.2406619425337</v>
+        <v>5429.40329377739</v>
       </c>
       <c r="K102">
-        <v>5426.3063050936726</v>
+        <v>5173.653119719376</v>
       </c>
       <c r="L102">
-        <v>5501.5766444846358</v>
+        <v>5457.223563045885</v>
       </c>
       <c r="M102">
-        <v>3697.0270080193741</v>
+        <v>3691.293186224555</v>
       </c>
       <c r="N102">
-        <v>4130.2130527502231</v>
+        <v>4133.187353376966</v>
       </c>
       <c r="O102">
-        <v>3446.026159894293</v>
+        <v>3438.976593961684</v>
       </c>
       <c r="P102">
-        <v>2078.180006879858</v>
+        <v>2072.26291514599</v>
       </c>
       <c r="Q102">
-        <v>1619.73652414042</v>
+        <v>1620.134070646229</v>
       </c>
       <c r="R102">
-        <v>772.18686059872425</v>
+        <v>772.1868605987243</v>
       </c>
       <c r="S102">
         <v>1734.852131977141</v>
       </c>
       <c r="T102">
-        <v>2263.1906695246462</v>
+        <v>2271.587571096218</v>
       </c>
       <c r="U102">
-        <v>6541.4647958845499</v>
+        <v>6541.46479588455</v>
       </c>
       <c r="V102">
-        <v>3587.50425760189</v>
+        <v>3586.330087448184</v>
       </c>
       <c r="W102">
-        <v>4971.2965049701552</v>
+        <v>4971.296504970155</v>
       </c>
       <c r="X102">
-        <v>6169.9870705114099</v>
+        <v>6169.987070511407</v>
       </c>
       <c r="Y102">
-        <v>4239.2244062155023</v>
+        <v>4132.247129811551</v>
       </c>
       <c r="Z102">
-        <v>592.61490361985818</v>
+        <v>592.6149036198582</v>
       </c>
       <c r="AA102">
-        <v>3731.051436950976</v>
+        <v>3736.900926046543</v>
       </c>
       <c r="AB102">
-        <v>3099.8368084354561</v>
+        <v>3099.836808435456</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8419BE1-692B-4AD2-8EFE-0CB2C0E80F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,10 +46,10 @@
     <t>Gıda ve alkolsüz içecekler</t>
   </si>
   <si>
-    <t>İşlenmemiş gıda</t>
+    <t>Taze meyve ve sebze</t>
   </si>
   <si>
-    <t>Taze meyve ve sebze</t>
+    <t>İşlenmemiş gıda</t>
   </si>
   <si>
     <t>Diğer işlenmemiş gıda</t>
@@ -100,11 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -170,13 +174,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +566,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -567,25 +586,25 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="H2">
-        <v>299.59</v>
+        <v>299.58999999999997</v>
       </c>
       <c r="I2">
-        <v>319.35</v>
+        <v>319.35000000000002</v>
       </c>
       <c r="J2">
+        <v>292.5</v>
+      </c>
+      <c r="K2">
         <v>339.7</v>
-      </c>
-      <c r="K2">
-        <v>292.5</v>
       </c>
       <c r="L2">
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.78</v>
+        <v>299.77999999999997</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -609,7 +628,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.5700000000001</v>
+        <v>588.57000000000005</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -621,7 +640,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -630,24 +649,24 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="2">
+        <v>292.54000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97</v>
+        <v>262.97000000000003</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.28</v>
+        <v>276.27999999999997</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -662,10 +681,10 @@
         <v>339.7</v>
       </c>
       <c r="J3">
+        <v>392.13</v>
+      </c>
+      <c r="K3">
         <v>381.36</v>
-      </c>
-      <c r="K3">
-        <v>392.13</v>
       </c>
       <c r="L3">
         <v>376.16</v>
@@ -707,7 +726,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22</v>
+        <v>325.22000000000003</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -719,24 +738,24 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.09</v>
+        <v>265.08999999999997</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F4">
-        <v>293.53</v>
+        <v>293.52999999999997</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -748,16 +767,16 @@
         <v>342.57</v>
       </c>
       <c r="J4">
+        <v>389.79</v>
+      </c>
+      <c r="K4">
         <v>382.72</v>
-      </c>
-      <c r="K4">
-        <v>389.79</v>
       </c>
       <c r="L4">
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.1</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -781,10 +800,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58</v>
+        <v>612.58000000000004</v>
       </c>
       <c r="V4">
-        <v>320.78</v>
+        <v>320.77999999999997</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -805,12 +824,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.65</v>
+        <v>313.64999999999998</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -819,25 +838,25 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.15</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="F5">
-        <v>296.71</v>
+        <v>296.70999999999998</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91</v>
+        <v>311.91000000000003</v>
       </c>
       <c r="I5">
         <v>349.18</v>
       </c>
       <c r="J5">
+        <v>410.22</v>
+      </c>
+      <c r="K5">
         <v>394</v>
-      </c>
-      <c r="K5">
-        <v>410.22</v>
       </c>
       <c r="L5">
         <v>385.24</v>
@@ -849,10 +868,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79</v>
+        <v>295.79000000000002</v>
       </c>
       <c r="P5">
-        <v>256.09</v>
+        <v>256.08999999999997</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -867,7 +886,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -891,18 +910,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22</v>
+        <v>316.22000000000003</v>
       </c>
       <c r="C6">
-        <v>272.91</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="D6">
-        <v>264.15</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -920,10 +939,10 @@
         <v>353.47</v>
       </c>
       <c r="J6">
+        <v>411.03</v>
+      </c>
+      <c r="K6">
         <v>399.89</v>
-      </c>
-      <c r="K6">
-        <v>411.03</v>
       </c>
       <c r="L6">
         <v>394.53</v>
@@ -971,21 +990,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66</v>
+        <v>317.66000000000003</v>
       </c>
       <c r="C7">
-        <v>276.34</v>
+        <v>276.33999999999997</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -994,7 +1013,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.9</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1006,10 +1025,10 @@
         <v>351.53</v>
       </c>
       <c r="J7">
+        <v>379.08</v>
+      </c>
+      <c r="K7">
         <v>392.08</v>
-      </c>
-      <c r="K7">
-        <v>379.08</v>
       </c>
       <c r="L7">
         <v>402.65</v>
@@ -1024,7 +1043,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85</v>
+        <v>265.85000000000002</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1054,7 +1073,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1063,27 +1082,27 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.46</v>
+        <v>318.45999999999998</v>
       </c>
       <c r="C8">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.34</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.53</v>
+        <v>302.52999999999997</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1092,10 +1111,10 @@
         <v>347.81</v>
       </c>
       <c r="J8">
+        <v>343.59</v>
+      </c>
+      <c r="K8">
         <v>382.39</v>
-      </c>
-      <c r="K8">
-        <v>343.59</v>
       </c>
       <c r="L8">
         <v>410.01</v>
@@ -1110,7 +1129,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1146,11 +1165,11 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="2">
+        <v>309.77999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1178,10 +1197,10 @@
         <v>345.34</v>
       </c>
       <c r="J9">
+        <v>320.86</v>
+      </c>
+      <c r="K9">
         <v>372.7</v>
-      </c>
-      <c r="K9">
-        <v>320.86</v>
       </c>
       <c r="L9">
         <v>408.89</v>
@@ -1196,7 +1215,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1235,8 +1254,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1264,16 +1283,16 @@
         <v>344.57</v>
       </c>
       <c r="J10">
+        <v>302.24</v>
+      </c>
+      <c r="K10">
         <v>365.88</v>
-      </c>
-      <c r="K10">
-        <v>302.24</v>
       </c>
       <c r="L10">
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.96</v>
+        <v>323.95999999999998</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1282,7 +1301,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1318,18 +1337,18 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="2">
+        <v>311.85000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1338,22 +1357,22 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41</v>
+        <v>315.41000000000003</v>
       </c>
       <c r="I11">
         <v>343.79</v>
       </c>
       <c r="J11">
+        <v>299.73</v>
+      </c>
+      <c r="K11">
         <v>360.98</v>
-      </c>
-      <c r="K11">
-        <v>299.73</v>
       </c>
       <c r="L11">
         <v>403.34</v>
@@ -1398,7 +1417,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1407,8 +1426,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1421,13 +1440,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.84</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1436,10 +1455,10 @@
         <v>350.57</v>
       </c>
       <c r="J12">
+        <v>328.72</v>
+      </c>
+      <c r="K12">
         <v>369.97</v>
-      </c>
-      <c r="K12">
-        <v>328.72</v>
       </c>
       <c r="L12">
         <v>399.13</v>
@@ -1451,7 +1470,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.53</v>
+        <v>319.52999999999997</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1469,7 +1488,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.3</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1484,24 +1503,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="2">
+        <v>320.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.84</v>
+        <v>291.83999999999997</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1522,10 +1541,10 @@
         <v>357.95</v>
       </c>
       <c r="J13">
+        <v>352.51</v>
+      </c>
+      <c r="K13">
         <v>381.68</v>
-      </c>
-      <c r="K13">
-        <v>352.51</v>
       </c>
       <c r="L13">
         <v>402.9</v>
@@ -1540,7 +1559,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.96</v>
+        <v>281.95999999999998</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1579,8 +1598,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1590,13 +1609,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1608,10 +1627,10 @@
         <v>363.38</v>
       </c>
       <c r="J14">
+        <v>373.21</v>
+      </c>
+      <c r="K14">
         <v>392.54</v>
-      </c>
-      <c r="K14">
-        <v>373.21</v>
       </c>
       <c r="L14">
         <v>407.31</v>
@@ -1623,7 +1642,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79</v>
+        <v>324.79000000000002</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1662,18 +1681,18 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="2">
+        <v>327.41000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.34</v>
+        <v>295.33999999999997</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1694,10 +1713,10 @@
         <v>369.45</v>
       </c>
       <c r="J15">
+        <v>385.73</v>
+      </c>
+      <c r="K15">
         <v>398.74</v>
-      </c>
-      <c r="K15">
-        <v>385.73</v>
       </c>
       <c r="L15">
         <v>409.44</v>
@@ -1712,7 +1731,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1724,7 +1743,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54</v>
+        <v>257.54000000000002</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1751,15 +1770,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.59</v>
+        <v>297.58999999999997</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1780,10 +1799,10 @@
         <v>377.74</v>
       </c>
       <c r="J16">
+        <v>403.33</v>
+      </c>
+      <c r="K16">
         <v>408.41</v>
-      </c>
-      <c r="K16">
-        <v>403.33</v>
       </c>
       <c r="L16">
         <v>414.02</v>
@@ -1798,7 +1817,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35</v>
+        <v>283.35000000000002</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1810,7 +1829,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72</v>
+        <v>261.72000000000003</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1837,8 +1856,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1851,7 +1870,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.15</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1866,10 +1885,10 @@
         <v>385.4</v>
       </c>
       <c r="J17">
+        <v>411.82</v>
+      </c>
+      <c r="K17">
         <v>418.87</v>
-      </c>
-      <c r="K17">
-        <v>411.82</v>
       </c>
       <c r="L17">
         <v>425.81</v>
@@ -1896,7 +1915,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1923,8 +1942,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1952,10 +1971,10 @@
         <v>384.6</v>
       </c>
       <c r="J18">
+        <v>389.9</v>
+      </c>
+      <c r="K18">
         <v>414.65</v>
-      </c>
-      <c r="K18">
-        <v>389.9</v>
       </c>
       <c r="L18">
         <v>433.07</v>
@@ -1982,10 +2001,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97</v>
+        <v>268.97000000000003</v>
       </c>
       <c r="U18">
-        <v>638.6799999999999</v>
+        <v>638.67999999999995</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2009,8 +2028,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2038,10 +2057,10 @@
         <v>390.19</v>
       </c>
       <c r="J19">
+        <v>389.97</v>
+      </c>
+      <c r="K19">
         <v>425.36</v>
-      </c>
-      <c r="K19">
-        <v>389.97</v>
       </c>
       <c r="L19">
         <v>450.74</v>
@@ -2068,7 +2087,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.03</v>
+        <v>272.02999999999997</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2095,8 +2114,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2124,10 +2143,10 @@
         <v>413.51</v>
       </c>
       <c r="J20">
+        <v>458.25</v>
+      </c>
+      <c r="K20">
         <v>471.21</v>
-      </c>
-      <c r="K20">
-        <v>458.25</v>
       </c>
       <c r="L20">
         <v>482.29</v>
@@ -2154,10 +2173,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.53</v>
+        <v>277.52999999999997</v>
       </c>
       <c r="U20">
-        <v>652.0700000000001</v>
+        <v>652.07000000000005</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2166,7 +2185,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.92</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2181,15 +2200,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2210,10 +2229,10 @@
         <v>412.35</v>
       </c>
       <c r="J21">
+        <v>443.96</v>
+      </c>
+      <c r="K21">
         <v>463.66</v>
-      </c>
-      <c r="K21">
-        <v>443.96</v>
       </c>
       <c r="L21">
         <v>479.07</v>
@@ -2228,7 +2247,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47</v>
+        <v>309.47000000000003</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2240,7 +2259,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.09</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2258,7 +2277,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.98</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2267,8 +2286,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2278,7 +2297,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.09</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2296,10 +2315,10 @@
         <v>412.61</v>
       </c>
       <c r="J22">
+        <v>416.81</v>
+      </c>
+      <c r="K22">
         <v>454.83</v>
-      </c>
-      <c r="K22">
-        <v>416.81</v>
       </c>
       <c r="L22">
         <v>482.09</v>
@@ -2317,7 +2336,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.28</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2338,7 +2357,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58</v>
+        <v>539.58000000000004</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2353,8 +2372,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2382,10 +2401,10 @@
         <v>439.01</v>
       </c>
       <c r="J23">
+        <v>472.43</v>
+      </c>
+      <c r="K23">
         <v>483.86</v>
-      </c>
-      <c r="K23">
-        <v>472.43</v>
       </c>
       <c r="L23">
         <v>494.01</v>
@@ -2403,16 +2422,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.65</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.21</v>
+        <v>287.20999999999998</v>
       </c>
       <c r="T23">
-        <v>325.53</v>
+        <v>325.52999999999997</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2424,7 +2443,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.3</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2439,8 +2458,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2468,10 +2487,10 @@
         <v>453.16</v>
       </c>
       <c r="J24">
+        <v>492.48</v>
+      </c>
+      <c r="K24">
         <v>497.92</v>
-      </c>
-      <c r="K24">
-        <v>492.48</v>
       </c>
       <c r="L24">
         <v>504.26</v>
@@ -2489,7 +2508,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.15</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2525,8 +2544,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2554,10 +2573,10 @@
         <v>449.8</v>
       </c>
       <c r="J25">
+        <v>467.24</v>
+      </c>
+      <c r="K25">
         <v>488.22</v>
-      </c>
-      <c r="K25">
-        <v>467.24</v>
       </c>
       <c r="L25">
         <v>504.61</v>
@@ -2611,8 +2630,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2640,10 +2659,10 @@
         <v>454.64</v>
       </c>
       <c r="J26">
+        <v>488.04</v>
+      </c>
+      <c r="K26">
         <v>498.86</v>
-      </c>
-      <c r="K26">
-        <v>488.04</v>
       </c>
       <c r="L26">
         <v>508.71</v>
@@ -2682,7 +2701,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.0700000000001</v>
+        <v>578.07000000000005</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2697,8 +2716,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2726,13 +2745,13 @@
         <v>483.87</v>
       </c>
       <c r="J27">
+        <v>633.04</v>
+      </c>
+      <c r="K27">
         <v>560.37</v>
       </c>
-      <c r="K27">
-        <v>633.04</v>
-      </c>
       <c r="L27">
-        <v>520.08</v>
+        <v>520.08000000000004</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2747,7 +2766,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97</v>
+        <v>280.97000000000003</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2783,8 +2802,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2812,10 +2831,10 @@
         <v>488.24</v>
       </c>
       <c r="J28">
+        <v>644.29999999999995</v>
+      </c>
+      <c r="K28">
         <v>567.98</v>
-      </c>
-      <c r="K28">
-        <v>644.3</v>
       </c>
       <c r="L28">
         <v>525.53</v>
@@ -2869,8 +2888,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2898,10 +2917,10 @@
         <v>500.14</v>
       </c>
       <c r="J29">
-        <v>593.5599999999999</v>
+        <v>702.92</v>
       </c>
       <c r="K29">
-        <v>702.92</v>
+        <v>593.55999999999995</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2919,7 +2938,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85</v>
+        <v>277.85000000000002</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2940,7 +2959,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.3099999999999</v>
+        <v>593.30999999999995</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2955,8 +2974,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -2984,13 +3003,13 @@
         <v>507.12</v>
       </c>
       <c r="J30">
+        <v>677.11</v>
+      </c>
+      <c r="K30">
         <v>604.12</v>
       </c>
-      <c r="K30">
-        <v>677.11</v>
-      </c>
       <c r="L30">
-        <v>563.92</v>
+        <v>563.91999999999996</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3005,7 +3024,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.21</v>
+        <v>284.20999999999998</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3041,8 +3060,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3070,13 +3089,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
+        <v>575.67999999999995</v>
+      </c>
+      <c r="K31">
         <v>575.66</v>
       </c>
-      <c r="K31">
-        <v>575.6799999999999</v>
-      </c>
       <c r="L31">
-        <v>579.45</v>
+        <v>579.45000000000005</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3091,13 +3110,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41</v>
+        <v>288.41000000000003</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.1</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3127,8 +3146,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3156,10 +3175,10 @@
         <v>492.9</v>
       </c>
       <c r="J32">
+        <v>510.87</v>
+      </c>
+      <c r="K32">
         <v>543.34</v>
-      </c>
-      <c r="K32">
-        <v>510.87</v>
       </c>
       <c r="L32">
         <v>566.6</v>
@@ -3213,8 +3232,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3242,13 +3261,13 @@
         <v>487.44</v>
       </c>
       <c r="J33">
+        <v>463.06</v>
+      </c>
+      <c r="K33">
         <v>521.02</v>
       </c>
-      <c r="K33">
-        <v>463.06</v>
-      </c>
       <c r="L33">
-        <v>559.5599999999999</v>
+        <v>559.55999999999995</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3263,7 +3282,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3299,8 +3318,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3328,10 +3347,10 @@
         <v>483.68</v>
       </c>
       <c r="J34">
+        <v>455.47</v>
+      </c>
+      <c r="K34">
         <v>508.93</v>
-      </c>
-      <c r="K34">
-        <v>455.47</v>
       </c>
       <c r="L34">
         <v>544.66</v>
@@ -3349,7 +3368,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3385,8 +3404,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3414,10 +3433,10 @@
         <v>480.79</v>
       </c>
       <c r="J35">
+        <v>447.46</v>
+      </c>
+      <c r="K35">
         <v>498.59</v>
-      </c>
-      <c r="K35">
-        <v>447.46</v>
       </c>
       <c r="L35">
         <v>532.84</v>
@@ -3447,13 +3466,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.5700000000001</v>
+        <v>942.57</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.8</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3471,8 +3490,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3500,10 +3519,10 @@
         <v>488.73</v>
       </c>
       <c r="J36">
+        <v>490.23</v>
+      </c>
+      <c r="K36">
         <v>512.65</v>
-      </c>
-      <c r="K36">
-        <v>490.23</v>
       </c>
       <c r="L36">
         <v>529.61</v>
@@ -3521,10 +3540,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="R36">
-        <v>261.59</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3533,7 +3552,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.3200000000001</v>
+        <v>943.32</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3557,8 +3576,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3586,13 +3605,13 @@
         <v>489.8</v>
       </c>
       <c r="J37">
+        <v>473.63</v>
+      </c>
+      <c r="K37">
         <v>509.17</v>
       </c>
-      <c r="K37">
-        <v>473.63</v>
-      </c>
       <c r="L37">
-        <v>534.0599999999999</v>
+        <v>534.05999999999995</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3610,10 +3629,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="S37">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3643,8 +3662,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3672,10 +3691,10 @@
         <v>504.14</v>
       </c>
       <c r="J38">
-        <v>529.3099999999999</v>
+        <v>502.4</v>
       </c>
       <c r="K38">
-        <v>502.4</v>
+        <v>529.30999999999995</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3714,7 +3733,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.1799999999999</v>
+        <v>654.17999999999995</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3729,8 +3748,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3758,13 +3777,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>572.8099999999999</v>
+        <v>604.20000000000005</v>
       </c>
       <c r="K39">
-        <v>604.2</v>
+        <v>572.80999999999995</v>
       </c>
       <c r="L39">
-        <v>559.9299999999999</v>
+        <v>559.92999999999995</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3791,7 +3810,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.4400000000001</v>
+        <v>954.44</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3815,8 +3834,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3844,10 +3863,10 @@
         <v>539.88</v>
       </c>
       <c r="J40">
+        <v>645.48</v>
+      </c>
+      <c r="K40">
         <v>594.85</v>
-      </c>
-      <c r="K40">
-        <v>645.48</v>
       </c>
       <c r="L40">
         <v>571.25</v>
@@ -3877,7 +3896,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.8099999999999</v>
+        <v>952.81</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3886,7 +3905,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.6900000000001</v>
+        <v>668.69</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3901,8 +3920,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3927,16 +3946,16 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.42</v>
+        <v>550.41999999999996</v>
       </c>
       <c r="J41">
+        <v>656.84</v>
+      </c>
+      <c r="K41">
         <v>613.34</v>
       </c>
-      <c r="K41">
-        <v>656.84</v>
-      </c>
       <c r="L41">
-        <v>593.9299999999999</v>
+        <v>593.92999999999995</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3969,7 +3988,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.6900000000001</v>
+        <v>538.69000000000005</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -3987,8 +4006,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4013,16 +4032,16 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.3200000000001</v>
+        <v>564.32000000000005</v>
       </c>
       <c r="J42">
+        <v>662.83</v>
+      </c>
+      <c r="K42">
         <v>635.72</v>
       </c>
-      <c r="K42">
-        <v>662.83</v>
-      </c>
       <c r="L42">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4055,10 +4074,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.9400000000001</v>
+        <v>540.94000000000005</v>
       </c>
       <c r="X42">
-        <v>675.3200000000001</v>
+        <v>675.32</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4073,8 +4092,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4099,13 +4118,13 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.6799999999999</v>
+        <v>565.67999999999995</v>
       </c>
       <c r="J43">
+        <v>641.12</v>
+      </c>
+      <c r="K43">
         <v>634.01</v>
-      </c>
-      <c r="K43">
-        <v>641.12</v>
       </c>
       <c r="L43">
         <v>635.41</v>
@@ -4114,7 +4133,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.5599999999999</v>
+        <v>538.55999999999995</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4129,7 +4148,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.78</v>
+        <v>294.77999999999997</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4144,7 +4163,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.4299999999999</v>
+        <v>676.43</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4159,8 +4178,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4188,10 +4207,10 @@
         <v>556.61</v>
       </c>
       <c r="J44">
+        <v>593.05999999999995</v>
+      </c>
+      <c r="K44">
         <v>610.1</v>
-      </c>
-      <c r="K44">
-        <v>593.0599999999999</v>
       </c>
       <c r="L44">
         <v>624.98</v>
@@ -4215,7 +4234,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.28</v>
+        <v>303.27999999999997</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4245,8 +4264,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4274,10 +4293,10 @@
         <v>549.48</v>
       </c>
       <c r="J45">
-        <v>593.2</v>
+        <v>545.16</v>
       </c>
       <c r="K45">
-        <v>545.16</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4313,7 +4332,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.9400000000001</v>
+        <v>551.94000000000005</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4331,8 +4350,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4360,10 +4379,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>587.08</v>
+        <v>539.79999999999995</v>
       </c>
       <c r="K46">
-        <v>539.8</v>
+        <v>587.08000000000004</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4372,7 +4391,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95</v>
+        <v>552.95000000000005</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4393,7 +4412,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.62</v>
+        <v>1063.6199999999999</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4417,8 +4436,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4446,13 +4465,13 @@
         <v>552.66</v>
       </c>
       <c r="J47">
-        <v>585.7</v>
+        <v>550.48</v>
       </c>
       <c r="K47">
-        <v>550.48</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="L47">
-        <v>610.6799999999999</v>
+        <v>610.67999999999995</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4503,8 +4522,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4532,16 +4551,16 @@
         <v>569.4</v>
       </c>
       <c r="J48">
-        <v>608.95</v>
+        <v>592</v>
       </c>
       <c r="K48">
-        <v>592</v>
+        <v>608.95000000000005</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.2</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4571,7 +4590,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4589,12 +4608,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4615,16 +4634,16 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.0700000000001</v>
+        <v>593.07000000000005</v>
       </c>
       <c r="J49">
+        <v>642.79</v>
+      </c>
+      <c r="K49">
         <v>646.77</v>
       </c>
-      <c r="K49">
-        <v>642.79</v>
-      </c>
       <c r="L49">
-        <v>654.5599999999999</v>
+        <v>654.55999999999995</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4675,12 +4694,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.0599999999999</v>
+        <v>524.05999999999995</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4701,13 +4720,13 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.0599999999999</v>
+        <v>608.05999999999995</v>
       </c>
       <c r="J50">
+        <v>672.81</v>
+      </c>
+      <c r="K50">
         <v>668.72</v>
-      </c>
-      <c r="K50">
-        <v>672.8099999999999</v>
       </c>
       <c r="L50">
         <v>672.12</v>
@@ -4716,7 +4735,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58</v>
+        <v>607.58000000000004</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4761,8 +4780,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4781,7 +4800,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.17</v>
+        <v>519.16999999999996</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4790,16 +4809,16 @@
         <v>623.16</v>
       </c>
       <c r="J51">
+        <v>665.95</v>
+      </c>
+      <c r="K51">
         <v>676.38</v>
-      </c>
-      <c r="K51">
-        <v>665.95</v>
       </c>
       <c r="L51">
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.1799999999999</v>
+        <v>573.17999999999995</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4829,7 +4848,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.1900000000001</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4844,15 +4863,15 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="2">
+        <v>513.29999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.9299999999999</v>
+        <v>539.92999999999995</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4864,7 +4883,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.0700000000001</v>
+        <v>512.07000000000005</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4873,25 +4892,25 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.2</v>
+        <v>639.20000000000005</v>
       </c>
       <c r="J52">
+        <v>700.64</v>
+      </c>
+      <c r="K52">
         <v>696.03</v>
-      </c>
-      <c r="K52">
-        <v>700.64</v>
       </c>
       <c r="L52">
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.1799999999999</v>
+        <v>586.17999999999995</v>
       </c>
       <c r="N52">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="O52">
-        <v>560.6900000000001</v>
+        <v>560.69000000000005</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4915,7 +4934,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4927,14 +4946,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.7</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4950,7 +4969,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83</v>
+        <v>517.83000000000004</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4962,10 +4981,10 @@
         <v>646.41</v>
       </c>
       <c r="J53">
+        <v>703.05</v>
+      </c>
+      <c r="K53">
         <v>705.21</v>
-      </c>
-      <c r="K53">
-        <v>703.05</v>
       </c>
       <c r="L53">
         <v>712.48</v>
@@ -4974,7 +4993,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.3099999999999</v>
+        <v>633.30999999999995</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -4995,13 +5014,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4</v>
+        <v>1064.4000000000001</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.4400000000001</v>
+        <v>588.44000000000005</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5019,8 +5038,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5036,7 +5055,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.6799999999999</v>
+        <v>527.67999999999995</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5048,10 +5067,10 @@
         <v>660.16</v>
       </c>
       <c r="J54">
+        <v>752.99</v>
+      </c>
+      <c r="K54">
         <v>728.96</v>
-      </c>
-      <c r="K54">
-        <v>752.99</v>
       </c>
       <c r="L54">
         <v>721.53</v>
@@ -5072,7 +5091,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.46</v>
+        <v>271.45999999999998</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5087,7 +5106,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.9299999999999</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5102,11 +5121,11 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.3200000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="2">
+        <v>532.32000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5134,22 +5153,22 @@
         <v>662.08</v>
       </c>
       <c r="J55">
+        <v>704.99</v>
+      </c>
+      <c r="K55">
         <v>726.66</v>
-      </c>
-      <c r="K55">
-        <v>704.99</v>
       </c>
       <c r="L55">
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.6900000000001</v>
+        <v>602.69000000000005</v>
       </c>
       <c r="N55">
-        <v>644.08</v>
+        <v>644.08000000000004</v>
       </c>
       <c r="O55">
-        <v>576.17</v>
+        <v>576.16999999999996</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5167,13 +5186,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.12</v>
+        <v>1095.1199999999999</v>
       </c>
       <c r="V55">
-        <v>523.95</v>
+        <v>523.95000000000005</v>
       </c>
       <c r="W55">
-        <v>596.17</v>
+        <v>596.16999999999996</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5188,11 +5207,11 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="2">
+        <v>537.04999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5208,10 +5227,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.9400000000001</v>
+        <v>544.94000000000005</v>
       </c>
       <c r="G56">
-        <v>554.4400000000001</v>
+        <v>554.44000000000005</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5220,10 +5239,10 @@
         <v>667.88</v>
       </c>
       <c r="J56">
-        <v>724.1799999999999</v>
+        <v>651.91</v>
       </c>
       <c r="K56">
-        <v>651.91</v>
+        <v>724.18</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5232,7 +5251,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.9299999999999</v>
+        <v>653.92999999999995</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5244,7 +5263,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5271,14 +5290,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.1799999999999</v>
+        <v>551.17999999999995</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5297,19 +5316,19 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.42</v>
+        <v>565.41999999999996</v>
       </c>
       <c r="H57">
-        <v>535.4400000000001</v>
+        <v>535.44000000000005</v>
       </c>
       <c r="I57">
         <v>686.41</v>
       </c>
       <c r="J57">
-        <v>745.8200000000001</v>
+        <v>688.35</v>
       </c>
       <c r="K57">
-        <v>688.35</v>
+        <v>745.82</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5318,7 +5337,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.0599999999999</v>
+        <v>673.06</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5330,7 +5349,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5342,10 +5361,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.2</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="W57">
-        <v>606.6799999999999</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5363,12 +5382,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.92</v>
+        <v>587.91999999999996</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5377,34 +5396,34 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.67</v>
+        <v>520.66999999999996</v>
       </c>
       <c r="F58">
-        <v>559.6900000000001</v>
+        <v>559.69000000000005</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.8200000000001</v>
+        <v>538.82000000000005</v>
       </c>
       <c r="I58">
         <v>708.25</v>
       </c>
       <c r="J58">
-        <v>777.5599999999999</v>
+        <v>757.76</v>
       </c>
       <c r="K58">
-        <v>757.76</v>
+        <v>777.56</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.55</v>
+        <v>644.54999999999995</v>
       </c>
       <c r="N58">
-        <v>685.1799999999999</v>
+        <v>685.18</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5449,12 +5468,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5472,28 +5491,28 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.7</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="I59">
         <v>711.76</v>
       </c>
       <c r="J59">
+        <v>734.39</v>
+      </c>
+      <c r="K59">
         <v>773.47</v>
       </c>
-      <c r="K59">
-        <v>734.39</v>
-      </c>
       <c r="L59">
-        <v>802.3200000000001</v>
+        <v>802.32</v>
       </c>
       <c r="M59">
-        <v>653.95</v>
+        <v>653.95000000000005</v>
       </c>
       <c r="N59">
-        <v>702.5599999999999</v>
+        <v>702.56</v>
       </c>
       <c r="O59">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5502,7 +5521,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.34</v>
+        <v>267.33999999999997</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5511,7 +5530,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.87</v>
+        <v>1094.8699999999999</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5523,7 +5542,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.92</v>
+        <v>573.91999999999996</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5535,15 +5554,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.7</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="C60">
-        <v>512.92</v>
+        <v>512.91999999999996</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5555,7 +5574,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.5599999999999</v>
+        <v>594.55999999999995</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5564,10 +5583,10 @@
         <v>725.45</v>
       </c>
       <c r="J60">
+        <v>749.76</v>
+      </c>
+      <c r="K60">
         <v>786.77</v>
-      </c>
-      <c r="K60">
-        <v>749.76</v>
       </c>
       <c r="L60">
         <v>814.55</v>
@@ -5588,7 +5607,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79</v>
+        <v>287.79000000000002</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5618,18 +5637,18 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.3200000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="2">
+        <v>584.32000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.4400000000001</v>
+        <v>529.44000000000005</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5641,19 +5660,19 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.92</v>
+        <v>618.91999999999996</v>
       </c>
       <c r="H61">
-        <v>610.1799999999999</v>
+        <v>610.17999999999995</v>
       </c>
       <c r="I61">
         <v>753.88</v>
       </c>
       <c r="J61">
+        <v>735.45</v>
+      </c>
+      <c r="K61">
         <v>809.86</v>
-      </c>
-      <c r="K61">
-        <v>735.45</v>
       </c>
       <c r="L61">
         <v>859.11</v>
@@ -5665,22 +5684,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.5599999999999</v>
+        <v>655.56</v>
       </c>
       <c r="P61">
-        <v>522.8200000000001</v>
+        <v>522.82000000000005</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58</v>
+        <v>517.58000000000004</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5707,12 +5726,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.4400000000001</v>
+        <v>723.44</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5724,22 +5743,22 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.9400000000001</v>
+        <v>695.94</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.6799999999999</v>
+        <v>669.68</v>
       </c>
       <c r="I62">
         <v>874.42</v>
       </c>
       <c r="J62">
+        <v>793.51</v>
+      </c>
+      <c r="K62">
         <v>935.05</v>
-      </c>
-      <c r="K62">
-        <v>793.51</v>
       </c>
       <c r="L62">
         <v>1023.57</v>
@@ -5754,7 +5773,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.5700000000001</v>
+        <v>624.57000000000005</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5763,22 +5782,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33</v>
+        <v>549.33000000000004</v>
       </c>
       <c r="T62">
-        <v>586.8099999999999</v>
+        <v>586.80999999999995</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.4400000000001</v>
+        <v>603.44000000000005</v>
       </c>
       <c r="W62">
-        <v>643.0700000000001</v>
+        <v>643.07000000000005</v>
       </c>
       <c r="X62">
-        <v>1038.39</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5793,15 +5812,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.2</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5822,16 +5841,16 @@
         <v>969.71</v>
       </c>
       <c r="J63">
+        <v>958.73</v>
+      </c>
+      <c r="K63">
         <v>1048.25</v>
-      </c>
-      <c r="K63">
-        <v>958.73</v>
       </c>
       <c r="L63">
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.3200000000001</v>
+        <v>895.32</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5840,13 +5859,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.4299999999999</v>
+        <v>673.43</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85</v>
+        <v>312.85000000000002</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5858,13 +5877,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08</v>
+        <v>651.08000000000004</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.11</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5873,14 +5892,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.1900000000001</v>
+        <v>677.19</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
-      <c r="A64" s="2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5890,16 +5909,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.3</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.5700000000001</v>
+        <v>799.57</v>
       </c>
       <c r="G64">
-        <v>851.0599999999999</v>
+        <v>851.06</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5908,10 +5927,10 @@
         <v>1051.29</v>
       </c>
       <c r="J64">
+        <v>1267.05</v>
+      </c>
+      <c r="K64">
         <v>1182.77</v>
-      </c>
-      <c r="K64">
-        <v>1267.05</v>
       </c>
       <c r="L64">
         <v>1132.28</v>
@@ -5920,7 +5939,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.11</v>
+        <v>1055.1099999999999</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5962,18 +5981,18 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.9299999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65" s="2">
+        <v>799.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.0599999999999</v>
+        <v>887.06</v>
       </c>
       <c r="C65">
-        <v>701.8200000000001</v>
+        <v>701.82</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -5988,16 +6007,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.0700000000001</v>
+        <v>985.07</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1251.9</v>
+        <v>1275.8499999999999</v>
       </c>
       <c r="K65">
-        <v>1275.85</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6012,10 +6031,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.4299999999999</v>
+        <v>728.43</v>
       </c>
       <c r="Q65">
-        <v>584.45</v>
+        <v>584.45000000000005</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6051,8 +6070,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
-      <c r="A66" s="2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6062,7 +6081,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.1900000000001</v>
+        <v>680.19</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6080,10 +6099,10 @@
         <v>1248.33</v>
       </c>
       <c r="J66">
+        <v>1541.91</v>
+      </c>
+      <c r="K66">
         <v>1462.78</v>
-      </c>
-      <c r="K66">
-        <v>1541.91</v>
       </c>
       <c r="L66">
         <v>1415.84</v>
@@ -6116,7 +6135,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.3099999999999</v>
+        <v>736.31</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6131,14 +6150,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.3099999999999</v>
+        <v>741.31</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
-      <c r="A67" s="2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6151,7 +6170,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.0599999999999</v>
+        <v>846.06</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6166,10 +6185,10 @@
         <v>1268.74</v>
       </c>
       <c r="J67">
+        <v>1370.81</v>
+      </c>
+      <c r="K67">
         <v>1435.97</v>
-      </c>
-      <c r="K67">
-        <v>1370.81</v>
       </c>
       <c r="L67">
         <v>1478.01</v>
@@ -6181,7 +6200,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.16</v>
+        <v>1057.1600000000001</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6223,8 +6242,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6243,7 +6262,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.11</v>
+        <v>1053.1099999999999</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6252,10 +6271,10 @@
         <v>1295.25</v>
       </c>
       <c r="J68">
+        <v>1162.49</v>
+      </c>
+      <c r="K68">
         <v>1387.88</v>
-      </c>
-      <c r="K68">
-        <v>1162.49</v>
       </c>
       <c r="L68">
         <v>1528.72</v>
@@ -6264,7 +6283,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.86</v>
+        <v>1288.8599999999999</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6303,27 +6322,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.3200000000001</v>
+        <v>787.32</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
-      <c r="A69" s="2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.6900000000001</v>
+        <v>829.69</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.4400000000001</v>
+        <v>919.44</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6332,16 +6351,16 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.6</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
       </c>
       <c r="J69">
+        <v>1220.08</v>
+      </c>
+      <c r="K69">
         <v>1424.55</v>
-      </c>
-      <c r="K69">
-        <v>1220.08</v>
       </c>
       <c r="L69">
         <v>1552.52</v>
@@ -6365,7 +6384,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.1900000000001</v>
+        <v>733.19</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6383,7 +6402,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.64</v>
+        <v>1060.6400000000001</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6395,8 +6414,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
-      <c r="A70" s="2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6424,10 +6443,10 @@
         <v>1347.48</v>
       </c>
       <c r="J70">
+        <v>1143.05</v>
+      </c>
+      <c r="K70">
         <v>1395.81</v>
-      </c>
-      <c r="K70">
-        <v>1143.05</v>
       </c>
       <c r="L70">
         <v>1553.54</v>
@@ -6469,7 +6488,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.34</v>
+        <v>1062.3399999999999</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6481,15 +6500,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
-      <c r="A71" s="2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.61</v>
+        <v>1120.6099999999999</v>
       </c>
       <c r="C71">
-        <v>879.4299999999999</v>
+        <v>879.43</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6510,10 +6529,10 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
+        <v>1165.6099999999999</v>
+      </c>
+      <c r="K71">
         <v>1410.76</v>
-      </c>
-      <c r="K71">
-        <v>1165.61</v>
       </c>
       <c r="L71">
         <v>1563.8</v>
@@ -6531,7 +6550,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.4400000000001</v>
+        <v>703.44</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6540,7 +6559,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.6900000000001</v>
+        <v>893.69</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6564,18 +6583,18 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
-      <c r="A72" s="2">
+        <v>1046.8900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.39</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="C72">
-        <v>907.9400000000001</v>
+        <v>907.94</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6596,10 +6615,10 @@
         <v>1443.99</v>
       </c>
       <c r="J72">
+        <v>1332.71</v>
+      </c>
+      <c r="K72">
         <v>1512.45</v>
-      </c>
-      <c r="K72">
-        <v>1332.71</v>
       </c>
       <c r="L72">
         <v>1625.28</v>
@@ -6611,7 +6630,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.12</v>
+        <v>1298.1199999999999</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6629,19 +6648,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.82</v>
+        <v>2082.8200000000002</v>
       </c>
       <c r="V72">
-        <v>901.5700000000001</v>
+        <v>901.57</v>
       </c>
       <c r="W72">
-        <v>887.8200000000001</v>
+        <v>887.82</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.61</v>
+        <v>1158.6099999999999</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6653,8 +6672,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6670,10 +6689,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.62</v>
+        <v>1103.6199999999999</v>
       </c>
       <c r="G73">
-        <v>1194.6</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6682,10 +6701,10 @@
         <v>1526.98</v>
       </c>
       <c r="J73">
+        <v>1465.19</v>
+      </c>
+      <c r="K73">
         <v>1597.34</v>
-      </c>
-      <c r="K73">
-        <v>1465.19</v>
       </c>
       <c r="L73">
         <v>1680.91</v>
@@ -6700,10 +6719,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.0599999999999</v>
+        <v>924.06</v>
       </c>
       <c r="Q73">
-        <v>741.5599999999999</v>
+        <v>741.56</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6739,8 +6758,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6753,10 +6772,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.1</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="F74">
-        <v>1113.64</v>
+        <v>1113.6400000000001</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6768,10 +6787,10 @@
         <v>1555.31</v>
       </c>
       <c r="J74">
+        <v>1416.77</v>
+      </c>
+      <c r="K74">
         <v>1620.01</v>
-      </c>
-      <c r="K74">
-        <v>1416.77</v>
       </c>
       <c r="L74">
         <v>1747.47</v>
@@ -6786,7 +6805,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.6900000000001</v>
+        <v>939.69</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6804,7 +6823,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.3099999999999</v>
+        <v>938.31</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6825,8 +6844,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6845,7 +6864,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.11</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6854,10 +6873,10 @@
         <v>1658.23</v>
       </c>
       <c r="J75">
+        <v>1507.36</v>
+      </c>
+      <c r="K75">
         <v>1769.45</v>
-      </c>
-      <c r="K75">
-        <v>1507.36</v>
       </c>
       <c r="L75">
         <v>1939.75</v>
@@ -6911,8 +6930,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
-      <c r="A76" s="2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6928,7 +6947,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.13</v>
+        <v>1232.1300000000001</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6940,10 +6959,10 @@
         <v>1780.2</v>
       </c>
       <c r="J76">
+        <v>1779.36</v>
+      </c>
+      <c r="K76">
         <v>1964.94</v>
-      </c>
-      <c r="K76">
-        <v>1779.36</v>
       </c>
       <c r="L76">
         <v>2072.31</v>
@@ -6970,19 +6989,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.13</v>
+        <v>1024.1300000000001</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.66</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.51</v>
+        <v>2052.5100000000002</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -6997,8 +7016,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7008,13 +7027,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.8099999999999</v>
+        <v>958.81</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.09</v>
+        <v>1263.0899999999999</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7026,10 +7045,10 @@
         <v>1848.51</v>
       </c>
       <c r="J77">
+        <v>1731.53</v>
+      </c>
+      <c r="K77">
         <v>2077.39</v>
-      </c>
-      <c r="K77">
-        <v>1731.53</v>
       </c>
       <c r="L77">
         <v>2306.89</v>
@@ -7059,7 +7078,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.28</v>
+        <v>2392.2800000000002</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7068,7 +7087,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.51</v>
+        <v>2131.5100000000002</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7083,18 +7102,18 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
-      <c r="A78" s="2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.85</v>
+        <v>1096.8499999999999</v>
       </c>
       <c r="D78">
-        <v>989.5700000000001</v>
+        <v>989.57</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7112,10 +7131,10 @@
         <v>1921.46</v>
       </c>
       <c r="J78">
+        <v>1789</v>
+      </c>
+      <c r="K78">
         <v>2233.64</v>
-      </c>
-      <c r="K78">
-        <v>1789</v>
       </c>
       <c r="L78">
         <v>2536.79</v>
@@ -7145,7 +7164,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8</v>
+        <v>2410.8000000000002</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7169,18 +7188,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
-      <c r="A79" s="2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.39</v>
+        <v>1136.3900000000001</v>
       </c>
       <c r="D79">
-        <v>1031.64</v>
+        <v>1031.6400000000001</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7198,10 +7217,10 @@
         <v>1935.1</v>
       </c>
       <c r="J79">
+        <v>1700.23</v>
+      </c>
+      <c r="K79">
         <v>2240.19</v>
-      </c>
-      <c r="K79">
-        <v>1700.23</v>
       </c>
       <c r="L79">
         <v>2617.08</v>
@@ -7216,7 +7235,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.13</v>
+        <v>1057.1300000000001</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7228,19 +7247,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.35</v>
+        <v>1072.3499999999999</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.66</v>
+        <v>1221.6600000000001</v>
       </c>
       <c r="W79">
-        <v>1226.59</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="X79">
-        <v>2379.55</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7249,14 +7268,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.86</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="AB79">
-        <v>1300.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
-      <c r="A80" s="2">
+        <v>1300.5999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7278,16 +7297,16 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.88</v>
+        <v>1057.8800000000001</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
       </c>
       <c r="J80">
+        <v>1830.77</v>
+      </c>
+      <c r="K80">
         <v>2337.69</v>
-      </c>
-      <c r="K80">
-        <v>1830.77</v>
       </c>
       <c r="L80">
         <v>2687.19</v>
@@ -7305,7 +7324,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.5599999999999</v>
+        <v>884.56</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7320,7 +7339,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.36</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7335,21 +7354,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.41</v>
+        <v>1239.4100000000001</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
-      <c r="A81" s="2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4</v>
+        <v>1280.4000000000001</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7370,10 +7389,10 @@
         <v>2147.27</v>
       </c>
       <c r="J81">
+        <v>2153.86</v>
+      </c>
+      <c r="K81">
         <v>2560.1</v>
-      </c>
-      <c r="K81">
-        <v>2153.86</v>
       </c>
       <c r="L81">
         <v>2827.44</v>
@@ -7388,7 +7407,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.65</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7397,7 +7416,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.1</v>
+        <v>1138.0999999999999</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7427,8 +7446,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
-      <c r="A82" s="2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7456,10 +7475,10 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
+        <v>2354.4299999999998</v>
+      </c>
+      <c r="K82">
         <v>2702.83</v>
-      </c>
-      <c r="K82">
-        <v>2354.43</v>
       </c>
       <c r="L82">
         <v>2922.69</v>
@@ -7477,7 +7496,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.63</v>
+        <v>1050.6300000000001</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7486,7 +7505,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.65</v>
+        <v>1306.6500000000001</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7513,8 +7532,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
-      <c r="A83" s="2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7542,10 +7561,10 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
+        <v>2359.9499999999998</v>
+      </c>
+      <c r="K83">
         <v>2767.43</v>
-      </c>
-      <c r="K83">
-        <v>2359.95</v>
       </c>
       <c r="L83">
         <v>3031.89</v>
@@ -7563,7 +7582,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.87</v>
+        <v>1077.8699999999999</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7599,8 +7618,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
-      <c r="A84" s="2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7628,10 +7647,10 @@
         <v>2483.58</v>
       </c>
       <c r="J84">
+        <v>2368.84</v>
+      </c>
+      <c r="K84">
         <v>2879.72</v>
-      </c>
-      <c r="K84">
-        <v>2368.84</v>
       </c>
       <c r="L84">
         <v>3222.23</v>
@@ -7655,7 +7674,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.1</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7685,8 +7704,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
-      <c r="A85" s="2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7711,13 +7730,13 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.51</v>
+        <v>2552.5100000000002</v>
       </c>
       <c r="J85">
+        <v>2305.84</v>
+      </c>
+      <c r="K85">
         <v>2888.72</v>
-      </c>
-      <c r="K85">
-        <v>2305.84</v>
       </c>
       <c r="L85">
         <v>3286.86</v>
@@ -7771,8 +7790,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
-      <c r="A86" s="2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7800,10 +7819,10 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
+        <v>2568.4899999999998</v>
+      </c>
+      <c r="K86">
         <v>3097.87</v>
-      </c>
-      <c r="K86">
-        <v>2568.49</v>
       </c>
       <c r="L86">
         <v>3450.67</v>
@@ -7827,7 +7846,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.64</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7857,8 +7876,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
-      <c r="A87" s="2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7886,16 +7905,16 @@
         <v>2814.14</v>
       </c>
       <c r="J87">
+        <v>2764.97</v>
+      </c>
+      <c r="K87">
         <v>3315.05</v>
-      </c>
-      <c r="K87">
-        <v>2764.97</v>
       </c>
       <c r="L87">
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.28</v>
+        <v>2429.2800000000002</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7907,7 +7926,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7925,13 +7944,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.76</v>
+        <v>2198.7600000000002</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.82</v>
+        <v>2468.8200000000002</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7943,8 +7962,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
-      <c r="A88" s="2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -7972,10 +7991,10 @@
         <v>3046.31</v>
       </c>
       <c r="J88">
+        <v>3144.93</v>
+      </c>
+      <c r="K88">
         <v>3623.5</v>
-      </c>
-      <c r="K88">
-        <v>3144.93</v>
       </c>
       <c r="L88">
         <v>3918.56</v>
@@ -8023,14 +8042,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.18</v>
+        <v>2074.1799999999998</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
-      <c r="A89" s="2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8058,10 +8077,10 @@
         <v>3149.99</v>
       </c>
       <c r="J89">
+        <v>3162.98</v>
+      </c>
+      <c r="K89">
         <v>3825.3</v>
-      </c>
-      <c r="K89">
-        <v>3162.98</v>
       </c>
       <c r="L89">
         <v>4268.16</v>
@@ -8097,13 +8116,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.01</v>
+        <v>2503.0100000000002</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.07</v>
+        <v>2520.0700000000002</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8112,15 +8131,15 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
-      <c r="A90" s="2">
+        <v>2139.4699999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.47</v>
+        <v>2380.4699999999998</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8132,7 +8151,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.97</v>
+        <v>2277.9699999999998</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8144,10 +8163,10 @@
         <v>3237.61</v>
       </c>
       <c r="J90">
+        <v>3183.76</v>
+      </c>
+      <c r="K90">
         <v>3972.51</v>
-      </c>
-      <c r="K90">
-        <v>3183.76</v>
       </c>
       <c r="L90">
         <v>4516.83</v>
@@ -8168,7 +8187,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.4400000000001</v>
+        <v>578.44000000000005</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8180,7 +8199,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.78</v>
+        <v>2300.7800000000002</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8192,17 +8211,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95</v>
+        <v>520.95000000000005</v>
       </c>
       <c r="AA90">
-        <v>2218.43</v>
+        <v>2218.4299999999998</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
-      <c r="A91" s="2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8221,7 +8240,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.97</v>
+        <v>2220.9699999999998</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8230,10 +8249,10 @@
         <v>3292.35</v>
       </c>
       <c r="J91">
+        <v>3082.91</v>
+      </c>
+      <c r="K91">
         <v>3954.71</v>
-      </c>
-      <c r="K91">
-        <v>3082.91</v>
       </c>
       <c r="L91">
         <v>4568.99</v>
@@ -8263,7 +8282,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6</v>
+        <v>4477.6000000000004</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8287,8 +8306,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
-      <c r="A92" s="2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8307,7 +8326,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.26</v>
+        <v>2241.2600000000002</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8316,13 +8335,13 @@
         <v>3350.79</v>
       </c>
       <c r="J92">
+        <v>3269.89</v>
+      </c>
+      <c r="K92">
         <v>3985.77</v>
       </c>
-      <c r="K92">
-        <v>3269.89</v>
-      </c>
       <c r="L92">
-        <v>4468.77</v>
+        <v>4468.7700000000004</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8340,7 +8359,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.17</v>
+        <v>630.16999999999996</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8352,7 +8371,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.78</v>
+        <v>2472.7800000000002</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8367,18 +8386,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.18</v>
+        <v>2343.1799999999998</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
-      <c r="A93" s="2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.76</v>
+        <v>2588.7600000000002</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8402,10 +8421,10 @@
         <v>3412.26</v>
       </c>
       <c r="J93">
+        <v>3372.65</v>
+      </c>
+      <c r="K93">
         <v>4028.33</v>
-      </c>
-      <c r="K93">
-        <v>3372.65</v>
       </c>
       <c r="L93">
         <v>4459.75</v>
@@ -8426,7 +8445,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.9299999999999</v>
+        <v>612.92999999999995</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8450,24 +8469,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.4400000000001</v>
+        <v>585.44000000000005</v>
       </c>
       <c r="AA93">
-        <v>2423.43</v>
+        <v>2423.4299999999998</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
-      <c r="A94" s="2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.82</v>
+        <v>2111.8200000000002</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8476,22 +8495,22 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.57</v>
+        <v>2475.5700000000002</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.76</v>
+        <v>2294.7600000000002</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
       </c>
       <c r="J94">
+        <v>3035.54</v>
+      </c>
+      <c r="K94">
         <v>3831.22</v>
-      </c>
-      <c r="K94">
-        <v>3035.54</v>
       </c>
       <c r="L94">
         <v>4385.42</v>
@@ -8521,7 +8540,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.4</v>
+        <v>4937.3999999999996</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8539,14 +8558,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.24</v>
+        <v>2538.2399999999998</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
-      <c r="A95" s="2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8559,7 +8578,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.97</v>
+        <v>2288.9699999999998</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8568,16 +8587,16 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.82</v>
+        <v>2304.8200000000002</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
       </c>
       <c r="J95">
+        <v>3131.66</v>
+      </c>
+      <c r="K95">
         <v>3966.8</v>
-      </c>
-      <c r="K95">
-        <v>3131.66</v>
       </c>
       <c r="L95">
         <v>4550.08</v>
@@ -8607,7 +8626,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.48</v>
+        <v>5143.4799999999996</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8631,18 +8650,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
-      <c r="A96" s="2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.55</v>
+        <v>2238.5500000000002</v>
       </c>
       <c r="D96">
-        <v>2062.95</v>
+        <v>2062.9499999999998</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8651,7 +8670,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.24</v>
+        <v>2464.2399999999998</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8660,10 +8679,10 @@
         <v>3608.18</v>
       </c>
       <c r="J96">
-        <v>4234.64</v>
+        <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>3732.87</v>
+        <v>4234.6400000000003</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8717,15 +8736,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
-      <c r="A97" s="2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.05</v>
+        <v>2273.0500000000002</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8746,13 +8765,13 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
+        <v>4071.8145960000002</v>
+      </c>
+      <c r="K97">
         <v>4615.91</v>
       </c>
-      <c r="K97">
-        <v>4071.814596</v>
-      </c>
       <c r="L97">
-        <v>4737.104652000001</v>
+        <v>4737.1046520000009</v>
       </c>
       <c r="M97">
         <v>3174.54</v>
@@ -8779,7 +8798,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6</v>
+        <v>5151.6000000000004</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8788,7 +8807,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.77</v>
+        <v>5240.7700000000004</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8803,8 +8822,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
-      <c r="A98" s="2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8826,19 +8845,19 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.07</v>
+        <v>2370.0700000000002</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
       </c>
       <c r="J98">
+        <v>4369.0570615079996</v>
+      </c>
+      <c r="K98">
         <v>4655.76</v>
       </c>
-      <c r="K98">
-        <v>4369.057061508</v>
-      </c>
       <c r="L98">
-        <v>4875.4281078384</v>
+        <v>4875.4281078384001</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8889,8 +8908,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8900,7 +8919,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.95</v>
+        <v>2234.9499999999998</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8912,19 +8931,19 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.68</v>
+        <v>2514.6799999999998</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4779.39</v>
+        <v>4637.3171650845907</v>
       </c>
       <c r="K99">
-        <v>4637.317165084591</v>
+        <v>4779.3900000000003</v>
       </c>
       <c r="L99">
-        <v>5033.391978532364</v>
+        <v>5033.3919785323642</v>
       </c>
       <c r="M99">
         <v>3387.45</v>
@@ -8957,7 +8976,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.61</v>
+        <v>4411.6099999999997</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8975,98 +8994,98 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
-      <c r="A100" s="2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3162.905063917786</v>
+        <v>3162.9050639177858</v>
       </c>
       <c r="C100">
-        <v>2523.586585462722</v>
+        <v>2523.5865854627218</v>
       </c>
       <c r="D100">
-        <v>2321.407112222102</v>
+        <v>2321.4071122221021</v>
       </c>
       <c r="E100">
-        <v>2644.378662909916</v>
+        <v>2644.3786629099159</v>
       </c>
       <c r="F100">
-        <v>2953.993629386376</v>
+        <v>2953.9936293863761</v>
       </c>
       <c r="G100">
-        <v>2721.838067374441</v>
+        <v>2721.8380673744409</v>
       </c>
       <c r="H100">
         <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4122.540026670221</v>
+        <v>4122.5400266702209</v>
       </c>
       <c r="J100">
-        <v>4844.434154713425</v>
+        <v>4637.9536541860089</v>
       </c>
       <c r="K100">
-        <v>4483.675316729355</v>
+        <v>4844.4341547134254</v>
       </c>
       <c r="L100">
-        <v>5028.225592543442</v>
+        <v>5176.4541799289264</v>
       </c>
       <c r="M100">
-        <v>3544.16597438334</v>
+        <v>3544.1659743833402</v>
       </c>
       <c r="N100">
-        <v>4002.657054528997</v>
+        <v>4002.6570545289969</v>
       </c>
       <c r="O100">
-        <v>3295.663613502954</v>
+        <v>3295.6636135029539</v>
       </c>
       <c r="P100">
         <v>1965.443879395435</v>
       </c>
       <c r="Q100">
-        <v>1539.512042770942</v>
+        <v>1539.5120427709419</v>
       </c>
       <c r="R100">
-        <v>715.5492661177867</v>
+        <v>715.54926611778671</v>
       </c>
       <c r="S100">
         <v>1672.205337320531</v>
       </c>
       <c r="T100">
-        <v>2154.312539356603</v>
+        <v>2154.3125393566029</v>
       </c>
       <c r="U100">
-        <v>5610.598236550803</v>
+        <v>5610.5982365508034</v>
       </c>
       <c r="V100">
-        <v>3394.255784519918</v>
+        <v>3394.2557845199181</v>
       </c>
       <c r="W100">
-        <v>4597.814469172095</v>
+        <v>4597.8144691720954</v>
       </c>
       <c r="X100">
-        <v>5858.333937486344</v>
+        <v>5858.3339374863444</v>
       </c>
       <c r="Y100">
         <v>3929.726102149275</v>
       </c>
       <c r="Z100">
-        <v>628.7266307040052</v>
+        <v>628.72663070400517</v>
       </c>
       <c r="AA100">
         <v>3424.291280798479</v>
       </c>
       <c r="AB100">
-        <v>2927.719763573353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28">
-      <c r="A101" s="2">
+        <v>2927.7197635733528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3234.199551223964</v>
+        <v>3234.1995512239641</v>
       </c>
       <c r="C101">
         <v>2598.372408541502</v>
@@ -9075,70 +9094,70 @@
         <v>2394.510994931371</v>
       </c>
       <c r="E101">
-        <v>2711.5892141189</v>
+        <v>2711.5892141189001</v>
       </c>
       <c r="F101">
-        <v>3061.27057295317</v>
+        <v>3061.2705729531699</v>
       </c>
       <c r="G101">
-        <v>2813.197415999272</v>
+        <v>2813.1974159992719</v>
       </c>
       <c r="H101">
-        <v>2634.376692601853</v>
+        <v>2634.3766926018529</v>
       </c>
       <c r="I101">
-        <v>4316.144824872598</v>
+        <v>4316.1448248725983</v>
       </c>
       <c r="J101">
-        <v>5248.670022873612</v>
+        <v>5199.1692814410144</v>
       </c>
       <c r="K101">
-        <v>5026.22249225254</v>
+        <v>5248.6700228736117</v>
       </c>
       <c r="L101">
-        <v>5245.837212193305</v>
+        <v>5400.4808385196047</v>
       </c>
       <c r="M101">
         <v>3628.778833284297</v>
       </c>
       <c r="N101">
-        <v>4073.618171483043</v>
+        <v>4073.6181714830432</v>
       </c>
       <c r="O101">
-        <v>3378.832322339509</v>
+        <v>3378.8323223395091</v>
       </c>
       <c r="P101">
-        <v>2032.675388862467</v>
+        <v>2032.6753888624669</v>
       </c>
       <c r="Q101">
-        <v>1591.639609178182</v>
+        <v>1591.6396091781819</v>
       </c>
       <c r="R101">
-        <v>764.1872667862721</v>
+        <v>764.18726678627206</v>
       </c>
       <c r="S101">
-        <v>1692.042997106735</v>
+        <v>1692.0429971067349</v>
       </c>
       <c r="T101">
-        <v>2247.311220651962</v>
+        <v>2247.3112206519618</v>
       </c>
       <c r="U101">
-        <v>5912.211174213689</v>
+        <v>5912.2111742136894</v>
       </c>
       <c r="V101">
         <v>3490.860738228112</v>
       </c>
       <c r="W101">
-        <v>4766.144979163796</v>
+        <v>4766.1449791637961</v>
       </c>
       <c r="X101">
-        <v>5921.227319210251</v>
+        <v>5921.2273192102512</v>
       </c>
       <c r="Y101">
-        <v>4286.439304694653</v>
+        <v>4286.4393046946534</v>
       </c>
       <c r="Z101">
-        <v>614.3678601136994</v>
+        <v>614.36786011369941</v>
       </c>
       <c r="AA101">
         <v>3686.328800601575</v>
@@ -9147,12 +9166,12 @@
         <v>3022.268128506455</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
-      <c r="A102" s="2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3320.794712592249</v>
+        <v>3320.7947125922492</v>
       </c>
       <c r="C102">
         <v>2652.599659914084</v>
@@ -9161,76 +9180,162 @@
         <v>2447.273506642794</v>
       </c>
       <c r="E102">
-        <v>2776.425591523645</v>
+        <v>2776.4255915236449</v>
       </c>
       <c r="F102">
-        <v>3126.067832449013</v>
+        <v>3126.0678324490132</v>
       </c>
       <c r="G102">
-        <v>2883.838068530516</v>
+        <v>2883.8380685305142</v>
       </c>
       <c r="H102">
         <v>2745.68207085938</v>
       </c>
       <c r="I102">
-        <v>4420.288877563835</v>
+        <v>4420.2888775638348</v>
       </c>
       <c r="J102">
+        <v>5351.6728346861528</v>
+      </c>
+      <c r="K102">
         <v>5429.40329377739</v>
       </c>
-      <c r="K102">
-        <v>5173.653119719376</v>
-      </c>
       <c r="L102">
-        <v>5457.223563045885</v>
+        <v>5618.0987117258992</v>
       </c>
       <c r="M102">
         <v>3691.293186224555</v>
       </c>
       <c r="N102">
-        <v>4133.187353376966</v>
+        <v>4133.1873533769658</v>
       </c>
       <c r="O102">
-        <v>3438.976593961684</v>
+        <v>3438.9765939616841</v>
       </c>
       <c r="P102">
-        <v>2072.26291514599</v>
+        <v>2072.2629151459901</v>
       </c>
       <c r="Q102">
         <v>1620.134070646229</v>
       </c>
       <c r="R102">
-        <v>772.1868605987243</v>
+        <v>772.18686059872425</v>
       </c>
       <c r="S102">
         <v>1734.852131977141</v>
       </c>
       <c r="T102">
-        <v>2271.587571096218</v>
+        <v>2271.5875710962182</v>
       </c>
       <c r="U102">
-        <v>6541.46479588455</v>
+        <v>6541.4647958845499</v>
       </c>
       <c r="V102">
-        <v>3586.330087448184</v>
+        <v>3586.3300874481838</v>
       </c>
       <c r="W102">
-        <v>4971.296504970155</v>
+        <v>4971.2965049701552</v>
       </c>
       <c r="X102">
-        <v>6169.987070511407</v>
+        <v>6169.9870705114072</v>
       </c>
       <c r="Y102">
-        <v>4132.247129811551</v>
+        <v>4132.2471298115506</v>
       </c>
       <c r="Z102">
-        <v>592.6149036198582</v>
+        <v>592.61490361985818</v>
       </c>
       <c r="AA102">
-        <v>3736.900926046543</v>
+        <v>3736.9009260465432</v>
       </c>
       <c r="AB102">
-        <v>3099.836808435456</v>
+        <v>3099.8368084354561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B103">
+        <v>3387.4846479940811</v>
+      </c>
+      <c r="C103">
+        <v>2692.19270434093</v>
+      </c>
+      <c r="D103">
+        <v>2482.978080413227</v>
+      </c>
+      <c r="E103">
+        <v>2823.2694615691489</v>
+      </c>
+      <c r="F103">
+        <v>3160.8985244578398</v>
+      </c>
+      <c r="G103">
+        <v>2929.4714756955632</v>
+      </c>
+      <c r="H103">
+        <v>2823.801672409279</v>
+      </c>
+      <c r="I103">
+        <v>4487.6282060498279</v>
+      </c>
+      <c r="J103">
+        <v>5394.7290527464866</v>
+      </c>
+      <c r="K103">
+        <v>5506.1233829011471</v>
+      </c>
+      <c r="L103">
+        <v>5736.2720325602149</v>
+      </c>
+      <c r="M103">
+        <v>3750.2889043010932</v>
+      </c>
+      <c r="N103">
+        <v>4166.8483829518136</v>
+      </c>
+      <c r="O103">
+        <v>3499.8554260068231</v>
+      </c>
+      <c r="P103">
+        <v>2096.0531544617029</v>
+      </c>
+      <c r="Q103">
+        <v>1637.3218793981191</v>
+      </c>
+      <c r="R103">
+        <v>762.71018447231791</v>
+      </c>
+      <c r="S103">
+        <v>1777.731421712564</v>
+      </c>
+      <c r="T103">
+        <v>2287.726743597877</v>
+      </c>
+      <c r="U103">
+        <v>6913.1772582726526</v>
+      </c>
+      <c r="V103">
+        <v>3656.8854768560259</v>
+      </c>
+      <c r="W103">
+        <v>5143.7412624729404</v>
+      </c>
+      <c r="X103">
+        <v>6350.5534506929298</v>
+      </c>
+      <c r="Y103">
+        <v>3947.266332626084</v>
+      </c>
+      <c r="Z103">
+        <v>592.69040917735003</v>
+      </c>
+      <c r="AA103">
+        <v>3700.415582776709</v>
+      </c>
+      <c r="AB103">
+        <v>3151.8536853526311</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8419BE1-692B-4AD2-8EFE-0CB2C0E80F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -106,8 +100,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -174,21 +170,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,7 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,10 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,19 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +547,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:28">
+      <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -586,13 +567,13 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91000000000003</v>
+        <v>284.91</v>
       </c>
       <c r="H2">
-        <v>299.58999999999997</v>
+        <v>299.59</v>
       </c>
       <c r="I2">
-        <v>319.35000000000002</v>
+        <v>319.35</v>
       </c>
       <c r="J2">
         <v>292.5</v>
@@ -604,7 +585,7 @@
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.77999999999997</v>
+        <v>299.78</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -628,7 +609,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.57000000000005</v>
+        <v>588.5700000000001</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -640,7 +621,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41000000000003</v>
+        <v>318.41</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -649,24 +630,24 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+        <v>292.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97000000000003</v>
+        <v>262.97</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.27999999999997</v>
+        <v>276.28</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -726,7 +707,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22000000000003</v>
+        <v>325.22</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -738,24 +719,24 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:28">
+      <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.08999999999997</v>
+        <v>265.09</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85000000000002</v>
+        <v>278.85</v>
       </c>
       <c r="F4">
-        <v>293.52999999999997</v>
+        <v>293.53</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -776,7 +757,7 @@
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.10000000000002</v>
+        <v>307.1</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -800,10 +781,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58000000000004</v>
+        <v>612.58</v>
       </c>
       <c r="V4">
-        <v>320.77999999999997</v>
+        <v>320.78</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -824,12 +805,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:28">
+      <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.64999999999998</v>
+        <v>313.65</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -838,16 +819,16 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.14999999999998</v>
+        <v>281.15</v>
       </c>
       <c r="F5">
-        <v>296.70999999999998</v>
+        <v>296.71</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91000000000003</v>
+        <v>311.91</v>
       </c>
       <c r="I5">
         <v>349.18</v>
@@ -868,10 +849,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79000000000002</v>
+        <v>295.79</v>
       </c>
       <c r="P5">
-        <v>256.08999999999997</v>
+        <v>256.09</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -886,7 +867,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.42999999999995</v>
+        <v>612.4299999999999</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -910,18 +891,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:28">
+      <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22000000000003</v>
+        <v>316.22</v>
       </c>
       <c r="C6">
-        <v>272.91000000000003</v>
+        <v>272.91</v>
       </c>
       <c r="D6">
-        <v>264.14999999999998</v>
+        <v>264.15</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -990,21 +971,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.60000000000002</v>
+        <v>320.6</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:28">
+      <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66000000000003</v>
+        <v>317.66</v>
       </c>
       <c r="C7">
-        <v>276.33999999999997</v>
+        <v>276.34</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -1013,7 +994,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.89999999999998</v>
+        <v>302.9</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1043,7 +1024,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85000000000002</v>
+        <v>265.85</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1073,7 +1054,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.69999999999999</v>
+        <v>152.7</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1082,27 +1063,27 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:28">
+      <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.45999999999998</v>
+        <v>318.46</v>
       </c>
       <c r="C8">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.33999999999997</v>
+        <v>287.34</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.52999999999997</v>
+        <v>302.53</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1129,7 +1110,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1165,11 +1146,11 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.77999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+        <v>309.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1215,7 +1196,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29000000000002</v>
+        <v>264.29</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1254,8 +1235,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:28">
+      <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1292,7 +1273,7 @@
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.95999999999998</v>
+        <v>323.96</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1301,7 +1282,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1337,18 +1318,18 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+        <v>311.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.39999999999998</v>
+        <v>282.4</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1357,13 +1338,13 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41000000000003</v>
+        <v>315.41</v>
       </c>
       <c r="I11">
         <v>343.79</v>
@@ -1417,7 +1398,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1426,8 +1407,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:28">
+      <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1440,13 +1421,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29000000000002</v>
+        <v>300.29</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.83999999999997</v>
+        <v>312.84</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1470,7 +1451,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.52999999999997</v>
+        <v>319.53</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1488,7 +1469,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.29999999999995</v>
+        <v>619.3</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1503,24 +1484,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.39999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+        <v>320.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.83999999999997</v>
+        <v>291.84</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1559,7 +1540,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.95999999999998</v>
+        <v>281.96</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1598,8 +1579,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:28">
+      <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1609,13 +1590,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.89999999999998</v>
+        <v>283.9</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35000000000002</v>
+        <v>321.35</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1642,7 +1623,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79000000000002</v>
+        <v>324.79</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1681,18 +1662,18 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+        <v>327.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.33999999999997</v>
+        <v>295.34</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1731,7 +1712,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1743,7 +1724,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54000000000002</v>
+        <v>257.54</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1770,15 +1751,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:28">
+      <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.58999999999997</v>
+        <v>297.59</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1817,7 +1798,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35000000000002</v>
+        <v>283.35</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1829,7 +1810,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72000000000003</v>
+        <v>261.72</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1856,8 +1837,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:28">
+      <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1870,7 +1851,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.14999999999998</v>
+        <v>313.15</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1915,7 +1896,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97000000000003</v>
+        <v>264.97</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1942,8 +1923,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:28">
+      <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -2001,10 +1982,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97000000000003</v>
+        <v>268.97</v>
       </c>
       <c r="U18">
-        <v>638.67999999999995</v>
+        <v>638.6799999999999</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2028,8 +2009,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:28">
+      <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2087,7 +2068,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.02999999999997</v>
+        <v>272.03</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2114,8 +2095,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:28">
+      <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2173,10 +2154,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.52999999999997</v>
+        <v>277.53</v>
       </c>
       <c r="U20">
-        <v>652.07000000000005</v>
+        <v>652.0700000000001</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2185,7 +2166,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.91999999999996</v>
+        <v>517.92</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2200,15 +2181,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:28">
+      <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04000000000002</v>
+        <v>320.04</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2247,7 +2228,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47000000000003</v>
+        <v>309.47</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2259,7 +2240,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.08999999999997</v>
+        <v>283.09</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2277,7 +2258,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.97999999999999</v>
+        <v>160.98</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2286,8 +2267,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:28">
+      <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2297,7 +2278,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.08999999999997</v>
+        <v>317.09</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2336,7 +2317,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.27999999999997</v>
+        <v>261.28</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2357,7 +2338,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58000000000004</v>
+        <v>539.58</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2372,8 +2353,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:28">
+      <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2422,16 +2403,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.64999999999998</v>
+        <v>288.65</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.20999999999998</v>
+        <v>287.21</v>
       </c>
       <c r="T23">
-        <v>325.52999999999997</v>
+        <v>325.53</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2443,7 +2424,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.29999999999995</v>
+        <v>565.3</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2458,8 +2439,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:28">
+      <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2508,7 +2489,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.14999999999998</v>
+        <v>300.15</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2544,8 +2525,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:28">
+      <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2630,8 +2611,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:28">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2701,7 +2682,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.07000000000005</v>
+        <v>578.0700000000001</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2716,8 +2697,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:28">
+      <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2751,7 +2732,7 @@
         <v>560.37</v>
       </c>
       <c r="L27">
-        <v>520.08000000000004</v>
+        <v>520.08</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2766,7 +2747,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97000000000003</v>
+        <v>280.97</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2802,8 +2783,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:28">
+      <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2831,7 +2812,7 @@
         <v>488.24</v>
       </c>
       <c r="J28">
-        <v>644.29999999999995</v>
+        <v>644.3</v>
       </c>
       <c r="K28">
         <v>567.98</v>
@@ -2888,8 +2869,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:28">
+      <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2920,7 +2901,7 @@
         <v>702.92</v>
       </c>
       <c r="K29">
-        <v>593.55999999999995</v>
+        <v>593.5599999999999</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2938,7 +2919,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85000000000002</v>
+        <v>277.85</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2959,7 +2940,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.30999999999995</v>
+        <v>593.3099999999999</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2974,8 +2955,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:28">
+      <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -3009,7 +2990,7 @@
         <v>604.12</v>
       </c>
       <c r="L30">
-        <v>563.91999999999996</v>
+        <v>563.92</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3024,7 +3005,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.20999999999998</v>
+        <v>284.21</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3060,8 +3041,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:28">
+      <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3089,13 +3070,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
-        <v>575.67999999999995</v>
+        <v>575.6799999999999</v>
       </c>
       <c r="K31">
         <v>575.66</v>
       </c>
       <c r="L31">
-        <v>579.45000000000005</v>
+        <v>579.45</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3110,13 +3091,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41000000000003</v>
+        <v>288.41</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.10000000000002</v>
+        <v>261.1</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3146,8 +3127,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:28">
+      <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3232,8 +3213,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:28">
+      <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3267,7 +3248,7 @@
         <v>521.02</v>
       </c>
       <c r="L33">
-        <v>559.55999999999995</v>
+        <v>559.5599999999999</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3282,7 +3263,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16000000000003</v>
+        <v>298.16</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3318,8 +3299,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:28">
+      <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3368,7 +3349,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29000000000002</v>
+        <v>295.29</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3404,8 +3385,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:28">
+      <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3466,13 +3447,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.57</v>
+        <v>942.5700000000001</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.79999999999995</v>
+        <v>515.8</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3490,8 +3471,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:28">
+      <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3540,10 +3521,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91000000000003</v>
+        <v>305.91</v>
       </c>
       <c r="R36">
-        <v>261.58999999999997</v>
+        <v>261.59</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3552,7 +3533,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.32</v>
+        <v>943.3200000000001</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3576,8 +3557,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:28">
+      <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3611,7 +3592,7 @@
         <v>509.17</v>
       </c>
       <c r="L37">
-        <v>534.05999999999995</v>
+        <v>534.0599999999999</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3629,10 +3610,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72000000000003</v>
+        <v>268.72</v>
       </c>
       <c r="S37">
-        <v>281.39999999999998</v>
+        <v>281.4</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3662,8 +3643,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:28">
+      <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3694,7 +3675,7 @@
         <v>502.4</v>
       </c>
       <c r="K38">
-        <v>529.30999999999995</v>
+        <v>529.3099999999999</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3733,7 +3714,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.17999999999995</v>
+        <v>654.1799999999999</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3748,8 +3729,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:28">
+      <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3777,13 +3758,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>604.20000000000005</v>
+        <v>604.2</v>
       </c>
       <c r="K39">
-        <v>572.80999999999995</v>
+        <v>572.8099999999999</v>
       </c>
       <c r="L39">
-        <v>559.92999999999995</v>
+        <v>559.9299999999999</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3810,7 +3791,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.44</v>
+        <v>954.4400000000001</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3834,8 +3815,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:28">
+      <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3896,7 +3877,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.81</v>
+        <v>952.8099999999999</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3905,7 +3886,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.69</v>
+        <v>668.6900000000001</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3920,8 +3901,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:28">
+      <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3946,7 +3927,7 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.41999999999996</v>
+        <v>550.42</v>
       </c>
       <c r="J41">
         <v>656.84</v>
@@ -3955,7 +3936,7 @@
         <v>613.34</v>
       </c>
       <c r="L41">
-        <v>593.92999999999995</v>
+        <v>593.9299999999999</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3988,7 +3969,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.69000000000005</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -4006,8 +3987,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:28">
+      <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4032,7 +4013,7 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.32000000000005</v>
+        <v>564.3200000000001</v>
       </c>
       <c r="J42">
         <v>662.83</v>
@@ -4041,7 +4022,7 @@
         <v>635.72</v>
       </c>
       <c r="L42">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4074,10 +4055,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.94000000000005</v>
+        <v>540.9400000000001</v>
       </c>
       <c r="X42">
-        <v>675.32</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4092,8 +4073,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:28">
+      <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4118,7 +4099,7 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.67999999999995</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="J43">
         <v>641.12</v>
@@ -4133,7 +4114,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.55999999999995</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4148,7 +4129,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.77999999999997</v>
+        <v>294.78</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4163,7 +4144,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.43</v>
+        <v>676.4299999999999</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4178,8 +4159,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:28">
+      <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4207,7 +4188,7 @@
         <v>556.61</v>
       </c>
       <c r="J44">
-        <v>593.05999999999995</v>
+        <v>593.0599999999999</v>
       </c>
       <c r="K44">
         <v>610.1</v>
@@ -4234,7 +4215,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.27999999999997</v>
+        <v>303.28</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4264,8 +4245,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:28">
+      <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4296,7 +4277,7 @@
         <v>545.16</v>
       </c>
       <c r="K45">
-        <v>593.20000000000005</v>
+        <v>593.2</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4332,7 +4313,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.94000000000005</v>
+        <v>551.9400000000001</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4350,8 +4331,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:28">
+      <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4379,10 +4360,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>539.79999999999995</v>
+        <v>539.8</v>
       </c>
       <c r="K46">
-        <v>587.08000000000004</v>
+        <v>587.08</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4391,7 +4372,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95000000000005</v>
+        <v>552.95</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4412,7 +4393,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.6199999999999</v>
+        <v>1063.62</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4436,8 +4417,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:28">
+      <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4468,10 +4449,10 @@
         <v>550.48</v>
       </c>
       <c r="K47">
-        <v>585.70000000000005</v>
+        <v>585.7</v>
       </c>
       <c r="L47">
-        <v>610.67999999999995</v>
+        <v>610.6799999999999</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4522,8 +4503,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:28">
+      <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4554,13 +4535,13 @@
         <v>592</v>
       </c>
       <c r="K48">
-        <v>608.95000000000005</v>
+        <v>608.95</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.20000000000005</v>
+        <v>531.2</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4590,7 +4571,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45000000000005</v>
+        <v>565.45</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4608,12 +4589,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:28">
+      <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83000000000004</v>
+        <v>516.83</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4634,7 +4615,7 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.07000000000005</v>
+        <v>593.0700000000001</v>
       </c>
       <c r="J49">
         <v>642.79</v>
@@ -4643,7 +4624,7 @@
         <v>646.77</v>
       </c>
       <c r="L49">
-        <v>654.55999999999995</v>
+        <v>654.5599999999999</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4694,12 +4675,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:28">
+      <c r="A50" s="2">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.05999999999995</v>
+        <v>524.0599999999999</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4720,10 +4701,10 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.05999999999995</v>
+        <v>608.0599999999999</v>
       </c>
       <c r="J50">
-        <v>672.81</v>
+        <v>672.8099999999999</v>
       </c>
       <c r="K50">
         <v>668.72</v>
@@ -4735,7 +4716,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58000000000004</v>
+        <v>607.58</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4780,8 +4761,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:28">
+      <c r="A51" s="2">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4800,7 +4781,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.16999999999996</v>
+        <v>519.17</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4818,7 +4799,7 @@
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.17999999999995</v>
+        <v>573.1799999999999</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4848,7 +4829,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.19000000000005</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4863,15 +4844,15 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.29999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+        <v>513.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="2">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.92999999999995</v>
+        <v>539.9299999999999</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4883,7 +4864,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.07000000000005</v>
+        <v>512.0700000000001</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4892,7 +4873,7 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.20000000000005</v>
+        <v>639.2</v>
       </c>
       <c r="J52">
         <v>700.64</v>
@@ -4904,13 +4885,13 @@
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.17999999999995</v>
+        <v>586.1799999999999</v>
       </c>
       <c r="N52">
-        <v>625.79999999999995</v>
+        <v>625.8</v>
       </c>
       <c r="O52">
-        <v>560.69000000000005</v>
+        <v>560.6900000000001</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4934,7 +4915,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08000000000004</v>
+        <v>585.08</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4946,14 +4927,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.70000000000005</v>
+        <v>526.7</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:28">
+      <c r="A53" s="2">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4969,7 +4950,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83000000000004</v>
+        <v>517.83</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4993,7 +4974,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.30999999999995</v>
+        <v>633.3099999999999</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -5014,13 +4995,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4000000000001</v>
+        <v>1064.4</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.44000000000005</v>
+        <v>588.4400000000001</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5038,8 +5019,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:28">
+      <c r="A54" s="2">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5055,7 +5036,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.67999999999995</v>
+        <v>527.6799999999999</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5091,7 +5072,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.45999999999998</v>
+        <v>271.46</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5106,7 +5087,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.92999999999995</v>
+        <v>591.9299999999999</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5121,11 +5102,11 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.32000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+        <v>532.3200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="2">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5162,13 +5143,13 @@
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.69000000000005</v>
+        <v>602.6900000000001</v>
       </c>
       <c r="N55">
-        <v>644.08000000000004</v>
+        <v>644.08</v>
       </c>
       <c r="O55">
-        <v>576.16999999999996</v>
+        <v>576.17</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5186,13 +5167,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.1199999999999</v>
+        <v>1095.12</v>
       </c>
       <c r="V55">
-        <v>523.95000000000005</v>
+        <v>523.95</v>
       </c>
       <c r="W55">
-        <v>596.16999999999996</v>
+        <v>596.17</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5207,11 +5188,11 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.04999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+        <v>537.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="2">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5227,10 +5208,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.94000000000005</v>
+        <v>544.9400000000001</v>
       </c>
       <c r="G56">
-        <v>554.44000000000005</v>
+        <v>554.4400000000001</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5242,7 +5223,7 @@
         <v>651.91</v>
       </c>
       <c r="K56">
-        <v>724.18</v>
+        <v>724.1799999999999</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5251,7 +5232,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.92999999999995</v>
+        <v>653.9299999999999</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5263,7 +5244,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.89999999999998</v>
+        <v>282.9</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5290,14 +5271,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.17999999999995</v>
+        <v>551.1799999999999</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:28">
+      <c r="A57" s="2">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5316,10 +5297,10 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.41999999999996</v>
+        <v>565.42</v>
       </c>
       <c r="H57">
-        <v>535.44000000000005</v>
+        <v>535.4400000000001</v>
       </c>
       <c r="I57">
         <v>686.41</v>
@@ -5328,7 +5309,7 @@
         <v>688.35</v>
       </c>
       <c r="K57">
-        <v>745.82</v>
+        <v>745.8200000000001</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5337,7 +5318,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.06</v>
+        <v>673.0599999999999</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5349,7 +5330,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66000000000003</v>
+        <v>276.66</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5361,10 +5342,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.20000000000005</v>
+        <v>541.2</v>
       </c>
       <c r="W57">
-        <v>606.67999999999995</v>
+        <v>606.6799999999999</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5382,12 +5363,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:28">
+      <c r="A58" s="2">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.91999999999996</v>
+        <v>587.92</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5396,16 +5377,16 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.66999999999996</v>
+        <v>520.67</v>
       </c>
       <c r="F58">
-        <v>559.69000000000005</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.82000000000005</v>
+        <v>538.8200000000001</v>
       </c>
       <c r="I58">
         <v>708.25</v>
@@ -5414,16 +5395,16 @@
         <v>757.76</v>
       </c>
       <c r="K58">
-        <v>777.56</v>
+        <v>777.5599999999999</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.54999999999995</v>
+        <v>644.55</v>
       </c>
       <c r="N58">
-        <v>685.18</v>
+        <v>685.1799999999999</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5468,12 +5449,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:28">
+      <c r="A59" s="2">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08000000000004</v>
+        <v>597.08</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5491,7 +5472,7 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.70000000000005</v>
+        <v>550.7</v>
       </c>
       <c r="I59">
         <v>711.76</v>
@@ -5503,16 +5484,16 @@
         <v>773.47</v>
       </c>
       <c r="L59">
-        <v>802.32</v>
+        <v>802.3200000000001</v>
       </c>
       <c r="M59">
-        <v>653.95000000000005</v>
+        <v>653.95</v>
       </c>
       <c r="N59">
-        <v>702.56</v>
+        <v>702.5599999999999</v>
       </c>
       <c r="O59">
-        <v>623.42999999999995</v>
+        <v>623.4299999999999</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5521,7 +5502,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.33999999999997</v>
+        <v>267.34</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5530,7 +5511,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.8699999999999</v>
+        <v>1094.87</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5542,7 +5523,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.91999999999996</v>
+        <v>573.92</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5554,15 +5535,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:28">
+      <c r="A60" s="2">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.70000000000005</v>
+        <v>609.7</v>
       </c>
       <c r="C60">
-        <v>512.91999999999996</v>
+        <v>512.92</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5574,7 +5555,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.55999999999995</v>
+        <v>594.5599999999999</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5607,7 +5588,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79000000000002</v>
+        <v>287.79</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5637,18 +5618,18 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.32000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+        <v>584.3200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="2">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.44000000000005</v>
+        <v>529.4400000000001</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5660,10 +5641,10 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.91999999999996</v>
+        <v>618.92</v>
       </c>
       <c r="H61">
-        <v>610.17999999999995</v>
+        <v>610.1799999999999</v>
       </c>
       <c r="I61">
         <v>753.88</v>
@@ -5684,22 +5665,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.56</v>
+        <v>655.5599999999999</v>
       </c>
       <c r="P61">
-        <v>522.82000000000005</v>
+        <v>522.8200000000001</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54000000000002</v>
+        <v>292.54</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58000000000004</v>
+        <v>517.58</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5726,12 +5707,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:28">
+      <c r="A62" s="2">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.44</v>
+        <v>723.4400000000001</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5743,13 +5724,13 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.94</v>
+        <v>695.9400000000001</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.68</v>
+        <v>669.6799999999999</v>
       </c>
       <c r="I62">
         <v>874.42</v>
@@ -5773,7 +5754,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.57000000000005</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5782,22 +5763,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33000000000004</v>
+        <v>549.33</v>
       </c>
       <c r="T62">
-        <v>586.80999999999995</v>
+        <v>586.8099999999999</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.44000000000005</v>
+        <v>603.4400000000001</v>
       </c>
       <c r="W62">
-        <v>643.07000000000005</v>
+        <v>643.0700000000001</v>
       </c>
       <c r="X62">
-        <v>1038.3900000000001</v>
+        <v>1038.39</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5812,15 +5793,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:28">
+      <c r="A63" s="2">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.20000000000005</v>
+        <v>648.2</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5850,7 +5831,7 @@
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.32</v>
+        <v>895.3200000000001</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5859,13 +5840,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.43</v>
+        <v>673.4299999999999</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85000000000002</v>
+        <v>312.85</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5877,13 +5858,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08000000000004</v>
+        <v>651.08</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.1099999999999</v>
+        <v>1126.11</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5892,14 +5873,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.19</v>
+        <v>677.1900000000001</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:28">
+      <c r="A64" s="2">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5909,16 +5890,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.29999999999995</v>
+        <v>623.3</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.57</v>
+        <v>799.5700000000001</v>
       </c>
       <c r="G64">
-        <v>851.06</v>
+        <v>851.0599999999999</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5939,7 +5920,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.1099999999999</v>
+        <v>1055.11</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5981,18 +5962,18 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+        <v>799.9299999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="2">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.06</v>
+        <v>887.0599999999999</v>
       </c>
       <c r="C65">
-        <v>701.82</v>
+        <v>701.8200000000001</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -6007,16 +5988,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.07</v>
+        <v>985.0700000000001</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1275.8499999999999</v>
+        <v>1275.85</v>
       </c>
       <c r="K65">
-        <v>1251.9000000000001</v>
+        <v>1251.9</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6031,10 +6012,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.43</v>
+        <v>728.4299999999999</v>
       </c>
       <c r="Q65">
-        <v>584.45000000000005</v>
+        <v>584.45</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6070,8 +6051,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:28">
+      <c r="A66" s="2">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6081,7 +6062,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.19</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6135,7 +6116,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.31</v>
+        <v>736.3099999999999</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6150,14 +6131,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.31</v>
+        <v>741.3099999999999</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:28">
+      <c r="A67" s="2">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6170,7 +6151,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.06</v>
+        <v>846.0599999999999</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6200,7 +6181,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.1600000000001</v>
+        <v>1057.16</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6242,8 +6223,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:28">
+      <c r="A68" s="2">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6262,7 +6243,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.1099999999999</v>
+        <v>1053.11</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6283,7 +6264,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.8599999999999</v>
+        <v>1288.86</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6322,27 +6303,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.32</v>
+        <v>787.3200000000001</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:28">
+      <c r="A69" s="2">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.69</v>
+        <v>829.6900000000001</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.44</v>
+        <v>919.4400000000001</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6351,7 +6332,7 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.5999999999999</v>
+        <v>1227.6</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
@@ -6384,7 +6365,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.19</v>
+        <v>733.1900000000001</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6402,7 +6383,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.6400000000001</v>
+        <v>1060.64</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6414,8 +6395,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:28">
+      <c r="A70" s="2">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6488,7 +6469,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.3399999999999</v>
+        <v>1062.34</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6500,15 +6481,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:28">
+      <c r="A71" s="2">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.6099999999999</v>
+        <v>1120.61</v>
       </c>
       <c r="C71">
-        <v>879.43</v>
+        <v>879.4299999999999</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6529,7 +6510,7 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
-        <v>1165.6099999999999</v>
+        <v>1165.61</v>
       </c>
       <c r="K71">
         <v>1410.76</v>
@@ -6550,7 +6531,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.44</v>
+        <v>703.4400000000001</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6559,7 +6540,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.69</v>
+        <v>893.6900000000001</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6583,18 +6564,18 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.8900000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+        <v>1046.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="2">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.3900000000001</v>
+        <v>1152.39</v>
       </c>
       <c r="C72">
-        <v>907.94</v>
+        <v>907.9400000000001</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6630,7 +6611,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.1199999999999</v>
+        <v>1298.12</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6648,19 +6629,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.8200000000002</v>
+        <v>2082.82</v>
       </c>
       <c r="V72">
-        <v>901.57</v>
+        <v>901.5700000000001</v>
       </c>
       <c r="W72">
-        <v>887.82</v>
+        <v>887.8200000000001</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.6099999999999</v>
+        <v>1158.61</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6672,8 +6653,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:28">
+      <c r="A73" s="2">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6689,10 +6670,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.6199999999999</v>
+        <v>1103.62</v>
       </c>
       <c r="G73">
-        <v>1194.5999999999999</v>
+        <v>1194.6</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6719,10 +6700,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.06</v>
+        <v>924.0599999999999</v>
       </c>
       <c r="Q73">
-        <v>741.56</v>
+        <v>741.5599999999999</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6758,8 +6739,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:28">
+      <c r="A74" s="2">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6772,10 +6753,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.0999999999999</v>
+        <v>1038.1</v>
       </c>
       <c r="F74">
-        <v>1113.6400000000001</v>
+        <v>1113.64</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6805,7 +6786,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.69</v>
+        <v>939.6900000000001</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6823,7 +6804,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.31</v>
+        <v>938.3099999999999</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6844,8 +6825,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:28">
+      <c r="A75" s="2">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6864,7 +6845,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.1099999999999</v>
+        <v>1260.11</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6930,8 +6911,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:28">
+      <c r="A76" s="2">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6947,7 +6928,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.1300000000001</v>
+        <v>1232.13</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6989,19 +6970,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.1300000000001</v>
+        <v>1024.13</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.6600000000001</v>
+        <v>1090.66</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.5100000000002</v>
+        <v>2052.51</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -7016,8 +6997,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:28">
+      <c r="A77" s="2">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7027,13 +7008,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.81</v>
+        <v>958.8099999999999</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.0899999999999</v>
+        <v>1263.09</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7078,7 +7059,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.2800000000002</v>
+        <v>2392.28</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7087,7 +7068,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.5100000000002</v>
+        <v>2131.51</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7102,18 +7083,18 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:28">
+      <c r="A78" s="2">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.8499999999999</v>
+        <v>1096.85</v>
       </c>
       <c r="D78">
-        <v>989.57</v>
+        <v>989.5700000000001</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7164,7 +7145,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8000000000002</v>
+        <v>2410.8</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7188,18 +7169,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:28">
+      <c r="A79" s="2">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.3900000000001</v>
+        <v>1136.39</v>
       </c>
       <c r="D79">
-        <v>1031.6400000000001</v>
+        <v>1031.64</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7235,7 +7216,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.1300000000001</v>
+        <v>1057.13</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7247,19 +7228,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.3499999999999</v>
+        <v>1072.35</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.6600000000001</v>
+        <v>1221.66</v>
       </c>
       <c r="W79">
-        <v>1226.5899999999999</v>
+        <v>1226.59</v>
       </c>
       <c r="X79">
-        <v>2379.5500000000002</v>
+        <v>2379.55</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7268,14 +7249,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.8599999999999</v>
+        <v>1207.86</v>
       </c>
       <c r="AB79">
-        <v>1300.5999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+        <v>1300.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="2">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7297,7 +7278,7 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.8800000000001</v>
+        <v>1057.88</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
@@ -7324,7 +7305,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.56</v>
+        <v>884.5599999999999</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7339,7 +7320,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.3599999999999</v>
+        <v>1266.36</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7354,21 +7335,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.4100000000001</v>
+        <v>1239.41</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:28">
+      <c r="A81" s="2">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4000000000001</v>
+        <v>1280.4</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7407,7 +7388,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.6500000000001</v>
+        <v>1215.65</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7416,7 +7397,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.0999999999999</v>
+        <v>1138.1</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7446,8 +7427,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:28">
+      <c r="A82" s="2">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7475,7 +7456,7 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
-        <v>2354.4299999999998</v>
+        <v>2354.43</v>
       </c>
       <c r="K82">
         <v>2702.83</v>
@@ -7496,7 +7477,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.6300000000001</v>
+        <v>1050.63</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7505,7 +7486,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.6500000000001</v>
+        <v>1306.65</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7532,8 +7513,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:28">
+      <c r="A83" s="2">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7561,7 +7542,7 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
-        <v>2359.9499999999998</v>
+        <v>2359.95</v>
       </c>
       <c r="K83">
         <v>2767.43</v>
@@ -7582,7 +7563,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.8699999999999</v>
+        <v>1077.87</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7618,8 +7599,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:28">
+      <c r="A84" s="2">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7674,7 +7655,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.0999999999999</v>
+        <v>1264.1</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7704,8 +7685,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:28">
+      <c r="A85" s="2">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7730,7 +7711,7 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.5100000000002</v>
+        <v>2552.51</v>
       </c>
       <c r="J85">
         <v>2305.84</v>
@@ -7790,8 +7771,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:28">
+      <c r="A86" s="2">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7819,7 +7800,7 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
-        <v>2568.4899999999998</v>
+        <v>2568.49</v>
       </c>
       <c r="K86">
         <v>3097.87</v>
@@ -7846,7 +7827,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.6400000000001</v>
+        <v>1307.64</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7876,8 +7857,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:28">
+      <c r="A87" s="2">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7914,7 +7895,7 @@
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.2800000000002</v>
+        <v>2429.28</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7926,7 +7907,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4000000000001</v>
+        <v>1195.4</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7944,13 +7925,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.7600000000002</v>
+        <v>2198.76</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.8200000000002</v>
+        <v>2468.82</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7962,8 +7943,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:28">
+      <c r="A88" s="2">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -8042,14 +8023,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.1799999999998</v>
+        <v>2074.18</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:28">
+      <c r="A89" s="2">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8116,13 +8097,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.0100000000002</v>
+        <v>2503.01</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.0700000000002</v>
+        <v>2520.07</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8131,15 +8112,15 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.4699999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+        <v>2139.47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="2">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.4699999999998</v>
+        <v>2380.47</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8151,7 +8132,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.9699999999998</v>
+        <v>2277.97</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8187,7 +8168,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.44000000000005</v>
+        <v>578.4400000000001</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8199,7 +8180,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.7800000000002</v>
+        <v>2300.78</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8211,17 +8192,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95000000000005</v>
+        <v>520.95</v>
       </c>
       <c r="AA90">
-        <v>2218.4299999999998</v>
+        <v>2218.43</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:28">
+      <c r="A91" s="2">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8240,7 +8221,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.9699999999998</v>
+        <v>2220.97</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8282,7 +8263,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6000000000004</v>
+        <v>4477.6</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8306,8 +8287,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:28">
+      <c r="A92" s="2">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8326,7 +8307,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.2600000000002</v>
+        <v>2241.26</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8341,7 +8322,7 @@
         <v>3985.77</v>
       </c>
       <c r="L92">
-        <v>4468.7700000000004</v>
+        <v>4468.77</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8359,7 +8340,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.16999999999996</v>
+        <v>630.17</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8371,7 +8352,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.7800000000002</v>
+        <v>2472.78</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8386,18 +8367,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.1799999999998</v>
+        <v>2343.18</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:28">
+      <c r="A93" s="2">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.7600000000002</v>
+        <v>2588.76</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8445,7 +8426,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.92999999999995</v>
+        <v>612.9299999999999</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8469,24 +8450,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.44000000000005</v>
+        <v>585.4400000000001</v>
       </c>
       <c r="AA93">
-        <v>2423.4299999999998</v>
+        <v>2423.43</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:28">
+      <c r="A94" s="2">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.8200000000002</v>
+        <v>2111.82</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8495,13 +8476,13 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.5700000000002</v>
+        <v>2475.57</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.7600000000002</v>
+        <v>2294.76</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
@@ -8540,7 +8521,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.3999999999996</v>
+        <v>4937.4</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8558,14 +8539,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.2399999999998</v>
+        <v>2538.24</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:28">
+      <c r="A95" s="2">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8578,7 +8559,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.9699999999998</v>
+        <v>2288.97</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8587,7 +8568,7 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.8200000000002</v>
+        <v>2304.82</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
@@ -8626,7 +8607,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.4799999999996</v>
+        <v>5143.48</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8650,18 +8631,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:28">
+      <c r="A96" s="2">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.5500000000002</v>
+        <v>2238.55</v>
       </c>
       <c r="D96">
-        <v>2062.9499999999998</v>
+        <v>2062.95</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8670,7 +8651,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.2399999999998</v>
+        <v>2464.24</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8682,7 +8663,7 @@
         <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>4234.6400000000003</v>
+        <v>4234.64</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8736,15 +8717,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:28">
+      <c r="A97" s="2">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.0500000000002</v>
+        <v>2273.05</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8765,13 +8746,13 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
-        <v>4071.8145960000002</v>
+        <v>4071.814596</v>
       </c>
       <c r="K97">
         <v>4615.91</v>
       </c>
       <c r="L97">
-        <v>4737.1046520000009</v>
+        <v>4737.104652000001</v>
       </c>
       <c r="M97">
         <v>3174.54</v>
@@ -8798,7 +8779,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6000000000004</v>
+        <v>5151.6</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8807,7 +8788,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.7700000000004</v>
+        <v>5240.77</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8822,8 +8803,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:28">
+      <c r="A98" s="2">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8845,19 +8826,19 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.0700000000002</v>
+        <v>2370.07</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
       </c>
       <c r="J98">
-        <v>4369.0570615079996</v>
+        <v>4369.057061508</v>
       </c>
       <c r="K98">
         <v>4655.76</v>
       </c>
       <c r="L98">
-        <v>4875.4281078384001</v>
+        <v>4875.4281078384</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8908,8 +8889,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:28">
+      <c r="A99" s="2">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8919,7 +8900,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.9499999999998</v>
+        <v>2234.95</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8931,19 +8912,19 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.6799999999998</v>
+        <v>2514.68</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4637.3171650845907</v>
+        <v>4637.317165084591</v>
       </c>
       <c r="K99">
-        <v>4779.3900000000003</v>
+        <v>4779.39</v>
       </c>
       <c r="L99">
-        <v>5033.3919785323642</v>
+        <v>5033.391978532364</v>
       </c>
       <c r="M99">
         <v>3387.45</v>
@@ -8976,7 +8957,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.6099999999997</v>
+        <v>4411.61</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8994,98 +8975,98 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:28">
+      <c r="A100" s="2">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3162.9050639177858</v>
+        <v>3162.905063917786</v>
       </c>
       <c r="C100">
-        <v>2523.5865854627218</v>
+        <v>2523.586585462722</v>
       </c>
       <c r="D100">
-        <v>2321.4071122221021</v>
+        <v>2321.407112222102</v>
       </c>
       <c r="E100">
-        <v>2644.3786629099159</v>
+        <v>2644.378662909916</v>
       </c>
       <c r="F100">
-        <v>2953.9936293863761</v>
+        <v>2953.993629386376</v>
       </c>
       <c r="G100">
-        <v>2721.8380673744409</v>
+        <v>2721.838067374441</v>
       </c>
       <c r="H100">
         <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4122.5400266702209</v>
+        <v>4122.540026670221</v>
       </c>
       <c r="J100">
-        <v>4637.9536541860089</v>
+        <v>4483.675316729355</v>
       </c>
       <c r="K100">
-        <v>4844.4341547134254</v>
+        <v>4844.434154713425</v>
       </c>
       <c r="L100">
-        <v>5176.4541799289264</v>
+        <v>5028.225592543442</v>
       </c>
       <c r="M100">
-        <v>3544.1659743833402</v>
+        <v>3544.16597438334</v>
       </c>
       <c r="N100">
-        <v>4002.6570545289969</v>
+        <v>4002.657054528997</v>
       </c>
       <c r="O100">
-        <v>3295.6636135029539</v>
+        <v>3295.663613502954</v>
       </c>
       <c r="P100">
         <v>1965.443879395435</v>
       </c>
       <c r="Q100">
-        <v>1539.5120427709419</v>
+        <v>1539.512042770942</v>
       </c>
       <c r="R100">
-        <v>715.54926611778671</v>
+        <v>715.5492661177867</v>
       </c>
       <c r="S100">
         <v>1672.205337320531</v>
       </c>
       <c r="T100">
-        <v>2154.3125393566029</v>
+        <v>2154.312539356603</v>
       </c>
       <c r="U100">
-        <v>5610.5982365508034</v>
+        <v>5610.598236550803</v>
       </c>
       <c r="V100">
-        <v>3394.2557845199181</v>
+        <v>3394.255784519918</v>
       </c>
       <c r="W100">
-        <v>4597.8144691720954</v>
+        <v>4597.814469172095</v>
       </c>
       <c r="X100">
-        <v>5858.3339374863444</v>
+        <v>5858.333937486344</v>
       </c>
       <c r="Y100">
         <v>3929.726102149275</v>
       </c>
       <c r="Z100">
-        <v>628.72663070400517</v>
+        <v>628.7266307040052</v>
       </c>
       <c r="AA100">
         <v>3424.291280798479</v>
       </c>
       <c r="AB100">
-        <v>2927.7197635733528</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+        <v>2927.719763573353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="2">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3234.1995512239641</v>
+        <v>3234.199551223964</v>
       </c>
       <c r="C101">
         <v>2598.372408541502</v>
@@ -9094,70 +9075,70 @@
         <v>2394.510994931371</v>
       </c>
       <c r="E101">
-        <v>2711.5892141189001</v>
+        <v>2711.5892141189</v>
       </c>
       <c r="F101">
-        <v>3061.2705729531699</v>
+        <v>3061.27057295317</v>
       </c>
       <c r="G101">
-        <v>2813.1974159992719</v>
+        <v>2813.197415999272</v>
       </c>
       <c r="H101">
-        <v>2634.3766926018529</v>
+        <v>2634.376692601853</v>
       </c>
       <c r="I101">
-        <v>4316.1448248725983</v>
+        <v>4316.144824872598</v>
       </c>
       <c r="J101">
-        <v>5199.1692814410144</v>
+        <v>5026.22249225254</v>
       </c>
       <c r="K101">
-        <v>5248.6700228736117</v>
+        <v>5248.670022873612</v>
       </c>
       <c r="L101">
-        <v>5400.4808385196047</v>
+        <v>5245.837212193305</v>
       </c>
       <c r="M101">
         <v>3628.778833284297</v>
       </c>
       <c r="N101">
-        <v>4073.6181714830432</v>
+        <v>4073.618171483043</v>
       </c>
       <c r="O101">
-        <v>3378.8323223395091</v>
+        <v>3378.832322339509</v>
       </c>
       <c r="P101">
-        <v>2032.6753888624669</v>
+        <v>2032.675388862467</v>
       </c>
       <c r="Q101">
-        <v>1591.6396091781819</v>
+        <v>1591.639609178182</v>
       </c>
       <c r="R101">
-        <v>764.18726678627206</v>
+        <v>764.1872667862721</v>
       </c>
       <c r="S101">
-        <v>1692.0429971067349</v>
+        <v>1692.042997106735</v>
       </c>
       <c r="T101">
-        <v>2247.3112206519618</v>
+        <v>2247.311220651962</v>
       </c>
       <c r="U101">
-        <v>5912.2111742136894</v>
+        <v>5912.211174213689</v>
       </c>
       <c r="V101">
         <v>3490.860738228112</v>
       </c>
       <c r="W101">
-        <v>4766.1449791637961</v>
+        <v>4766.144979163796</v>
       </c>
       <c r="X101">
-        <v>5921.2273192102512</v>
+        <v>5921.227319210251</v>
       </c>
       <c r="Y101">
-        <v>4286.4393046946534</v>
+        <v>4286.439304694653</v>
       </c>
       <c r="Z101">
-        <v>614.36786011369941</v>
+        <v>614.3678601136994</v>
       </c>
       <c r="AA101">
         <v>3686.328800601575</v>
@@ -9166,12 +9147,12 @@
         <v>3022.268128506455</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:28">
+      <c r="A102" s="2">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3320.7947125922492</v>
+        <v>3320.794712592249</v>
       </c>
       <c r="C102">
         <v>2652.599659914084</v>
@@ -9180,162 +9161,162 @@
         <v>2447.273506642794</v>
       </c>
       <c r="E102">
-        <v>2776.4255915236449</v>
+        <v>2776.425591523645</v>
       </c>
       <c r="F102">
-        <v>3126.0678324490132</v>
+        <v>3126.067832449013</v>
       </c>
       <c r="G102">
-        <v>2883.8380685305142</v>
+        <v>2883.838068530514</v>
       </c>
       <c r="H102">
         <v>2745.68207085938</v>
       </c>
       <c r="I102">
-        <v>4420.2888775638348</v>
+        <v>4420.288877563835</v>
       </c>
       <c r="J102">
-        <v>5351.6728346861528</v>
+        <v>5173.653119719376</v>
       </c>
       <c r="K102">
         <v>5429.40329377739</v>
       </c>
       <c r="L102">
-        <v>5618.0987117258992</v>
+        <v>5457.223563045885</v>
       </c>
       <c r="M102">
         <v>3691.293186224555</v>
       </c>
       <c r="N102">
-        <v>4133.1873533769658</v>
+        <v>4133.187353376966</v>
       </c>
       <c r="O102">
-        <v>3438.9765939616841</v>
+        <v>3438.976593961684</v>
       </c>
       <c r="P102">
-        <v>2072.2629151459901</v>
+        <v>2072.26291514599</v>
       </c>
       <c r="Q102">
         <v>1620.134070646229</v>
       </c>
       <c r="R102">
-        <v>772.18686059872425</v>
+        <v>772.1868605987243</v>
       </c>
       <c r="S102">
         <v>1734.852131977141</v>
       </c>
       <c r="T102">
-        <v>2271.5875710962182</v>
+        <v>2271.587571096218</v>
       </c>
       <c r="U102">
-        <v>6541.4647958845499</v>
+        <v>6541.46479588455</v>
       </c>
       <c r="V102">
-        <v>3586.3300874481838</v>
+        <v>3586.330087448184</v>
       </c>
       <c r="W102">
-        <v>4971.2965049701552</v>
+        <v>4971.296504970155</v>
       </c>
       <c r="X102">
-        <v>6169.9870705114072</v>
+        <v>6169.987070511407</v>
       </c>
       <c r="Y102">
-        <v>4132.2471298115506</v>
+        <v>4132.247129811551</v>
       </c>
       <c r="Z102">
-        <v>592.61490361985818</v>
+        <v>592.6149036198582</v>
       </c>
       <c r="AA102">
-        <v>3736.9009260465432</v>
+        <v>3736.900926046543</v>
       </c>
       <c r="AB102">
-        <v>3099.8368084354561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+        <v>3099.836808435456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="2">
         <v>45808</v>
       </c>
       <c r="B103">
-        <v>3387.4846479940811</v>
+        <v>3397.447529905796</v>
       </c>
       <c r="C103">
-        <v>2692.19270434093</v>
+        <v>2706.570543569336</v>
       </c>
       <c r="D103">
-        <v>2482.978080413227</v>
+        <v>2500.753336618729</v>
       </c>
       <c r="E103">
-        <v>2823.2694615691489</v>
+        <v>2834.156232472697</v>
       </c>
       <c r="F103">
-        <v>3160.8985244578398</v>
+        <v>3175.858962220138</v>
       </c>
       <c r="G103">
-        <v>2929.4714756955632</v>
+        <v>2937.333920848975</v>
       </c>
       <c r="H103">
-        <v>2823.801672409279</v>
+        <v>2810.038983430191</v>
       </c>
       <c r="I103">
-        <v>4487.6282060498279</v>
+        <v>4485.04092989222</v>
       </c>
       <c r="J103">
-        <v>5394.7290527464866</v>
+        <v>5210.808877073121</v>
       </c>
       <c r="K103">
-        <v>5506.1233829011471</v>
+        <v>5501.158441948588</v>
       </c>
       <c r="L103">
-        <v>5736.2720325602149</v>
+        <v>5566.647525737058</v>
       </c>
       <c r="M103">
-        <v>3750.2889043010932</v>
+        <v>3748.949483241656</v>
       </c>
       <c r="N103">
-        <v>4166.8483829518136</v>
+        <v>4154.766850224889</v>
       </c>
       <c r="O103">
-        <v>3499.8554260068231</v>
+        <v>3500.542642770055</v>
       </c>
       <c r="P103">
-        <v>2096.0531544617029</v>
+        <v>2114.318769742484</v>
       </c>
       <c r="Q103">
-        <v>1637.3218793981191</v>
+        <v>1651.286326963939</v>
       </c>
       <c r="R103">
-        <v>762.71018447231791</v>
+        <v>770.7334971531042</v>
       </c>
       <c r="S103">
-        <v>1777.731421712564</v>
+        <v>1787.257591141505</v>
       </c>
       <c r="T103">
-        <v>2287.726743597877</v>
+        <v>2317.905048634992</v>
       </c>
       <c r="U103">
-        <v>6913.1772582726526</v>
+        <v>7038.554053177439</v>
       </c>
       <c r="V103">
-        <v>3656.8854768560259</v>
+        <v>3676.726756831205</v>
       </c>
       <c r="W103">
-        <v>5143.7412624729404</v>
+        <v>5133.525378512306</v>
       </c>
       <c r="X103">
-        <v>6350.5534506929298</v>
+        <v>6445.146559286811</v>
       </c>
       <c r="Y103">
-        <v>3947.266332626084</v>
+        <v>3952.657261191155</v>
       </c>
       <c r="Z103">
-        <v>592.69040917735003</v>
+        <v>592.6834075828524</v>
       </c>
       <c r="AA103">
-        <v>3700.415582776709</v>
+        <v>3711.390987058817</v>
       </c>
       <c r="AB103">
-        <v>3151.8536853526311</v>
+        <v>3162.463243468876</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F795107-794F-4AAE-9451-9D39AC1AA2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,11 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -170,13 +174,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +566,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -567,13 +586,13 @@
         <v>283.88</v>
       </c>
       <c r="G2">
-        <v>284.91</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="H2">
-        <v>299.59</v>
+        <v>299.58999999999997</v>
       </c>
       <c r="I2">
-        <v>319.35</v>
+        <v>319.35000000000002</v>
       </c>
       <c r="J2">
         <v>292.5</v>
@@ -585,7 +604,7 @@
         <v>372.65</v>
       </c>
       <c r="M2">
-        <v>299.78</v>
+        <v>299.77999999999997</v>
       </c>
       <c r="N2">
         <v>323.37</v>
@@ -609,7 +628,7 @@
         <v>220.56</v>
       </c>
       <c r="U2">
-        <v>588.5700000000001</v>
+        <v>588.57000000000005</v>
       </c>
       <c r="V2">
         <v>313.94</v>
@@ -621,7 +640,7 @@
         <v>432.87</v>
       </c>
       <c r="Y2">
-        <v>318.41</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="Z2">
         <v>150.94</v>
@@ -630,24 +649,24 @@
         <v>306.45</v>
       </c>
       <c r="AB2">
-        <v>292.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="2">
+        <v>292.54000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97</v>
+        <v>262.97000000000003</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.28</v>
+        <v>276.27999999999997</v>
       </c>
       <c r="F3">
         <v>291.01</v>
@@ -707,7 +726,7 @@
         <v>437.38</v>
       </c>
       <c r="Y3">
-        <v>325.22</v>
+        <v>325.22000000000003</v>
       </c>
       <c r="Z3">
         <v>150.94</v>
@@ -719,24 +738,24 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.09</v>
+        <v>265.08999999999997</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F4">
-        <v>293.53</v>
+        <v>293.52999999999997</v>
       </c>
       <c r="G4">
         <v>295.68</v>
@@ -757,7 +776,7 @@
         <v>379.96</v>
       </c>
       <c r="M4">
-        <v>307.1</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="N4">
         <v>329.55</v>
@@ -781,10 +800,10 @@
         <v>230.65</v>
       </c>
       <c r="U4">
-        <v>612.58</v>
+        <v>612.58000000000004</v>
       </c>
       <c r="V4">
-        <v>320.78</v>
+        <v>320.77999999999997</v>
       </c>
       <c r="W4">
         <v>404.44</v>
@@ -805,12 +824,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.65</v>
+        <v>313.64999999999998</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -819,16 +838,16 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.15</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="F5">
-        <v>296.71</v>
+        <v>296.70999999999998</v>
       </c>
       <c r="G5">
         <v>299.17</v>
       </c>
       <c r="H5">
-        <v>311.91</v>
+        <v>311.91000000000003</v>
       </c>
       <c r="I5">
         <v>349.18</v>
@@ -849,10 +868,10 @@
         <v>332.38</v>
       </c>
       <c r="O5">
-        <v>295.79</v>
+        <v>295.79000000000002</v>
       </c>
       <c r="P5">
-        <v>256.09</v>
+        <v>256.08999999999997</v>
       </c>
       <c r="Q5">
         <v>203.37</v>
@@ -867,7 +886,7 @@
         <v>234.54</v>
       </c>
       <c r="U5">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="V5">
         <v>322.81</v>
@@ -891,18 +910,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22</v>
+        <v>316.22000000000003</v>
       </c>
       <c r="C6">
-        <v>272.91</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="D6">
-        <v>264.15</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -971,21 +990,21 @@
         <v>151.37</v>
       </c>
       <c r="AA6">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="AB6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66</v>
+        <v>317.66000000000003</v>
       </c>
       <c r="C7">
-        <v>276.34</v>
+        <v>276.33999999999997</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -994,7 +1013,7 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>302.9</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="G7">
         <v>304.39</v>
@@ -1024,7 +1043,7 @@
         <v>300.86</v>
       </c>
       <c r="P7">
-        <v>265.85</v>
+        <v>265.85000000000002</v>
       </c>
       <c r="Q7">
         <v>213.3</v>
@@ -1054,7 +1073,7 @@
         <v>339.44</v>
       </c>
       <c r="Z7">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="AA7">
         <v>324.69</v>
@@ -1063,27 +1082,27 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.46</v>
+        <v>318.45999999999998</v>
       </c>
       <c r="C8">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.34</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="F8">
         <v>301.88</v>
       </c>
       <c r="G8">
-        <v>302.53</v>
+        <v>302.52999999999997</v>
       </c>
       <c r="H8">
         <v>304.86</v>
@@ -1110,7 +1129,7 @@
         <v>301.57</v>
       </c>
       <c r="P8">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q8">
         <v>212.39</v>
@@ -1146,11 +1165,11 @@
         <v>325.13</v>
       </c>
       <c r="AB8">
-        <v>309.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="2">
+        <v>309.77999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1196,7 +1215,7 @@
         <v>305.27</v>
       </c>
       <c r="P9">
-        <v>264.29</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="Q9">
         <v>211.65</v>
@@ -1235,8 +1254,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1273,7 +1292,7 @@
         <v>409.85</v>
       </c>
       <c r="M10">
-        <v>323.96</v>
+        <v>323.95999999999998</v>
       </c>
       <c r="N10">
         <v>344.85</v>
@@ -1282,7 +1301,7 @@
         <v>310.44</v>
       </c>
       <c r="P10">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="Q10">
         <v>212.12</v>
@@ -1318,18 +1337,18 @@
         <v>332.19</v>
       </c>
       <c r="AB10">
-        <v>311.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="2">
+        <v>311.85000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1338,13 +1357,13 @@
         <v>293.93</v>
       </c>
       <c r="F11">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="G11">
         <v>304.27</v>
       </c>
       <c r="H11">
-        <v>315.41</v>
+        <v>315.41000000000003</v>
       </c>
       <c r="I11">
         <v>343.79</v>
@@ -1398,7 +1417,7 @@
         <v>356.52</v>
       </c>
       <c r="Z11">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA11">
         <v>334.66</v>
@@ -1407,8 +1426,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1421,13 +1440,13 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="F12">
         <v>313.26</v>
       </c>
       <c r="G12">
-        <v>312.84</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="H12">
         <v>321.02</v>
@@ -1451,7 +1470,7 @@
         <v>348.94</v>
       </c>
       <c r="O12">
-        <v>319.53</v>
+        <v>319.52999999999997</v>
       </c>
       <c r="P12">
         <v>276.63</v>
@@ -1469,7 +1488,7 @@
         <v>248.3</v>
       </c>
       <c r="U12">
-        <v>619.3</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="V12">
         <v>341.86</v>
@@ -1484,24 +1503,24 @@
         <v>360.32</v>
       </c>
       <c r="Z12">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AA12">
         <v>334.15</v>
       </c>
       <c r="AB12">
-        <v>320.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="2">
+        <v>320.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.84</v>
+        <v>291.83999999999997</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1540,7 +1559,7 @@
         <v>323.76</v>
       </c>
       <c r="P13">
-        <v>281.96</v>
+        <v>281.95999999999998</v>
       </c>
       <c r="Q13">
         <v>228.14</v>
@@ -1579,8 +1598,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1590,13 +1609,13 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="E14">
         <v>305.86</v>
       </c>
       <c r="F14">
-        <v>321.35</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="G14">
         <v>321.93</v>
@@ -1623,7 +1642,7 @@
         <v>353.18</v>
       </c>
       <c r="O14">
-        <v>324.79</v>
+        <v>324.79000000000002</v>
       </c>
       <c r="P14">
         <v>283.25</v>
@@ -1662,18 +1681,18 @@
         <v>335.22</v>
       </c>
       <c r="AB14">
-        <v>327.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="2">
+        <v>327.41000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.34</v>
+        <v>295.33999999999997</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1712,7 +1731,7 @@
         <v>328.91</v>
       </c>
       <c r="P15">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="Q15">
         <v>228.89</v>
@@ -1724,7 +1743,7 @@
         <v>214.55</v>
       </c>
       <c r="T15">
-        <v>257.54</v>
+        <v>257.54000000000002</v>
       </c>
       <c r="U15">
         <v>628.96</v>
@@ -1751,15 +1770,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.59</v>
+        <v>297.58999999999997</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1798,7 +1817,7 @@
         <v>336.07</v>
       </c>
       <c r="P16">
-        <v>283.35</v>
+        <v>283.35000000000002</v>
       </c>
       <c r="Q16">
         <v>229.26</v>
@@ -1810,7 +1829,7 @@
         <v>217.55</v>
       </c>
       <c r="T16">
-        <v>261.72</v>
+        <v>261.72000000000003</v>
       </c>
       <c r="U16">
         <v>629.85</v>
@@ -1837,8 +1856,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1851,7 +1870,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.15</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F17">
         <v>329.83</v>
@@ -1896,7 +1915,7 @@
         <v>219.62</v>
       </c>
       <c r="T17">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="U17">
         <v>632.14</v>
@@ -1923,8 +1942,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -1982,10 +2001,10 @@
         <v>227.17</v>
       </c>
       <c r="T18">
-        <v>268.97</v>
+        <v>268.97000000000003</v>
       </c>
       <c r="U18">
-        <v>638.6799999999999</v>
+        <v>638.67999999999995</v>
       </c>
       <c r="V18">
         <v>355.74</v>
@@ -2009,8 +2028,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2068,7 +2087,7 @@
         <v>230.29</v>
       </c>
       <c r="T19">
-        <v>272.03</v>
+        <v>272.02999999999997</v>
       </c>
       <c r="U19">
         <v>647.21</v>
@@ -2095,8 +2114,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2154,10 +2173,10 @@
         <v>237.67</v>
       </c>
       <c r="T20">
-        <v>277.53</v>
+        <v>277.52999999999997</v>
       </c>
       <c r="U20">
-        <v>652.0700000000001</v>
+        <v>652.07000000000005</v>
       </c>
       <c r="V20">
         <v>366.56</v>
@@ -2166,7 +2185,7 @@
         <v>454.04</v>
       </c>
       <c r="X20">
-        <v>517.92</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="Y20">
         <v>378.57</v>
@@ -2181,15 +2200,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2228,7 +2247,7 @@
         <v>354.2</v>
       </c>
       <c r="P21">
-        <v>309.47</v>
+        <v>309.47000000000003</v>
       </c>
       <c r="Q21">
         <v>253.09</v>
@@ -2240,7 +2259,7 @@
         <v>241.08</v>
       </c>
       <c r="T21">
-        <v>283.09</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="U21">
         <v>654.66</v>
@@ -2258,7 +2277,7 @@
         <v>381.57</v>
       </c>
       <c r="Z21">
-        <v>160.98</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="AA21">
         <v>368.36</v>
@@ -2267,8 +2286,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2278,7 +2297,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.09</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2317,7 +2336,7 @@
         <v>319.89</v>
       </c>
       <c r="Q22">
-        <v>261.28</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="R22">
         <v>219.05</v>
@@ -2338,7 +2357,7 @@
         <v>464.09</v>
       </c>
       <c r="X22">
-        <v>539.58</v>
+        <v>539.58000000000004</v>
       </c>
       <c r="Y22">
         <v>386.38</v>
@@ -2353,8 +2372,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2403,16 +2422,16 @@
         <v>348.81</v>
       </c>
       <c r="Q23">
-        <v>288.65</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="R23">
         <v>227.79</v>
       </c>
       <c r="S23">
-        <v>287.21</v>
+        <v>287.20999999999998</v>
       </c>
       <c r="T23">
-        <v>325.53</v>
+        <v>325.52999999999997</v>
       </c>
       <c r="U23">
         <v>696.17</v>
@@ -2424,7 +2443,7 @@
         <v>468.29</v>
       </c>
       <c r="X23">
-        <v>565.3</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="Y23">
         <v>407.04</v>
@@ -2439,8 +2458,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2489,7 +2508,7 @@
         <v>359.66</v>
       </c>
       <c r="Q24">
-        <v>300.15</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="R24">
         <v>257.32</v>
@@ -2525,8 +2544,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2611,8 +2630,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2682,7 +2701,7 @@
         <v>477.48</v>
       </c>
       <c r="X26">
-        <v>578.0700000000001</v>
+        <v>578.07000000000005</v>
       </c>
       <c r="Y26">
         <v>399.98</v>
@@ -2697,8 +2716,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2732,7 +2751,7 @@
         <v>560.37</v>
       </c>
       <c r="L27">
-        <v>520.08</v>
+        <v>520.08000000000004</v>
       </c>
       <c r="M27">
         <v>418.09</v>
@@ -2747,7 +2766,7 @@
         <v>340.21</v>
       </c>
       <c r="Q27">
-        <v>280.97</v>
+        <v>280.97000000000003</v>
       </c>
       <c r="R27">
         <v>231.98</v>
@@ -2783,8 +2802,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2812,7 +2831,7 @@
         <v>488.24</v>
       </c>
       <c r="J28">
-        <v>644.3</v>
+        <v>644.29999999999995</v>
       </c>
       <c r="K28">
         <v>567.98</v>
@@ -2869,8 +2888,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2901,7 +2920,7 @@
         <v>702.92</v>
       </c>
       <c r="K29">
-        <v>593.5599999999999</v>
+        <v>593.55999999999995</v>
       </c>
       <c r="L29">
         <v>531.28</v>
@@ -2919,7 +2938,7 @@
         <v>337.36</v>
       </c>
       <c r="Q29">
-        <v>277.85</v>
+        <v>277.85000000000002</v>
       </c>
       <c r="R29">
         <v>221.54</v>
@@ -2940,7 +2959,7 @@
         <v>489.21</v>
       </c>
       <c r="X29">
-        <v>593.3099999999999</v>
+        <v>593.30999999999995</v>
       </c>
       <c r="Y29">
         <v>401.09</v>
@@ -2955,8 +2974,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -2990,7 +3009,7 @@
         <v>604.12</v>
       </c>
       <c r="L30">
-        <v>563.92</v>
+        <v>563.91999999999996</v>
       </c>
       <c r="M30">
         <v>425.02</v>
@@ -3005,7 +3024,7 @@
         <v>347.12</v>
       </c>
       <c r="Q30">
-        <v>284.21</v>
+        <v>284.20999999999998</v>
       </c>
       <c r="R30">
         <v>233.63</v>
@@ -3041,8 +3060,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3070,13 +3089,13 @@
         <v>501.16</v>
       </c>
       <c r="J31">
-        <v>575.6799999999999</v>
+        <v>575.67999999999995</v>
       </c>
       <c r="K31">
         <v>575.66</v>
       </c>
       <c r="L31">
-        <v>579.45</v>
+        <v>579.45000000000005</v>
       </c>
       <c r="M31">
         <v>436.72</v>
@@ -3091,13 +3110,13 @@
         <v>355.96</v>
       </c>
       <c r="Q31">
-        <v>288.41</v>
+        <v>288.41000000000003</v>
       </c>
       <c r="R31">
         <v>243.34</v>
       </c>
       <c r="S31">
-        <v>261.1</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="T31">
         <v>358.15</v>
@@ -3127,8 +3146,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3213,8 +3232,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3248,7 +3267,7 @@
         <v>521.02</v>
       </c>
       <c r="L33">
-        <v>559.5599999999999</v>
+        <v>559.55999999999995</v>
       </c>
       <c r="M33">
         <v>455.17</v>
@@ -3263,7 +3282,7 @@
         <v>366.65</v>
       </c>
       <c r="Q33">
-        <v>298.16</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="R33">
         <v>231.51</v>
@@ -3299,8 +3318,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3349,7 +3368,7 @@
         <v>373.6</v>
       </c>
       <c r="Q34">
-        <v>295.29</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="R34">
         <v>228.83</v>
@@ -3385,8 +3404,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3447,13 +3466,13 @@
         <v>367.08</v>
       </c>
       <c r="U35">
-        <v>942.5700000000001</v>
+        <v>942.57</v>
       </c>
       <c r="V35">
         <v>436.66</v>
       </c>
       <c r="W35">
-        <v>515.8</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="X35">
         <v>649.38</v>
@@ -3471,8 +3490,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3521,10 +3540,10 @@
         <v>385.85</v>
       </c>
       <c r="Q36">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="R36">
-        <v>261.59</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="S36">
         <v>281.19</v>
@@ -3533,7 +3552,7 @@
         <v>367.84</v>
       </c>
       <c r="U36">
-        <v>943.3200000000001</v>
+        <v>943.32</v>
       </c>
       <c r="V36">
         <v>439.44</v>
@@ -3557,8 +3576,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3592,7 +3611,7 @@
         <v>509.17</v>
       </c>
       <c r="L37">
-        <v>534.0599999999999</v>
+        <v>534.05999999999995</v>
       </c>
       <c r="M37">
         <v>468.61</v>
@@ -3610,10 +3629,10 @@
         <v>308.51</v>
       </c>
       <c r="R37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="S37">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="T37">
         <v>370.16</v>
@@ -3643,8 +3662,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3675,7 +3694,7 @@
         <v>502.4</v>
       </c>
       <c r="K38">
-        <v>529.3099999999999</v>
+        <v>529.30999999999995</v>
       </c>
       <c r="L38">
         <v>549.09</v>
@@ -3714,7 +3733,7 @@
         <v>525.49</v>
       </c>
       <c r="X38">
-        <v>654.1799999999999</v>
+        <v>654.17999999999995</v>
       </c>
       <c r="Y38">
         <v>460.09</v>
@@ -3729,8 +3748,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3758,13 +3777,13 @@
         <v>527.59</v>
       </c>
       <c r="J39">
-        <v>604.2</v>
+        <v>604.20000000000005</v>
       </c>
       <c r="K39">
-        <v>572.8099999999999</v>
+        <v>572.80999999999995</v>
       </c>
       <c r="L39">
-        <v>559.9299999999999</v>
+        <v>559.92999999999995</v>
       </c>
       <c r="M39">
         <v>485.31</v>
@@ -3791,7 +3810,7 @@
         <v>371.38</v>
       </c>
       <c r="U39">
-        <v>954.4400000000001</v>
+        <v>954.44</v>
       </c>
       <c r="V39">
         <v>450.6</v>
@@ -3815,8 +3834,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -3877,7 +3896,7 @@
         <v>370.69</v>
       </c>
       <c r="U40">
-        <v>952.8099999999999</v>
+        <v>952.81</v>
       </c>
       <c r="V40">
         <v>454.39</v>
@@ -3886,7 +3905,7 @@
         <v>535.78</v>
       </c>
       <c r="X40">
-        <v>668.6900000000001</v>
+        <v>668.69</v>
       </c>
       <c r="Y40">
         <v>467.21</v>
@@ -3901,8 +3920,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -3927,7 +3946,7 @@
         <v>431.76</v>
       </c>
       <c r="I41">
-        <v>550.42</v>
+        <v>550.41999999999996</v>
       </c>
       <c r="J41">
         <v>656.84</v>
@@ -3936,7 +3955,7 @@
         <v>613.34</v>
       </c>
       <c r="L41">
-        <v>593.9299999999999</v>
+        <v>593.92999999999995</v>
       </c>
       <c r="M41">
         <v>493.66</v>
@@ -3969,7 +3988,7 @@
         <v>456.77</v>
       </c>
       <c r="W41">
-        <v>538.6900000000001</v>
+        <v>538.69000000000005</v>
       </c>
       <c r="X41">
         <v>674.5</v>
@@ -3987,8 +4006,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4013,7 +4032,7 @@
         <v>410.23</v>
       </c>
       <c r="I42">
-        <v>564.3200000000001</v>
+        <v>564.32000000000005</v>
       </c>
       <c r="J42">
         <v>662.83</v>
@@ -4022,7 +4041,7 @@
         <v>635.72</v>
       </c>
       <c r="L42">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="M42">
         <v>500.59</v>
@@ -4055,10 +4074,10 @@
         <v>457.78</v>
       </c>
       <c r="W42">
-        <v>540.9400000000001</v>
+        <v>540.94000000000005</v>
       </c>
       <c r="X42">
-        <v>675.3200000000001</v>
+        <v>675.32</v>
       </c>
       <c r="Y42">
         <v>468.14</v>
@@ -4073,8 +4092,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4099,7 +4118,7 @@
         <v>418.97</v>
       </c>
       <c r="I43">
-        <v>565.6799999999999</v>
+        <v>565.67999999999995</v>
       </c>
       <c r="J43">
         <v>641.12</v>
@@ -4114,7 +4133,7 @@
         <v>504.4</v>
       </c>
       <c r="N43">
-        <v>538.5599999999999</v>
+        <v>538.55999999999995</v>
       </c>
       <c r="O43">
         <v>482.69</v>
@@ -4129,7 +4148,7 @@
         <v>261.74</v>
       </c>
       <c r="S43">
-        <v>294.78</v>
+        <v>294.77999999999997</v>
       </c>
       <c r="T43">
         <v>378.28</v>
@@ -4144,7 +4163,7 @@
         <v>543.35</v>
       </c>
       <c r="X43">
-        <v>676.4299999999999</v>
+        <v>676.43</v>
       </c>
       <c r="Y43">
         <v>476.75</v>
@@ -4159,8 +4178,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4188,7 +4207,7 @@
         <v>556.61</v>
       </c>
       <c r="J44">
-        <v>593.0599999999999</v>
+        <v>593.05999999999995</v>
       </c>
       <c r="K44">
         <v>610.1</v>
@@ -4215,7 +4234,7 @@
         <v>264.74</v>
       </c>
       <c r="S44">
-        <v>303.28</v>
+        <v>303.27999999999997</v>
       </c>
       <c r="T44">
         <v>385.66</v>
@@ -4245,8 +4264,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4277,7 +4296,7 @@
         <v>545.16</v>
       </c>
       <c r="K45">
-        <v>593.2</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="L45">
         <v>625.5</v>
@@ -4313,7 +4332,7 @@
         <v>475.77</v>
       </c>
       <c r="W45">
-        <v>551.9400000000001</v>
+        <v>551.94000000000005</v>
       </c>
       <c r="X45">
         <v>704.05</v>
@@ -4331,8 +4350,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4360,10 +4379,10 @@
         <v>549.04</v>
       </c>
       <c r="J46">
-        <v>539.8</v>
+        <v>539.79999999999995</v>
       </c>
       <c r="K46">
-        <v>587.08</v>
+        <v>587.08000000000004</v>
       </c>
       <c r="L46">
         <v>618.89</v>
@@ -4372,7 +4391,7 @@
         <v>512.28</v>
       </c>
       <c r="N46">
-        <v>552.95</v>
+        <v>552.95000000000005</v>
       </c>
       <c r="O46">
         <v>487.32</v>
@@ -4393,7 +4412,7 @@
         <v>390.75</v>
       </c>
       <c r="U46">
-        <v>1063.62</v>
+        <v>1063.6199999999999</v>
       </c>
       <c r="V46">
         <v>481.21</v>
@@ -4417,8 +4436,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4449,10 +4468,10 @@
         <v>550.48</v>
       </c>
       <c r="K47">
-        <v>585.7</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="L47">
-        <v>610.6799999999999</v>
+        <v>610.67999999999995</v>
       </c>
       <c r="M47">
         <v>519.87</v>
@@ -4503,8 +4522,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4535,13 +4554,13 @@
         <v>592</v>
       </c>
       <c r="K48">
-        <v>608.95</v>
+        <v>608.95000000000005</v>
       </c>
       <c r="L48">
         <v>623.76</v>
       </c>
       <c r="M48">
-        <v>531.2</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="N48">
         <v>578.76</v>
@@ -4571,7 +4590,7 @@
         <v>487.41</v>
       </c>
       <c r="W48">
-        <v>565.45</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="X48">
         <v>725.37</v>
@@ -4589,12 +4608,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4615,7 +4634,7 @@
         <v>461.78</v>
       </c>
       <c r="I49">
-        <v>593.0700000000001</v>
+        <v>593.07000000000005</v>
       </c>
       <c r="J49">
         <v>642.79</v>
@@ -4624,7 +4643,7 @@
         <v>646.77</v>
       </c>
       <c r="L49">
-        <v>654.5599999999999</v>
+        <v>654.55999999999995</v>
       </c>
       <c r="M49">
         <v>543.22</v>
@@ -4675,12 +4694,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.0599999999999</v>
+        <v>524.05999999999995</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4701,10 +4720,10 @@
         <v>468.55</v>
       </c>
       <c r="I50">
-        <v>608.0599999999999</v>
+        <v>608.05999999999995</v>
       </c>
       <c r="J50">
-        <v>672.8099999999999</v>
+        <v>672.81</v>
       </c>
       <c r="K50">
         <v>668.72</v>
@@ -4716,7 +4735,7 @@
         <v>552.46</v>
       </c>
       <c r="N50">
-        <v>607.58</v>
+        <v>607.58000000000004</v>
       </c>
       <c r="O50">
         <v>520.04</v>
@@ -4761,8 +4780,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4781,7 +4800,7 @@
         <v>507.22</v>
       </c>
       <c r="G51">
-        <v>519.17</v>
+        <v>519.16999999999996</v>
       </c>
       <c r="H51">
         <v>483.75</v>
@@ -4799,7 +4818,7 @@
         <v>688.11</v>
       </c>
       <c r="M51">
-        <v>573.1799999999999</v>
+        <v>573.17999999999995</v>
       </c>
       <c r="N51">
         <v>618.5</v>
@@ -4829,7 +4848,7 @@
         <v>502.53</v>
       </c>
       <c r="W51">
-        <v>580.1900000000001</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="X51">
         <v>748.72</v>
@@ -4844,15 +4863,15 @@
         <v>520.77</v>
       </c>
       <c r="AB51">
-        <v>513.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="2">
+        <v>513.29999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.9299999999999</v>
+        <v>539.92999999999995</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -4864,7 +4883,7 @@
         <v>478.48</v>
       </c>
       <c r="F52">
-        <v>512.0700000000001</v>
+        <v>512.07000000000005</v>
       </c>
       <c r="G52">
         <v>523.63</v>
@@ -4873,7 +4892,7 @@
         <v>484.97</v>
       </c>
       <c r="I52">
-        <v>639.2</v>
+        <v>639.20000000000005</v>
       </c>
       <c r="J52">
         <v>700.64</v>
@@ -4885,13 +4904,13 @@
         <v>699.37</v>
       </c>
       <c r="M52">
-        <v>586.1799999999999</v>
+        <v>586.17999999999995</v>
       </c>
       <c r="N52">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="O52">
-        <v>560.6900000000001</v>
+        <v>560.69000000000005</v>
       </c>
       <c r="P52">
         <v>451.93</v>
@@ -4915,7 +4934,7 @@
         <v>507.74</v>
       </c>
       <c r="W52">
-        <v>585.08</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="X52">
         <v>758.58</v>
@@ -4927,14 +4946,14 @@
         <v>191.88</v>
       </c>
       <c r="AA52">
-        <v>526.7</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="AB52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -4950,7 +4969,7 @@
         <v>483.73</v>
       </c>
       <c r="F53">
-        <v>517.83</v>
+        <v>517.83000000000004</v>
       </c>
       <c r="G53">
         <v>528.9</v>
@@ -4974,7 +4993,7 @@
         <v>591.75</v>
       </c>
       <c r="N53">
-        <v>633.3099999999999</v>
+        <v>633.30999999999995</v>
       </c>
       <c r="O53">
         <v>565.27</v>
@@ -4995,13 +5014,13 @@
         <v>438.18</v>
       </c>
       <c r="U53">
-        <v>1064.4</v>
+        <v>1064.4000000000001</v>
       </c>
       <c r="V53">
         <v>514.16</v>
       </c>
       <c r="W53">
-        <v>588.4400000000001</v>
+        <v>588.44000000000005</v>
       </c>
       <c r="X53">
         <v>778.33</v>
@@ -5019,8 +5038,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5036,7 +5055,7 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>527.6799999999999</v>
+        <v>527.67999999999995</v>
       </c>
       <c r="G54">
         <v>539.65</v>
@@ -5072,7 +5091,7 @@
         <v>377.53</v>
       </c>
       <c r="R54">
-        <v>271.46</v>
+        <v>271.45999999999998</v>
       </c>
       <c r="S54">
         <v>381.91</v>
@@ -5087,7 +5106,7 @@
         <v>517.86</v>
       </c>
       <c r="W54">
-        <v>591.9299999999999</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="X54">
         <v>788.85</v>
@@ -5102,11 +5121,11 @@
         <v>537.27</v>
       </c>
       <c r="AB54">
-        <v>532.3200000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="2">
+        <v>532.32000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5143,13 +5162,13 @@
         <v>745.21</v>
       </c>
       <c r="M55">
-        <v>602.6900000000001</v>
+        <v>602.69000000000005</v>
       </c>
       <c r="N55">
-        <v>644.08</v>
+        <v>644.08000000000004</v>
       </c>
       <c r="O55">
-        <v>576.17</v>
+        <v>576.16999999999996</v>
       </c>
       <c r="P55">
         <v>473.91</v>
@@ -5167,13 +5186,13 @@
         <v>448.6</v>
       </c>
       <c r="U55">
-        <v>1095.12</v>
+        <v>1095.1199999999999</v>
       </c>
       <c r="V55">
-        <v>523.95</v>
+        <v>523.95000000000005</v>
       </c>
       <c r="W55">
-        <v>596.17</v>
+        <v>596.16999999999996</v>
       </c>
       <c r="X55">
         <v>796.33</v>
@@ -5188,11 +5207,11 @@
         <v>541.04</v>
       </c>
       <c r="AB55">
-        <v>537.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="2">
+        <v>537.04999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5208,10 +5227,10 @@
         <v>508.36</v>
       </c>
       <c r="F56">
-        <v>544.9400000000001</v>
+        <v>544.94000000000005</v>
       </c>
       <c r="G56">
-        <v>554.4400000000001</v>
+        <v>554.44000000000005</v>
       </c>
       <c r="H56">
         <v>504.23</v>
@@ -5223,7 +5242,7 @@
         <v>651.91</v>
       </c>
       <c r="K56">
-        <v>724.1799999999999</v>
+        <v>724.18</v>
       </c>
       <c r="L56">
         <v>771.49</v>
@@ -5232,7 +5251,7 @@
         <v>614.89</v>
       </c>
       <c r="N56">
-        <v>653.9299999999999</v>
+        <v>653.92999999999995</v>
       </c>
       <c r="O56">
         <v>589.34</v>
@@ -5244,7 +5263,7 @@
         <v>392.53</v>
       </c>
       <c r="R56">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="S56">
         <v>396.88</v>
@@ -5271,14 +5290,14 @@
         <v>195.92</v>
       </c>
       <c r="AA56">
-        <v>551.1799999999999</v>
+        <v>551.17999999999995</v>
       </c>
       <c r="AB56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5297,10 +5316,10 @@
         <v>552.74</v>
       </c>
       <c r="G57">
-        <v>565.42</v>
+        <v>565.41999999999996</v>
       </c>
       <c r="H57">
-        <v>535.4400000000001</v>
+        <v>535.44000000000005</v>
       </c>
       <c r="I57">
         <v>686.41</v>
@@ -5309,7 +5328,7 @@
         <v>688.35</v>
       </c>
       <c r="K57">
-        <v>745.8200000000001</v>
+        <v>745.82</v>
       </c>
       <c r="L57">
         <v>784.9</v>
@@ -5318,7 +5337,7 @@
         <v>630.75</v>
       </c>
       <c r="N57">
-        <v>673.0599999999999</v>
+        <v>673.06</v>
       </c>
       <c r="O57">
         <v>603.47</v>
@@ -5330,7 +5349,7 @@
         <v>392.46</v>
       </c>
       <c r="R57">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="S57">
         <v>396.46</v>
@@ -5342,10 +5361,10 @@
         <v>1095.74</v>
       </c>
       <c r="V57">
-        <v>541.2</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="W57">
-        <v>606.6799999999999</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="X57">
         <v>849.27</v>
@@ -5363,12 +5382,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.92</v>
+        <v>587.91999999999996</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5377,16 +5396,16 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.67</v>
+        <v>520.66999999999996</v>
       </c>
       <c r="F58">
-        <v>559.6900000000001</v>
+        <v>559.69000000000005</v>
       </c>
       <c r="G58">
         <v>571.47</v>
       </c>
       <c r="H58">
-        <v>538.8200000000001</v>
+        <v>538.82000000000005</v>
       </c>
       <c r="I58">
         <v>708.25</v>
@@ -5395,16 +5414,16 @@
         <v>757.76</v>
       </c>
       <c r="K58">
-        <v>777.5599999999999</v>
+        <v>777.56</v>
       </c>
       <c r="L58">
         <v>795.48</v>
       </c>
       <c r="M58">
-        <v>644.55</v>
+        <v>644.54999999999995</v>
       </c>
       <c r="N58">
-        <v>685.1799999999999</v>
+        <v>685.18</v>
       </c>
       <c r="O58">
         <v>617.9</v>
@@ -5449,12 +5468,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5472,7 +5491,7 @@
         <v>577.87</v>
       </c>
       <c r="H59">
-        <v>550.7</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="I59">
         <v>711.76</v>
@@ -5484,16 +5503,16 @@
         <v>773.47</v>
       </c>
       <c r="L59">
-        <v>802.3200000000001</v>
+        <v>802.32</v>
       </c>
       <c r="M59">
-        <v>653.95</v>
+        <v>653.95000000000005</v>
       </c>
       <c r="N59">
-        <v>702.5599999999999</v>
+        <v>702.56</v>
       </c>
       <c r="O59">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="P59">
         <v>490.14</v>
@@ -5502,7 +5521,7 @@
         <v>396.32</v>
       </c>
       <c r="R59">
-        <v>267.34</v>
+        <v>267.33999999999997</v>
       </c>
       <c r="S59">
         <v>400.11</v>
@@ -5511,7 +5530,7 @@
         <v>489.04</v>
       </c>
       <c r="U59">
-        <v>1094.87</v>
+        <v>1094.8699999999999</v>
       </c>
       <c r="V59">
         <v>556.85</v>
@@ -5523,7 +5542,7 @@
         <v>887.83</v>
       </c>
       <c r="Y59">
-        <v>573.92</v>
+        <v>573.91999999999996</v>
       </c>
       <c r="Z59">
         <v>199.11</v>
@@ -5535,15 +5554,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.7</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="C60">
-        <v>512.92</v>
+        <v>512.91999999999996</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5555,7 +5574,7 @@
         <v>580.6</v>
       </c>
       <c r="G60">
-        <v>594.5599999999999</v>
+        <v>594.55999999999995</v>
       </c>
       <c r="H60">
         <v>575.9</v>
@@ -5588,7 +5607,7 @@
         <v>406.18</v>
       </c>
       <c r="R60">
-        <v>287.79</v>
+        <v>287.79000000000002</v>
       </c>
       <c r="S60">
         <v>405.04</v>
@@ -5618,18 +5637,18 @@
         <v>576.02</v>
       </c>
       <c r="AB60">
-        <v>584.3200000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="2">
+        <v>584.32000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.4400000000001</v>
+        <v>529.44000000000005</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5641,10 +5660,10 @@
         <v>604.11</v>
       </c>
       <c r="G61">
-        <v>618.92</v>
+        <v>618.91999999999996</v>
       </c>
       <c r="H61">
-        <v>610.1799999999999</v>
+        <v>610.17999999999995</v>
       </c>
       <c r="I61">
         <v>753.88</v>
@@ -5665,22 +5684,22 @@
         <v>777</v>
       </c>
       <c r="O61">
-        <v>655.5599999999999</v>
+        <v>655.56</v>
       </c>
       <c r="P61">
-        <v>522.8200000000001</v>
+        <v>522.82000000000005</v>
       </c>
       <c r="Q61">
         <v>421.08</v>
       </c>
       <c r="R61">
-        <v>292.54</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="S61">
         <v>421.48</v>
       </c>
       <c r="T61">
-        <v>517.58</v>
+        <v>517.58000000000004</v>
       </c>
       <c r="U61">
         <v>1192.96</v>
@@ -5707,12 +5726,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.4400000000001</v>
+        <v>723.44</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5724,13 +5743,13 @@
         <v>637.09</v>
       </c>
       <c r="F62">
-        <v>695.9400000000001</v>
+        <v>695.94</v>
       </c>
       <c r="G62">
         <v>720.91</v>
       </c>
       <c r="H62">
-        <v>669.6799999999999</v>
+        <v>669.68</v>
       </c>
       <c r="I62">
         <v>874.42</v>
@@ -5754,7 +5773,7 @@
         <v>751.89</v>
       </c>
       <c r="P62">
-        <v>624.5700000000001</v>
+        <v>624.57000000000005</v>
       </c>
       <c r="Q62">
         <v>507.09</v>
@@ -5763,22 +5782,22 @@
         <v>314.13</v>
       </c>
       <c r="S62">
-        <v>549.33</v>
+        <v>549.33000000000004</v>
       </c>
       <c r="T62">
-        <v>586.8099999999999</v>
+        <v>586.80999999999995</v>
       </c>
       <c r="U62">
         <v>1363.98</v>
       </c>
       <c r="V62">
-        <v>603.4400000000001</v>
+        <v>603.44000000000005</v>
       </c>
       <c r="W62">
-        <v>643.0700000000001</v>
+        <v>643.07000000000005</v>
       </c>
       <c r="X62">
-        <v>1038.39</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="Y62">
         <v>609.85</v>
@@ -5793,15 +5812,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.2</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -5831,7 +5850,7 @@
         <v>1104.82</v>
       </c>
       <c r="M63">
-        <v>895.3200000000001</v>
+        <v>895.32</v>
       </c>
       <c r="N63">
         <v>1001.04</v>
@@ -5840,13 +5859,13 @@
         <v>834.9</v>
       </c>
       <c r="P63">
-        <v>673.4299999999999</v>
+        <v>673.43</v>
       </c>
       <c r="Q63">
         <v>538.27</v>
       </c>
       <c r="R63">
-        <v>312.85</v>
+        <v>312.85000000000002</v>
       </c>
       <c r="S63">
         <v>584.66</v>
@@ -5858,13 +5877,13 @@
         <v>1599.72</v>
       </c>
       <c r="V63">
-        <v>651.08</v>
+        <v>651.08000000000004</v>
       </c>
       <c r="W63">
         <v>660.79</v>
       </c>
       <c r="X63">
-        <v>1126.11</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="Y63">
         <v>712.78</v>
@@ -5873,14 +5892,14 @@
         <v>206.41</v>
       </c>
       <c r="AA63">
-        <v>677.1900000000001</v>
+        <v>677.19</v>
       </c>
       <c r="AB63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
-      <c r="A64" s="2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -5890,16 +5909,16 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.3</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="E64">
         <v>730.76</v>
       </c>
       <c r="F64">
-        <v>799.5700000000001</v>
+        <v>799.57</v>
       </c>
       <c r="G64">
-        <v>851.0599999999999</v>
+        <v>851.06</v>
       </c>
       <c r="H64">
         <v>887.38</v>
@@ -5920,7 +5939,7 @@
         <v>934.47</v>
       </c>
       <c r="N64">
-        <v>1055.11</v>
+        <v>1055.1099999999999</v>
       </c>
       <c r="O64">
         <v>866.62</v>
@@ -5962,18 +5981,18 @@
         <v>701.87</v>
       </c>
       <c r="AB64">
-        <v>799.9299999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65" s="2">
+        <v>799.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.0599999999999</v>
+        <v>887.06</v>
       </c>
       <c r="C65">
-        <v>701.8200000000001</v>
+        <v>701.82</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -5988,16 +6007,16 @@
         <v>901.13</v>
       </c>
       <c r="H65">
-        <v>985.0700000000001</v>
+        <v>985.07</v>
       </c>
       <c r="I65">
         <v>1101</v>
       </c>
       <c r="J65">
-        <v>1275.85</v>
+        <v>1275.8499999999999</v>
       </c>
       <c r="K65">
-        <v>1251.9</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="L65">
         <v>1238.72</v>
@@ -6012,10 +6031,10 @@
         <v>888.09</v>
       </c>
       <c r="P65">
-        <v>728.4299999999999</v>
+        <v>728.43</v>
       </c>
       <c r="Q65">
-        <v>584.45</v>
+        <v>584.45000000000005</v>
       </c>
       <c r="R65">
         <v>318.98</v>
@@ -6051,8 +6070,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
-      <c r="A66" s="2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6062,7 +6081,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.1900000000001</v>
+        <v>680.19</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6116,7 +6135,7 @@
         <v>1756.48</v>
       </c>
       <c r="V66">
-        <v>736.3099999999999</v>
+        <v>736.31</v>
       </c>
       <c r="W66">
         <v>699.54</v>
@@ -6131,14 +6150,14 @@
         <v>219.53</v>
       </c>
       <c r="AA66">
-        <v>741.3099999999999</v>
+        <v>741.31</v>
       </c>
       <c r="AB66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
-      <c r="A67" s="2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6151,7 +6170,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.0599999999999</v>
+        <v>846.06</v>
       </c>
       <c r="F67">
         <v>933.46</v>
@@ -6181,7 +6200,7 @@
         <v>1228.22</v>
       </c>
       <c r="O67">
-        <v>1057.16</v>
+        <v>1057.1600000000001</v>
       </c>
       <c r="P67">
         <v>786.53</v>
@@ -6223,8 +6242,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6243,7 +6262,7 @@
         <v>974.59</v>
       </c>
       <c r="G68">
-        <v>1053.11</v>
+        <v>1053.1099999999999</v>
       </c>
       <c r="H68">
         <v>1267.26</v>
@@ -6264,7 +6283,7 @@
         <v>1205.46</v>
       </c>
       <c r="N68">
-        <v>1288.86</v>
+        <v>1288.8599999999999</v>
       </c>
       <c r="O68">
         <v>1151.55</v>
@@ -6303,27 +6322,27 @@
         <v>230.49</v>
       </c>
       <c r="AA68">
-        <v>787.3200000000001</v>
+        <v>787.32</v>
       </c>
       <c r="AB68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
-      <c r="A69" s="2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.6900000000001</v>
+        <v>829.69</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.4400000000001</v>
+        <v>919.44</v>
       </c>
       <c r="F69">
         <v>994.29</v>
@@ -6332,7 +6351,7 @@
         <v>1075.26</v>
       </c>
       <c r="H69">
-        <v>1227.6</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="I69">
         <v>1336.07</v>
@@ -6365,7 +6384,7 @@
         <v>363.67</v>
       </c>
       <c r="S69">
-        <v>733.1900000000001</v>
+        <v>733.19</v>
       </c>
       <c r="T69">
         <v>829.14</v>
@@ -6383,7 +6402,7 @@
         <v>1521.38</v>
       </c>
       <c r="Y69">
-        <v>1060.64</v>
+        <v>1060.6400000000001</v>
       </c>
       <c r="Z69">
         <v>234.69</v>
@@ -6395,8 +6414,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
-      <c r="A70" s="2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6469,7 +6488,7 @@
         <v>1571.7</v>
       </c>
       <c r="Y70">
-        <v>1062.34</v>
+        <v>1062.3399999999999</v>
       </c>
       <c r="Z70">
         <v>238.55</v>
@@ -6481,15 +6500,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
-      <c r="A71" s="2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.61</v>
+        <v>1120.6099999999999</v>
       </c>
       <c r="C71">
-        <v>879.4299999999999</v>
+        <v>879.43</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6510,7 +6529,7 @@
         <v>1374.05</v>
       </c>
       <c r="J71">
-        <v>1165.61</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="K71">
         <v>1410.76</v>
@@ -6531,7 +6550,7 @@
         <v>875.73</v>
       </c>
       <c r="Q71">
-        <v>703.4400000000001</v>
+        <v>703.44</v>
       </c>
       <c r="R71">
         <v>373.27</v>
@@ -6540,7 +6559,7 @@
         <v>760.04</v>
       </c>
       <c r="T71">
-        <v>893.6900000000001</v>
+        <v>893.69</v>
       </c>
       <c r="U71">
         <v>2027.58</v>
@@ -6564,18 +6583,18 @@
         <v>874.72</v>
       </c>
       <c r="AB71">
-        <v>1046.89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
-      <c r="A72" s="2">
+        <v>1046.8900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.39</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="C72">
-        <v>907.9400000000001</v>
+        <v>907.94</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6611,7 +6630,7 @@
         <v>1490.89</v>
       </c>
       <c r="O72">
-        <v>1298.12</v>
+        <v>1298.1199999999999</v>
       </c>
       <c r="P72">
         <v>907.03</v>
@@ -6629,19 +6648,19 @@
         <v>920.17</v>
       </c>
       <c r="U72">
-        <v>2082.82</v>
+        <v>2082.8200000000002</v>
       </c>
       <c r="V72">
-        <v>901.5700000000001</v>
+        <v>901.57</v>
       </c>
       <c r="W72">
-        <v>887.8200000000001</v>
+        <v>887.82</v>
       </c>
       <c r="X72">
         <v>1652.46</v>
       </c>
       <c r="Y72">
-        <v>1158.61</v>
+        <v>1158.6099999999999</v>
       </c>
       <c r="Z72">
         <v>252.33</v>
@@ -6653,8 +6672,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6670,10 +6689,10 @@
         <v>1025.73</v>
       </c>
       <c r="F73">
-        <v>1103.62</v>
+        <v>1103.6199999999999</v>
       </c>
       <c r="G73">
-        <v>1194.6</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="H73">
         <v>1330.22</v>
@@ -6700,10 +6719,10 @@
         <v>1393.56</v>
       </c>
       <c r="P73">
-        <v>924.0599999999999</v>
+        <v>924.06</v>
       </c>
       <c r="Q73">
-        <v>741.5599999999999</v>
+        <v>741.56</v>
       </c>
       <c r="R73">
         <v>398.49</v>
@@ -6739,8 +6758,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6753,10 +6772,10 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.1</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="F74">
-        <v>1113.64</v>
+        <v>1113.6400000000001</v>
       </c>
       <c r="G74">
         <v>1206.18</v>
@@ -6786,7 +6805,7 @@
         <v>1422.3</v>
       </c>
       <c r="P74">
-        <v>939.6900000000001</v>
+        <v>939.69</v>
       </c>
       <c r="Q74">
         <v>755.35</v>
@@ -6804,7 +6823,7 @@
         <v>2167.42</v>
       </c>
       <c r="V74">
-        <v>938.3099999999999</v>
+        <v>938.31</v>
       </c>
       <c r="W74">
         <v>945.76</v>
@@ -6825,8 +6844,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -6845,7 +6864,7 @@
         <v>1188.03</v>
       </c>
       <c r="G75">
-        <v>1260.11</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="H75">
         <v>1322.75</v>
@@ -6911,8 +6930,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
-      <c r="A76" s="2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -6928,7 +6947,7 @@
         <v>1127</v>
       </c>
       <c r="F76">
-        <v>1232.13</v>
+        <v>1232.1300000000001</v>
       </c>
       <c r="G76">
         <v>1299.77</v>
@@ -6970,19 +6989,19 @@
         <v>875.01</v>
       </c>
       <c r="T76">
-        <v>1024.13</v>
+        <v>1024.1300000000001</v>
       </c>
       <c r="U76">
         <v>2384.52</v>
       </c>
       <c r="V76">
-        <v>1090.66</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="W76">
         <v>1065.53</v>
       </c>
       <c r="X76">
-        <v>2052.51</v>
+        <v>2052.5100000000002</v>
       </c>
       <c r="Y76">
         <v>1283.26</v>
@@ -6997,8 +7016,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7008,13 +7027,13 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.8099999999999</v>
+        <v>958.81</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
       </c>
       <c r="F77">
-        <v>1263.09</v>
+        <v>1263.0899999999999</v>
       </c>
       <c r="G77">
         <v>1325.55</v>
@@ -7059,7 +7078,7 @@
         <v>1049.96</v>
       </c>
       <c r="U77">
-        <v>2392.28</v>
+        <v>2392.2800000000002</v>
       </c>
       <c r="V77">
         <v>1124.25</v>
@@ -7068,7 +7087,7 @@
         <v>1117.68</v>
       </c>
       <c r="X77">
-        <v>2131.51</v>
+        <v>2131.5100000000002</v>
       </c>
       <c r="Y77">
         <v>1296.28</v>
@@ -7083,18 +7102,18 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
-      <c r="A78" s="2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.85</v>
+        <v>1096.8499999999999</v>
       </c>
       <c r="D78">
-        <v>989.5700000000001</v>
+        <v>989.57</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
@@ -7145,7 +7164,7 @@
         <v>1061.45</v>
       </c>
       <c r="U78">
-        <v>2410.8</v>
+        <v>2410.8000000000002</v>
       </c>
       <c r="V78">
         <v>1167.94</v>
@@ -7169,18 +7188,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
-      <c r="A79" s="2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.39</v>
+        <v>1136.3900000000001</v>
       </c>
       <c r="D79">
-        <v>1031.64</v>
+        <v>1031.6400000000001</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7216,7 +7235,7 @@
         <v>1632</v>
       </c>
       <c r="P79">
-        <v>1057.13</v>
+        <v>1057.1300000000001</v>
       </c>
       <c r="Q79">
         <v>850.27</v>
@@ -7228,19 +7247,19 @@
         <v>948.73</v>
       </c>
       <c r="T79">
-        <v>1072.35</v>
+        <v>1072.3499999999999</v>
       </c>
       <c r="U79">
         <v>2427.38</v>
       </c>
       <c r="V79">
-        <v>1221.66</v>
+        <v>1221.6600000000001</v>
       </c>
       <c r="W79">
-        <v>1226.59</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="X79">
-        <v>2379.55</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="Y79">
         <v>1345.84</v>
@@ -7249,14 +7268,14 @@
         <v>322.56</v>
       </c>
       <c r="AA79">
-        <v>1207.86</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="AB79">
-        <v>1300.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
-      <c r="A80" s="2">
+        <v>1300.5999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7278,7 +7297,7 @@
         <v>1378.76</v>
       </c>
       <c r="H80">
-        <v>1057.88</v>
+        <v>1057.8800000000001</v>
       </c>
       <c r="I80">
         <v>1993.6</v>
@@ -7305,7 +7324,7 @@
         <v>1108.01</v>
       </c>
       <c r="Q80">
-        <v>884.5599999999999</v>
+        <v>884.56</v>
       </c>
       <c r="R80">
         <v>429.08</v>
@@ -7320,7 +7339,7 @@
         <v>2685.26</v>
       </c>
       <c r="V80">
-        <v>1266.36</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="W80">
         <v>1297.74</v>
@@ -7335,21 +7354,21 @@
         <v>331.53</v>
       </c>
       <c r="AA80">
-        <v>1239.41</v>
+        <v>1239.4100000000001</v>
       </c>
       <c r="AB80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
-      <c r="A81" s="2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4</v>
+        <v>1280.4000000000001</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7388,7 +7407,7 @@
         <v>1733.83</v>
       </c>
       <c r="P81">
-        <v>1215.65</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="Q81">
         <v>967.71</v>
@@ -7397,7 +7416,7 @@
         <v>441.88</v>
       </c>
       <c r="S81">
-        <v>1138.1</v>
+        <v>1138.0999999999999</v>
       </c>
       <c r="T81">
         <v>1188.76</v>
@@ -7427,8 +7446,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
-      <c r="A82" s="2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7456,7 +7475,7 @@
         <v>2329.27</v>
       </c>
       <c r="J82">
-        <v>2354.43</v>
+        <v>2354.4299999999998</v>
       </c>
       <c r="K82">
         <v>2702.83</v>
@@ -7477,7 +7496,7 @@
         <v>1312.07</v>
       </c>
       <c r="Q82">
-        <v>1050.63</v>
+        <v>1050.6300000000001</v>
       </c>
       <c r="R82">
         <v>478.34</v>
@@ -7486,7 +7505,7 @@
         <v>1227.06</v>
       </c>
       <c r="T82">
-        <v>1306.65</v>
+        <v>1306.6500000000001</v>
       </c>
       <c r="U82">
         <v>3112.37</v>
@@ -7513,8 +7532,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
-      <c r="A83" s="2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7542,7 +7561,7 @@
         <v>2406.5</v>
       </c>
       <c r="J83">
-        <v>2359.95</v>
+        <v>2359.9499999999998</v>
       </c>
       <c r="K83">
         <v>2767.43</v>
@@ -7563,7 +7582,7 @@
         <v>1356.24</v>
       </c>
       <c r="Q83">
-        <v>1077.87</v>
+        <v>1077.8699999999999</v>
       </c>
       <c r="R83">
         <v>490.34</v>
@@ -7599,8 +7618,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
-      <c r="A84" s="2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7655,7 +7674,7 @@
         <v>558.91</v>
       </c>
       <c r="S84">
-        <v>1264.1</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="T84">
         <v>1374.89</v>
@@ -7685,8 +7704,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
-      <c r="A85" s="2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7711,7 +7730,7 @@
         <v>1611.98</v>
       </c>
       <c r="I85">
-        <v>2552.51</v>
+        <v>2552.5100000000002</v>
       </c>
       <c r="J85">
         <v>2305.84</v>
@@ -7771,8 +7790,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
-      <c r="A86" s="2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -7800,7 +7819,7 @@
         <v>2675.31</v>
       </c>
       <c r="J86">
-        <v>2568.49</v>
+        <v>2568.4899999999998</v>
       </c>
       <c r="K86">
         <v>3097.87</v>
@@ -7827,7 +7846,7 @@
         <v>548.73</v>
       </c>
       <c r="S86">
-        <v>1307.64</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="T86">
         <v>1464.44</v>
@@ -7857,8 +7876,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
-      <c r="A87" s="2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -7895,7 +7914,7 @@
         <v>3678.86</v>
       </c>
       <c r="M87">
-        <v>2429.28</v>
+        <v>2429.2800000000002</v>
       </c>
       <c r="N87">
         <v>2619.16</v>
@@ -7907,7 +7926,7 @@
         <v>1510.58</v>
       </c>
       <c r="Q87">
-        <v>1195.4</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="R87">
         <v>538.53</v>
@@ -7925,13 +7944,13 @@
         <v>2006.23</v>
       </c>
       <c r="W87">
-        <v>2198.76</v>
+        <v>2198.7600000000002</v>
       </c>
       <c r="X87">
         <v>3792.03</v>
       </c>
       <c r="Y87">
-        <v>2468.82</v>
+        <v>2468.8200000000002</v>
       </c>
       <c r="Z87">
         <v>440.14</v>
@@ -7943,8 +7962,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
-      <c r="A88" s="2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -8023,14 +8042,14 @@
         <v>467.74</v>
       </c>
       <c r="AA88">
-        <v>2074.18</v>
+        <v>2074.1799999999998</v>
       </c>
       <c r="AB88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
-      <c r="A89" s="2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8097,13 +8116,13 @@
         <v>2208.91</v>
       </c>
       <c r="W89">
-        <v>2503.01</v>
+        <v>2503.0100000000002</v>
       </c>
       <c r="X89">
         <v>4155.88</v>
       </c>
       <c r="Y89">
-        <v>2520.07</v>
+        <v>2520.0700000000002</v>
       </c>
       <c r="Z89">
         <v>498.75</v>
@@ -8112,15 +8131,15 @@
         <v>2159.38</v>
       </c>
       <c r="AB89">
-        <v>2139.47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
-      <c r="A90" s="2">
+        <v>2139.4699999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.47</v>
+        <v>2380.4699999999998</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8132,7 +8151,7 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2277.97</v>
+        <v>2277.9699999999998</v>
       </c>
       <c r="G90">
         <v>2154.59</v>
@@ -8168,7 +8187,7 @@
         <v>1285.99</v>
       </c>
       <c r="R90">
-        <v>578.4400000000001</v>
+        <v>578.44000000000005</v>
       </c>
       <c r="S90">
         <v>1465.97</v>
@@ -8180,7 +8199,7 @@
         <v>4301.16</v>
       </c>
       <c r="V90">
-        <v>2300.78</v>
+        <v>2300.7800000000002</v>
       </c>
       <c r="W90">
         <v>2618.5</v>
@@ -8192,17 +8211,17 @@
         <v>2682.41</v>
       </c>
       <c r="Z90">
-        <v>520.95</v>
+        <v>520.95000000000005</v>
       </c>
       <c r="AA90">
-        <v>2218.43</v>
+        <v>2218.4299999999998</v>
       </c>
       <c r="AB90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
-      <c r="A91" s="2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8221,7 +8240,7 @@
         <v>2343.71</v>
       </c>
       <c r="G91">
-        <v>2220.97</v>
+        <v>2220.9699999999998</v>
       </c>
       <c r="H91">
         <v>1925.11</v>
@@ -8263,7 +8282,7 @@
         <v>1711.01</v>
       </c>
       <c r="U91">
-        <v>4477.6</v>
+        <v>4477.6000000000004</v>
       </c>
       <c r="V91">
         <v>2393.59</v>
@@ -8287,8 +8306,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
-      <c r="A92" s="2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8307,7 +8326,7 @@
         <v>2379.52</v>
       </c>
       <c r="G92">
-        <v>2241.26</v>
+        <v>2241.2600000000002</v>
       </c>
       <c r="H92">
         <v>1952.63</v>
@@ -8322,7 +8341,7 @@
         <v>3985.77</v>
       </c>
       <c r="L92">
-        <v>4468.77</v>
+        <v>4468.7700000000004</v>
       </c>
       <c r="M92">
         <v>2866.8</v>
@@ -8340,7 +8359,7 @@
         <v>1332.32</v>
       </c>
       <c r="R92">
-        <v>630.17</v>
+        <v>630.16999999999996</v>
       </c>
       <c r="S92">
         <v>1486.15</v>
@@ -8352,7 +8371,7 @@
         <v>4482.78</v>
       </c>
       <c r="V92">
-        <v>2472.78</v>
+        <v>2472.7800000000002</v>
       </c>
       <c r="W92">
         <v>2902.27</v>
@@ -8367,18 +8386,18 @@
         <v>555.15</v>
       </c>
       <c r="AA92">
-        <v>2343.18</v>
+        <v>2343.1799999999998</v>
       </c>
       <c r="AB92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
-      <c r="A93" s="2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.76</v>
+        <v>2588.7600000000002</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8426,7 +8445,7 @@
         <v>1337.9</v>
       </c>
       <c r="R93">
-        <v>612.9299999999999</v>
+        <v>612.92999999999995</v>
       </c>
       <c r="S93">
         <v>1495.32</v>
@@ -8450,24 +8469,24 @@
         <v>2936.32</v>
       </c>
       <c r="Z93">
-        <v>585.4400000000001</v>
+        <v>585.44000000000005</v>
       </c>
       <c r="AA93">
-        <v>2423.43</v>
+        <v>2423.4299999999998</v>
       </c>
       <c r="AB93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
-      <c r="A94" s="2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.82</v>
+        <v>2111.8200000000002</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8476,13 +8495,13 @@
         <v>2225.73</v>
       </c>
       <c r="F94">
-        <v>2475.57</v>
+        <v>2475.5700000000002</v>
       </c>
       <c r="G94">
         <v>2336.66</v>
       </c>
       <c r="H94">
-        <v>2294.76</v>
+        <v>2294.7600000000002</v>
       </c>
       <c r="I94">
         <v>3374.74</v>
@@ -8521,7 +8540,7 @@
         <v>1806.51</v>
       </c>
       <c r="U94">
-        <v>4937.4</v>
+        <v>4937.3999999999996</v>
       </c>
       <c r="V94">
         <v>2700.13</v>
@@ -8539,14 +8558,14 @@
         <v>589.02</v>
       </c>
       <c r="AA94">
-        <v>2538.24</v>
+        <v>2538.2399999999998</v>
       </c>
       <c r="AB94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
-      <c r="A95" s="2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8559,7 +8578,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.97</v>
+        <v>2288.9699999999998</v>
       </c>
       <c r="F95">
         <v>2551.92</v>
@@ -8568,7 +8587,7 @@
         <v>2384.9</v>
       </c>
       <c r="H95">
-        <v>2304.82</v>
+        <v>2304.8200000000002</v>
       </c>
       <c r="I95">
         <v>3458.59</v>
@@ -8607,7 +8626,7 @@
         <v>1832.41</v>
       </c>
       <c r="U95">
-        <v>5143.48</v>
+        <v>5143.4799999999996</v>
       </c>
       <c r="V95">
         <v>2832.46</v>
@@ -8631,18 +8650,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
-      <c r="A96" s="2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.55</v>
+        <v>2238.5500000000002</v>
       </c>
       <c r="D96">
-        <v>2062.95</v>
+        <v>2062.9499999999998</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8651,7 +8670,7 @@
         <v>2632.62</v>
       </c>
       <c r="G96">
-        <v>2464.24</v>
+        <v>2464.2399999999998</v>
       </c>
       <c r="H96">
         <v>2335.85</v>
@@ -8663,7 +8682,7 @@
         <v>3732.87</v>
       </c>
       <c r="K96">
-        <v>4234.64</v>
+        <v>4234.6400000000003</v>
       </c>
       <c r="L96">
         <v>4531.38</v>
@@ -8717,15 +8736,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
-      <c r="A97" s="2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.05</v>
+        <v>2273.0500000000002</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -8746,13 +8765,13 @@
         <v>3792.33</v>
       </c>
       <c r="J97">
-        <v>4071.814596</v>
+        <v>4071.8145960000002</v>
       </c>
       <c r="K97">
         <v>4615.91</v>
       </c>
       <c r="L97">
-        <v>4737.104652000001</v>
+        <v>4737.1046520000009</v>
       </c>
       <c r="M97">
         <v>3174.54</v>
@@ -8779,7 +8798,7 @@
         <v>1912.27</v>
       </c>
       <c r="U97">
-        <v>5151.6</v>
+        <v>5151.6000000000004</v>
       </c>
       <c r="V97">
         <v>2934.23</v>
@@ -8788,7 +8807,7 @@
         <v>3945.87</v>
       </c>
       <c r="X97">
-        <v>5240.77</v>
+        <v>5240.7700000000004</v>
       </c>
       <c r="Y97">
         <v>3368.42</v>
@@ -8803,8 +8822,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
-      <c r="A98" s="2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -8826,19 +8845,19 @@
         <v>2552.69</v>
       </c>
       <c r="H98">
-        <v>2370.07</v>
+        <v>2370.0700000000002</v>
       </c>
       <c r="I98">
         <v>3841.32</v>
       </c>
       <c r="J98">
-        <v>4369.057061508</v>
+        <v>4369.0570615079996</v>
       </c>
       <c r="K98">
         <v>4655.76</v>
       </c>
       <c r="L98">
-        <v>4875.4281078384</v>
+        <v>4875.4281078384001</v>
       </c>
       <c r="M98">
         <v>3228.75</v>
@@ -8889,8 +8908,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -8900,7 +8919,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.95</v>
+        <v>2234.9499999999998</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -8912,19 +8931,19 @@
         <v>2621.34</v>
       </c>
       <c r="H99">
-        <v>2514.68</v>
+        <v>2514.6799999999998</v>
       </c>
       <c r="I99">
         <v>3989.45</v>
       </c>
       <c r="J99">
-        <v>4637.317165084591</v>
+        <v>4637.3171650845907</v>
       </c>
       <c r="K99">
-        <v>4779.39</v>
+        <v>4779.3900000000003</v>
       </c>
       <c r="L99">
-        <v>5033.391978532364</v>
+        <v>5033.3919785323642</v>
       </c>
       <c r="M99">
         <v>3387.45</v>
@@ -8957,7 +8976,7 @@
         <v>3269.07</v>
       </c>
       <c r="W99">
-        <v>4411.61</v>
+        <v>4411.6099999999997</v>
       </c>
       <c r="X99">
         <v>5656.88</v>
@@ -8975,348 +8994,348 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
-      <c r="A100" s="2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3162.905063917786</v>
+        <v>3162.4056336948811</v>
       </c>
       <c r="C100">
-        <v>2523.586585462722</v>
+        <v>2523.120455670618</v>
       </c>
       <c r="D100">
-        <v>2321.407112222102</v>
+        <v>2320.90383118009</v>
       </c>
       <c r="E100">
-        <v>2644.378662909916</v>
+        <v>2643.937858203823</v>
       </c>
       <c r="F100">
-        <v>2953.993629386376</v>
+        <v>2953.53575137997</v>
       </c>
       <c r="G100">
-        <v>2721.838067374441</v>
+        <v>2721.8174118407692</v>
       </c>
       <c r="H100">
         <v>2632.555513785765</v>
       </c>
       <c r="I100">
-        <v>4122.540026670221</v>
+        <v>4122.54002667022</v>
       </c>
       <c r="J100">
-        <v>4483.675316729355</v>
+        <v>4480.8448403177672</v>
       </c>
       <c r="K100">
-        <v>4844.434154713425</v>
+        <v>4844.4341547134236</v>
       </c>
       <c r="L100">
-        <v>5028.225592543442</v>
+        <v>5026.3374080402236</v>
       </c>
       <c r="M100">
-        <v>3544.16597438334</v>
+        <v>3544.1659743833402</v>
       </c>
       <c r="N100">
-        <v>4002.657054528997</v>
+        <v>4002.657054528996</v>
       </c>
       <c r="O100">
-        <v>3295.663613502954</v>
+        <v>3295.6636135029539</v>
       </c>
       <c r="P100">
-        <v>1965.443879395435</v>
+        <v>1965.40929127443</v>
       </c>
       <c r="Q100">
-        <v>1539.512042770942</v>
+        <v>1539.4844857285</v>
       </c>
       <c r="R100">
-        <v>715.5492661177867</v>
+        <v>715.54926611778671</v>
       </c>
       <c r="S100">
-        <v>1672.205337320531</v>
+        <v>1672.147564005307</v>
       </c>
       <c r="T100">
-        <v>2154.312539356603</v>
+        <v>2154.312539356607</v>
       </c>
       <c r="U100">
-        <v>5610.598236550803</v>
+        <v>5610.5982365508034</v>
       </c>
       <c r="V100">
-        <v>3394.255784519918</v>
+        <v>3392.727974880801</v>
       </c>
       <c r="W100">
-        <v>4597.814469172095</v>
+        <v>4597.8144691720954</v>
       </c>
       <c r="X100">
-        <v>5858.333937486344</v>
+        <v>5858.3339374863463</v>
       </c>
       <c r="Y100">
-        <v>3929.726102149275</v>
+        <v>3746.6856690176669</v>
       </c>
       <c r="Z100">
-        <v>628.7266307040052</v>
+        <v>628.72663070400517</v>
       </c>
       <c r="AA100">
-        <v>3424.291280798479</v>
+        <v>3424.2912807984781</v>
       </c>
       <c r="AB100">
-        <v>2927.719763573353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28">
-      <c r="A101" s="2">
+        <v>2927.3657499457158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3234.199551223964</v>
+        <v>3231.443139272757</v>
       </c>
       <c r="C101">
-        <v>2598.372408541502</v>
+        <v>2595.6622837161899</v>
       </c>
       <c r="D101">
-        <v>2394.510994931371</v>
+        <v>2391.225379340483</v>
       </c>
       <c r="E101">
-        <v>2711.5892141189</v>
+        <v>2709.2447279185221</v>
       </c>
       <c r="F101">
-        <v>3061.27057295317</v>
+        <v>3058.1016811255381</v>
       </c>
       <c r="G101">
-        <v>2813.197415999272</v>
+        <v>2813.1760671561319</v>
       </c>
       <c r="H101">
-        <v>2634.376692601853</v>
+        <v>2634.3766926018529</v>
       </c>
       <c r="I101">
-        <v>4316.144824872598</v>
+        <v>4316.1448248725974</v>
       </c>
       <c r="J101">
-        <v>5026.22249225254</v>
+        <v>5018.8247148521814</v>
       </c>
       <c r="K101">
-        <v>5248.670022873612</v>
+        <v>5248.6700228736127</v>
       </c>
       <c r="L101">
-        <v>5245.837212193305</v>
+        <v>5262.6941500697812</v>
       </c>
       <c r="M101">
         <v>3628.778833284297</v>
       </c>
       <c r="N101">
-        <v>4073.618171483043</v>
+        <v>4073.6181714830409</v>
       </c>
       <c r="O101">
-        <v>3378.832322339509</v>
+        <v>3378.8323223395091</v>
       </c>
       <c r="P101">
-        <v>2032.675388862467</v>
+        <v>2032.6396175931629</v>
       </c>
       <c r="Q101">
-        <v>1591.639609178182</v>
+        <v>1591.6111190598581</v>
       </c>
       <c r="R101">
-        <v>764.1872667862721</v>
+        <v>764.18726678627206</v>
       </c>
       <c r="S101">
-        <v>1692.042997106735</v>
+        <v>1691.9845384167261</v>
       </c>
       <c r="T101">
-        <v>2247.311220651962</v>
+        <v>2247.3112206519668</v>
       </c>
       <c r="U101">
-        <v>5912.211174213689</v>
+        <v>5912.2111742136894</v>
       </c>
       <c r="V101">
-        <v>3490.860738228112</v>
+        <v>3480.5835779182112</v>
       </c>
       <c r="W101">
-        <v>4766.144979163796</v>
+        <v>4766.1449791637961</v>
       </c>
       <c r="X101">
-        <v>5921.227319210251</v>
+        <v>5921.2273192102539</v>
       </c>
       <c r="Y101">
-        <v>4286.439304694653</v>
+        <v>3797.5769937923551</v>
       </c>
       <c r="Z101">
-        <v>614.3678601136994</v>
+        <v>614.36786011369941</v>
       </c>
       <c r="AA101">
-        <v>3686.328800601575</v>
+        <v>3686.3288006015741</v>
       </c>
       <c r="AB101">
-        <v>3022.268128506455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28">
-      <c r="A102" s="2">
+        <v>3019.8894420559859</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3320.794712592249</v>
+        <v>3321.5690062666181</v>
       </c>
       <c r="C102">
-        <v>2652.599659914084</v>
+        <v>2653.2490381138091</v>
       </c>
       <c r="D102">
-        <v>2447.273506642794</v>
+        <v>2448.0173588373091</v>
       </c>
       <c r="E102">
-        <v>2776.425591523645</v>
+        <v>2777.0145123886241</v>
       </c>
       <c r="F102">
-        <v>3126.067832449013</v>
+        <v>3126.308397906806</v>
       </c>
       <c r="G102">
-        <v>2883.838068530514</v>
+        <v>2884.1282971530741</v>
       </c>
       <c r="H102">
-        <v>2745.68207085938</v>
+        <v>2745.6820708593809</v>
       </c>
       <c r="I102">
-        <v>4420.288877563835</v>
+        <v>4420.2888775638357</v>
       </c>
       <c r="J102">
-        <v>5173.653119719376</v>
+        <v>5140.2406619425346</v>
       </c>
       <c r="K102">
-        <v>5429.40329377739</v>
+        <v>5429.4032937773909</v>
       </c>
       <c r="L102">
-        <v>5457.223563045885</v>
+        <v>5501.2573716762972</v>
       </c>
       <c r="M102">
         <v>3691.293186224555</v>
       </c>
       <c r="N102">
-        <v>4133.187353376966</v>
+        <v>4133.187353376964</v>
       </c>
       <c r="O102">
-        <v>3438.976593961684</v>
+        <v>3438.9765939616841</v>
       </c>
       <c r="P102">
-        <v>2072.26291514599</v>
+        <v>2072.7484516652621</v>
       </c>
       <c r="Q102">
-        <v>1620.134070646229</v>
+        <v>1620.521207780755</v>
       </c>
       <c r="R102">
-        <v>772.1868605987243</v>
+        <v>772.18686059872425</v>
       </c>
       <c r="S102">
-        <v>1734.852131977141</v>
+        <v>1735.684024249804</v>
       </c>
       <c r="T102">
-        <v>2271.587571096218</v>
+        <v>2271.5875710962232</v>
       </c>
       <c r="U102">
-        <v>6541.46479588455</v>
+        <v>6541.4647958845499</v>
       </c>
       <c r="V102">
-        <v>3586.330087448184</v>
+        <v>3587.4828241204291</v>
       </c>
       <c r="W102">
-        <v>4971.296504970155</v>
+        <v>4971.2965049701552</v>
       </c>
       <c r="X102">
-        <v>6169.987070511407</v>
+        <v>6169.987070511409</v>
       </c>
       <c r="Y102">
-        <v>4132.247129811551</v>
+        <v>4001.1862553254691</v>
       </c>
       <c r="Z102">
-        <v>592.6149036198582</v>
+        <v>592.61490361985818</v>
       </c>
       <c r="AA102">
-        <v>3736.900926046543</v>
+        <v>3736.9009260465391</v>
       </c>
       <c r="AB102">
-        <v>3099.836808435456</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28">
-      <c r="A103" s="2">
+        <v>3100.2672235191121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>45808</v>
       </c>
       <c r="B103">
-        <v>3397.447529905796</v>
+        <v>3391.265509751996</v>
       </c>
       <c r="C103">
-        <v>2706.570543569336</v>
+        <v>2704.103279171371</v>
       </c>
       <c r="D103">
-        <v>2500.753336618729</v>
+        <v>2496.7845261886068</v>
       </c>
       <c r="E103">
-        <v>2834.156232472697</v>
+        <v>2830.9391250994868</v>
       </c>
       <c r="F103">
-        <v>3175.858962220138</v>
+        <v>3173.403884129486</v>
       </c>
       <c r="G103">
-        <v>2937.333920848975</v>
+        <v>2930.174810670735</v>
       </c>
       <c r="H103">
-        <v>2810.038983430191</v>
+        <v>2803.124000451448</v>
       </c>
       <c r="I103">
-        <v>4485.04092989222</v>
+        <v>4471.6176205391284</v>
       </c>
       <c r="J103">
-        <v>5210.808877073121</v>
+        <v>5075.1798668356878</v>
       </c>
       <c r="K103">
-        <v>5501.158441948588</v>
+        <v>5451.4049066694888</v>
       </c>
       <c r="L103">
-        <v>5566.647525737058</v>
+        <v>5619.3732113856286</v>
       </c>
       <c r="M103">
-        <v>3748.949483241656</v>
+        <v>3753.1616673856352</v>
       </c>
       <c r="N103">
-        <v>4154.766850224889</v>
+        <v>4155.655769690984</v>
       </c>
       <c r="O103">
-        <v>3500.542642770055</v>
+        <v>3505.1572781364989</v>
       </c>
       <c r="P103">
-        <v>2114.318769742484</v>
+        <v>2110.2805483590842</v>
       </c>
       <c r="Q103">
-        <v>1651.286326963939</v>
+        <v>1648.7659414733139</v>
       </c>
       <c r="R103">
-        <v>770.7334971531042</v>
+        <v>771.28579310215719</v>
       </c>
       <c r="S103">
-        <v>1787.257591141505</v>
+        <v>1781.142264599752</v>
       </c>
       <c r="T103">
-        <v>2317.905048634992</v>
+        <v>2317.73670768688</v>
       </c>
       <c r="U103">
-        <v>7038.554053177439</v>
+        <v>6885.530642222303</v>
       </c>
       <c r="V103">
-        <v>3676.726756831205</v>
+        <v>3669.955624625336</v>
       </c>
       <c r="W103">
-        <v>5133.525378512306</v>
+        <v>5057.8632871414711</v>
       </c>
       <c r="X103">
-        <v>6445.146559286811</v>
+        <v>6458.2291096712688</v>
       </c>
       <c r="Y103">
-        <v>3952.657261191155</v>
+        <v>4026.406165873711</v>
       </c>
       <c r="Z103">
-        <v>592.6834075828524</v>
+        <v>592.64752086240298</v>
       </c>
       <c r="AA103">
-        <v>3711.390987058817</v>
+        <v>3739.9412290370101</v>
       </c>
       <c r="AB103">
-        <v>3162.463243468876</v>
+        <v>3155.3168548003541</v>
       </c>
     </row>
   </sheetData>

--- a/tüik.xlsx
+++ b/tüik.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A46977C-3F39-498B-9D9F-66695ED9B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,11 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -173,13 +177,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -285,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,14 +474,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +572,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>42735</v>
       </c>
       <c r="B2">
@@ -576,13 +595,13 @@
         <v>283.88</v>
       </c>
       <c r="H2">
-        <v>284.91</v>
+        <v>284.91000000000003</v>
       </c>
       <c r="I2">
-        <v>299.59</v>
+        <v>299.58999999999997</v>
       </c>
       <c r="J2">
-        <v>319.35</v>
+        <v>319.35000000000002</v>
       </c>
       <c r="K2">
         <v>292.5</v>
@@ -594,7 +613,7 @@
         <v>372.65</v>
       </c>
       <c r="N2">
-        <v>299.78</v>
+        <v>299.77999999999997</v>
       </c>
       <c r="O2">
         <v>323.37</v>
@@ -618,7 +637,7 @@
         <v>220.56</v>
       </c>
       <c r="V2">
-        <v>588.5700000000001</v>
+        <v>588.57000000000005</v>
       </c>
       <c r="W2">
         <v>313.94</v>
@@ -630,7 +649,7 @@
         <v>432.87</v>
       </c>
       <c r="Z2">
-        <v>318.41</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="AA2">
         <v>150.94</v>
@@ -639,24 +658,24 @@
         <v>306.45</v>
       </c>
       <c r="AC2">
-        <v>292.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="2">
+        <v>292.54000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>42766</v>
       </c>
       <c r="B3">
         <v>307.7</v>
       </c>
       <c r="C3">
-        <v>262.97</v>
+        <v>262.97000000000003</v>
       </c>
       <c r="D3">
         <v>254.26</v>
       </c>
       <c r="E3">
-        <v>276.28</v>
+        <v>276.27999999999997</v>
       </c>
       <c r="F3">
         <v>288.31</v>
@@ -719,7 +738,7 @@
         <v>437.38</v>
       </c>
       <c r="Z3">
-        <v>325.22</v>
+        <v>325.22000000000003</v>
       </c>
       <c r="AA3">
         <v>150.94</v>
@@ -731,27 +750,27 @@
         <v>299.74</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>42794</v>
       </c>
       <c r="B4">
         <v>311.36</v>
       </c>
       <c r="C4">
-        <v>265.09</v>
+        <v>265.08999999999997</v>
       </c>
       <c r="D4">
         <v>256.05</v>
       </c>
       <c r="E4">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F4">
-        <v>290.79</v>
+        <v>290.79000000000002</v>
       </c>
       <c r="G4">
-        <v>293.53</v>
+        <v>293.52999999999997</v>
       </c>
       <c r="H4">
         <v>295.68</v>
@@ -772,7 +791,7 @@
         <v>379.96</v>
       </c>
       <c r="N4">
-        <v>307.1</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="O4">
         <v>329.55</v>
@@ -796,10 +815,10 @@
         <v>230.65</v>
       </c>
       <c r="V4">
-        <v>612.58</v>
+        <v>612.58000000000004</v>
       </c>
       <c r="W4">
-        <v>320.78</v>
+        <v>320.77999999999997</v>
       </c>
       <c r="X4">
         <v>404.44</v>
@@ -820,12 +839,12 @@
         <v>302.17</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>313.65</v>
+        <v>313.64999999999998</v>
       </c>
       <c r="C5">
         <v>268.26</v>
@@ -834,19 +853,19 @@
         <v>259.24</v>
       </c>
       <c r="E5">
-        <v>281.15</v>
+        <v>281.14999999999998</v>
       </c>
       <c r="F5">
         <v>293.93</v>
       </c>
       <c r="G5">
-        <v>296.71</v>
+        <v>296.70999999999998</v>
       </c>
       <c r="H5">
         <v>299.17</v>
       </c>
       <c r="I5">
-        <v>311.91</v>
+        <v>311.91000000000003</v>
       </c>
       <c r="J5">
         <v>349.18</v>
@@ -867,10 +886,10 @@
         <v>332.38</v>
       </c>
       <c r="P5">
-        <v>295.79</v>
+        <v>295.79000000000002</v>
       </c>
       <c r="Q5">
-        <v>256.09</v>
+        <v>256.08999999999997</v>
       </c>
       <c r="R5">
         <v>203.37</v>
@@ -885,7 +904,7 @@
         <v>234.54</v>
       </c>
       <c r="V5">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="W5">
         <v>322.81</v>
@@ -909,18 +928,18 @@
         <v>305.24</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>316.22</v>
+        <v>316.22000000000003</v>
       </c>
       <c r="C6">
-        <v>272.91</v>
+        <v>272.91000000000003</v>
       </c>
       <c r="D6">
-        <v>264.15</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="E6">
         <v>285.01</v>
@@ -992,21 +1011,21 @@
         <v>151.37</v>
       </c>
       <c r="AB6">
-        <v>320.6</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="AC6">
         <v>309.23</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>317.66</v>
+        <v>317.66000000000003</v>
       </c>
       <c r="C7">
-        <v>276.34</v>
+        <v>276.33999999999997</v>
       </c>
       <c r="D7">
         <v>267.67</v>
@@ -1015,10 +1034,10 @@
         <v>287.31</v>
       </c>
       <c r="F7">
-        <v>299.41</v>
+        <v>299.41000000000003</v>
       </c>
       <c r="G7">
-        <v>302.9</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="H7">
         <v>304.39</v>
@@ -1048,7 +1067,7 @@
         <v>300.86</v>
       </c>
       <c r="Q7">
-        <v>265.85</v>
+        <v>265.85000000000002</v>
       </c>
       <c r="R7">
         <v>213.3</v>
@@ -1078,7 +1097,7 @@
         <v>339.44</v>
       </c>
       <c r="AA7">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="AB7">
         <v>324.69</v>
@@ -1087,21 +1106,21 @@
         <v>310.61</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>318.46</v>
+        <v>318.45999999999998</v>
       </c>
       <c r="C8">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="D8">
         <v>267.86</v>
       </c>
       <c r="E8">
-        <v>287.34</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="F8">
         <v>298.56</v>
@@ -1110,7 +1129,7 @@
         <v>301.88</v>
       </c>
       <c r="H8">
-        <v>302.53</v>
+        <v>302.52999999999997</v>
       </c>
       <c r="I8">
         <v>304.86</v>
@@ -1137,7 +1156,7 @@
         <v>301.57</v>
       </c>
       <c r="Q8">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="R8">
         <v>212.39</v>
@@ -1173,11 +1192,11 @@
         <v>325.13</v>
       </c>
       <c r="AC8">
-        <v>309.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="2">
+        <v>309.77999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>42947</v>
       </c>
       <c r="B9">
@@ -1193,7 +1212,7 @@
         <v>288.73</v>
       </c>
       <c r="F9">
-        <v>298.96</v>
+        <v>298.95999999999998</v>
       </c>
       <c r="G9">
         <v>302.13</v>
@@ -1226,7 +1245,7 @@
         <v>305.27</v>
       </c>
       <c r="Q9">
-        <v>264.29</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="R9">
         <v>211.65</v>
@@ -1265,8 +1284,8 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42978</v>
       </c>
       <c r="B10">
@@ -1282,7 +1301,7 @@
         <v>291.19</v>
       </c>
       <c r="F10">
-        <v>300.6</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="G10">
         <v>303.87</v>
@@ -1306,7 +1325,7 @@
         <v>409.85</v>
       </c>
       <c r="N10">
-        <v>323.96</v>
+        <v>323.95999999999998</v>
       </c>
       <c r="O10">
         <v>344.85</v>
@@ -1315,7 +1334,7 @@
         <v>310.44</v>
       </c>
       <c r="Q10">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="R10">
         <v>212.12</v>
@@ -1351,18 +1370,18 @@
         <v>332.19</v>
       </c>
       <c r="AC10">
-        <v>311.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="2">
+        <v>311.85000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43008</v>
       </c>
       <c r="B11">
         <v>326.45</v>
       </c>
       <c r="C11">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="D11">
         <v>272.89</v>
@@ -1374,13 +1393,13 @@
         <v>302.68</v>
       </c>
       <c r="G11">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="H11">
         <v>304.27</v>
       </c>
       <c r="I11">
-        <v>315.41</v>
+        <v>315.41000000000003</v>
       </c>
       <c r="J11">
         <v>343.79</v>
@@ -1434,7 +1453,7 @@
         <v>356.52</v>
       </c>
       <c r="AA11">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AB11">
         <v>334.66</v>
@@ -1443,8 +1462,8 @@
         <v>313.88</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>43039</v>
       </c>
       <c r="B12">
@@ -1457,16 +1476,16 @@
         <v>279.37</v>
       </c>
       <c r="E12">
-        <v>300.29</v>
+        <v>300.29000000000002</v>
       </c>
       <c r="F12">
-        <v>309.34</v>
+        <v>309.33999999999997</v>
       </c>
       <c r="G12">
         <v>313.26</v>
       </c>
       <c r="H12">
-        <v>312.84</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="I12">
         <v>321.02</v>
@@ -1490,7 +1509,7 @@
         <v>348.94</v>
       </c>
       <c r="P12">
-        <v>319.53</v>
+        <v>319.52999999999997</v>
       </c>
       <c r="Q12">
         <v>276.63</v>
@@ -1508,7 +1527,7 @@
         <v>248.3</v>
       </c>
       <c r="V12">
-        <v>619.3</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="W12">
         <v>341.86</v>
@@ -1523,24 +1542,24 @@
         <v>360.32</v>
       </c>
       <c r="AA12">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AB12">
         <v>334.15</v>
       </c>
       <c r="AC12">
-        <v>320.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="2">
+        <v>320.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43069</v>
       </c>
       <c r="B13">
         <v>333.59</v>
       </c>
       <c r="C13">
-        <v>291.84</v>
+        <v>291.83999999999997</v>
       </c>
       <c r="D13">
         <v>282.36</v>
@@ -1549,7 +1568,7 @@
         <v>304.45</v>
       </c>
       <c r="F13">
-        <v>314.22</v>
+        <v>314.22000000000003</v>
       </c>
       <c r="G13">
         <v>318.8</v>
@@ -1582,7 +1601,7 @@
         <v>323.76</v>
       </c>
       <c r="Q13">
-        <v>281.96</v>
+        <v>281.95999999999998</v>
       </c>
       <c r="R13">
         <v>228.14</v>
@@ -1621,8 +1640,8 @@
         <v>325.18</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43100</v>
       </c>
       <c r="B14">
@@ -1632,7 +1651,7 @@
         <v>293.33</v>
       </c>
       <c r="D14">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="E14">
         <v>305.86</v>
@@ -1641,7 +1660,7 @@
         <v>316.5</v>
       </c>
       <c r="G14">
-        <v>321.35</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="H14">
         <v>321.93</v>
@@ -1668,7 +1687,7 @@
         <v>353.18</v>
       </c>
       <c r="P14">
-        <v>324.79</v>
+        <v>324.79000000000002</v>
       </c>
       <c r="Q14">
         <v>283.25</v>
@@ -1707,18 +1726,18 @@
         <v>335.22</v>
       </c>
       <c r="AC14">
-        <v>327.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="2">
+        <v>327.41000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43131</v>
       </c>
       <c r="B15">
         <v>340.93</v>
       </c>
       <c r="C15">
-        <v>295.34</v>
+        <v>295.33999999999997</v>
       </c>
       <c r="D15">
         <v>285.23</v>
@@ -1727,7 +1746,7 @@
         <v>308.87</v>
       </c>
       <c r="F15">
-        <v>319.84</v>
+        <v>319.83999999999997</v>
       </c>
       <c r="G15">
         <v>323.92</v>
@@ -1760,7 +1779,7 @@
         <v>328.91</v>
       </c>
       <c r="Q15">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="R15">
         <v>228.89</v>
@@ -1772,7 +1791,7 @@
         <v>214.55</v>
       </c>
       <c r="U15">
-        <v>257.54</v>
+        <v>257.54000000000002</v>
       </c>
       <c r="V15">
         <v>628.96</v>
@@ -1799,15 +1818,15 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43159</v>
       </c>
       <c r="B16">
         <v>344.01</v>
       </c>
       <c r="C16">
-        <v>297.59</v>
+        <v>297.58999999999997</v>
       </c>
       <c r="D16">
         <v>286.63</v>
@@ -1849,7 +1868,7 @@
         <v>336.07</v>
       </c>
       <c r="Q16">
-        <v>283.35</v>
+        <v>283.35000000000002</v>
       </c>
       <c r="R16">
         <v>229.26</v>
@@ -1861,7 +1880,7 @@
         <v>217.55</v>
       </c>
       <c r="U16">
-        <v>261.72</v>
+        <v>261.72000000000003</v>
       </c>
       <c r="V16">
         <v>629.85</v>
@@ -1888,8 +1907,8 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>43190</v>
       </c>
       <c r="B17">
@@ -1902,7 +1921,7 @@
         <v>288.89</v>
       </c>
       <c r="E17">
-        <v>313.15</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F17">
         <v>325.67</v>
@@ -1950,7 +1969,7 @@
         <v>219.62</v>
       </c>
       <c r="U17">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="V17">
         <v>632.14</v>
@@ -1977,8 +1996,8 @@
         <v>336.48</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>43220</v>
       </c>
       <c r="B18">
@@ -2039,10 +2058,10 @@
         <v>227.17</v>
       </c>
       <c r="U18">
-        <v>268.97</v>
+        <v>268.97000000000003</v>
       </c>
       <c r="V18">
-        <v>638.6799999999999</v>
+        <v>638.67999999999995</v>
       </c>
       <c r="W18">
         <v>355.74</v>
@@ -2066,8 +2085,8 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>43251</v>
       </c>
       <c r="B19">
@@ -2128,7 +2147,7 @@
         <v>230.29</v>
       </c>
       <c r="U19">
-        <v>272.03</v>
+        <v>272.02999999999997</v>
       </c>
       <c r="V19">
         <v>647.21</v>
@@ -2155,8 +2174,8 @@
         <v>348.34</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>43281</v>
       </c>
       <c r="B20">
@@ -2217,10 +2236,10 @@
         <v>237.67</v>
       </c>
       <c r="U20">
-        <v>277.53</v>
+        <v>277.52999999999997</v>
       </c>
       <c r="V20">
-        <v>652.0700000000001</v>
+        <v>652.07000000000005</v>
       </c>
       <c r="W20">
         <v>366.56</v>
@@ -2229,7 +2248,7 @@
         <v>454.04</v>
       </c>
       <c r="Y20">
-        <v>517.92</v>
+        <v>517.91999999999996</v>
       </c>
       <c r="Z20">
         <v>378.57</v>
@@ -2244,15 +2263,15 @@
         <v>357.44</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>43312</v>
       </c>
       <c r="B21">
         <v>369.61</v>
       </c>
       <c r="C21">
-        <v>320.04</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="D21">
         <v>309.82</v>
@@ -2294,7 +2313,7 @@
         <v>354.2</v>
       </c>
       <c r="Q21">
-        <v>309.47</v>
+        <v>309.47000000000003</v>
       </c>
       <c r="R21">
         <v>253.09</v>
@@ -2306,7 +2325,7 @@
         <v>241.08</v>
       </c>
       <c r="U21">
-        <v>283.09</v>
+        <v>283.08999999999997</v>
       </c>
       <c r="V21">
         <v>654.66</v>
@@ -2324,7 +2343,7 @@
         <v>381.57</v>
       </c>
       <c r="AA21">
-        <v>160.98</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="AB21">
         <v>368.36</v>
@@ -2333,8 +2352,8 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>43343</v>
       </c>
       <c r="B22">
@@ -2344,7 +2363,7 @@
         <v>327.44</v>
       </c>
       <c r="D22">
-        <v>317.09</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="E22">
         <v>343.96</v>
@@ -2386,7 +2405,7 @@
         <v>319.89</v>
       </c>
       <c r="R22">
-        <v>261.28</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="S22">
         <v>219.05</v>
@@ -2407,7 +2426,7 @@
         <v>464.09</v>
       </c>
       <c r="Y22">
-        <v>539.58</v>
+        <v>539.58000000000004</v>
       </c>
       <c r="Z22">
         <v>386.38</v>
@@ -2422,8 +2441,8 @@
         <v>367.66</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43373</v>
       </c>
       <c r="B23">
@@ -2475,16 +2494,16 @@
         <v>348.81</v>
       </c>
       <c r="R23">
-        <v>288.65</v>
+        <v>288.64999999999998</v>
       </c>
       <c r="S23">
         <v>227.79</v>
       </c>
       <c r="T23">
-        <v>287.21</v>
+        <v>287.20999999999998</v>
       </c>
       <c r="U23">
-        <v>325.53</v>
+        <v>325.52999999999997</v>
       </c>
       <c r="V23">
         <v>696.17</v>
@@ -2496,7 +2515,7 @@
         <v>468.29</v>
       </c>
       <c r="Y23">
-        <v>565.3</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="Z23">
         <v>407.04</v>
@@ -2511,8 +2530,8 @@
         <v>390.84</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43404</v>
       </c>
       <c r="B24">
@@ -2564,7 +2583,7 @@
         <v>359.66</v>
       </c>
       <c r="R24">
-        <v>300.15</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="S24">
         <v>257.32</v>
@@ -2600,8 +2619,8 @@
         <v>401.27</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43434</v>
       </c>
       <c r="B25">
@@ -2689,8 +2708,8 @@
         <v>395.48</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>43465</v>
       </c>
       <c r="B26">
@@ -2763,7 +2782,7 @@
         <v>477.48</v>
       </c>
       <c r="Y26">
-        <v>578.0700000000001</v>
+        <v>578.07000000000005</v>
       </c>
       <c r="Z26">
         <v>399.98</v>
@@ -2778,8 +2797,8 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>43496</v>
       </c>
       <c r="B27">
@@ -2816,7 +2835,7 @@
         <v>560.37</v>
       </c>
       <c r="M27">
-        <v>520.08</v>
+        <v>520.08000000000004</v>
       </c>
       <c r="N27">
         <v>418.09</v>
@@ -2831,7 +2850,7 @@
         <v>340.21</v>
       </c>
       <c r="R27">
-        <v>280.97</v>
+        <v>280.97000000000003</v>
       </c>
       <c r="S27">
         <v>231.98</v>
@@ -2867,8 +2886,8 @@
         <v>398.07</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>43524</v>
       </c>
       <c r="B28">
@@ -2899,7 +2918,7 @@
         <v>488.24</v>
       </c>
       <c r="K28">
-        <v>644.3</v>
+        <v>644.29999999999995</v>
       </c>
       <c r="L28">
         <v>567.98</v>
@@ -2956,8 +2975,8 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>43555</v>
       </c>
       <c r="B29">
@@ -2991,7 +3010,7 @@
         <v>702.92</v>
       </c>
       <c r="L29">
-        <v>593.5599999999999</v>
+        <v>593.55999999999995</v>
       </c>
       <c r="M29">
         <v>531.28</v>
@@ -3009,7 +3028,7 @@
         <v>337.36</v>
       </c>
       <c r="R29">
-        <v>277.85</v>
+        <v>277.85000000000002</v>
       </c>
       <c r="S29">
         <v>221.54</v>
@@ -3030,7 +3049,7 @@
         <v>489.21</v>
       </c>
       <c r="Y29">
-        <v>593.3099999999999</v>
+        <v>593.30999999999995</v>
       </c>
       <c r="Z29">
         <v>401.09</v>
@@ -3045,8 +3064,8 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>43585</v>
       </c>
       <c r="B30">
@@ -3083,7 +3102,7 @@
         <v>604.12</v>
       </c>
       <c r="M30">
-        <v>563.92</v>
+        <v>563.91999999999996</v>
       </c>
       <c r="N30">
         <v>425.02</v>
@@ -3098,7 +3117,7 @@
         <v>347.12</v>
       </c>
       <c r="R30">
-        <v>284.21</v>
+        <v>284.20999999999998</v>
       </c>
       <c r="S30">
         <v>233.63</v>
@@ -3134,8 +3153,8 @@
         <v>409.63</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>43616</v>
       </c>
       <c r="B31">
@@ -3166,13 +3185,13 @@
         <v>501.16</v>
       </c>
       <c r="K31">
-        <v>575.6799999999999</v>
+        <v>575.67999999999995</v>
       </c>
       <c r="L31">
         <v>575.66</v>
       </c>
       <c r="M31">
-        <v>579.45</v>
+        <v>579.45000000000005</v>
       </c>
       <c r="N31">
         <v>436.72</v>
@@ -3187,13 +3206,13 @@
         <v>355.96</v>
       </c>
       <c r="R31">
-        <v>288.41</v>
+        <v>288.41000000000003</v>
       </c>
       <c r="S31">
         <v>243.34</v>
       </c>
       <c r="T31">
-        <v>261.1</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="U31">
         <v>358.15</v>
@@ -3223,8 +3242,8 @@
         <v>413.52</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>43646</v>
       </c>
       <c r="B32">
@@ -3312,8 +3331,8 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43677</v>
       </c>
       <c r="B33">
@@ -3350,7 +3369,7 @@
         <v>521.02</v>
       </c>
       <c r="M33">
-        <v>559.5599999999999</v>
+        <v>559.55999999999995</v>
       </c>
       <c r="N33">
         <v>455.17</v>
@@ -3365,7 +3384,7 @@
         <v>366.65</v>
       </c>
       <c r="R33">
-        <v>298.16</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="S33">
         <v>231.51</v>
@@ -3401,8 +3420,8 @@
         <v>419.24</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43708</v>
       </c>
       <c r="B34">
@@ -3454,7 +3473,7 @@
         <v>373.6</v>
       </c>
       <c r="R34">
-        <v>295.29</v>
+        <v>295.29000000000002</v>
       </c>
       <c r="S34">
         <v>228.83</v>
@@ -3490,8 +3509,8 @@
         <v>422.84</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43738</v>
       </c>
       <c r="B35">
@@ -3555,13 +3574,13 @@
         <v>367.08</v>
       </c>
       <c r="V35">
-        <v>942.5700000000001</v>
+        <v>942.57</v>
       </c>
       <c r="W35">
         <v>436.66</v>
       </c>
       <c r="X35">
-        <v>515.8</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="Y35">
         <v>649.38</v>
@@ -3579,8 +3598,8 @@
         <v>427.04</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43769</v>
       </c>
       <c r="B36">
@@ -3632,10 +3651,10 @@
         <v>385.85</v>
       </c>
       <c r="R36">
-        <v>305.91</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="S36">
-        <v>261.59</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="T36">
         <v>281.19</v>
@@ -3644,7 +3663,7 @@
         <v>367.84</v>
       </c>
       <c r="V36">
-        <v>943.3200000000001</v>
+        <v>943.32</v>
       </c>
       <c r="W36">
         <v>439.44</v>
@@ -3668,8 +3687,8 @@
         <v>435.59</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
-      <c r="A37" s="2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43799</v>
       </c>
       <c r="B37">
@@ -3706,7 +3725,7 @@
         <v>509.17</v>
       </c>
       <c r="M37">
-        <v>534.0599999999999</v>
+        <v>534.05999999999995</v>
       </c>
       <c r="N37">
         <v>468.61</v>
@@ -3724,10 +3743,10 @@
         <v>308.51</v>
       </c>
       <c r="S37">
-        <v>268.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="T37">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="U37">
         <v>370.16</v>
@@ -3757,8 +3776,8 @@
         <v>437.25</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
-      <c r="A38" s="2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>43830</v>
       </c>
       <c r="B38">
@@ -3792,7 +3811,7 @@
         <v>502.4</v>
       </c>
       <c r="L38">
-        <v>529.3099999999999</v>
+        <v>529.30999999999995</v>
       </c>
       <c r="M38">
         <v>549.09</v>
@@ -3831,7 +3850,7 @@
         <v>525.49</v>
       </c>
       <c r="Y38">
-        <v>654.1799999999999</v>
+        <v>654.17999999999995</v>
       </c>
       <c r="Z38">
         <v>460.09</v>
@@ -3846,8 +3865,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>43861</v>
       </c>
       <c r="B39">
@@ -3878,13 +3897,13 @@
         <v>527.59</v>
       </c>
       <c r="K39">
-        <v>604.2</v>
+        <v>604.20000000000005</v>
       </c>
       <c r="L39">
-        <v>572.8099999999999</v>
+        <v>572.80999999999995</v>
       </c>
       <c r="M39">
-        <v>559.9299999999999</v>
+        <v>559.92999999999995</v>
       </c>
       <c r="N39">
         <v>485.31</v>
@@ -3911,7 +3930,7 @@
         <v>371.38</v>
       </c>
       <c r="V39">
-        <v>954.4400000000001</v>
+        <v>954.44</v>
       </c>
       <c r="W39">
         <v>450.6</v>
@@ -3935,8 +3954,8 @@
         <v>446.45</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
-      <c r="A40" s="2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43890</v>
       </c>
       <c r="B40">
@@ -4000,7 +4019,7 @@
         <v>370.69</v>
       </c>
       <c r="V40">
-        <v>952.8099999999999</v>
+        <v>952.81</v>
       </c>
       <c r="W40">
         <v>454.39</v>
@@ -4009,7 +4028,7 @@
         <v>535.78</v>
       </c>
       <c r="Y40">
-        <v>668.6900000000001</v>
+        <v>668.69</v>
       </c>
       <c r="Z40">
         <v>467.21</v>
@@ -4024,8 +4043,8 @@
         <v>448.02</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
-      <c r="A41" s="2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43921</v>
       </c>
       <c r="B41">
@@ -4053,7 +4072,7 @@
         <v>431.76</v>
       </c>
       <c r="J41">
-        <v>550.42</v>
+        <v>550.41999999999996</v>
       </c>
       <c r="K41">
         <v>656.84</v>
@@ -4062,7 +4081,7 @@
         <v>613.34</v>
       </c>
       <c r="M41">
-        <v>593.9299999999999</v>
+        <v>593.92999999999995</v>
       </c>
       <c r="N41">
         <v>493.66</v>
@@ -4095,7 +4114,7 @@
         <v>456.77</v>
       </c>
       <c r="X41">
-        <v>538.6900000000001</v>
+        <v>538.69000000000005</v>
       </c>
       <c r="Y41">
         <v>674.5</v>
@@ -4113,8 +4132,8 @@
         <v>450.58</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
-      <c r="A42" s="2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -4142,7 +4161,7 @@
         <v>410.23</v>
       </c>
       <c r="J42">
-        <v>564.3200000000001</v>
+        <v>564.32000000000005</v>
       </c>
       <c r="K42">
         <v>662.83</v>
@@ -4151,7 +4170,7 @@
         <v>635.72</v>
       </c>
       <c r="M42">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="N42">
         <v>500.59</v>
@@ -4184,10 +4203,10 @@
         <v>457.78</v>
       </c>
       <c r="X42">
-        <v>540.9400000000001</v>
+        <v>540.94000000000005</v>
       </c>
       <c r="Y42">
-        <v>675.3200000000001</v>
+        <v>675.32</v>
       </c>
       <c r="Z42">
         <v>468.14</v>
@@ -4202,8 +4221,8 @@
         <v>454.43</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
-      <c r="A43" s="2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43982</v>
       </c>
       <c r="B43">
@@ -4231,7 +4250,7 @@
         <v>418.97</v>
       </c>
       <c r="J43">
-        <v>565.6799999999999</v>
+        <v>565.67999999999995</v>
       </c>
       <c r="K43">
         <v>641.12</v>
@@ -4246,7 +4265,7 @@
         <v>504.4</v>
       </c>
       <c r="O43">
-        <v>538.5599999999999</v>
+        <v>538.55999999999995</v>
       </c>
       <c r="P43">
         <v>482.69</v>
@@ -4261,7 +4280,7 @@
         <v>261.74</v>
       </c>
       <c r="T43">
-        <v>294.78</v>
+        <v>294.77999999999997</v>
       </c>
       <c r="U43">
         <v>378.28</v>
@@ -4276,7 +4295,7 @@
         <v>543.35</v>
       </c>
       <c r="Y43">
-        <v>676.4299999999999</v>
+        <v>676.43</v>
       </c>
       <c r="Z43">
         <v>476.75</v>
@@ -4291,8 +4310,8 @@
         <v>460.62</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
-      <c r="A44" s="2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44012</v>
       </c>
       <c r="B44">
@@ -4323,7 +4342,7 @@
         <v>556.61</v>
       </c>
       <c r="K44">
-        <v>593.0599999999999</v>
+        <v>593.05999999999995</v>
       </c>
       <c r="L44">
         <v>610.1</v>
@@ -4350,7 +4369,7 @@
         <v>264.74</v>
       </c>
       <c r="T44">
-        <v>303.28</v>
+        <v>303.27999999999997</v>
       </c>
       <c r="U44">
         <v>385.66</v>
@@ -4380,8 +4399,8 @@
         <v>465.84</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
-      <c r="A45" s="2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44043</v>
       </c>
       <c r="B45">
@@ -4415,7 +4434,7 @@
         <v>545.16</v>
       </c>
       <c r="L45">
-        <v>593.2</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="M45">
         <v>625.5</v>
@@ -4451,7 +4470,7 @@
         <v>475.77</v>
       </c>
       <c r="X45">
-        <v>551.9400000000001</v>
+        <v>551.94000000000005</v>
       </c>
       <c r="Y45">
         <v>704.05</v>
@@ -4469,8 +4488,8 @@
         <v>468.56</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
-      <c r="A46" s="2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44074</v>
       </c>
       <c r="B46">
@@ -4501,10 +4520,10 @@
         <v>549.04</v>
       </c>
       <c r="K46">
-        <v>539.8</v>
+        <v>539.79999999999995</v>
       </c>
       <c r="L46">
-        <v>587.08</v>
+        <v>587.08000000000004</v>
       </c>
       <c r="M46">
         <v>618.89</v>
@@ -4513,7 +4532,7 @@
         <v>512.28</v>
       </c>
       <c r="O46">
-        <v>552.95</v>
+        <v>552.95000000000005</v>
       </c>
       <c r="P46">
         <v>487.32</v>
@@ -4534,7 +4553,7 @@
         <v>390.75</v>
       </c>
       <c r="V46">
-        <v>1063.62</v>
+        <v>1063.6199999999999</v>
       </c>
       <c r="W46">
         <v>481.21</v>
@@ -4558,8 +4577,8 @@
         <v>472.61</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
-      <c r="A47" s="2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44104</v>
       </c>
       <c r="B47">
@@ -4593,10 +4612,10 @@
         <v>550.48</v>
       </c>
       <c r="L47">
-        <v>585.7</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="M47">
-        <v>610.6799999999999</v>
+        <v>610.67999999999995</v>
       </c>
       <c r="N47">
         <v>519.87</v>
@@ -4647,8 +4666,8 @@
         <v>477.21</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
-      <c r="A48" s="2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44135</v>
       </c>
       <c r="B48">
@@ -4682,13 +4701,13 @@
         <v>592</v>
       </c>
       <c r="L48">
-        <v>608.95</v>
+        <v>608.95000000000005</v>
       </c>
       <c r="M48">
         <v>623.76</v>
       </c>
       <c r="N48">
-        <v>531.2</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="O48">
         <v>578.76</v>
@@ -4718,7 +4737,7 @@
         <v>487.41</v>
       </c>
       <c r="X48">
-        <v>565.45</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="Y48">
         <v>725.37</v>
@@ -4736,12 +4755,12 @@
         <v>487.38</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
-      <c r="A49" s="2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>516.83</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="C49">
         <v>442.13</v>
@@ -4765,7 +4784,7 @@
         <v>461.78</v>
       </c>
       <c r="J49">
-        <v>593.0700000000001</v>
+        <v>593.07000000000005</v>
       </c>
       <c r="K49">
         <v>642.79</v>
@@ -4774,7 +4793,7 @@
         <v>646.77</v>
       </c>
       <c r="M49">
-        <v>654.5599999999999</v>
+        <v>654.55999999999995</v>
       </c>
       <c r="N49">
         <v>543.22</v>
@@ -4825,12 +4844,12 @@
         <v>498.58</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
-      <c r="A50" s="2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44196</v>
       </c>
       <c r="B50">
-        <v>524.0599999999999</v>
+        <v>524.05999999999995</v>
       </c>
       <c r="C50">
         <v>447.05</v>
@@ -4854,10 +4873,10 @@
         <v>468.55</v>
       </c>
       <c r="J50">
-        <v>608.0599999999999</v>
+        <v>608.05999999999995</v>
       </c>
       <c r="K50">
-        <v>672.8099999999999</v>
+        <v>672.81</v>
       </c>
       <c r="L50">
         <v>668.72</v>
@@ -4869,7 +4888,7 @@
         <v>552.46</v>
       </c>
       <c r="O50">
-        <v>607.58</v>
+        <v>607.58000000000004</v>
       </c>
       <c r="P50">
         <v>520.04</v>
@@ -4914,8 +4933,8 @@
         <v>504.81</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
-      <c r="A51" s="2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44227</v>
       </c>
       <c r="B51">
@@ -4937,7 +4956,7 @@
         <v>507.22</v>
       </c>
       <c r="H51">
-        <v>519.17</v>
+        <v>519.16999999999996</v>
       </c>
       <c r="I51">
         <v>483.75</v>
@@ -4955,7 +4974,7 @@
         <v>688.11</v>
       </c>
       <c r="N51">
-        <v>573.1799999999999</v>
+        <v>573.17999999999995</v>
       </c>
       <c r="O51">
         <v>618.5</v>
@@ -4985,7 +5004,7 @@
         <v>502.53</v>
       </c>
       <c r="X51">
-        <v>580.1900000000001</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="Y51">
         <v>748.72</v>
@@ -5000,15 +5019,15 @@
         <v>520.77</v>
       </c>
       <c r="AC51">
-        <v>513.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
-      <c r="A52" s="2">
+        <v>513.29999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44255</v>
       </c>
       <c r="B52">
-        <v>539.9299999999999</v>
+        <v>539.92999999999995</v>
       </c>
       <c r="C52">
         <v>457.98</v>
@@ -5023,7 +5042,7 @@
         <v>502.84</v>
       </c>
       <c r="G52">
-        <v>512.0700000000001</v>
+        <v>512.07000000000005</v>
       </c>
       <c r="H52">
         <v>523.63</v>
@@ -5032,7 +5051,7 @@
         <v>484.97</v>
       </c>
       <c r="J52">
-        <v>639.2</v>
+        <v>639.20000000000005</v>
       </c>
       <c r="K52">
         <v>700.64</v>
@@ -5044,13 +5063,13 @@
         <v>699.37</v>
       </c>
       <c r="N52">
-        <v>586.1799999999999</v>
+        <v>586.17999999999995</v>
       </c>
       <c r="O52">
-        <v>625.8</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="P52">
-        <v>560.6900000000001</v>
+        <v>560.69000000000005</v>
       </c>
       <c r="Q52">
         <v>451.93</v>
@@ -5074,7 +5093,7 @@
         <v>507.74</v>
       </c>
       <c r="X52">
-        <v>585.08</v>
+        <v>585.08000000000004</v>
       </c>
       <c r="Y52">
         <v>758.58</v>
@@ -5086,14 +5105,14 @@
         <v>191.88</v>
       </c>
       <c r="AB52">
-        <v>526.7</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="AC52">
         <v>517.96</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
-      <c r="A53" s="2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44286</v>
       </c>
       <c r="B53">
@@ -5112,7 +5131,7 @@
         <v>508.51</v>
       </c>
       <c r="G53">
-        <v>517.83</v>
+        <v>517.83000000000004</v>
       </c>
       <c r="H53">
         <v>528.9</v>
@@ -5136,7 +5155,7 @@
         <v>591.75</v>
       </c>
       <c r="O53">
-        <v>633.3099999999999</v>
+        <v>633.30999999999995</v>
       </c>
       <c r="P53">
         <v>565.27</v>
@@ -5157,13 +5176,13 @@
         <v>438.18</v>
       </c>
       <c r="V53">
-        <v>1064.4</v>
+        <v>1064.4000000000001</v>
       </c>
       <c r="W53">
         <v>514.16</v>
       </c>
       <c r="X53">
-        <v>588.4400000000001</v>
+        <v>588.44000000000005</v>
       </c>
       <c r="Y53">
         <v>778.33</v>
@@ -5181,8 +5200,8 @@
         <v>523.53</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
-      <c r="A54" s="2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44316</v>
       </c>
       <c r="B54">
@@ -5198,10 +5217,10 @@
         <v>490.85</v>
       </c>
       <c r="F54">
-        <v>517.3</v>
+        <v>517.29999999999995</v>
       </c>
       <c r="G54">
-        <v>527.6799999999999</v>
+        <v>527.67999999999995</v>
       </c>
       <c r="H54">
         <v>539.65</v>
@@ -5237,7 +5256,7 @@
         <v>377.53</v>
       </c>
       <c r="S54">
-        <v>271.46</v>
+        <v>271.45999999999998</v>
       </c>
       <c r="T54">
         <v>381.91</v>
@@ -5252,7 +5271,7 @@
         <v>517.86</v>
       </c>
       <c r="X54">
-        <v>591.9299999999999</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="Y54">
         <v>788.85</v>
@@ -5267,11 +5286,11 @@
         <v>537.27</v>
       </c>
       <c r="AC54">
-        <v>532.3200000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
-      <c r="A55" s="2">
+        <v>532.32000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44347</v>
       </c>
       <c r="B55">
@@ -5311,13 +5330,13 @@
         <v>745.21</v>
       </c>
       <c r="N55">
-        <v>602.6900000000001</v>
+        <v>602.69000000000005</v>
       </c>
       <c r="O55">
-        <v>644.08</v>
+        <v>644.08000000000004</v>
       </c>
       <c r="P55">
-        <v>576.17</v>
+        <v>576.16999999999996</v>
       </c>
       <c r="Q55">
         <v>473.91</v>
@@ -5335,13 +5354,13 @@
         <v>448.6</v>
       </c>
       <c r="V55">
-        <v>1095.12</v>
+        <v>1095.1199999999999</v>
       </c>
       <c r="W55">
-        <v>523.95</v>
+        <v>523.95000000000005</v>
       </c>
       <c r="X55">
-        <v>596.17</v>
+        <v>596.16999999999996</v>
       </c>
       <c r="Y55">
         <v>796.33</v>
@@ -5356,11 +5375,11 @@
         <v>541.04</v>
       </c>
       <c r="AC55">
-        <v>537.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
-      <c r="A56" s="2">
+        <v>537.04999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44377</v>
       </c>
       <c r="B56">
@@ -5379,10 +5398,10 @@
         <v>532.76</v>
       </c>
       <c r="G56">
-        <v>544.9400000000001</v>
+        <v>544.94000000000005</v>
       </c>
       <c r="H56">
-        <v>554.4400000000001</v>
+        <v>554.44000000000005</v>
       </c>
       <c r="I56">
         <v>504.23</v>
@@ -5394,7 +5413,7 @@
         <v>651.91</v>
       </c>
       <c r="L56">
-        <v>724.1799999999999</v>
+        <v>724.18</v>
       </c>
       <c r="M56">
         <v>771.49</v>
@@ -5403,7 +5422,7 @@
         <v>614.89</v>
       </c>
       <c r="O56">
-        <v>653.9299999999999</v>
+        <v>653.92999999999995</v>
       </c>
       <c r="P56">
         <v>589.34</v>
@@ -5415,7 +5434,7 @@
         <v>392.53</v>
       </c>
       <c r="S56">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="T56">
         <v>396.88</v>
@@ -5442,14 +5461,14 @@
         <v>195.92</v>
       </c>
       <c r="AB56">
-        <v>551.1799999999999</v>
+        <v>551.17999999999995</v>
       </c>
       <c r="AC56">
         <v>547.48</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
-      <c r="A57" s="2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>44408</v>
       </c>
       <c r="B57">
@@ -5465,16 +5484,16 @@
         <v>517.11</v>
       </c>
       <c r="F57">
-        <v>542.8200000000001</v>
+        <v>542.82000000000005</v>
       </c>
       <c r="G57">
         <v>552.74</v>
       </c>
       <c r="H57">
-        <v>565.42</v>
+        <v>565.41999999999996</v>
       </c>
       <c r="I57">
-        <v>535.4400000000001</v>
+        <v>535.44000000000005</v>
       </c>
       <c r="J57">
         <v>686.41</v>
@@ -5483,7 +5502,7 @@
         <v>688.35</v>
       </c>
       <c r="L57">
-        <v>745.8200000000001</v>
+        <v>745.82</v>
       </c>
       <c r="M57">
         <v>784.9</v>
@@ -5492,7 +5511,7 @@
         <v>630.75</v>
       </c>
       <c r="O57">
-        <v>673.0599999999999</v>
+        <v>673.06</v>
       </c>
       <c r="P57">
         <v>603.47</v>
@@ -5504,7 +5523,7 @@
         <v>392.46</v>
       </c>
       <c r="S57">
-        <v>276.66</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="T57">
         <v>396.46</v>
@@ -5516,10 +5535,10 @@
         <v>1095.74</v>
       </c>
       <c r="W57">
-        <v>541.2</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="X57">
-        <v>606.6799999999999</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="Y57">
         <v>849.27</v>
@@ -5537,12 +5556,12 @@
         <v>557.36</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
-      <c r="A58" s="2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44439</v>
       </c>
       <c r="B58">
-        <v>587.92</v>
+        <v>587.91999999999996</v>
       </c>
       <c r="C58">
         <v>496.14</v>
@@ -5551,19 +5570,19 @@
         <v>467</v>
       </c>
       <c r="E58">
-        <v>520.67</v>
+        <v>520.66999999999996</v>
       </c>
       <c r="F58">
         <v>549.14</v>
       </c>
       <c r="G58">
-        <v>559.6900000000001</v>
+        <v>559.69000000000005</v>
       </c>
       <c r="H58">
         <v>571.47</v>
       </c>
       <c r="I58">
-        <v>538.8200000000001</v>
+        <v>538.82000000000005</v>
       </c>
       <c r="J58">
         <v>708.25</v>
@@ -5572,16 +5591,16 @@
         <v>757.76</v>
       </c>
       <c r="L58">
-        <v>777.5599999999999</v>
+        <v>777.56</v>
       </c>
       <c r="M58">
         <v>795.48</v>
       </c>
       <c r="N58">
-        <v>644.55</v>
+        <v>644.54999999999995</v>
       </c>
       <c r="O58">
-        <v>685.1799999999999</v>
+        <v>685.18</v>
       </c>
       <c r="P58">
         <v>617.9</v>
@@ -5626,12 +5645,12 @@
         <v>563.6</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
-      <c r="A59" s="2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>44469</v>
       </c>
       <c r="B59">
-        <v>597.08</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="C59">
         <v>503.59</v>
@@ -5643,7 +5662,7 @@
         <v>529</v>
       </c>
       <c r="F59">
-        <v>556.3200000000001</v>
+        <v>556.32000000000005</v>
       </c>
       <c r="G59">
         <v>566.74</v>
@@ -5652,7 +5671,7 @@
         <v>577.87</v>
       </c>
       <c r="I59">
-        <v>550.7</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="J59">
         <v>711.76</v>
@@ -5664,16 +5683,16 @@
         <v>773.47</v>
       </c>
       <c r="M59">
-        <v>802.3200000000001</v>
+        <v>802.32</v>
       </c>
       <c r="N59">
-        <v>653.95</v>
+        <v>653.95000000000005</v>
       </c>
       <c r="O59">
-        <v>702.5599999999999</v>
+        <v>702.56</v>
       </c>
       <c r="P59">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="Q59">
         <v>490.14</v>
@@ -5682,7 +5701,7 @@
         <v>396.32</v>
       </c>
       <c r="S59">
-        <v>267.34</v>
+        <v>267.33999999999997</v>
       </c>
       <c r="T59">
         <v>400.11</v>
@@ -5691,7 +5710,7 @@
         <v>489.04</v>
       </c>
       <c r="V59">
-        <v>1094.87</v>
+        <v>1094.8699999999999</v>
       </c>
       <c r="W59">
         <v>556.85</v>
@@ -5703,7 +5722,7 @@
         <v>887.83</v>
       </c>
       <c r="Z59">
-        <v>573.92</v>
+        <v>573.91999999999996</v>
       </c>
       <c r="AA59">
         <v>199.11</v>
@@ -5715,15 +5734,15 @@
         <v>570.66</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
-      <c r="A60" s="2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44500</v>
       </c>
       <c r="B60">
-        <v>609.7</v>
+        <v>609.70000000000005</v>
       </c>
       <c r="C60">
-        <v>512.92</v>
+        <v>512.91999999999996</v>
       </c>
       <c r="D60">
         <v>482.54</v>
@@ -5738,7 +5757,7 @@
         <v>580.6</v>
       </c>
       <c r="H60">
-        <v>594.5599999999999</v>
+        <v>594.55999999999995</v>
       </c>
       <c r="I60">
         <v>575.9</v>
@@ -5771,7 +5790,7 @@
         <v>406.18</v>
       </c>
       <c r="S60">
-        <v>287.79</v>
+        <v>287.79000000000002</v>
       </c>
       <c r="T60">
         <v>405.04</v>
@@ -5801,18 +5820,18 @@
         <v>576.02</v>
       </c>
       <c r="AC60">
-        <v>584.3200000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
-      <c r="A61" s="2">
+        <v>584.32000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44530</v>
       </c>
       <c r="B61">
         <v>633.48</v>
       </c>
       <c r="C61">
-        <v>529.4400000000001</v>
+        <v>529.44000000000005</v>
       </c>
       <c r="D61">
         <v>496.11</v>
@@ -5827,10 +5846,10 @@
         <v>604.11</v>
       </c>
       <c r="H61">
-        <v>618.92</v>
+        <v>618.91999999999996</v>
       </c>
       <c r="I61">
-        <v>610.1799999999999</v>
+        <v>610.17999999999995</v>
       </c>
       <c r="J61">
         <v>753.88</v>
@@ -5851,22 +5870,22 @@
         <v>777</v>
       </c>
       <c r="P61">
-        <v>655.5599999999999</v>
+        <v>655.56</v>
       </c>
       <c r="Q61">
-        <v>522.8200000000001</v>
+        <v>522.82000000000005</v>
       </c>
       <c r="R61">
         <v>421.08</v>
       </c>
       <c r="S61">
-        <v>292.54</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="T61">
         <v>421.48</v>
       </c>
       <c r="U61">
-        <v>517.58</v>
+        <v>517.58000000000004</v>
       </c>
       <c r="V61">
         <v>1192.96</v>
@@ -5893,12 +5912,12 @@
         <v>604.84</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
-      <c r="A62" s="2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44561</v>
       </c>
       <c r="B62">
-        <v>723.4400000000001</v>
+        <v>723.44</v>
       </c>
       <c r="C62">
         <v>603.02</v>
@@ -5913,13 +5932,13 @@
         <v>670.34</v>
       </c>
       <c r="G62">
-        <v>695.9400000000001</v>
+        <v>695.94</v>
       </c>
       <c r="H62">
         <v>720.91</v>
       </c>
       <c r="I62">
-        <v>669.6799999999999</v>
+        <v>669.68</v>
       </c>
       <c r="J62">
         <v>874.42</v>
@@ -5943,7 +5962,7 @@
         <v>751.89</v>
       </c>
       <c r="Q62">
-        <v>624.5700000000001</v>
+        <v>624.57000000000005</v>
       </c>
       <c r="R62">
         <v>507.09</v>
@@ -5952,22 +5971,22 @@
         <v>314.13</v>
       </c>
       <c r="T62">
-        <v>549.33</v>
+        <v>549.33000000000004</v>
       </c>
       <c r="U62">
-        <v>586.8099999999999</v>
+        <v>586.80999999999995</v>
       </c>
       <c r="V62">
         <v>1363.98</v>
       </c>
       <c r="W62">
-        <v>603.4400000000001</v>
+        <v>603.44000000000005</v>
       </c>
       <c r="X62">
-        <v>643.0700000000001</v>
+        <v>643.07000000000005</v>
       </c>
       <c r="Y62">
-        <v>1038.39</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="Z62">
         <v>609.85</v>
@@ -5982,15 +6001,15 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
-      <c r="A63" s="2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44592</v>
       </c>
       <c r="B63">
         <v>806.38</v>
       </c>
       <c r="C63">
-        <v>648.2</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="D63">
         <v>600.78</v>
@@ -6023,7 +6042,7 @@
         <v>1104.82</v>
       </c>
       <c r="N63">
-        <v>895.3200000000001</v>
+        <v>895.32</v>
       </c>
       <c r="O63">
         <v>1001.04</v>
@@ -6032,13 +6051,13 @@
         <v>834.9</v>
       </c>
       <c r="Q63">
-        <v>673.4299999999999</v>
+        <v>673.43</v>
       </c>
       <c r="R63">
         <v>538.27</v>
       </c>
       <c r="S63">
-        <v>312.85</v>
+        <v>312.85000000000002</v>
       </c>
       <c r="T63">
         <v>584.66</v>
@@ -6050,13 +6069,13 @@
         <v>1599.72</v>
       </c>
       <c r="W63">
-        <v>651.08</v>
+        <v>651.08000000000004</v>
       </c>
       <c r="X63">
         <v>660.79</v>
       </c>
       <c r="Y63">
-        <v>1126.11</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="Z63">
         <v>712.78</v>
@@ -6065,14 +6084,14 @@
         <v>206.41</v>
       </c>
       <c r="AB63">
-        <v>677.1900000000001</v>
+        <v>677.19</v>
       </c>
       <c r="AC63">
         <v>763.23</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
-      <c r="A64" s="2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>44620</v>
       </c>
       <c r="B64">
@@ -6082,7 +6101,7 @@
         <v>673.29</v>
       </c>
       <c r="D64">
-        <v>623.3</v>
+        <v>623.29999999999995</v>
       </c>
       <c r="E64">
         <v>730.76</v>
@@ -6091,10 +6110,10 @@
         <v>778.78</v>
       </c>
       <c r="G64">
-        <v>799.5700000000001</v>
+        <v>799.57</v>
       </c>
       <c r="H64">
-        <v>851.0599999999999</v>
+        <v>851.06</v>
       </c>
       <c r="I64">
         <v>887.38</v>
@@ -6115,7 +6134,7 @@
         <v>934.47</v>
       </c>
       <c r="O64">
-        <v>1055.11</v>
+        <v>1055.1099999999999</v>
       </c>
       <c r="P64">
         <v>866.62</v>
@@ -6157,18 +6176,18 @@
         <v>701.87</v>
       </c>
       <c r="AC64">
-        <v>799.9299999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
-      <c r="A65" s="2">
+        <v>799.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44651</v>
       </c>
       <c r="B65">
-        <v>887.0599999999999</v>
+        <v>887.06</v>
       </c>
       <c r="C65">
-        <v>701.8200000000001</v>
+        <v>701.82</v>
       </c>
       <c r="D65">
         <v>650.64</v>
@@ -6186,16 +6205,16 @@
         <v>901.13</v>
       </c>
       <c r="I65">
-        <v>985.0700000000001</v>
+        <v>985.07</v>
       </c>
       <c r="J65">
         <v>1101</v>
       </c>
       <c r="K65">
-        <v>1275.85</v>
+        <v>1275.8499999999999</v>
       </c>
       <c r="L65">
-        <v>1251.9</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="M65">
         <v>1238.72</v>
@@ -6210,10 +6229,10 @@
         <v>888.09</v>
       </c>
       <c r="Q65">
-        <v>728.4299999999999</v>
+        <v>728.43</v>
       </c>
       <c r="R65">
-        <v>584.45</v>
+        <v>584.45000000000005</v>
       </c>
       <c r="S65">
         <v>318.98</v>
@@ -6249,8 +6268,8 @@
         <v>843.64</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
-      <c r="A66" s="2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44681</v>
       </c>
       <c r="B66">
@@ -6260,7 +6279,7 @@
         <v>741.01</v>
       </c>
       <c r="D66">
-        <v>680.1900000000001</v>
+        <v>680.19</v>
       </c>
       <c r="E66">
         <v>816.41</v>
@@ -6317,7 +6336,7 @@
         <v>1756.48</v>
       </c>
       <c r="W66">
-        <v>736.3099999999999</v>
+        <v>736.31</v>
       </c>
       <c r="X66">
         <v>699.54</v>
@@ -6332,14 +6351,14 @@
         <v>219.53</v>
       </c>
       <c r="AB66">
-        <v>741.3099999999999</v>
+        <v>741.31</v>
       </c>
       <c r="AC66">
         <v>904.79</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
-      <c r="A67" s="2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44712</v>
       </c>
       <c r="B67">
@@ -6352,7 +6371,7 @@
         <v>703.6</v>
       </c>
       <c r="E67">
-        <v>846.0599999999999</v>
+        <v>846.06</v>
       </c>
       <c r="F67">
         <v>907.62</v>
@@ -6385,7 +6404,7 @@
         <v>1228.22</v>
       </c>
       <c r="P67">
-        <v>1057.16</v>
+        <v>1057.1600000000001</v>
       </c>
       <c r="Q67">
         <v>786.53</v>
@@ -6427,8 +6446,8 @@
         <v>931.76</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
-      <c r="A68" s="2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44742</v>
       </c>
       <c r="B68">
@@ -6444,13 +6463,13 @@
         <v>900.64</v>
       </c>
       <c r="F68">
-        <v>953.5599999999999</v>
+        <v>953.56</v>
       </c>
       <c r="G68">
         <v>974.59</v>
       </c>
       <c r="H68">
-        <v>1053.11</v>
+        <v>1053.1099999999999</v>
       </c>
       <c r="I68">
         <v>1267.26</v>
@@ -6471,7 +6490,7 @@
         <v>1205.46</v>
       </c>
       <c r="O68">
-        <v>1288.86</v>
+        <v>1288.8599999999999</v>
       </c>
       <c r="P68">
         <v>1151.55</v>
@@ -6510,27 +6529,27 @@
         <v>230.49</v>
       </c>
       <c r="AB68">
-        <v>787.3200000000001</v>
+        <v>787.32</v>
       </c>
       <c r="AC68">
         <v>977.9</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
-      <c r="A69" s="2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>44773</v>
       </c>
       <c r="B69">
         <v>1066.31</v>
       </c>
       <c r="C69">
-        <v>829.6900000000001</v>
+        <v>829.69</v>
       </c>
       <c r="D69">
         <v>752.23</v>
       </c>
       <c r="E69">
-        <v>919.4400000000001</v>
+        <v>919.44</v>
       </c>
       <c r="F69">
         <v>974.15</v>
@@ -6542,7 +6561,7 @@
         <v>1075.26</v>
       </c>
       <c r="I69">
-        <v>1227.6</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="J69">
         <v>1336.07</v>
@@ -6575,7 +6594,7 @@
         <v>363.67</v>
       </c>
       <c r="T69">
-        <v>733.1900000000001</v>
+        <v>733.19</v>
       </c>
       <c r="U69">
         <v>829.14</v>
@@ -6593,7 +6612,7 @@
         <v>1521.38</v>
       </c>
       <c r="Z69">
-        <v>1060.64</v>
+        <v>1060.6400000000001</v>
       </c>
       <c r="AA69">
         <v>234.69</v>
@@ -6605,8 +6624,8 @@
         <v>1001.03</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
-      <c r="A70" s="2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44804</v>
       </c>
       <c r="B70">
@@ -6682,7 +6701,7 @@
         <v>1571.7</v>
       </c>
       <c r="Z70">
-        <v>1062.34</v>
+        <v>1062.3399999999999</v>
       </c>
       <c r="AA70">
         <v>238.55</v>
@@ -6694,15 +6713,15 @@
         <v>1015.65</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
-      <c r="A71" s="2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44834</v>
       </c>
       <c r="B71">
-        <v>1120.61</v>
+        <v>1120.6099999999999</v>
       </c>
       <c r="C71">
-        <v>879.4299999999999</v>
+        <v>879.43</v>
       </c>
       <c r="D71">
         <v>796.84</v>
@@ -6726,7 +6745,7 @@
         <v>1374.05</v>
       </c>
       <c r="K71">
-        <v>1165.61</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="L71">
         <v>1410.76</v>
@@ -6747,7 +6766,7 @@
         <v>875.73</v>
       </c>
       <c r="R71">
-        <v>703.4400000000001</v>
+        <v>703.44</v>
       </c>
       <c r="S71">
         <v>373.27</v>
@@ -6756,7 +6775,7 @@
         <v>760.04</v>
       </c>
       <c r="U71">
-        <v>893.6900000000001</v>
+        <v>893.69</v>
       </c>
       <c r="V71">
         <v>2027.58</v>
@@ -6780,18 +6799,18 @@
         <v>874.72</v>
       </c>
       <c r="AC71">
-        <v>1046.89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
-      <c r="A72" s="2">
+        <v>1046.8900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44865</v>
       </c>
       <c r="B72">
-        <v>1152.39</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="C72">
-        <v>907.9400000000001</v>
+        <v>907.94</v>
       </c>
       <c r="D72">
         <v>822.48</v>
@@ -6800,7 +6819,7 @@
         <v>1001.04</v>
       </c>
       <c r="F72">
-        <v>1057.16</v>
+        <v>1057.1600000000001</v>
       </c>
       <c r="G72">
         <v>1070.08</v>
@@ -6830,7 +6849,7 @@
         <v>1490.89</v>
       </c>
       <c r="P72">
-        <v>1298.12</v>
+        <v>1298.1199999999999</v>
       </c>
       <c r="Q72">
         <v>907.03</v>
@@ -6848,19 +6867,19 @@
         <v>920.17</v>
       </c>
       <c r="V72">
-        <v>2082.82</v>
+        <v>2082.8200000000002</v>
       </c>
       <c r="W72">
-        <v>901.5700000000001</v>
+        <v>901.57</v>
       </c>
       <c r="X72">
-        <v>887.8200000000001</v>
+        <v>887.82</v>
       </c>
       <c r="Y72">
         <v>1652.46</v>
       </c>
       <c r="Z72">
-        <v>1158.61</v>
+        <v>1158.6099999999999</v>
       </c>
       <c r="AA72">
         <v>252.33</v>
@@ -6872,8 +6891,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
-      <c r="A73" s="2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44895</v>
       </c>
       <c r="B73">
@@ -6892,10 +6911,10 @@
         <v>1087.49</v>
       </c>
       <c r="G73">
-        <v>1103.62</v>
+        <v>1103.6199999999999</v>
       </c>
       <c r="H73">
-        <v>1194.6</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="I73">
         <v>1330.22</v>
@@ -6922,10 +6941,10 @@
         <v>1393.56</v>
       </c>
       <c r="Q73">
-        <v>924.0599999999999</v>
+        <v>924.06</v>
       </c>
       <c r="R73">
-        <v>741.5599999999999</v>
+        <v>741.56</v>
       </c>
       <c r="S73">
         <v>398.49</v>
@@ -6961,8 +6980,8 @@
         <v>1115.26</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
-      <c r="A74" s="2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>44926</v>
       </c>
       <c r="B74">
@@ -6975,13 +6994,13 @@
         <v>853.52</v>
       </c>
       <c r="E74">
-        <v>1038.1</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="F74">
         <v>1100.92</v>
       </c>
       <c r="G74">
-        <v>1113.64</v>
+        <v>1113.6400000000001</v>
       </c>
       <c r="H74">
         <v>1206.18</v>
@@ -7011,7 +7030,7 @@
         <v>1422.3</v>
       </c>
       <c r="Q74">
-        <v>939.6900000000001</v>
+        <v>939.69</v>
       </c>
       <c r="R74">
         <v>755.35</v>
@@ -7029,7 +7048,7 @@
         <v>2167.42</v>
       </c>
       <c r="W74">
-        <v>938.3099999999999</v>
+        <v>938.31</v>
       </c>
       <c r="X74">
         <v>945.76</v>
@@ -7050,8 +7069,8 @@
         <v>1128.45</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
-      <c r="A75" s="2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>44957</v>
       </c>
       <c r="B75">
@@ -7073,7 +7092,7 @@
         <v>1188.03</v>
       </c>
       <c r="H75">
-        <v>1260.11</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="I75">
         <v>1322.75</v>
@@ -7139,8 +7158,8 @@
         <v>1203.48</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
-      <c r="A76" s="2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>44985</v>
       </c>
       <c r="B76">
@@ -7159,7 +7178,7 @@
         <v>1210.75</v>
       </c>
       <c r="G76">
-        <v>1232.13</v>
+        <v>1232.1300000000001</v>
       </c>
       <c r="H76">
         <v>1299.77</v>
@@ -7201,19 +7220,19 @@
         <v>875.01</v>
       </c>
       <c r="U76">
-        <v>1024.13</v>
+        <v>1024.1300000000001</v>
       </c>
       <c r="V76">
         <v>2384.52</v>
       </c>
       <c r="W76">
-        <v>1090.66</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="X76">
         <v>1065.53</v>
       </c>
       <c r="Y76">
-        <v>2052.51</v>
+        <v>2052.5100000000002</v>
       </c>
       <c r="Z76">
         <v>1283.26</v>
@@ -7228,8 +7247,8 @@
         <v>1241.33</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
-      <c r="A77" s="2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>45016</v>
       </c>
       <c r="B77">
@@ -7239,7 +7258,7 @@
         <v>1067.55</v>
       </c>
       <c r="D77">
-        <v>958.8099999999999</v>
+        <v>958.81</v>
       </c>
       <c r="E77">
         <v>1148.49</v>
@@ -7248,7 +7267,7 @@
         <v>1239.49</v>
       </c>
       <c r="G77">
-        <v>1263.09</v>
+        <v>1263.0899999999999</v>
       </c>
       <c r="H77">
         <v>1325.55</v>
@@ -7293,7 +7312,7 @@
         <v>1049.96</v>
       </c>
       <c r="V77">
-        <v>2392.28</v>
+        <v>2392.2800000000002</v>
       </c>
       <c r="W77">
         <v>1124.25</v>
@@ -7302,7 +7321,7 @@
         <v>1117.68</v>
       </c>
       <c r="Y77">
-        <v>2131.51</v>
+        <v>2131.5100000000002</v>
       </c>
       <c r="Z77">
         <v>1296.28</v>
@@ -7317,24 +7336,24 @@
         <v>1269.75</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
-      <c r="A78" s="2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>45046</v>
       </c>
       <c r="B78">
         <v>1393.8</v>
       </c>
       <c r="C78">
-        <v>1096.85</v>
+        <v>1096.8499999999999</v>
       </c>
       <c r="D78">
-        <v>989.5700000000001</v>
+        <v>989.57</v>
       </c>
       <c r="E78">
         <v>1168.48</v>
       </c>
       <c r="F78">
-        <v>1270.13</v>
+        <v>1270.1300000000001</v>
       </c>
       <c r="G78">
         <v>1304.18</v>
@@ -7382,7 +7401,7 @@
         <v>1061.45</v>
       </c>
       <c r="V78">
-        <v>2410.8</v>
+        <v>2410.8000000000002</v>
       </c>
       <c r="W78">
         <v>1167.94</v>
@@ -7406,18 +7425,18 @@
         <v>1300.04</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
-      <c r="A79" s="2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>45077</v>
       </c>
       <c r="B79">
         <v>1389.71</v>
       </c>
       <c r="C79">
-        <v>1136.39</v>
+        <v>1136.3900000000001</v>
       </c>
       <c r="D79">
-        <v>1031.64</v>
+        <v>1031.6400000000001</v>
       </c>
       <c r="E79">
         <v>1168.43</v>
@@ -7456,7 +7475,7 @@
         <v>1632</v>
       </c>
       <c r="Q79">
-        <v>1057.13</v>
+        <v>1057.1300000000001</v>
       </c>
       <c r="R79">
         <v>850.27</v>
@@ -7468,19 +7487,19 @@
         <v>948.73</v>
       </c>
       <c r="U79">
-        <v>1072.35</v>
+        <v>1072.3499999999999</v>
       </c>
       <c r="V79">
         <v>2427.38</v>
       </c>
       <c r="W79">
-        <v>1221.66</v>
+        <v>1221.6600000000001</v>
       </c>
       <c r="X79">
-        <v>1226.59</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="Y79">
-        <v>2379.55</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="Z79">
         <v>1345.84</v>
@@ -7489,14 +7508,14 @@
         <v>322.56</v>
       </c>
       <c r="AB79">
-        <v>1207.86</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="AC79">
-        <v>1300.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29">
-      <c r="A80" s="2">
+        <v>1300.5999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>45107</v>
       </c>
       <c r="B80">
@@ -7521,7 +7540,7 @@
         <v>1378.76</v>
       </c>
       <c r="I80">
-        <v>1057.88</v>
+        <v>1057.8800000000001</v>
       </c>
       <c r="J80">
         <v>1993.6</v>
@@ -7548,7 +7567,7 @@
         <v>1108.01</v>
       </c>
       <c r="R80">
-        <v>884.5599999999999</v>
+        <v>884.56</v>
       </c>
       <c r="S80">
         <v>429.08</v>
@@ -7563,7 +7582,7 @@
         <v>2685.26</v>
       </c>
       <c r="W80">
-        <v>1266.36</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="X80">
         <v>1297.74</v>
@@ -7578,21 +7597,21 @@
         <v>331.53</v>
       </c>
       <c r="AB80">
-        <v>1239.41</v>
+        <v>1239.4100000000001</v>
       </c>
       <c r="AC80">
         <v>1351.59</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
-      <c r="A81" s="2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>45138</v>
       </c>
       <c r="B81">
         <v>1581.05</v>
       </c>
       <c r="C81">
-        <v>1280.4</v>
+        <v>1280.4000000000001</v>
       </c>
       <c r="D81">
         <v>1174.19</v>
@@ -7634,7 +7653,7 @@
         <v>1733.83</v>
       </c>
       <c r="Q81">
-        <v>1215.65</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="R81">
         <v>967.71</v>
@@ -7643,7 +7662,7 @@
         <v>441.88</v>
       </c>
       <c r="T81">
-        <v>1138.1</v>
+        <v>1138.0999999999999</v>
       </c>
       <c r="U81">
         <v>1188.76</v>
@@ -7673,8 +7692,8 @@
         <v>1479.84</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
-      <c r="A82" s="2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>45169</v>
       </c>
       <c r="B82">
@@ -7705,7 +7724,7 @@
         <v>2329.27</v>
       </c>
       <c r="K82">
-        <v>2354.43</v>
+        <v>2354.4299999999998</v>
       </c>
       <c r="L82">
         <v>2702.83</v>
@@ -7726,7 +7745,7 @@
         <v>1312.07</v>
       </c>
       <c r="R82">
-        <v>1050.63</v>
+        <v>1050.6300000000001</v>
       </c>
       <c r="S82">
         <v>478.34</v>
@@ -7735,7 +7754,7 @@
         <v>1227.06</v>
       </c>
       <c r="U82">
-        <v>1306.65</v>
+        <v>1306.6500000000001</v>
       </c>
       <c r="V82">
         <v>3112.37</v>
@@ -7762,8 +7781,8 @@
         <v>1614.31</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
-      <c r="A83" s="2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>45199</v>
       </c>
       <c r="B83">
@@ -7794,7 +7813,7 @@
         <v>2406.5</v>
       </c>
       <c r="K83">
-        <v>2359.95</v>
+        <v>2359.9499999999998</v>
       </c>
       <c r="L83">
         <v>2767.43</v>
@@ -7815,7 +7834,7 @@
         <v>1356.24</v>
       </c>
       <c r="R83">
-        <v>1077.87</v>
+        <v>1077.8699999999999</v>
       </c>
       <c r="S83">
         <v>490.34</v>
@@ -7851,8 +7870,8 @@
         <v>1691.04</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
-      <c r="A84" s="2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>45230</v>
       </c>
       <c r="B84">
@@ -7910,7 +7929,7 @@
         <v>558.91</v>
       </c>
       <c r="T84">
-        <v>1264.1</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="U84">
         <v>1374.89</v>
@@ -7940,8 +7959,8 @@
         <v>1749.11</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
-      <c r="A85" s="2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>45260</v>
       </c>
       <c r="B85">
@@ -7969,7 +7988,7 @@
         <v>1611.98</v>
       </c>
       <c r="J85">
-        <v>2552.51</v>
+        <v>2552.5100000000002</v>
       </c>
       <c r="K85">
         <v>2305.84</v>
@@ -8029,8 +8048,8 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
-      <c r="A86" s="2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>45291</v>
       </c>
       <c r="B86">
@@ -8061,7 +8080,7 @@
         <v>2675.31</v>
       </c>
       <c r="K86">
-        <v>2568.49</v>
+        <v>2568.4899999999998</v>
       </c>
       <c r="L86">
         <v>3097.87</v>
@@ -8088,7 +8107,7 @@
         <v>548.73</v>
       </c>
       <c r="T86">
-        <v>1307.64</v>
+        <v>1307.6400000000001</v>
       </c>
       <c r="U86">
         <v>1464.44</v>
@@ -8118,8 +8137,8 @@
         <v>1859.38</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
-      <c r="A87" s="2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>45322</v>
       </c>
       <c r="B87">
@@ -8159,7 +8178,7 @@
         <v>3678.86</v>
       </c>
       <c r="N87">
-        <v>2429.28</v>
+        <v>2429.2800000000002</v>
       </c>
       <c r="O87">
         <v>2619.16</v>
@@ -8171,7 +8190,7 @@
         <v>1510.58</v>
       </c>
       <c r="R87">
-        <v>1195.4</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="S87">
         <v>538.53</v>
@@ -8189,13 +8208,13 @@
         <v>2006.23</v>
       </c>
       <c r="X87">
-        <v>2198.76</v>
+        <v>2198.7600000000002</v>
       </c>
       <c r="Y87">
         <v>3792.03</v>
       </c>
       <c r="Z87">
-        <v>2468.82</v>
+        <v>2468.8200000000002</v>
       </c>
       <c r="AA87">
         <v>440.14</v>
@@ -8207,8 +8226,8 @@
         <v>1984.02</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
-      <c r="A88" s="2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>45351</v>
       </c>
       <c r="B88">
@@ -8290,14 +8309,14 @@
         <v>467.74</v>
       </c>
       <c r="AB88">
-        <v>2074.18</v>
+        <v>2074.1799999999998</v>
       </c>
       <c r="AC88">
         <v>2073.88</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
-      <c r="A89" s="2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>45382</v>
       </c>
       <c r="B89">
@@ -8367,13 +8386,13 @@
         <v>2208.91</v>
       </c>
       <c r="X89">
-        <v>2503.01</v>
+        <v>2503.0100000000002</v>
       </c>
       <c r="Y89">
         <v>4155.88</v>
       </c>
       <c r="Z89">
-        <v>2520.07</v>
+        <v>2520.0700000000002</v>
       </c>
       <c r="AA89">
         <v>498.75</v>
@@ -8382,15 +8401,15 @@
         <v>2159.38</v>
       </c>
       <c r="AC89">
-        <v>2139.47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
-      <c r="A90" s="2">
+        <v>2139.4699999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>45412</v>
       </c>
       <c r="B90">
-        <v>2380.47</v>
+        <v>2380.4699999999998</v>
       </c>
       <c r="C90">
         <v>1894.45</v>
@@ -8402,10 +8421,10 @@
         <v>1967.08</v>
       </c>
       <c r="F90">
-        <v>2152.78</v>
+        <v>2152.7800000000002</v>
       </c>
       <c r="G90">
-        <v>2277.97</v>
+        <v>2277.9699999999998</v>
       </c>
       <c r="H90">
         <v>2154.59</v>
@@ -8441,7 +8460,7 @@
         <v>1285.99</v>
       </c>
       <c r="S90">
-        <v>578.4400000000001</v>
+        <v>578.44000000000005</v>
       </c>
       <c r="T90">
         <v>1465.97</v>
@@ -8453,7 +8472,7 @@
         <v>4301.16</v>
       </c>
       <c r="W90">
-        <v>2300.78</v>
+        <v>2300.7800000000002</v>
       </c>
       <c r="X90">
         <v>2618.5</v>
@@ -8465,17 +8484,17 @@
         <v>2682.41</v>
       </c>
       <c r="AA90">
-        <v>520.95</v>
+        <v>520.95000000000005</v>
       </c>
       <c r="AB90">
-        <v>2218.43</v>
+        <v>2218.4299999999998</v>
       </c>
       <c r="AC90">
         <v>2207.5</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
-      <c r="A91" s="2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>45443</v>
       </c>
       <c r="B91">
@@ -8497,7 +8516,7 @@
         <v>2343.71</v>
       </c>
       <c r="H91">
-        <v>2220.97</v>
+        <v>2220.9699999999998</v>
       </c>
       <c r="I91">
         <v>1925.11</v>
@@ -8539,7 +8558,7 @@
         <v>1711.01</v>
       </c>
       <c r="V91">
-        <v>4477.6</v>
+        <v>4477.6000000000004</v>
       </c>
       <c r="W91">
         <v>2393.59</v>
@@ -8563,8 +8582,8 @@
         <v>2281.85</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
-      <c r="A92" s="2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>45473</v>
       </c>
       <c r="B92">
@@ -8586,7 +8605,7 @@
         <v>2379.52</v>
       </c>
       <c r="H92">
-        <v>2241.26</v>
+        <v>2241.2600000000002</v>
       </c>
       <c r="I92">
         <v>1952.63</v>
@@ -8601,7 +8620,7 @@
         <v>3985.77</v>
       </c>
       <c r="M92">
-        <v>4468.77</v>
+        <v>4468.7700000000004</v>
       </c>
       <c r="N92">
         <v>2866.8</v>
@@ -8619,7 +8638,7 @@
         <v>1332.32</v>
       </c>
       <c r="S92">
-        <v>630.17</v>
+        <v>630.16999999999996</v>
       </c>
       <c r="T92">
         <v>1486.15</v>
@@ -8631,7 +8650,7 @@
         <v>4482.78</v>
       </c>
       <c r="W92">
-        <v>2472.78</v>
+        <v>2472.7800000000002</v>
       </c>
       <c r="X92">
         <v>2902.27</v>
@@ -8646,18 +8665,18 @@
         <v>555.15</v>
       </c>
       <c r="AB92">
-        <v>2343.18</v>
+        <v>2343.1799999999998</v>
       </c>
       <c r="AC92">
         <v>2319.29</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
-      <c r="A93" s="2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>45504</v>
       </c>
       <c r="B93">
-        <v>2588.76</v>
+        <v>2588.7600000000002</v>
       </c>
       <c r="C93">
         <v>2052.66</v>
@@ -8669,7 +8688,7 @@
         <v>2152.17</v>
       </c>
       <c r="F93">
-        <v>2332.72</v>
+        <v>2332.7199999999998</v>
       </c>
       <c r="G93">
         <v>2440.33</v>
@@ -8708,7 +8727,7 @@
         <v>1337.9</v>
       </c>
       <c r="S93">
-        <v>612.9299999999999</v>
+        <v>612.92999999999995</v>
       </c>
       <c r="T93">
         <v>1495.32</v>
@@ -8732,24 +8751,24 @@
         <v>2936.32</v>
       </c>
       <c r="AA93">
-        <v>585.4400000000001</v>
+        <v>585.44000000000005</v>
       </c>
       <c r="AB93">
-        <v>2423.43</v>
+        <v>2423.4299999999998</v>
       </c>
       <c r="AC93">
         <v>2394.1</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
-      <c r="A94" s="2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>45535</v>
       </c>
       <c r="B94">
         <v>2672.96</v>
       </c>
       <c r="C94">
-        <v>2111.82</v>
+        <v>2111.8200000000002</v>
       </c>
       <c r="D94">
         <v>1937.7</v>
@@ -8761,13 +8780,13 @@
         <v>2388.65</v>
       </c>
       <c r="G94">
-        <v>2475.57</v>
+        <v>2475.5700000000002</v>
       </c>
       <c r="H94">
         <v>2336.66</v>
       </c>
       <c r="I94">
-        <v>2294.76</v>
+        <v>2294.7600000000002</v>
       </c>
       <c r="J94">
         <v>3374.74</v>
@@ -8806,7 +8825,7 @@
         <v>1806.51</v>
       </c>
       <c r="V94">
-        <v>4937.4</v>
+        <v>4937.3999999999996</v>
       </c>
       <c r="W94">
         <v>2700.13</v>
@@ -8824,14 +8843,14 @@
         <v>589.02</v>
       </c>
       <c r="AB94">
-        <v>2538.24</v>
+        <v>2538.2399999999998</v>
       </c>
       <c r="AC94">
         <v>2453.34</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
-      <c r="A95" s="2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>45565</v>
       </c>
       <c r="B95">
@@ -8844,7 +8863,7 @@
         <v>2006.94</v>
       </c>
       <c r="E95">
-        <v>2288.97</v>
+        <v>2288.9699999999998</v>
       </c>
       <c r="F95">
         <v>2458.42</v>
@@ -8856,7 +8875,7 @@
         <v>2384.9</v>
       </c>
       <c r="I95">
-        <v>2304.82</v>
+        <v>2304.8200000000002</v>
       </c>
       <c r="J95">
         <v>3458.59</v>
@@ -8895,7 +8914,7 @@
         <v>1832.41</v>
       </c>
       <c r="V95">
-        <v>5143.48</v>
+        <v>5143.4799999999996</v>
       </c>
       <c r="W95">
         <v>2832.46</v>
@@ -8919,18 +8938,18 @@
         <v>2526.16</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
-      <c r="A96" s="2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>45596</v>
       </c>
       <c r="B96">
         <v>2789.07</v>
       </c>
       <c r="C96">
-        <v>2238.55</v>
+        <v>2238.5500000000002</v>
       </c>
       <c r="D96">
-        <v>2062.95</v>
+        <v>2062.9499999999998</v>
       </c>
       <c r="E96">
         <v>2346.42</v>
@@ -8942,7 +8961,7 @@
         <v>2632.62</v>
       </c>
       <c r="H96">
-        <v>2464.24</v>
+        <v>2464.2399999999998</v>
       </c>
       <c r="I96">
         <v>2335.85</v>
@@ -8954,7 +8973,7 @@
         <v>3732.87</v>
       </c>
       <c r="L96">
-        <v>4234.64</v>
+        <v>4234.6400000000003</v>
       </c>
       <c r="M96">
         <v>4531.38</v>
@@ -9008,15 +9027,15 @@
         <v>2598.91</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
-      <c r="A97" s="2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>45626</v>
       </c>
       <c r="B97">
         <v>2833.41</v>
       </c>
       <c r="C97">
-        <v>2273.05</v>
+        <v>2273.0500000000002</v>
       </c>
       <c r="D97">
         <v>2094.59</v>
@@ -9040,13 +9059,13 @@
         <v>3792.33</v>
       </c>
       <c r="K97">
-        <v>4071.814596</v>
+        <v>4071.8145960000002</v>
       </c>
       <c r="L97">
         <v>4615.91</v>
       </c>
       <c r="M97">
-        <v>4737.104652000001</v>
+        <v>4737.1046520000009</v>
       </c>
       <c r="N97">
         <v>3174.54</v>
@@ -9073,7 +9092,7 @@
         <v>1912.27</v>
       </c>
       <c r="V97">
-        <v>5151.6</v>
+        <v>5151.6000000000004</v>
       </c>
       <c r="W97">
         <v>2934.23</v>
@@ -9082,7 +9101,7 @@
         <v>3945.87</v>
       </c>
       <c r="Y97">
-        <v>5240.77</v>
+        <v>5240.7700000000004</v>
       </c>
       <c r="Z97">
         <v>3368.42</v>
@@ -9097,8 +9116,8 @@
         <v>2657.23</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
-      <c r="A98" s="2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>45657</v>
       </c>
       <c r="B98">
@@ -9123,19 +9142,19 @@
         <v>2552.69</v>
       </c>
       <c r="I98">
-        <v>2370.07</v>
+        <v>2370.0700000000002</v>
       </c>
       <c r="J98">
         <v>3841.32</v>
       </c>
       <c r="K98">
-        <v>4369.057061508</v>
+        <v>4369.0570615079996</v>
       </c>
       <c r="L98">
         <v>4655.76</v>
       </c>
       <c r="M98">
-        <v>4875.4281078384</v>
+        <v>4875.4281078384001</v>
       </c>
       <c r="N98">
         <v>3228.75</v>
@@ -9186,8 +9205,8 @@
         <v>2684.55</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
-      <c r="A99" s="2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>45688</v>
       </c>
       <c r="B99">
@@ -9197,7 +9216,7 @@
         <v>2425.31</v>
       </c>
       <c r="D99">
-        <v>2234.95</v>
+        <v>2234.9499999999998</v>
       </c>
       <c r="E99">
         <v>2539.15</v>
@@ -9212,19 +9231,19 @@
         <v>2621.34</v>
       </c>
       <c r="I99">
-        <v>2514.68</v>
+        <v>2514.6799999999998</v>
       </c>
       <c r="J99">
         <v>3989.45</v>
       </c>
       <c r="K99">
-        <v>4637.317165084591</v>
+        <v>4637.3171650845907</v>
       </c>
       <c r="L99">
-        <v>4779.39</v>
+        <v>4779.3900000000003</v>
       </c>
       <c r="M99">
-        <v>5033.391978532364</v>
+        <v>5033.3919785323642</v>
       </c>
       <c r="N99">
         <v>3387.45</v>
@@ -9257,7 +9276,7 @@
         <v>3269.07</v>
       </c>
       <c r="X99">
-        <v>4411.61</v>
+        <v>4411.6099999999997</v>
       </c>
       <c r="Y99">
         <v>5656.88</v>
@@ -9275,146 +9294,146 @@
         <v>2819.65</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
-      <c r="A100" s="2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>45716</v>
       </c>
       <c r="B100">
-        <v>3151.187392121223</v>
+        <v>3151.1873921212232</v>
       </c>
       <c r="C100">
-        <v>2516.466620872057</v>
+        <v>2516.4666208720569</v>
       </c>
       <c r="D100">
-        <v>2304.556099503226</v>
+        <v>2304.5560995032261</v>
       </c>
       <c r="E100">
-        <v>2637.884230810552</v>
+        <v>2637.8842308105509</v>
       </c>
       <c r="F100">
-        <v>2848.107002465759</v>
+        <v>2848.1070024657602</v>
       </c>
       <c r="G100">
-        <v>2949.737295220672</v>
+        <v>2949.7372952206711</v>
       </c>
       <c r="H100">
-        <v>2715.675900531842</v>
+        <v>2715.6759005318422</v>
       </c>
       <c r="I100">
         <v>2632.555513785765</v>
       </c>
       <c r="J100">
-        <v>4126.07290650659</v>
+        <v>4126.072906506588</v>
       </c>
       <c r="K100">
-        <v>4329.31204758057</v>
+        <v>4329.3120475805708</v>
       </c>
       <c r="L100">
-        <v>4764.26757638461</v>
+        <v>4764.2675763846091</v>
       </c>
       <c r="M100">
-        <v>5029.818490934956</v>
+        <v>5029.8184909349511</v>
       </c>
       <c r="N100">
-        <v>3586.639783726484</v>
+        <v>3586.6397837264858</v>
       </c>
       <c r="O100">
-        <v>4136.416134235615</v>
+        <v>4136.4161342356147</v>
       </c>
       <c r="P100">
-        <v>3319.428025816095</v>
+        <v>3319.4280258160952</v>
       </c>
       <c r="Q100">
         <v>1954.275284359599</v>
       </c>
       <c r="R100">
-        <v>1537.062159494921</v>
+        <v>1537.0621594949221</v>
       </c>
       <c r="S100">
-        <v>713.8401397052595</v>
+        <v>713.84013970525928</v>
       </c>
       <c r="T100">
-        <v>1672.147564005309</v>
+        <v>1672.1475640053091</v>
       </c>
       <c r="U100">
-        <v>2136.854498347982</v>
+        <v>2136.8544983479819</v>
       </c>
       <c r="V100">
-        <v>5262.651728359831</v>
+        <v>5262.6517283598323</v>
       </c>
       <c r="W100">
-        <v>3346.603960959674</v>
+        <v>3346.6039609596742</v>
       </c>
       <c r="X100">
-        <v>4597.814469172078</v>
+        <v>4597.8144691720781</v>
       </c>
       <c r="Y100">
-        <v>5858.333937486351</v>
+        <v>5858.3339374863508</v>
       </c>
       <c r="Z100">
-        <v>3746.685669017668</v>
+        <v>3746.6856690176678</v>
       </c>
       <c r="AA100">
-        <v>628.7266307040053</v>
+        <v>628.72663070400529</v>
       </c>
       <c r="AB100">
-        <v>3173.496660687286</v>
+        <v>3173.4966606872858</v>
       </c>
       <c r="AC100">
-        <v>2912.356633737628</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29">
-      <c r="A101" s="2">
+        <v>2912.3566337376278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>45747</v>
       </c>
       <c r="B101">
-        <v>3227.767217982266</v>
+        <v>3227.7672179822662</v>
       </c>
       <c r="C101">
-        <v>2582.543495336936</v>
+        <v>2582.5434953369358</v>
       </c>
       <c r="D101">
-        <v>2370.866132015968</v>
+        <v>2370.866132015969</v>
       </c>
       <c r="E101">
-        <v>2697.644633617768</v>
+        <v>2697.6446336177669</v>
       </c>
       <c r="F101">
-        <v>2938.75792366228</v>
+        <v>2938.757923662281</v>
       </c>
       <c r="G101">
-        <v>3058.650907219526</v>
+        <v>3058.6509072195258</v>
       </c>
       <c r="H101">
-        <v>2818.625677218511</v>
+        <v>2818.6256772185129</v>
       </c>
       <c r="I101">
-        <v>2634.376692601853</v>
+        <v>2634.3766926018529</v>
       </c>
       <c r="J101">
-        <v>4337.204459615402</v>
+        <v>4337.2044596154019</v>
       </c>
       <c r="K101">
-        <v>5028.459065275795</v>
+        <v>5028.459065275797</v>
       </c>
       <c r="L101">
-        <v>5262.325223712405</v>
+        <v>5262.3252237124098</v>
       </c>
       <c r="M101">
-        <v>5279.988495970189</v>
+        <v>5279.9884959701949</v>
       </c>
       <c r="N101">
-        <v>3651.87326588421</v>
+        <v>3651.8732658842118</v>
       </c>
       <c r="O101">
-        <v>4185.591242555255</v>
+        <v>4185.5912425552551</v>
       </c>
       <c r="P101">
-        <v>3384.580461223317</v>
+        <v>3384.5804612233169</v>
       </c>
       <c r="Q101">
-        <v>2032.480708164402</v>
+        <v>2032.4807081644019</v>
       </c>
       <c r="R101">
         <v>1586.919559661284</v>
@@ -9423,28 +9442,28 @@
         <v>760.8881762709492</v>
       </c>
       <c r="T101">
-        <v>1691.984538416728</v>
+        <v>1691.984538416729</v>
       </c>
       <c r="U101">
-        <v>2219.623581870439</v>
+        <v>2219.6235818704399</v>
       </c>
       <c r="V101">
-        <v>5754.438956936619</v>
+        <v>5754.4389569366194</v>
       </c>
       <c r="W101">
-        <v>3427.995751351508</v>
+        <v>3427.9957513515078</v>
       </c>
       <c r="X101">
-        <v>4766.144979163795</v>
+        <v>4766.1449791637979</v>
       </c>
       <c r="Y101">
-        <v>5921.227319210258</v>
+        <v>5921.2273192102584</v>
       </c>
       <c r="Z101">
-        <v>3797.576993792355</v>
+        <v>3797.5769937923551</v>
       </c>
       <c r="AA101">
-        <v>614.3678601136993</v>
+        <v>614.36786011369929</v>
       </c>
       <c r="AB101">
         <v>3355.41443654864</v>
@@ -9453,81 +9472,81 @@
         <v>3012.824282790883</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
-      <c r="A102" s="2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>45777</v>
       </c>
       <c r="B102">
-        <v>3314.765582636379</v>
+        <v>3314.7655826363789</v>
       </c>
       <c r="C102">
-        <v>2639.989972663612</v>
+        <v>2639.9899726636122</v>
       </c>
       <c r="D102">
-        <v>2425.725321168214</v>
+        <v>2425.725321168215</v>
       </c>
       <c r="E102">
-        <v>2765.09454289799</v>
+        <v>2765.094542897989</v>
       </c>
       <c r="F102">
-        <v>3008.969115538343</v>
+        <v>3008.9691155383439</v>
       </c>
       <c r="G102">
-        <v>3118.972219727732</v>
+        <v>3118.9722197277329</v>
       </c>
       <c r="H102">
-        <v>2878.783887433136</v>
+        <v>2878.7838874331378</v>
       </c>
       <c r="I102">
         <v>2745.68207085938</v>
       </c>
       <c r="J102">
-        <v>4414.817173974145</v>
+        <v>4414.8171739741447</v>
       </c>
       <c r="K102">
-        <v>4945.955486221736</v>
+        <v>4945.9554862217374</v>
       </c>
       <c r="L102">
-        <v>5345.114956670772</v>
+        <v>5345.1149566707754</v>
       </c>
       <c r="M102">
-        <v>5543.737051051042</v>
+        <v>5543.7370510510445</v>
       </c>
       <c r="N102">
-        <v>3722.515526765294</v>
+        <v>3722.5155267652958</v>
       </c>
       <c r="O102">
-        <v>4299.760711725801</v>
+        <v>4299.7607117258003</v>
       </c>
       <c r="P102">
         <v>3443.962762988338</v>
       </c>
       <c r="Q102">
-        <v>2067.51824699478</v>
+        <v>2067.5182469947799</v>
       </c>
       <c r="R102">
-        <v>1615.401279600048</v>
+        <v>1615.4012796000491</v>
       </c>
       <c r="S102">
-        <v>769.4562079772163</v>
+        <v>769.45620797721631</v>
       </c>
       <c r="T102">
-        <v>1735.684024249802</v>
+        <v>1735.6840242498031</v>
       </c>
       <c r="U102">
-        <v>2241.295268840617</v>
+        <v>2241.2952688406181</v>
       </c>
       <c r="V102">
-        <v>5826.487262430051</v>
+        <v>5826.4872624300506</v>
       </c>
       <c r="W102">
-        <v>3529.116546828525</v>
+        <v>3529.1165468285249</v>
       </c>
       <c r="X102">
-        <v>4971.296504970166</v>
+        <v>4971.2965049701697</v>
       </c>
       <c r="Y102">
-        <v>6169.987070511414</v>
+        <v>6169.9870705114135</v>
       </c>
       <c r="Z102">
         <v>4001.18625532547</v>
@@ -9536,27 +9555,27 @@
         <v>592.6149036198583</v>
       </c>
       <c r="AB102">
-        <v>3392.173972126695</v>
+        <v>3392.173972126694</v>
       </c>
       <c r="AC102">
-        <v>3083.236857099018</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29">
-      <c r="A103" s="2">
+        <v>3083.2368570990179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>45808</v>
       </c>
       <c r="B103">
-        <v>3379.209807505529</v>
+        <v>3379.2098075055301</v>
       </c>
       <c r="C103">
-        <v>2690.37017644633</v>
+        <v>2690.3701764463299</v>
       </c>
       <c r="D103">
-        <v>2479.33259799564</v>
+        <v>2479.3325979956412</v>
       </c>
       <c r="E103">
-        <v>2818.574595254606</v>
+        <v>2818.5745952546058</v>
       </c>
       <c r="F103">
         <v>3051.778589727372</v>
@@ -9565,159 +9584,159 @@
         <v>3155.032708580185</v>
       </c>
       <c r="H103">
-        <v>2905.273696387235</v>
+        <v>2905.2736963872348</v>
       </c>
       <c r="I103">
-        <v>2803.124000451446</v>
+        <v>2803.1240004514461</v>
       </c>
       <c r="J103">
-        <v>4397.554169880814</v>
+        <v>4397.5541698808156</v>
       </c>
       <c r="K103">
-        <v>4671.464823185524</v>
+        <v>4671.4648231855244</v>
       </c>
       <c r="L103">
-        <v>5218.74189358016</v>
+        <v>5218.7418935801616</v>
       </c>
       <c r="M103">
-        <v>5588.810871802019</v>
+        <v>5588.8108718020267</v>
       </c>
       <c r="N103">
-        <v>3757.029070289743</v>
+        <v>3757.0290702897451</v>
       </c>
       <c r="O103">
-        <v>4307.026362303226</v>
+        <v>4307.0263623032297</v>
       </c>
       <c r="P103">
-        <v>3481.872503759793</v>
+        <v>3481.8725037597942</v>
       </c>
       <c r="Q103">
         <v>2100.41219977738</v>
       </c>
       <c r="R103">
-        <v>1643.310961956585</v>
+        <v>1643.3109619565851</v>
       </c>
       <c r="S103">
-        <v>769.2596883227407</v>
+        <v>769.25968832274032</v>
       </c>
       <c r="T103">
-        <v>1781.142264599749</v>
+        <v>1781.1422645997491</v>
       </c>
       <c r="U103">
-        <v>2282.492962226748</v>
+        <v>2282.4929622267482</v>
       </c>
       <c r="V103">
-        <v>5865.88212700147</v>
+        <v>5865.8821270014696</v>
       </c>
       <c r="W103">
-        <v>3627.723486109271</v>
+        <v>3627.723486109272</v>
       </c>
       <c r="X103">
-        <v>5150.249228105376</v>
+        <v>5150.2492281053801</v>
       </c>
       <c r="Y103">
-        <v>6458.229109671272</v>
+        <v>6458.2291096712725</v>
       </c>
       <c r="Z103">
         <v>4026.406165873711</v>
       </c>
       <c r="AA103">
-        <v>592.6475208624028</v>
+        <v>592.64752086240276</v>
       </c>
       <c r="AB103">
-        <v>3394.383887667379</v>
+        <v>3394.3838876673781</v>
       </c>
       <c r="AC103">
         <v>3126.060440192522</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
-      <c r="A104" s="2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>45838</v>
       </c>
       <c r="B104">
-        <v>3437.989016310701</v>
+        <v>3438.4764810481461</v>
       </c>
       <c r="C104">
-        <v>2734.583968298935</v>
+        <v>2734.691202788003</v>
       </c>
       <c r="D104">
-        <v>2527.806256969751</v>
+        <v>2527.9496420013088</v>
       </c>
       <c r="E104">
-        <v>2866.204889444599</v>
+        <v>2866.8548101846181</v>
       </c>
       <c r="F104">
-        <v>3092.585255485939</v>
+        <v>3092.858880414919</v>
       </c>
       <c r="G104">
-        <v>3197.487724179627</v>
+        <v>3197.9077396531961</v>
       </c>
       <c r="H104">
-        <v>2920.640980632263</v>
+        <v>2921.037532666679</v>
       </c>
       <c r="I104">
-        <v>2858.46451174298</v>
+        <v>2862.38255369546</v>
       </c>
       <c r="J104">
-        <v>4390.064448886326</v>
+        <v>4388.249643216097</v>
       </c>
       <c r="K104">
-        <v>4444.990528618026</v>
+        <v>4440.3542829607377</v>
       </c>
       <c r="L104">
-        <v>5146.303619174299</v>
+        <v>5140.9862345146148</v>
       </c>
       <c r="M104">
-        <v>5692.422489482482</v>
+        <v>5686.1049065668121</v>
       </c>
       <c r="N104">
-        <v>3780.206641858626</v>
+        <v>3780.1173355519209</v>
       </c>
       <c r="O104">
-        <v>4391.306942171007</v>
+        <v>4395.5811442325894</v>
       </c>
       <c r="P104">
-        <v>3492.779545673043</v>
+        <v>3491.8831487020452</v>
       </c>
       <c r="Q104">
-        <v>2112.923021714016</v>
+        <v>2113.2234707296689</v>
       </c>
       <c r="R104">
-        <v>1653.935076303962</v>
+        <v>1654.1827193583511</v>
       </c>
       <c r="S104">
-        <v>772.5993951829727</v>
+        <v>773.00219036539283</v>
       </c>
       <c r="T104">
-        <v>1796.206285973673</v>
+        <v>1796.260163917864</v>
       </c>
       <c r="U104">
-        <v>2293.279609524549</v>
+        <v>2293.2806199275528</v>
       </c>
       <c r="V104">
-        <v>5880.650227877771</v>
+        <v>5881.1838179663891</v>
       </c>
       <c r="W104">
-        <v>3755.60165675299</v>
+        <v>3755.365259208128</v>
       </c>
       <c r="X104">
-        <v>5378.663784926123</v>
+        <v>5386.6479522650179</v>
       </c>
       <c r="Y104">
-        <v>6700.332865281734</v>
+        <v>6696.0806694342446</v>
       </c>
       <c r="Z104">
-        <v>4516.04463199542</v>
+        <v>4499.6993185398351</v>
       </c>
       <c r="AA104">
-        <v>592.8122030418533</v>
+        <v>592.87395885914702</v>
       </c>
       <c r="AB104">
-        <v>3414.205487492188</v>
+        <v>3411.9195810527058</v>
       </c>
       <c r="AC104">
-        <v>3166.334145768136</v>
+        <v>3166.6725208587691</v>
       </c>
     </row>
   </sheetData>
